--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528F4B9-004E-4FC3-A764-9B2A49130AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133B17C4-A23B-44C6-B412-08C662DBDA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6915" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7034" uniqueCount="761">
   <si>
     <t>S.No</t>
   </si>
@@ -1861,12 +1861,6 @@
     <t>Banner Title</t>
   </si>
   <si>
-    <t>Home Page Test</t>
-  </si>
-  <si>
-    <t>Test demo</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_ADM_05</t>
   </si>
   <si>
@@ -2270,6 +2264,51 @@
   </si>
   <si>
     <t>Beige ABCD kurta 10</t>
+  </si>
+  <si>
+    <t>Admin Panel  Coupon Page</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADC_01</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADC_01</t>
+  </si>
+  <si>
+    <t>Verify Admin can create a new coupon and it appears in Admin and User App.</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/coupon</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADC_02</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADC_02</t>
+  </si>
+  <si>
+    <t>Verify Admin can create a special coupon and it appears in Admin and User App.</t>
+  </si>
+  <si>
+    <t>Home Page  Banner Automation</t>
+  </si>
+  <si>
+    <t>Test Automation</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_01</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/order</t>
+  </si>
+  <si>
+    <t>Admin Panel  Export Page</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_01</t>
+  </si>
+  <si>
+    <t>Verify exported products have dates within selected range.</t>
   </si>
 </sst>
 </file>
@@ -2897,31 +2936,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2944,6 +2965,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3747,9 +3786,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z209"/>
+  <dimension ref="A1:Z214"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" zoomScale="109" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="109" workbookViewId="0">
       <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
@@ -4503,18 +4542,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="85"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="93"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -4901,18 +4940,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="88"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="96"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5181,7 +5220,7 @@
         <v>197</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E46" s="47" t="s">
         <v>14</v>
@@ -5338,10 +5377,10 @@
         <v>10</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D51" s="80" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E51" s="48" t="s">
         <v>14</v>
@@ -5370,10 +5409,10 @@
         <v>10</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E52" s="48" t="s">
         <v>14</v>
@@ -5402,10 +5441,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E53" s="48" t="s">
         <v>14</v>
@@ -5434,16 +5473,16 @@
         <v>10</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E54" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G54" s="48" t="s">
         <v>11</v>
@@ -5459,18 +5498,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="86" t="s">
+      <c r="A55" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="87"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="88"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="96"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -5793,18 +5832,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="86" t="s">
+      <c r="A66" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="88"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="96"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6159,18 +6198,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="86" t="s">
+      <c r="A78" s="94" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
-      <c r="J78" s="88"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="96"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7037,18 +7076,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="81" t="s">
+      <c r="A106" s="82" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="81"/>
-      <c r="C106" s="81"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="81"/>
-      <c r="I106" s="81"/>
-      <c r="J106" s="81"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="82"/>
+      <c r="H106" s="82"/>
+      <c r="I106" s="82"/>
+      <c r="J106" s="82"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -7317,7 +7356,7 @@
         <v>370</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E115" s="48" t="s">
         <v>14</v>
@@ -7378,16 +7417,16 @@
         <v>10</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D117" s="48" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E117" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="48" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G117" s="48" t="s">
         <v>11</v>
@@ -7410,16 +7449,16 @@
         <v>10</v>
       </c>
       <c r="C118" s="48" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D118" s="48" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E118" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="48" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G118" s="48" t="s">
         <v>11</v>
@@ -7456,16 +7495,16 @@
         <v>10</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D119" s="48" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E119" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="48" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G119" s="48" t="s">
         <v>11</v>
@@ -7502,16 +7541,16 @@
         <v>10</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D120" s="48" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E120" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="48" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G120" s="48" t="s">
         <v>11</v>
@@ -7541,18 +7580,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="82" t="s">
+      <c r="A121" s="83" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="82"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="82"/>
-      <c r="G121" s="82"/>
-      <c r="H121" s="82"/>
-      <c r="I121" s="82"/>
-      <c r="J121" s="82"/>
+      <c r="B121" s="83"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
+      <c r="G121" s="83"/>
+      <c r="H121" s="83"/>
+      <c r="I121" s="83"/>
+      <c r="J121" s="83"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -7615,18 +7654,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="82" t="s">
+      <c r="A123" s="83" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="82"/>
-      <c r="G123" s="82"/>
-      <c r="H123" s="82"/>
-      <c r="I123" s="82"/>
-      <c r="J123" s="82"/>
+      <c r="B123" s="83"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="83"/>
+      <c r="I123" s="83"/>
+      <c r="J123" s="83"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -7689,18 +7728,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="82" t="s">
+      <c r="A125" s="83" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="82"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="82"/>
-      <c r="H125" s="82"/>
-      <c r="I125" s="82"/>
-      <c r="J125" s="82"/>
+      <c r="B125" s="83"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="83"/>
+      <c r="E125" s="83"/>
+      <c r="F125" s="83"/>
+      <c r="G125" s="83"/>
+      <c r="H125" s="83"/>
+      <c r="I125" s="83"/>
+      <c r="J125" s="83"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8025,18 +8064,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="82" t="s">
+      <c r="A133" s="83" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="82"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="96"/>
-      <c r="E133" s="96"/>
-      <c r="F133" s="96"/>
-      <c r="G133" s="96"/>
-      <c r="H133" s="96"/>
-      <c r="I133" s="96"/>
-      <c r="J133" s="96"/>
+      <c r="B133" s="83"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="90"/>
+      <c r="E133" s="90"/>
+      <c r="F133" s="90"/>
+      <c r="G133" s="90"/>
+      <c r="H133" s="90"/>
+      <c r="I133" s="90"/>
+      <c r="J133" s="90"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8449,7 +8488,7 @@
         <v>437</v>
       </c>
       <c r="D143" s="27" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E143" s="27" t="s">
         <v>14</v>
@@ -8492,16 +8531,16 @@
         <v>10</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E144" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G144" s="27" t="s">
         <v>11</v>
@@ -8531,18 +8570,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="93" t="s">
+      <c r="A145" s="87" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="94"/>
-      <c r="C145" s="94"/>
-      <c r="D145" s="94"/>
-      <c r="E145" s="94"/>
-      <c r="F145" s="94"/>
-      <c r="G145" s="94"/>
-      <c r="H145" s="94"/>
-      <c r="I145" s="94"/>
-      <c r="J145" s="95"/>
+      <c r="B145" s="88"/>
+      <c r="C145" s="88"/>
+      <c r="D145" s="88"/>
+      <c r="E145" s="88"/>
+      <c r="F145" s="88"/>
+      <c r="G145" s="88"/>
+      <c r="H145" s="88"/>
+      <c r="I145" s="88"/>
+      <c r="J145" s="89"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -8989,18 +9028,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="82" t="s">
+      <c r="A156" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="82"/>
-      <c r="C156" s="82"/>
-      <c r="D156" s="82"/>
-      <c r="E156" s="82"/>
-      <c r="F156" s="82"/>
-      <c r="G156" s="82"/>
-      <c r="H156" s="82"/>
-      <c r="I156" s="82"/>
-      <c r="J156" s="82"/>
+      <c r="B156" s="83"/>
+      <c r="C156" s="83"/>
+      <c r="D156" s="83"/>
+      <c r="E156" s="83"/>
+      <c r="F156" s="83"/>
+      <c r="G156" s="83"/>
+      <c r="H156" s="83"/>
+      <c r="I156" s="83"/>
+      <c r="J156" s="83"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9067,18 +9106,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="82" t="s">
+      <c r="A158" s="83" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="82"/>
-      <c r="C158" s="82"/>
-      <c r="D158" s="82"/>
-      <c r="E158" s="82"/>
-      <c r="F158" s="82"/>
-      <c r="G158" s="82"/>
-      <c r="H158" s="82"/>
-      <c r="I158" s="82"/>
-      <c r="J158" s="82"/>
+      <c r="B158" s="83"/>
+      <c r="C158" s="83"/>
+      <c r="D158" s="83"/>
+      <c r="E158" s="83"/>
+      <c r="F158" s="83"/>
+      <c r="G158" s="83"/>
+      <c r="H158" s="83"/>
+      <c r="I158" s="83"/>
+      <c r="J158" s="83"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -9817,18 +9856,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="82" t="s">
-        <v>726</v>
-      </c>
-      <c r="B177" s="82"/>
-      <c r="C177" s="82"/>
-      <c r="D177" s="89"/>
-      <c r="E177" s="82"/>
-      <c r="F177" s="82"/>
-      <c r="G177" s="82"/>
-      <c r="H177" s="82"/>
-      <c r="I177" s="82"/>
-      <c r="J177" s="82"/>
+      <c r="A177" s="83" t="s">
+        <v>724</v>
+      </c>
+      <c r="B177" s="83"/>
+      <c r="C177" s="83"/>
+      <c r="D177" s="81"/>
+      <c r="E177" s="83"/>
+      <c r="F177" s="83"/>
+      <c r="G177" s="83"/>
+      <c r="H177" s="83"/>
+      <c r="I177" s="83"/>
+      <c r="J177" s="83"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -9838,10 +9877,10 @@
         <v>10</v>
       </c>
       <c r="C178" s="74" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D178" s="77" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E178" s="75" t="s">
         <v>14</v>
@@ -9870,10 +9909,10 @@
         <v>10</v>
       </c>
       <c r="C179" s="74" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D179" s="77" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E179" s="75" t="s">
         <v>14</v>
@@ -9902,10 +9941,10 @@
         <v>10</v>
       </c>
       <c r="C180" s="74" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D180" s="77" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E180" s="75" t="s">
         <v>14</v>
@@ -9934,10 +9973,10 @@
         <v>10</v>
       </c>
       <c r="C181" s="74" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D181" s="64" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E181" s="75" t="s">
         <v>14</v>
@@ -9966,16 +10005,16 @@
         <v>10</v>
       </c>
       <c r="C182" s="74" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D182" s="64" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E182" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F182" s="70" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G182" s="69" t="s">
         <v>11</v>
@@ -9998,16 +10037,16 @@
         <v>10</v>
       </c>
       <c r="C183" s="74" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D183" s="77" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E183" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F183" s="70" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G183" s="69" t="s">
         <v>11</v>
@@ -10030,16 +10069,16 @@
         <v>10</v>
       </c>
       <c r="C184" s="74" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D184" s="64" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E184" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F184" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G184" s="69" t="s">
         <v>11</v>
@@ -10062,16 +10101,16 @@
         <v>10</v>
       </c>
       <c r="C185" s="74" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D185" s="78" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E185" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F185" s="70" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G185" s="69" t="s">
         <v>11</v>
@@ -10094,16 +10133,16 @@
         <v>10</v>
       </c>
       <c r="C186" s="74" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D186" s="64" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E186" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F186" s="70" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G186" s="69" t="s">
         <v>11</v>
@@ -10119,18 +10158,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="90" t="s">
-        <v>624</v>
-      </c>
-      <c r="B187" s="91"/>
-      <c r="C187" s="91"/>
-      <c r="D187" s="91"/>
-      <c r="E187" s="91"/>
-      <c r="F187" s="91"/>
-      <c r="G187" s="91"/>
-      <c r="H187" s="91"/>
-      <c r="I187" s="91"/>
-      <c r="J187" s="92"/>
+      <c r="A187" s="84" t="s">
+        <v>622</v>
+      </c>
+      <c r="B187" s="85"/>
+      <c r="C187" s="85"/>
+      <c r="D187" s="85"/>
+      <c r="E187" s="85"/>
+      <c r="F187" s="85"/>
+      <c r="G187" s="85"/>
+      <c r="H187" s="85"/>
+      <c r="I187" s="85"/>
+      <c r="J187" s="86"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10140,16 +10179,16 @@
         <v>10</v>
       </c>
       <c r="C188" s="74" t="s">
+        <v>623</v>
+      </c>
+      <c r="D188" s="77" t="s">
         <v>625</v>
-      </c>
-      <c r="D188" s="77" t="s">
-        <v>627</v>
       </c>
       <c r="E188" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F188" s="70" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G188" s="69" t="s">
         <v>11</v>
@@ -10172,16 +10211,16 @@
         <v>10</v>
       </c>
       <c r="C189" s="74" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D189" s="77" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E189" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F189" s="70" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G189" s="69" t="s">
         <v>11</v>
@@ -10204,16 +10243,16 @@
         <v>10</v>
       </c>
       <c r="C190" s="74" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D190" s="78" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E190" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="70" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G190" s="69" t="s">
         <v>11</v>
@@ -10236,16 +10275,16 @@
         <v>10</v>
       </c>
       <c r="C191" s="74" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D191" s="78" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E191" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F191" s="70" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G191" s="69" t="s">
         <v>11</v>
@@ -10268,16 +10307,16 @@
         <v>10</v>
       </c>
       <c r="C192" s="74" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D192" s="78" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E192" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F192" s="70" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G192" s="69" t="s">
         <v>11</v>
@@ -10293,18 +10332,18 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="89" t="s">
-        <v>645</v>
-      </c>
-      <c r="B193" s="89"/>
-      <c r="C193" s="89"/>
-      <c r="D193" s="89"/>
-      <c r="E193" s="89"/>
-      <c r="F193" s="89"/>
-      <c r="G193" s="89"/>
-      <c r="H193" s="89"/>
-      <c r="I193" s="89"/>
-      <c r="J193" s="89"/>
+      <c r="A193" s="81" t="s">
+        <v>643</v>
+      </c>
+      <c r="B193" s="81"/>
+      <c r="C193" s="81"/>
+      <c r="D193" s="81"/>
+      <c r="E193" s="81"/>
+      <c r="F193" s="81"/>
+      <c r="G193" s="81"/>
+      <c r="H193" s="81"/>
+      <c r="I193" s="81"/>
+      <c r="J193" s="81"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
@@ -10314,16 +10353,16 @@
         <v>10</v>
       </c>
       <c r="C194" s="79" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D194" s="64" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E194" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F194" s="79" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G194" s="48" t="s">
         <v>11</v>
@@ -10346,16 +10385,16 @@
         <v>10</v>
       </c>
       <c r="C195" s="79" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D195" s="78" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E195" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F195" s="79" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G195" s="48" t="s">
         <v>11</v>
@@ -10378,16 +10417,16 @@
         <v>10</v>
       </c>
       <c r="C196" s="79" t="s">
+        <v>650</v>
+      </c>
+      <c r="D196" s="78" t="s">
         <v>652</v>
-      </c>
-      <c r="D196" s="78" t="s">
-        <v>654</v>
       </c>
       <c r="E196" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F196" s="79" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G196" s="48" t="s">
         <v>11</v>
@@ -10410,16 +10449,16 @@
         <v>10</v>
       </c>
       <c r="C197" s="79" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D197" s="78" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E197" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F197" s="79" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G197" s="48" t="s">
         <v>11</v>
@@ -10435,18 +10474,18 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="89" t="s">
-        <v>658</v>
-      </c>
-      <c r="B198" s="89"/>
-      <c r="C198" s="89"/>
-      <c r="D198" s="89"/>
-      <c r="E198" s="89"/>
-      <c r="F198" s="89"/>
-      <c r="G198" s="89"/>
-      <c r="H198" s="89"/>
-      <c r="I198" s="89"/>
-      <c r="J198" s="89"/>
+      <c r="A198" s="81" t="s">
+        <v>656</v>
+      </c>
+      <c r="B198" s="81"/>
+      <c r="C198" s="81"/>
+      <c r="D198" s="81"/>
+      <c r="E198" s="81"/>
+      <c r="F198" s="81"/>
+      <c r="G198" s="81"/>
+      <c r="H198" s="81"/>
+      <c r="I198" s="81"/>
+      <c r="J198" s="81"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
@@ -10456,16 +10495,16 @@
         <v>10</v>
       </c>
       <c r="C199" s="79" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D199" s="78" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E199" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F199" s="79" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G199" s="48" t="s">
         <v>11</v>
@@ -10481,18 +10520,18 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="89" t="s">
-        <v>664</v>
-      </c>
-      <c r="B200" s="89"/>
-      <c r="C200" s="89"/>
-      <c r="D200" s="89"/>
-      <c r="E200" s="89"/>
-      <c r="F200" s="89"/>
-      <c r="G200" s="89"/>
-      <c r="H200" s="89"/>
-      <c r="I200" s="89"/>
-      <c r="J200" s="89"/>
+      <c r="A200" s="81" t="s">
+        <v>662</v>
+      </c>
+      <c r="B200" s="81"/>
+      <c r="C200" s="81"/>
+      <c r="D200" s="81"/>
+      <c r="E200" s="81"/>
+      <c r="F200" s="81"/>
+      <c r="G200" s="81"/>
+      <c r="H200" s="81"/>
+      <c r="I200" s="81"/>
+      <c r="J200" s="81"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
@@ -10502,16 +10541,16 @@
         <v>10</v>
       </c>
       <c r="C201" s="79" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D201" s="78" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E201" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F201" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G201" s="48" t="s">
         <v>11</v>
@@ -10534,16 +10573,16 @@
         <v>10</v>
       </c>
       <c r="C202" s="79" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D202" s="78" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E202" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F202" s="79" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G202" s="48" t="s">
         <v>11</v>
@@ -10566,16 +10605,16 @@
         <v>10</v>
       </c>
       <c r="C203" s="79" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D203" s="78" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E203" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F203" s="79" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G203" s="48" t="s">
         <v>11</v>
@@ -10598,16 +10637,16 @@
         <v>10</v>
       </c>
       <c r="C204" s="79" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D204" s="78" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E204" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F204" s="79" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G204" s="48" t="s">
         <v>11</v>
@@ -10630,16 +10669,16 @@
         <v>10</v>
       </c>
       <c r="C205" s="79" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D205" s="78" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E205" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F205" s="79" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G205" s="48" t="s">
         <v>11</v>
@@ -10662,16 +10701,16 @@
         <v>10</v>
       </c>
       <c r="C206" s="79" t="s">
+        <v>678</v>
+      </c>
+      <c r="D206" s="78" t="s">
         <v>680</v>
-      </c>
-      <c r="D206" s="78" t="s">
-        <v>682</v>
       </c>
       <c r="E206" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F206" s="79" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G206" s="48" t="s">
         <v>11</v>
@@ -10694,16 +10733,16 @@
         <v>10</v>
       </c>
       <c r="C207" s="79" t="s">
+        <v>679</v>
+      </c>
+      <c r="D207" s="78" t="s">
         <v>681</v>
-      </c>
-      <c r="D207" s="78" t="s">
-        <v>683</v>
       </c>
       <c r="E207" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F207" s="79" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G207" s="48" t="s">
         <v>11</v>
@@ -10719,18 +10758,18 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="89" t="s">
-        <v>744</v>
-      </c>
-      <c r="B208" s="89"/>
-      <c r="C208" s="89"/>
-      <c r="D208" s="89"/>
-      <c r="E208" s="89"/>
-      <c r="F208" s="89"/>
-      <c r="G208" s="89"/>
-      <c r="H208" s="89"/>
-      <c r="I208" s="89"/>
-      <c r="J208" s="89"/>
+      <c r="A208" s="81" t="s">
+        <v>742</v>
+      </c>
+      <c r="B208" s="81"/>
+      <c r="C208" s="81"/>
+      <c r="D208" s="81"/>
+      <c r="E208" s="81"/>
+      <c r="F208" s="81"/>
+      <c r="G208" s="81"/>
+      <c r="H208" s="81"/>
+      <c r="I208" s="81"/>
+      <c r="J208" s="81"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
@@ -10740,16 +10779,16 @@
         <v>10</v>
       </c>
       <c r="C209" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D209" s="78" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E209" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F209" s="79" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G209" s="48" t="s">
         <v>11</v>
@@ -10764,10 +10803,144 @@
         <v>13</v>
       </c>
     </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" s="81" t="s">
+        <v>746</v>
+      </c>
+      <c r="B210" s="81"/>
+      <c r="C210" s="81"/>
+      <c r="D210" s="81"/>
+      <c r="E210" s="81"/>
+      <c r="F210" s="81"/>
+      <c r="G210" s="81"/>
+      <c r="H210" s="81"/>
+      <c r="I210" s="81"/>
+      <c r="J210" s="81"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" s="48">
+        <v>1</v>
+      </c>
+      <c r="B211" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="79" t="s">
+        <v>747</v>
+      </c>
+      <c r="D211" s="78" t="s">
+        <v>749</v>
+      </c>
+      <c r="E211" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" s="79" t="s">
+        <v>748</v>
+      </c>
+      <c r="G211" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I211" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J211" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" s="48">
+        <v>2</v>
+      </c>
+      <c r="B212" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="79" t="s">
+        <v>752</v>
+      </c>
+      <c r="D212" s="78" t="s">
+        <v>753</v>
+      </c>
+      <c r="E212" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" s="79" t="s">
+        <v>751</v>
+      </c>
+      <c r="G212" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I212" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J212" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" s="81" t="s">
+        <v>758</v>
+      </c>
+      <c r="B213" s="81"/>
+      <c r="C213" s="81"/>
+      <c r="D213" s="81"/>
+      <c r="E213" s="81"/>
+      <c r="F213" s="81"/>
+      <c r="G213" s="81"/>
+      <c r="H213" s="81"/>
+      <c r="I213" s="81"/>
+      <c r="J213" s="81"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="48">
+        <v>1</v>
+      </c>
+      <c r="B214" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="79" t="s">
+        <v>759</v>
+      </c>
+      <c r="D214" s="78" t="s">
+        <v>760</v>
+      </c>
+      <c r="E214" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" s="79" t="s">
+        <v>756</v>
+      </c>
+      <c r="G214" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H214" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I214" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J214" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A210:J210"/>
     <mergeCell ref="A208:J208"/>
     <mergeCell ref="A200:J200"/>
+    <mergeCell ref="A213:J213"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="A121:J121"/>
+    <mergeCell ref="A123:J123"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A198:J198"/>
     <mergeCell ref="A193:J193"/>
@@ -10777,14 +10950,6 @@
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
     <mergeCell ref="A133:J133"/>
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="A121:J121"/>
-    <mergeCell ref="A123:J123"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -10882,10 +11047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AD200"/>
+  <dimension ref="A1:AD203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W170" workbookViewId="0">
-      <selection activeCell="AC179" sqref="AC179"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:XFD203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10980,19 +11145,19 @@
         <v>490</v>
       </c>
       <c r="V1" s="30" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="W1" s="30" t="s">
         <v>346</v>
       </c>
       <c r="X1" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="Z1" s="31" t="s">
         <v>722</v>
-      </c>
-      <c r="Y1" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="Z1" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="AA1" s="31" t="s">
         <v>610</v>
@@ -11004,7 +11169,7 @@
         <v>607</v>
       </c>
       <c r="AD1" s="31" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -15121,7 +15286,7 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B53" s="48" t="s">
         <v>22</v>
@@ -20035,7 +20200,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" s="48" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B112" s="48" t="s">
         <v>22</v>
@@ -20098,7 +20263,7 @@
         <v>22</v>
       </c>
       <c r="V112" s="36" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="W112" s="28" t="s">
         <v>22</v>
@@ -20119,7 +20284,7 @@
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B113" s="48" t="s">
         <v>22</v>
@@ -20203,7 +20368,7 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B114" s="48" t="s">
         <v>22</v>
@@ -20269,13 +20434,13 @@
         <v>22</v>
       </c>
       <c r="W114" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="X114" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y114" s="48" t="s">
         <v>716</v>
-      </c>
-      <c r="X114" s="28" t="s">
-        <v>717</v>
-      </c>
-      <c r="Y114" s="48" t="s">
-        <v>718</v>
       </c>
       <c r="Z114" s="48" t="s">
         <v>22</v>
@@ -20287,7 +20452,7 @@
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B115" s="48" t="s">
         <v>22</v>
@@ -20362,7 +20527,7 @@
         <v>22</v>
       </c>
       <c r="Z115" s="36" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AA115" s="28"/>
       <c r="AB115" s="28"/>
@@ -22051,7 +22216,7 @@
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" s="48" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B136" s="48" t="s">
         <v>22</v>
@@ -23539,7 +23704,7 @@
         <v>22</v>
       </c>
       <c r="U153" s="48" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V153" s="48" t="s">
         <v>22</v>
@@ -25201,7 +25366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="70" t="s">
         <v>601</v>
       </c>
@@ -25281,7 +25446,7 @@
         <v>22</v>
       </c>
       <c r="AA174" s="48" t="s">
-        <v>611</v>
+        <v>754</v>
       </c>
       <c r="AB174" s="36" t="s">
         <v>604</v>
@@ -25379,7 +25544,7 @@
         <v>22</v>
       </c>
       <c r="AC175" s="73" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AD175" s="48" t="s">
         <v>22</v>
@@ -25471,13 +25636,13 @@
         <v>22</v>
       </c>
       <c r="AC176" s="73" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AD176" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="70" t="s">
         <v>609</v>
       </c>
@@ -25557,7 +25722,7 @@
         <v>22</v>
       </c>
       <c r="AA177" s="48" t="s">
-        <v>612</v>
+        <v>755</v>
       </c>
       <c r="AB177" s="36" t="s">
         <v>22</v>
@@ -25571,7 +25736,7 @@
     </row>
     <row r="178" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="70" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B178" s="48" t="s">
         <v>22</v>
@@ -25663,7 +25828,7 @@
     </row>
     <row r="179" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="70" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B179" s="48" t="s">
         <v>22</v>
@@ -25747,7 +25912,7 @@
         <v>22</v>
       </c>
       <c r="AC179" s="73" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AD179" s="48" t="s">
         <v>22</v>
@@ -25755,7 +25920,7 @@
     </row>
     <row r="180" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B180" s="48" t="s">
         <v>22</v>
@@ -25809,7 +25974,7 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="T180" s="48" t="s">
         <v>22</v>
@@ -25847,7 +26012,7 @@
     </row>
     <row r="181" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="70" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B181" s="48" t="s">
         <v>22</v>
@@ -25901,7 +26066,7 @@
         <v>22</v>
       </c>
       <c r="S181" s="49" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="T181" s="48" t="s">
         <v>22</v>
@@ -25939,7 +26104,7 @@
     </row>
     <row r="182" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="70" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B182" s="48" t="s">
         <v>22</v>
@@ -25993,7 +26158,7 @@
         <v>22</v>
       </c>
       <c r="S182" s="49" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="T182" s="48" t="s">
         <v>22</v>
@@ -26031,7 +26196,7 @@
     </row>
     <row r="183" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="70" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B183" s="48" t="s">
         <v>22</v>
@@ -26085,7 +26250,7 @@
         <v>22</v>
       </c>
       <c r="S183" s="49" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="T183" s="48" t="s">
         <v>22</v>
@@ -26118,12 +26283,12 @@
         <v>22</v>
       </c>
       <c r="AD183" s="48" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="184" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="70" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B184" s="48" t="s">
         <v>22</v>
@@ -26177,7 +26342,7 @@
         <v>22</v>
       </c>
       <c r="S184" s="49" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="T184" s="48" t="s">
         <v>22</v>
@@ -26210,12 +26375,12 @@
         <v>22</v>
       </c>
       <c r="AD184" s="48" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="185" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="70" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B185" s="48" t="s">
         <v>22</v>
@@ -26302,12 +26467,12 @@
         <v>22</v>
       </c>
       <c r="AD185" s="48" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="186" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="70" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B186" s="48" t="s">
         <v>22</v>
@@ -26394,12 +26559,12 @@
         <v>22</v>
       </c>
       <c r="AD186" s="78" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="187" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="70" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B187" s="48" t="s">
         <v>22</v>
@@ -26486,12 +26651,12 @@
         <v>22</v>
       </c>
       <c r="AD187" s="78" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="188" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="70" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B188" s="48" t="s">
         <v>22</v>
@@ -26583,7 +26748,7 @@
     </row>
     <row r="189" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="70" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B189" s="48" t="s">
         <v>22</v>
@@ -26675,7 +26840,7 @@
     </row>
     <row r="190" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="70" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B190" s="48" t="s">
         <v>22</v>
@@ -26767,7 +26932,7 @@
     </row>
     <row r="191" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="70" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B191" s="48" t="s">
         <v>22</v>
@@ -26859,7 +27024,7 @@
     </row>
     <row r="192" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="70" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B192" s="48" t="s">
         <v>22</v>
@@ -26943,7 +27108,7 @@
         <v>22</v>
       </c>
       <c r="AC192" s="73" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AD192" s="48" t="s">
         <v>22</v>
@@ -26951,7 +27116,7 @@
     </row>
     <row r="193" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="70" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B193" s="48" t="s">
         <v>22</v>
@@ -27005,7 +27170,7 @@
         <v>22</v>
       </c>
       <c r="S193" s="49" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="T193" s="48" t="s">
         <v>22</v>
@@ -27043,7 +27208,7 @@
     </row>
     <row r="194" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="70" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B194" s="48" t="s">
         <v>22</v>
@@ -27097,7 +27262,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -27135,7 +27300,7 @@
     </row>
     <row r="195" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="70" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B195" s="48" t="s">
         <v>22</v>
@@ -27189,7 +27354,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -27227,7 +27392,7 @@
     </row>
     <row r="196" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="70" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B196" s="48" t="s">
         <v>22</v>
@@ -27319,7 +27484,7 @@
     </row>
     <row r="197" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="70" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B197" s="48" t="s">
         <v>22</v>
@@ -27373,7 +27538,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -27411,7 +27576,7 @@
     </row>
     <row r="198" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="70" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B198" s="48" t="s">
         <v>22</v>
@@ -27465,7 +27630,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -27503,7 +27668,7 @@
     </row>
     <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="70" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B199" s="48" t="s">
         <v>22</v>
@@ -27557,7 +27722,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -27595,7 +27760,7 @@
     </row>
     <row r="200" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="70" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B200" s="48" t="s">
         <v>22</v>
@@ -27682,6 +27847,282 @@
         <v>22</v>
       </c>
       <c r="AD200" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="70" t="s">
+        <v>748</v>
+      </c>
+      <c r="B201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S201" s="49" t="s">
+        <v>750</v>
+      </c>
+      <c r="T201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V201" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W201" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X201" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB201" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC201" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD201" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="70" t="s">
+        <v>751</v>
+      </c>
+      <c r="B202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S202" s="49" t="s">
+        <v>750</v>
+      </c>
+      <c r="T202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V202" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W202" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X202" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB202" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC202" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD202" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="70" t="s">
+        <v>756</v>
+      </c>
+      <c r="B203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S203" s="49" t="s">
+        <v>757</v>
+      </c>
+      <c r="T203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V203" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W203" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X203" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB203" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD203" s="48" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133B17C4-A23B-44C6-B412-08C662DBDA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA7A192-0AF5-4D70-A8B4-15BF0DEE0772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7034" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7467" uniqueCount="807">
   <si>
     <t>S.No</t>
   </si>
@@ -1834,252 +1834,513 @@
     <t>TD_UI_Zlaata_ADM_01</t>
   </si>
   <si>
+    <t>Sort by</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_02</t>
+  </si>
+  <si>
+    <t>ProductListingName</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_03</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_04</t>
+  </si>
+  <si>
+    <t>Banner Title</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_05</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_06</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_07</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_09</t>
+  </si>
+  <si>
+    <t>Verify bulk uploaded Collection appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_09</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_08</t>
+  </si>
+  <si>
+    <t>Verify New Product added match between two exports.</t>
+  </si>
+  <si>
+    <t>Admin Page Product Sorting</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_01</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_01</t>
+  </si>
+  <si>
+    <t>Verify category product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>Shop Name</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_02</t>
+  </si>
+  <si>
+    <t>Black Lehenga</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_02</t>
+  </si>
+  <si>
+    <t>Verify Collection product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_03</t>
+  </si>
+  <si>
+    <t>Verify Styles product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_03</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_04</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_04</t>
+  </si>
+  <si>
+    <t>Verify Micro Page product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>Autotmationtest</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_05</t>
+  </si>
+  <si>
+    <t>Verify All product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_05</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Admin Panel  Export Excel File</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_EEF_01</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_EEF_01</t>
+  </si>
+  <si>
+    <t>Cotton Fabric</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_EEF_02</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_EEF_02</t>
+  </si>
+  <si>
+    <t>Verify Active Products match between two exports.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_EEF_03</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_EEF_04</t>
+  </si>
+  <si>
+    <t>Verify Sold Out Products match between two exports.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_EEF_03</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_EEF_04</t>
+  </si>
+  <si>
+    <t>Verify Inactive Products match between two exports.</t>
+  </si>
+  <si>
+    <t>Admin Panel  Google Merchant</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_AGM_01</t>
+  </si>
+  <si>
+    <t>Verify product SKU can be pushed to Google Merchant and status updates.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_AGM_01</t>
+  </si>
+  <si>
+    <t>Beige testing new</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Panel  Import </t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_01</t>
+  </si>
+  <si>
+    <t>Verify Categories import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_02</t>
+  </si>
+  <si>
+    <t>Verify Collection import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_02</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_03</t>
+  </si>
+  <si>
+    <t>Verify Product Style import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_03</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_04</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_04</t>
+  </si>
+  <si>
+    <t>Verify All Product import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_05</t>
+  </si>
+  <si>
+    <t>Verify Search Keyboard Product import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_05</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_06</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_07</t>
+  </si>
+  <si>
+    <t>Verify Search Keyboard Collection import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>Verify Search Keyboard Style import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_06</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_07</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to click on  See More button on New Arrival Sectioin.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Home_14</t>
+  </si>
+  <si>
+    <t>Verify that the Home Page logo is displayed</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Home_15</t>
+  </si>
+  <si>
+    <t>Verify that the Home Page Thread banner is available</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Home_16</t>
+  </si>
+  <si>
+    <t>Verify that the Category section is available</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Home_17</t>
+  </si>
+  <si>
+    <t>Verify that the Monsoon Banner is available</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_Home_17</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_11</t>
+  </si>
+  <si>
+    <t>Verify Validation Message for Invalid Gift Card Number</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_COP_11</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_12</t>
+  </si>
+  <si>
+    <t>Verify Validation Message in Gift Wrapping Popup when Mandatory Fields Are Not Entered</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_COP_12</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_13</t>
+  </si>
+  <si>
+    <t>Verify Validation Message in Gift Wrapping Popup if the user enters fewer characters in Description or Sender Name</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_COP_13</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_14</t>
+  </si>
+  <si>
+    <t>Verify Gift Card Balance Display when Correct Gift Card is Entered</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_COP_14</t>
+  </si>
+  <si>
+    <t>Verify that while opening address page having phone number</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADDP_11</t>
+  </si>
+  <si>
+    <t>Verify that while opening address page having phone number on checkout Page Address</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADDP_11</t>
+  </si>
+  <si>
+    <t>1548545428249876</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>9815862869673403</t>
+  </si>
+  <si>
+    <t>Black Ikat Cotton Peplum Top</t>
+  </si>
+  <si>
+    <t>gift card</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Recipient</t>
+  </si>
+  <si>
+    <t>Valid Gift card Number</t>
+  </si>
+  <si>
+    <t>Verify Checkout page calculation</t>
+  </si>
+  <si>
+    <t>Admin Page</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_01</t>
+  </si>
+  <si>
+    <t>Verify banner upload on home page section</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_02</t>
+  </si>
+  <si>
+    <t>Verify Top Selling Section Product Display on Homepage.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_03</t>
+  </si>
+  <si>
+    <t>Verify New Arrivals Section Product Display on Homepage.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_04</t>
+  </si>
+  <si>
+    <t>Verify Category Section Display on Website.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_05</t>
+  </si>
+  <si>
+    <t>Verify bulk product upload and visibility.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_06</t>
+  </si>
+  <si>
+    <t>Remove product SKU from Top Selling and verify on User App.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_07</t>
+  </si>
+  <si>
+    <t>Verify all uploaded Special Timer products appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_08</t>
+  </si>
+  <si>
+    <t>Verify uploaded categories appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADMI_01</t>
+  </si>
+  <si>
+    <t>Admin Panel  Influencer Page</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADMI_01</t>
+  </si>
+  <si>
+    <t>Update a product as influencer and verify in User App</t>
+  </si>
+  <si>
+    <t>Admin Panel  Coupon Page</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADC_01</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADC_01</t>
+  </si>
+  <si>
+    <t>Verify Admin can create a new coupon and it appears in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADC_02</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADC_02</t>
+  </si>
+  <si>
+    <t>Verify Admin can create a special coupon and it appears in Admin and User App.</t>
+  </si>
+  <si>
+    <t>Home Page  Banner Automation</t>
+  </si>
+  <si>
+    <t>Test Automation</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_01</t>
+  </si>
+  <si>
+    <t>Admin Panel  Export Page</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_01</t>
+  </si>
+  <si>
+    <t>Verify exported Order &gt; Placed &gt; Order Page have dates within selected range.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_02</t>
+  </si>
+  <si>
+    <t>Verify exported Order &gt; Placed &gt; Return Page have dates within selected range.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_02</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_03</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_03</t>
+  </si>
+  <si>
+    <t>Verify exported Order &gt; Placed &gt; Exchange Page have dates within selected range.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_04</t>
+  </si>
+  <si>
+    <t>Verify exported Order &gt; CANCELED &gt; Order Page have dates within selected range.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_04</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_05</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_06</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_05</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_06</t>
+  </si>
+  <si>
+    <t>Verify exported Order &gt; CANCELED &gt; Return Page have dates within selected range.</t>
+  </si>
+  <si>
+    <t>Verify exported Order &gt; CANCELED &gt; Exchange Page have dates within selected range.</t>
+  </si>
+  <si>
+    <t>Test By Auto2</t>
+  </si>
+  <si>
     <t>https://qa.adm.testingserver8.com/admin/home-page-banner</t>
   </si>
   <si>
-    <t>Sort by</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADM_02</t>
-  </si>
-  <si>
     <t>https://qa.adm.testingserver8.com/admin/product</t>
   </si>
   <si>
-    <t>ProductListingName</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADM_03</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADM_04</t>
-  </si>
-  <si>
-    <t>Banner Title</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADM_05</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADM_06</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADM_07</t>
-  </si>
-  <si>
     <t>https://qa.adm.testingserver8.com/admin/special-timer-event</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADM_09</t>
-  </si>
-  <si>
-    <t>Verify bulk uploaded Collection appear in Admin and User App.</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADM_09</t>
+    <t>https://qa.adm.testingserver8.com/admin/categories</t>
   </si>
   <si>
     <t>https://qa.adm.testingserver8.com/admin/product-collection</t>
   </si>
   <si>
-    <t>TD_UI_Zlaata_ADM_08</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/categories</t>
-  </si>
-  <si>
-    <t>Verify New Product added match between two exports.</t>
-  </si>
-  <si>
-    <t>Admin Page Product Sorting</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_01</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ASP_01</t>
-  </si>
-  <si>
-    <t>Verify category product sorting between Admin Panel and User Application.</t>
-  </si>
-  <si>
-    <t>Shop Name</t>
-  </si>
-  <si>
-    <t>Dresses</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ASP_02</t>
-  </si>
-  <si>
-    <t>Black Lehenga</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_02</t>
-  </si>
-  <si>
-    <t>Verify Collection product sorting between Admin Panel and User Application.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_03</t>
-  </si>
-  <si>
-    <t>Verify Styles product sorting between Admin Panel and User Application.</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ASP_03</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ASP_04</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_04</t>
-  </si>
-  <si>
-    <t>Verify Micro Page product sorting between Admin Panel and User Application.</t>
-  </si>
-  <si>
-    <t>Autotmationtest</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_05</t>
-  </si>
-  <si>
-    <t>Verify All product sorting between Admin Panel and User Application.</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ASP_05</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Admin Panel  Export Excel File</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_EEF_01</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_EEF_01</t>
-  </si>
-  <si>
-    <t>Cotton Fabric</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_EEF_02</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_EEF_02</t>
-  </si>
-  <si>
-    <t>Verify Active Products match between two exports.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_EEF_03</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_EEF_04</t>
-  </si>
-  <si>
-    <t>Verify Sold Out Products match between two exports.</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_EEF_03</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_EEF_04</t>
-  </si>
-  <si>
-    <t>Verify Inactive Products match between two exports.</t>
-  </si>
-  <si>
-    <t>Admin Panel  Google Merchant</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_AGM_01</t>
-  </si>
-  <si>
-    <t>Verify product SKU can be pushed to Google Merchant and status updates.</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_AGM_01</t>
-  </si>
-  <si>
-    <t>Beige testing new</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADI_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin Panel  Import </t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_01</t>
-  </si>
-  <si>
-    <t>Verify Categories import uploaded appear in Admin and User App.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_02</t>
-  </si>
-  <si>
-    <t>Verify Collection import uploaded appear in Admin and User App.</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADI_02</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_03</t>
-  </si>
-  <si>
-    <t>Verify Product Style import uploaded appear in Admin and User App.</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADI_03</t>
-  </si>
-  <si>
     <t>https://qa.adm.testingserver8.com/admin/product-style</t>
   </si>
   <si>
-    <t>TD_UI_Zlaata_ADI_04</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_04</t>
-  </si>
-  <si>
-    <t>Verify All Product import uploaded appear in Admin and User App.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_05</t>
-  </si>
-  <si>
-    <t>Verify Search Keyboard Product import uploaded appear in Admin and User App.</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADI_05</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_06</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_07</t>
-  </si>
-  <si>
-    <t>Verify Search Keyboard Collection import uploaded appear in Admin and User App.</t>
-  </si>
-  <si>
-    <t>Verify Search Keyboard Style import uploaded appear in Admin and User App.</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADI_06</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADI_07</t>
-  </si>
-  <si>
     <t>https://qa.adm.testingserver8.com/admin/product-search-keyword</t>
   </si>
   <si>
@@ -2089,233 +2350,110 @@
     <t>https://qa.adm.testingserver8.com/admin/style-search-keyword</t>
   </si>
   <si>
-    <t>Verify if the user is able to click on  See More button on New Arrival Sectioin.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Home_14</t>
-  </si>
-  <si>
-    <t>Verify that the Home Page logo is displayed</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Home_15</t>
-  </si>
-  <si>
-    <t>Verify that the Home Page Thread banner is available</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Home_16</t>
-  </si>
-  <si>
-    <t>Verify that the Category section is available</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Home_17</t>
-  </si>
-  <si>
-    <t>Verify that the Monsoon Banner is available</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_Home_17</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_COP_11</t>
-  </si>
-  <si>
-    <t>Verify Validation Message for Invalid Gift Card Number</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_COP_11</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_COP_12</t>
-  </si>
-  <si>
-    <t>Verify Validation Message in Gift Wrapping Popup when Mandatory Fields Are Not Entered</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_COP_12</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_COP_13</t>
-  </si>
-  <si>
-    <t>Verify Validation Message in Gift Wrapping Popup if the user enters fewer characters in Description or Sender Name</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_COP_13</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_COP_14</t>
-  </si>
-  <si>
-    <t>Verify Gift Card Balance Display when Correct Gift Card is Entered</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_COP_14</t>
-  </si>
-  <si>
-    <t>Verify that while opening address page having phone number</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADDP_11</t>
-  </si>
-  <si>
-    <t>Verify that while opening address page having phone number on checkout Page Address</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADDP_11</t>
-  </si>
-  <si>
-    <t>1548545428249876</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>9815862869673403</t>
-  </si>
-  <si>
-    <t>Black Ikat Cotton Peplum Top</t>
-  </si>
-  <si>
-    <t>gift card</t>
-  </si>
-  <si>
-    <t>Sender</t>
-  </si>
-  <si>
-    <t>Recipient</t>
-  </si>
-  <si>
-    <t>Valid Gift card Number</t>
-  </si>
-  <si>
-    <t>Verify Checkout page calculation</t>
-  </si>
-  <si>
-    <t>Admin Page</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_01</t>
-  </si>
-  <si>
-    <t>Verify banner upload on home page section</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_02</t>
-  </si>
-  <si>
-    <t>Verify Top Selling Section Product Display on Homepage.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_03</t>
-  </si>
-  <si>
-    <t>Verify New Arrivals Section Product Display on Homepage.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_04</t>
-  </si>
-  <si>
-    <t>Verify Category Section Display on Website.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_05</t>
-  </si>
-  <si>
-    <t>Verify bulk product upload and visibility.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_06</t>
-  </si>
-  <si>
-    <t>Remove product SKU from Top Selling and verify on User App.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_07</t>
-  </si>
-  <si>
-    <t>Verify all uploaded Special Timer products appear in Admin and User App.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_08</t>
-  </si>
-  <si>
-    <t>Verify uploaded categories appear in Admin and User App.</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADMI_01</t>
-  </si>
-  <si>
-    <t>Admin Panel  Influencer Page</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADMI_01</t>
-  </si>
-  <si>
-    <t>Update a product as influencer and verify in User App</t>
-  </si>
-  <si>
-    <t>Beige ABCD kurta 10</t>
-  </si>
-  <si>
-    <t>Admin Panel  Coupon Page</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADC_01</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADC_01</t>
-  </si>
-  <si>
-    <t>Verify Admin can create a new coupon and it appears in Admin and User App.</t>
-  </si>
-  <si>
     <t>https://qa.adm.testingserver8.com/admin/coupon</t>
   </si>
   <si>
-    <t>TD_UI_Zlaata_ADC_02</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADC_02</t>
-  </si>
-  <si>
-    <t>Verify Admin can create a special coupon and it appears in Admin and User App.</t>
-  </si>
-  <si>
-    <t>Home Page  Banner Automation</t>
-  </si>
-  <si>
-    <t>Test Automation</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_APE_01</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/order</t>
-  </si>
-  <si>
-    <t>Admin Panel  Export Page</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_APE_01</t>
-  </si>
-  <si>
-    <t>Verify exported products have dates within selected range.</t>
+    <t>https://qa.adm.testingserver8.com/admin/return-order</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/exchange-order</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/cancel-order</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/return-cancel</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/exchange-cancel</t>
+  </si>
+  <si>
+    <t>Adayein</t>
+  </si>
+  <si>
+    <t>Casuals</t>
+  </si>
+  <si>
+    <t>Ganesh Chaturthi</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/order</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_07</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/all-orders</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_07</t>
+  </si>
+  <si>
+    <t>Verify exported Payment Pending Page have dates within selected range.</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/payment-pending</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_08</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/payment-refund</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_08</t>
+  </si>
+  <si>
+    <t>Verify exported Payment Refund Page have dates within selected range.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_09</t>
+  </si>
+  <si>
+    <t>Verify exported Payment Failed Page have dates within selected range.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_09</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/payment-failed</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_10</t>
+  </si>
+  <si>
+    <t>Verify exported RTO Orders Page have dates within selected range.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_10</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/rto-orders</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_APE_11</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_APE_11</t>
+  </si>
+  <si>
+    <t>Verify exported All Orders Page have dates within selected range.</t>
+  </si>
+  <si>
+    <t>Verify Admin can create a Specific Product Item coupon and it appears in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADC_03</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADC_03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2410,6 +2548,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF383838"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2736,7 +2880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2936,6 +3080,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2965,24 +3130,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3786,10 +3933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z214"/>
+  <dimension ref="A1:Z225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D215" sqref="D215"/>
+    <sheetView topLeftCell="A204" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4542,18 +4689,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="93"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="84"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -4940,18 +5087,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="96"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="87"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5220,7 +5367,7 @@
         <v>197</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="E46" s="47" t="s">
         <v>14</v>
@@ -5377,10 +5524,10 @@
         <v>10</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="D51" s="80" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="E51" s="48" t="s">
         <v>14</v>
@@ -5409,10 +5556,10 @@
         <v>10</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="E52" s="48" t="s">
         <v>14</v>
@@ -5441,10 +5588,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="E53" s="48" t="s">
         <v>14</v>
@@ -5473,16 +5620,16 @@
         <v>10</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="E54" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G54" s="48" t="s">
         <v>11</v>
@@ -5498,18 +5645,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="96"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="87"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -5832,18 +5979,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="94" t="s">
+      <c r="A66" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="96"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="87"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6198,18 +6345,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="94" t="s">
+      <c r="A78" s="85" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="96"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
+      <c r="H78" s="86"/>
+      <c r="I78" s="86"/>
+      <c r="J78" s="87"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7076,18 +7223,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="89" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="82"/>
-      <c r="H106" s="82"/>
-      <c r="I106" s="82"/>
-      <c r="J106" s="82"/>
+      <c r="B106" s="89"/>
+      <c r="C106" s="89"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="89"/>
+      <c r="G106" s="89"/>
+      <c r="H106" s="89"/>
+      <c r="I106" s="89"/>
+      <c r="J106" s="89"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -7356,7 +7503,7 @@
         <v>370</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="E115" s="48" t="s">
         <v>14</v>
@@ -7417,16 +7564,16 @@
         <v>10</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="D117" s="48" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="E117" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="48" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="G117" s="48" t="s">
         <v>11</v>
@@ -7449,16 +7596,16 @@
         <v>10</v>
       </c>
       <c r="C118" s="48" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="D118" s="48" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E118" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="48" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G118" s="48" t="s">
         <v>11</v>
@@ -7495,16 +7642,16 @@
         <v>10</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="D119" s="48" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="E119" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="48" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="G119" s="48" t="s">
         <v>11</v>
@@ -7541,16 +7688,16 @@
         <v>10</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D120" s="48" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="E120" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="48" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G120" s="48" t="s">
         <v>11</v>
@@ -7580,18 +7727,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="83" t="s">
+      <c r="A121" s="90" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="83"/>
-      <c r="C121" s="83"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="83"/>
-      <c r="G121" s="83"/>
-      <c r="H121" s="83"/>
-      <c r="I121" s="83"/>
-      <c r="J121" s="83"/>
+      <c r="B121" s="90"/>
+      <c r="C121" s="90"/>
+      <c r="D121" s="90"/>
+      <c r="E121" s="90"/>
+      <c r="F121" s="90"/>
+      <c r="G121" s="90"/>
+      <c r="H121" s="90"/>
+      <c r="I121" s="90"/>
+      <c r="J121" s="90"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -7654,18 +7801,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="90" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="83"/>
-      <c r="C123" s="83"/>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="83"/>
-      <c r="I123" s="83"/>
-      <c r="J123" s="83"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="90"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="90"/>
+      <c r="H123" s="90"/>
+      <c r="I123" s="90"/>
+      <c r="J123" s="90"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -7728,18 +7875,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="83" t="s">
+      <c r="A125" s="90" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="83"/>
-      <c r="C125" s="83"/>
-      <c r="D125" s="83"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="83"/>
-      <c r="G125" s="83"/>
-      <c r="H125" s="83"/>
-      <c r="I125" s="83"/>
-      <c r="J125" s="83"/>
+      <c r="B125" s="90"/>
+      <c r="C125" s="90"/>
+      <c r="D125" s="90"/>
+      <c r="E125" s="90"/>
+      <c r="F125" s="90"/>
+      <c r="G125" s="90"/>
+      <c r="H125" s="90"/>
+      <c r="I125" s="90"/>
+      <c r="J125" s="90"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8064,18 +8211,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="83" t="s">
+      <c r="A133" s="90" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="83"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="90"/>
-      <c r="E133" s="90"/>
-      <c r="F133" s="90"/>
-      <c r="G133" s="90"/>
-      <c r="H133" s="90"/>
-      <c r="I133" s="90"/>
-      <c r="J133" s="90"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="90"/>
+      <c r="D133" s="97"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="97"/>
+      <c r="G133" s="97"/>
+      <c r="H133" s="97"/>
+      <c r="I133" s="97"/>
+      <c r="J133" s="97"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8488,7 +8635,7 @@
         <v>437</v>
       </c>
       <c r="D143" s="27" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="E143" s="27" t="s">
         <v>14</v>
@@ -8531,16 +8678,16 @@
         <v>10</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="E144" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G144" s="27" t="s">
         <v>11</v>
@@ -8570,18 +8717,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="87" t="s">
+      <c r="A145" s="94" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="88"/>
-      <c r="C145" s="88"/>
-      <c r="D145" s="88"/>
-      <c r="E145" s="88"/>
-      <c r="F145" s="88"/>
-      <c r="G145" s="88"/>
-      <c r="H145" s="88"/>
-      <c r="I145" s="88"/>
-      <c r="J145" s="89"/>
+      <c r="B145" s="95"/>
+      <c r="C145" s="95"/>
+      <c r="D145" s="95"/>
+      <c r="E145" s="95"/>
+      <c r="F145" s="95"/>
+      <c r="G145" s="95"/>
+      <c r="H145" s="95"/>
+      <c r="I145" s="95"/>
+      <c r="J145" s="96"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9028,18 +9175,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="83" t="s">
+      <c r="A156" s="90" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="83"/>
-      <c r="C156" s="83"/>
-      <c r="D156" s="83"/>
-      <c r="E156" s="83"/>
-      <c r="F156" s="83"/>
-      <c r="G156" s="83"/>
-      <c r="H156" s="83"/>
-      <c r="I156" s="83"/>
-      <c r="J156" s="83"/>
+      <c r="B156" s="90"/>
+      <c r="C156" s="90"/>
+      <c r="D156" s="90"/>
+      <c r="E156" s="90"/>
+      <c r="F156" s="90"/>
+      <c r="G156" s="90"/>
+      <c r="H156" s="90"/>
+      <c r="I156" s="90"/>
+      <c r="J156" s="90"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9106,18 +9253,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="83" t="s">
+      <c r="A158" s="90" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="83"/>
-      <c r="C158" s="83"/>
-      <c r="D158" s="83"/>
-      <c r="E158" s="83"/>
-      <c r="F158" s="83"/>
-      <c r="G158" s="83"/>
-      <c r="H158" s="83"/>
-      <c r="I158" s="83"/>
-      <c r="J158" s="83"/>
+      <c r="B158" s="90"/>
+      <c r="C158" s="90"/>
+      <c r="D158" s="90"/>
+      <c r="E158" s="90"/>
+      <c r="F158" s="90"/>
+      <c r="G158" s="90"/>
+      <c r="H158" s="90"/>
+      <c r="I158" s="90"/>
+      <c r="J158" s="90"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -9856,18 +10003,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="83" t="s">
-        <v>724</v>
-      </c>
-      <c r="B177" s="83"/>
-      <c r="C177" s="83"/>
-      <c r="D177" s="81"/>
-      <c r="E177" s="83"/>
-      <c r="F177" s="83"/>
-      <c r="G177" s="83"/>
-      <c r="H177" s="83"/>
-      <c r="I177" s="83"/>
-      <c r="J177" s="83"/>
+      <c r="A177" s="90" t="s">
+        <v>715</v>
+      </c>
+      <c r="B177" s="90"/>
+      <c r="C177" s="90"/>
+      <c r="D177" s="88"/>
+      <c r="E177" s="90"/>
+      <c r="F177" s="90"/>
+      <c r="G177" s="90"/>
+      <c r="H177" s="90"/>
+      <c r="I177" s="90"/>
+      <c r="J177" s="90"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -9877,10 +10024,10 @@
         <v>10</v>
       </c>
       <c r="C178" s="74" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D178" s="77" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E178" s="75" t="s">
         <v>14</v>
@@ -9909,16 +10056,16 @@
         <v>10</v>
       </c>
       <c r="C179" s="74" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="D179" s="77" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E179" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F179" s="70" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G179" s="69" t="s">
         <v>11</v>
@@ -9941,16 +10088,16 @@
         <v>10</v>
       </c>
       <c r="C180" s="74" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D180" s="77" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E180" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F180" s="70" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G180" s="69" t="s">
         <v>11</v>
@@ -9973,16 +10120,16 @@
         <v>10</v>
       </c>
       <c r="C181" s="74" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="D181" s="64" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E181" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="70" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G181" s="69" t="s">
         <v>11</v>
@@ -10005,16 +10152,16 @@
         <v>10</v>
       </c>
       <c r="C182" s="74" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="D182" s="64" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E182" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F182" s="70" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G182" s="69" t="s">
         <v>11</v>
@@ -10037,16 +10184,16 @@
         <v>10</v>
       </c>
       <c r="C183" s="74" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="D183" s="77" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E183" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F183" s="70" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G183" s="69" t="s">
         <v>11</v>
@@ -10069,16 +10216,16 @@
         <v>10</v>
       </c>
       <c r="C184" s="74" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D184" s="64" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E184" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F184" s="70" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G184" s="69" t="s">
         <v>11</v>
@@ -10101,16 +10248,16 @@
         <v>10</v>
       </c>
       <c r="C185" s="74" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="D185" s="78" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E185" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F185" s="70" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G185" s="69" t="s">
         <v>11</v>
@@ -10133,16 +10280,16 @@
         <v>10</v>
       </c>
       <c r="C186" s="74" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D186" s="64" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E186" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F186" s="70" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G186" s="69" t="s">
         <v>11</v>
@@ -10158,18 +10305,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="84" t="s">
-        <v>622</v>
-      </c>
-      <c r="B187" s="85"/>
-      <c r="C187" s="85"/>
-      <c r="D187" s="85"/>
-      <c r="E187" s="85"/>
-      <c r="F187" s="85"/>
-      <c r="G187" s="85"/>
-      <c r="H187" s="85"/>
-      <c r="I187" s="85"/>
-      <c r="J187" s="86"/>
+      <c r="A187" s="91" t="s">
+        <v>617</v>
+      </c>
+      <c r="B187" s="92"/>
+      <c r="C187" s="92"/>
+      <c r="D187" s="92"/>
+      <c r="E187" s="92"/>
+      <c r="F187" s="92"/>
+      <c r="G187" s="92"/>
+      <c r="H187" s="92"/>
+      <c r="I187" s="92"/>
+      <c r="J187" s="93"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10179,16 +10326,16 @@
         <v>10</v>
       </c>
       <c r="C188" s="74" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D188" s="77" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E188" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F188" s="70" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G188" s="69" t="s">
         <v>11</v>
@@ -10211,16 +10358,16 @@
         <v>10</v>
       </c>
       <c r="C189" s="74" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D189" s="77" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E189" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F189" s="70" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G189" s="69" t="s">
         <v>11</v>
@@ -10243,16 +10390,16 @@
         <v>10</v>
       </c>
       <c r="C190" s="74" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D190" s="78" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E190" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="70" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G190" s="69" t="s">
         <v>11</v>
@@ -10275,16 +10422,16 @@
         <v>10</v>
       </c>
       <c r="C191" s="74" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D191" s="78" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E191" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F191" s="70" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="G191" s="69" t="s">
         <v>11</v>
@@ -10307,16 +10454,16 @@
         <v>10</v>
       </c>
       <c r="C192" s="74" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D192" s="78" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E192" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F192" s="70" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G192" s="69" t="s">
         <v>11</v>
@@ -10332,18 +10479,18 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="81" t="s">
-        <v>643</v>
-      </c>
-      <c r="B193" s="81"/>
-      <c r="C193" s="81"/>
-      <c r="D193" s="81"/>
-      <c r="E193" s="81"/>
-      <c r="F193" s="81"/>
-      <c r="G193" s="81"/>
-      <c r="H193" s="81"/>
-      <c r="I193" s="81"/>
-      <c r="J193" s="81"/>
+      <c r="A193" s="88" t="s">
+        <v>638</v>
+      </c>
+      <c r="B193" s="88"/>
+      <c r="C193" s="88"/>
+      <c r="D193" s="88"/>
+      <c r="E193" s="88"/>
+      <c r="F193" s="88"/>
+      <c r="G193" s="88"/>
+      <c r="H193" s="88"/>
+      <c r="I193" s="88"/>
+      <c r="J193" s="88"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
@@ -10353,16 +10500,16 @@
         <v>10</v>
       </c>
       <c r="C194" s="79" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D194" s="64" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E194" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F194" s="79" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G194" s="48" t="s">
         <v>11</v>
@@ -10385,16 +10532,16 @@
         <v>10</v>
       </c>
       <c r="C195" s="79" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D195" s="78" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E195" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F195" s="79" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G195" s="48" t="s">
         <v>11</v>
@@ -10417,16 +10564,16 @@
         <v>10</v>
       </c>
       <c r="C196" s="79" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D196" s="78" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E196" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F196" s="79" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G196" s="48" t="s">
         <v>11</v>
@@ -10449,16 +10596,16 @@
         <v>10</v>
       </c>
       <c r="C197" s="79" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D197" s="78" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E197" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F197" s="79" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G197" s="48" t="s">
         <v>11</v>
@@ -10474,18 +10621,18 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="81" t="s">
-        <v>656</v>
-      </c>
-      <c r="B198" s="81"/>
-      <c r="C198" s="81"/>
-      <c r="D198" s="81"/>
-      <c r="E198" s="81"/>
-      <c r="F198" s="81"/>
-      <c r="G198" s="81"/>
-      <c r="H198" s="81"/>
-      <c r="I198" s="81"/>
-      <c r="J198" s="81"/>
+      <c r="A198" s="88" t="s">
+        <v>651</v>
+      </c>
+      <c r="B198" s="88"/>
+      <c r="C198" s="88"/>
+      <c r="D198" s="88"/>
+      <c r="E198" s="88"/>
+      <c r="F198" s="88"/>
+      <c r="G198" s="88"/>
+      <c r="H198" s="88"/>
+      <c r="I198" s="88"/>
+      <c r="J198" s="88"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
@@ -10495,16 +10642,16 @@
         <v>10</v>
       </c>
       <c r="C199" s="79" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D199" s="78" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E199" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F199" s="79" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G199" s="48" t="s">
         <v>11</v>
@@ -10520,18 +10667,18 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="B200" s="81"/>
-      <c r="C200" s="81"/>
-      <c r="D200" s="81"/>
-      <c r="E200" s="81"/>
-      <c r="F200" s="81"/>
-      <c r="G200" s="81"/>
-      <c r="H200" s="81"/>
-      <c r="I200" s="81"/>
-      <c r="J200" s="81"/>
+      <c r="A200" s="88" t="s">
+        <v>657</v>
+      </c>
+      <c r="B200" s="88"/>
+      <c r="C200" s="88"/>
+      <c r="D200" s="88"/>
+      <c r="E200" s="88"/>
+      <c r="F200" s="88"/>
+      <c r="G200" s="88"/>
+      <c r="H200" s="88"/>
+      <c r="I200" s="88"/>
+      <c r="J200" s="88"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
@@ -10541,16 +10688,16 @@
         <v>10</v>
       </c>
       <c r="C201" s="79" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D201" s="78" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E201" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F201" s="79" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G201" s="48" t="s">
         <v>11</v>
@@ -10573,16 +10720,16 @@
         <v>10</v>
       </c>
       <c r="C202" s="79" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D202" s="78" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E202" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F202" s="79" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G202" s="48" t="s">
         <v>11</v>
@@ -10605,16 +10752,16 @@
         <v>10</v>
       </c>
       <c r="C203" s="79" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D203" s="78" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E203" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F203" s="79" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G203" s="48" t="s">
         <v>11</v>
@@ -10637,16 +10784,16 @@
         <v>10</v>
       </c>
       <c r="C204" s="79" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D204" s="78" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E204" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F204" s="79" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G204" s="48" t="s">
         <v>11</v>
@@ -10669,16 +10816,16 @@
         <v>10</v>
       </c>
       <c r="C205" s="79" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D205" s="78" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E205" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F205" s="79" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G205" s="48" t="s">
         <v>11</v>
@@ -10701,16 +10848,16 @@
         <v>10</v>
       </c>
       <c r="C206" s="79" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D206" s="78" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E206" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F206" s="79" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G206" s="48" t="s">
         <v>11</v>
@@ -10733,16 +10880,16 @@
         <v>10</v>
       </c>
       <c r="C207" s="79" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D207" s="78" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E207" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F207" s="79" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="G207" s="48" t="s">
         <v>11</v>
@@ -10758,18 +10905,18 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="81" t="s">
-        <v>742</v>
-      </c>
-      <c r="B208" s="81"/>
-      <c r="C208" s="81"/>
-      <c r="D208" s="81"/>
-      <c r="E208" s="81"/>
-      <c r="F208" s="81"/>
-      <c r="G208" s="81"/>
-      <c r="H208" s="81"/>
-      <c r="I208" s="81"/>
-      <c r="J208" s="81"/>
+      <c r="A208" s="88" t="s">
+        <v>733</v>
+      </c>
+      <c r="B208" s="88"/>
+      <c r="C208" s="88"/>
+      <c r="D208" s="88"/>
+      <c r="E208" s="88"/>
+      <c r="F208" s="88"/>
+      <c r="G208" s="88"/>
+      <c r="H208" s="88"/>
+      <c r="I208" s="88"/>
+      <c r="J208" s="88"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
@@ -10779,16 +10926,16 @@
         <v>10</v>
       </c>
       <c r="C209" s="79" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D209" s="78" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E209" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F209" s="79" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="G209" s="48" t="s">
         <v>11</v>
@@ -10804,18 +10951,18 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="81" t="s">
-        <v>746</v>
-      </c>
-      <c r="B210" s="81"/>
-      <c r="C210" s="81"/>
-      <c r="D210" s="81"/>
-      <c r="E210" s="81"/>
-      <c r="F210" s="81"/>
-      <c r="G210" s="81"/>
-      <c r="H210" s="81"/>
-      <c r="I210" s="81"/>
-      <c r="J210" s="81"/>
+      <c r="A210" s="88" t="s">
+        <v>736</v>
+      </c>
+      <c r="B210" s="88"/>
+      <c r="C210" s="88"/>
+      <c r="D210" s="88"/>
+      <c r="E210" s="88"/>
+      <c r="F210" s="88"/>
+      <c r="G210" s="88"/>
+      <c r="H210" s="88"/>
+      <c r="I210" s="88"/>
+      <c r="J210" s="88"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
@@ -10825,16 +10972,16 @@
         <v>10</v>
       </c>
       <c r="C211" s="79" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D211" s="78" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="E211" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F211" s="79" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G211" s="48" t="s">
         <v>11</v>
@@ -10857,16 +11004,16 @@
         <v>10</v>
       </c>
       <c r="C212" s="79" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="D212" s="78" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="E212" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F212" s="79" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="G212" s="48" t="s">
         <v>11</v>
@@ -10882,62 +11029,409 @@
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A213" s="81" t="s">
+      <c r="A213" s="48">
+        <v>3</v>
+      </c>
+      <c r="B213" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="79" t="s">
+        <v>806</v>
+      </c>
+      <c r="D213" s="78" t="s">
+        <v>804</v>
+      </c>
+      <c r="E213" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" s="79" t="s">
+        <v>805</v>
+      </c>
+      <c r="G213" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I213" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J213" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="88" t="s">
+        <v>746</v>
+      </c>
+      <c r="B214" s="88"/>
+      <c r="C214" s="88"/>
+      <c r="D214" s="88"/>
+      <c r="E214" s="88"/>
+      <c r="F214" s="88"/>
+      <c r="G214" s="88"/>
+      <c r="H214" s="88"/>
+      <c r="I214" s="88"/>
+      <c r="J214" s="88"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" s="48">
+        <v>1</v>
+      </c>
+      <c r="B215" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="79" t="s">
+        <v>747</v>
+      </c>
+      <c r="D215" s="78" t="s">
+        <v>748</v>
+      </c>
+      <c r="E215" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" s="79" t="s">
+        <v>745</v>
+      </c>
+      <c r="G215" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I215" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J215" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" s="48">
+        <v>2</v>
+      </c>
+      <c r="B216" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="79" t="s">
+        <v>749</v>
+      </c>
+      <c r="D216" s="78" t="s">
+        <v>750</v>
+      </c>
+      <c r="E216" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" s="79" t="s">
+        <v>751</v>
+      </c>
+      <c r="G216" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I216" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J216" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="48">
+        <v>3</v>
+      </c>
+      <c r="B217" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="79" t="s">
+        <v>753</v>
+      </c>
+      <c r="D217" s="78" t="s">
+        <v>754</v>
+      </c>
+      <c r="E217" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" s="79" t="s">
+        <v>752</v>
+      </c>
+      <c r="G217" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I217" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J217" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" s="48">
+        <v>4</v>
+      </c>
+      <c r="B218" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="79" t="s">
+        <v>755</v>
+      </c>
+      <c r="D218" s="78" t="s">
+        <v>756</v>
+      </c>
+      <c r="E218" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="79" t="s">
+        <v>757</v>
+      </c>
+      <c r="G218" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I218" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J218" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" s="48">
+        <v>5</v>
+      </c>
+      <c r="B219" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="79" t="s">
+        <v>760</v>
+      </c>
+      <c r="D219" s="78" t="s">
+        <v>762</v>
+      </c>
+      <c r="E219" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219" s="79" t="s">
         <v>758</v>
       </c>
-      <c r="B213" s="81"/>
-      <c r="C213" s="81"/>
-      <c r="D213" s="81"/>
-      <c r="E213" s="81"/>
-      <c r="F213" s="81"/>
-      <c r="G213" s="81"/>
-      <c r="H213" s="81"/>
-      <c r="I213" s="81"/>
-      <c r="J213" s="81"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="48">
-        <v>1</v>
-      </c>
-      <c r="B214" s="48" t="s">
+      <c r="G219" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I219" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J219" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" s="48">
+        <v>6</v>
+      </c>
+      <c r="B220" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C214" s="79" t="s">
+      <c r="C220" s="79" t="s">
+        <v>761</v>
+      </c>
+      <c r="D220" s="78" t="s">
+        <v>763</v>
+      </c>
+      <c r="E220" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220" s="79" t="s">
         <v>759</v>
       </c>
-      <c r="D214" s="78" t="s">
-        <v>760</v>
-      </c>
-      <c r="E214" s="48" t="s">
+      <c r="G220" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I220" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J220" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" s="48">
+        <v>7</v>
+      </c>
+      <c r="B221" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" s="79" t="s">
+        <v>786</v>
+      </c>
+      <c r="D221" s="78" t="s">
+        <v>787</v>
+      </c>
+      <c r="E221" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F214" s="79" t="s">
-        <v>756</v>
-      </c>
-      <c r="G214" s="48" t="s">
+      <c r="F221" s="79" t="s">
+        <v>784</v>
+      </c>
+      <c r="G221" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H214" s="48" t="s">
+      <c r="H221" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="I214" s="48" t="s">
+      <c r="I221" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J214" s="48" t="s">
+      <c r="J221" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" s="48">
+        <v>8</v>
+      </c>
+      <c r="B222" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" s="79" t="s">
+        <v>791</v>
+      </c>
+      <c r="D222" s="78" t="s">
+        <v>792</v>
+      </c>
+      <c r="E222" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F222" s="79" t="s">
+        <v>789</v>
+      </c>
+      <c r="G222" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H222" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I222" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J222" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" s="48">
+        <v>9</v>
+      </c>
+      <c r="B223" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" s="79" t="s">
+        <v>793</v>
+      </c>
+      <c r="D223" s="78" t="s">
+        <v>794</v>
+      </c>
+      <c r="E223" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F223" s="79" t="s">
+        <v>795</v>
+      </c>
+      <c r="G223" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H223" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I223" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J223" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" s="48">
+        <v>10</v>
+      </c>
+      <c r="B224" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="79" t="s">
+        <v>797</v>
+      </c>
+      <c r="D224" s="78" t="s">
+        <v>798</v>
+      </c>
+      <c r="E224" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="79" t="s">
+        <v>799</v>
+      </c>
+      <c r="G224" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I224" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J224" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" s="48">
+        <v>11</v>
+      </c>
+      <c r="B225" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" s="79" t="s">
+        <v>802</v>
+      </c>
+      <c r="D225" s="78" t="s">
+        <v>803</v>
+      </c>
+      <c r="E225" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" s="79" t="s">
+        <v>801</v>
+      </c>
+      <c r="G225" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H225" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I225" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J225" s="48" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A210:J210"/>
     <mergeCell ref="A208:J208"/>
     <mergeCell ref="A200:J200"/>
-    <mergeCell ref="A213:J213"/>
+    <mergeCell ref="A214:J214"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
@@ -10950,6 +11444,11 @@
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
     <mergeCell ref="A133:J133"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -11047,10 +11546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AD203"/>
+  <dimension ref="A1:AF214"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203:XFD203"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11145,31 +11644,31 @@
         <v>490</v>
       </c>
       <c r="V1" s="30" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="W1" s="30" t="s">
         <v>346</v>
       </c>
       <c r="X1" s="30" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="Y1" s="31" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="Z1" s="31" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="AA1" s="31" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AB1" s="31" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AC1" s="31" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AD1" s="31" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -15286,7 +15785,7 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B53" s="48" t="s">
         <v>22</v>
@@ -20200,7 +20699,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" s="48" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B112" s="48" t="s">
         <v>22</v>
@@ -20263,7 +20762,7 @@
         <v>22</v>
       </c>
       <c r="V112" s="36" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="W112" s="28" t="s">
         <v>22</v>
@@ -20284,7 +20783,7 @@
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B113" s="48" t="s">
         <v>22</v>
@@ -20368,79 +20867,79 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
+        <v>696</v>
+      </c>
+      <c r="B114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W114" s="28" t="s">
         <v>705</v>
       </c>
-      <c r="B114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V114" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="W114" s="28" t="s">
-        <v>714</v>
-      </c>
       <c r="X114" s="28" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="Y114" s="48" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="Z114" s="48" t="s">
         <v>22</v>
@@ -20452,82 +20951,82 @@
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
+        <v>699</v>
+      </c>
+      <c r="B115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W115" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X115" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z115" s="36" t="s">
         <v>708</v>
-      </c>
-      <c r="B115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="W115" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X115" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y115" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z115" s="36" t="s">
-        <v>717</v>
       </c>
       <c r="AA115" s="28"/>
       <c r="AB115" s="28"/>
@@ -22216,7 +22715,7 @@
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" s="48" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="B136" s="48" t="s">
         <v>22</v>
@@ -23704,7 +24203,7 @@
         <v>22</v>
       </c>
       <c r="U153" s="48" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="V153" s="48" t="s">
         <v>22</v>
@@ -25422,7 +25921,7 @@
         <v>22</v>
       </c>
       <c r="S174" s="49" t="s">
-        <v>602</v>
+        <v>765</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -25446,22 +25945,22 @@
         <v>22</v>
       </c>
       <c r="AA174" s="48" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="AB174" s="36" t="s">
+        <v>603</v>
+      </c>
+      <c r="AC174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD174" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="70" t="s">
         <v>604</v>
       </c>
-      <c r="AC174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD174" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="175" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="70" t="s">
-        <v>605</v>
-      </c>
       <c r="B175" s="48" t="s">
         <v>22</v>
       </c>
@@ -25514,46 +26013,46 @@
         <v>22</v>
       </c>
       <c r="S175" s="49" t="s">
+        <v>766</v>
+      </c>
+      <c r="T175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V175" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W175" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X175" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB175" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC175" s="73" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD175" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="70" t="s">
         <v>606</v>
       </c>
-      <c r="T175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V175" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W175" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X175" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB175" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC175" s="73" t="s">
-        <v>745</v>
-      </c>
-      <c r="AD175" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="176" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="70" t="s">
-        <v>608</v>
-      </c>
       <c r="B176" s="48" t="s">
         <v>22</v>
       </c>
@@ -25606,7 +26105,7 @@
         <v>22</v>
       </c>
       <c r="S176" s="49" t="s">
-        <v>606</v>
+        <v>766</v>
       </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
@@ -25636,292 +26135,292 @@
         <v>22</v>
       </c>
       <c r="AC176" s="73" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="AD176" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="70" t="s">
+        <v>607</v>
+      </c>
+      <c r="B177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S177" s="49" t="s">
+        <v>765</v>
+      </c>
+      <c r="T177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V177" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W177" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X177" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA177" s="48" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB177" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD177" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="70" t="s">
         <v>609</v>
       </c>
-      <c r="B177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S177" s="49" t="s">
-        <v>602</v>
-      </c>
-      <c r="T177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V177" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W177" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X177" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA177" s="48" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB177" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC177" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD177" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="178" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="70" t="s">
+      <c r="B178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S178" s="49" t="s">
+        <v>766</v>
+      </c>
+      <c r="T178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V178" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W178" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X178" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB178" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD178" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="70" t="s">
+        <v>610</v>
+      </c>
+      <c r="B179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S179" s="49" t="s">
+        <v>766</v>
+      </c>
+      <c r="T179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V179" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W179" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X179" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB179" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC179" s="73" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD179" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="B178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S178" s="49" t="s">
-        <v>606</v>
-      </c>
-      <c r="T178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V178" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W178" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X178" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB178" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD178" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="179" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="70" t="s">
-        <v>612</v>
-      </c>
-      <c r="B179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S179" s="49" t="s">
-        <v>606</v>
-      </c>
-      <c r="T179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V179" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W179" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X179" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA179" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB179" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC179" s="73" t="s">
-        <v>745</v>
-      </c>
-      <c r="AD179" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="70" t="s">
-        <v>613</v>
-      </c>
       <c r="B180" s="48" t="s">
         <v>22</v>
       </c>
@@ -25974,414 +26473,421 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
+        <v>767</v>
+      </c>
+      <c r="T180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V180" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W180" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X180" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB180" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD180" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="B181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S181" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="T181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V181" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W181" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X181" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB181" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD181" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="70" t="s">
         <v>614</v>
       </c>
-      <c r="T180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V180" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W180" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X180" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB180" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD180" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="181" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="70" t="s">
+      <c r="B182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S182" s="49" t="s">
+        <v>769</v>
+      </c>
+      <c r="T182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V182" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W182" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X182" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB182" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD182" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="70" t="s">
         <v>619</v>
       </c>
-      <c r="B181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S181" s="49" t="s">
-        <v>620</v>
-      </c>
-      <c r="T181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V181" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W181" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X181" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB181" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD181" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="182" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="70" t="s">
-        <v>617</v>
-      </c>
-      <c r="B182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S182" s="49" t="s">
-        <v>618</v>
-      </c>
-      <c r="T182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V182" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W182" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X182" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB182" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC182" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD182" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="183" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="70" t="s">
+      <c r="B183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S183" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="T183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V183" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W183" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X183" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB183" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD183" s="48" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE183" s="48" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="184" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="70" t="s">
+        <v>623</v>
+      </c>
+      <c r="B184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S184" s="49" t="s">
+        <v>769</v>
+      </c>
+      <c r="T184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V184" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W184" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X184" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB184" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD184" s="48" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE184" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="B183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S183" s="49" t="s">
-        <v>620</v>
-      </c>
-      <c r="T183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V183" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W183" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X183" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB183" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC183" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD183" s="48" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="184" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="70" t="s">
-        <v>628</v>
-      </c>
-      <c r="B184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S184" s="49" t="s">
-        <v>618</v>
-      </c>
-      <c r="T184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V184" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W184" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X184" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB184" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC184" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD184" s="48" t="s">
+      <c r="AF184" s="81"/>
+    </row>
+    <row r="185" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="70" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="185" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="70" t="s">
-        <v>634</v>
-      </c>
       <c r="B185" s="48" t="s">
         <v>22</v>
       </c>
@@ -26467,12 +26973,16 @@
         <v>22</v>
       </c>
       <c r="AD185" s="48" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="186" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>781</v>
+      </c>
+      <c r="AE185" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF185" s="81"/>
+    </row>
+    <row r="186" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="70" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B186" s="48" t="s">
         <v>22</v>
@@ -26559,12 +27069,15 @@
         <v>22</v>
       </c>
       <c r="AD186" s="78" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="187" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>782</v>
+      </c>
+      <c r="AE186" s="78" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="187" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="70" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B187" s="48" t="s">
         <v>22</v>
@@ -26651,105 +27164,105 @@
         <v>22</v>
       </c>
       <c r="AD187" s="78" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="188" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="70" t="s">
+        <v>640</v>
+      </c>
+      <c r="B188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V188" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W188" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X188" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB188" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD188" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="70" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="188" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="70" t="s">
-        <v>645</v>
-      </c>
-      <c r="B188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V188" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W188" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X188" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB188" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD188" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="189" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="70" t="s">
-        <v>647</v>
-      </c>
       <c r="B189" s="48" t="s">
         <v>22</v>
       </c>
@@ -26838,9 +27351,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="70" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B190" s="48" t="s">
         <v>22</v>
@@ -26930,102 +27443,102 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="70" t="s">
+        <v>649</v>
+      </c>
+      <c r="B191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V191" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W191" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X191" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB191" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD191" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="70" t="s">
         <v>654</v>
       </c>
-      <c r="B191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V191" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W191" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X191" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB191" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC191" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD191" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="192" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="70" t="s">
-        <v>659</v>
-      </c>
       <c r="B192" s="48" t="s">
         <v>22</v>
       </c>
@@ -27078,7 +27591,7 @@
         <v>22</v>
       </c>
       <c r="S192" s="49" t="s">
-        <v>606</v>
+        <v>766</v>
       </c>
       <c r="T192" s="48" t="s">
         <v>22</v>
@@ -27108,7 +27621,7 @@
         <v>22</v>
       </c>
       <c r="AC192" s="73" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AD192" s="48" t="s">
         <v>22</v>
@@ -27116,7 +27629,7 @@
     </row>
     <row r="193" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="70" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B193" s="48" t="s">
         <v>22</v>
@@ -27170,7 +27683,7 @@
         <v>22</v>
       </c>
       <c r="S193" s="49" t="s">
-        <v>620</v>
+        <v>768</v>
       </c>
       <c r="T193" s="48" t="s">
         <v>22</v>
@@ -27208,7 +27721,7 @@
     </row>
     <row r="194" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="70" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B194" s="48" t="s">
         <v>22</v>
@@ -27262,7 +27775,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>618</v>
+        <v>769</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -27300,7 +27813,7 @@
     </row>
     <row r="195" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="70" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B195" s="48" t="s">
         <v>22</v>
@@ -27354,7 +27867,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>671</v>
+        <v>770</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -27392,7 +27905,7 @@
     </row>
     <row r="196" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="70" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B196" s="48" t="s">
         <v>22</v>
@@ -27446,7 +27959,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>606</v>
+        <v>766</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -27484,7 +27997,7 @@
     </row>
     <row r="197" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="70" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B197" s="48" t="s">
         <v>22</v>
@@ -27538,7 +28051,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -27576,7 +28089,7 @@
     </row>
     <row r="198" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="70" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B198" s="48" t="s">
         <v>22</v>
@@ -27630,7 +28143,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>685</v>
+        <v>772</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -27668,7 +28181,7 @@
     </row>
     <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="70" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B199" s="48" t="s">
         <v>22</v>
@@ -27722,7 +28235,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>686</v>
+        <v>773</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -27760,7 +28273,7 @@
     </row>
     <row r="200" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="70" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B200" s="48" t="s">
         <v>22</v>
@@ -27814,7 +28327,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>606</v>
+        <v>766</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -27852,7 +28365,7 @@
     </row>
     <row r="201" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="70" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="B201" s="48" t="s">
         <v>22</v>
@@ -27906,7 +28419,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -27944,7 +28457,7 @@
     </row>
     <row r="202" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="70" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B202" s="48" t="s">
         <v>22</v>
@@ -27998,7 +28511,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -28036,7 +28549,7 @@
     </row>
     <row r="203" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="70" t="s">
-        <v>756</v>
+        <v>805</v>
       </c>
       <c r="B203" s="48" t="s">
         <v>22</v>
@@ -28090,39 +28603,1051 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="T203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V203" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W203" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X203" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB203" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD203" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="70" t="s">
+        <v>745</v>
+      </c>
+      <c r="B204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S204" s="49" t="s">
+        <v>783</v>
+      </c>
+      <c r="T204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V204" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W204" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X204" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB204" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC204" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD204" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="70" t="s">
+        <v>751</v>
+      </c>
+      <c r="B205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S205" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="T205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V205" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W205" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X205" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB205" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC205" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD205" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="70" t="s">
+        <v>752</v>
+      </c>
+      <c r="B206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S206" s="49" t="s">
+        <v>776</v>
+      </c>
+      <c r="T206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V206" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W206" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X206" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB206" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD206" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="70" t="s">
         <v>757</v>
       </c>
-      <c r="T203" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U203" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V203" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W203" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X203" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y203" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z203" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA203" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB203" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC203" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD203" s="48" t="s">
+      <c r="B207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S207" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="T207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V207" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W207" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X207" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB207" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD207" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="70" t="s">
+        <v>758</v>
+      </c>
+      <c r="B208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S208" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="T208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V208" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W208" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X208" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB208" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD208" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="70" t="s">
+        <v>759</v>
+      </c>
+      <c r="B209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S209" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="T209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V209" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W209" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X209" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB209" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD209" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="70" t="s">
+        <v>784</v>
+      </c>
+      <c r="B210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S210" s="49" t="s">
+        <v>788</v>
+      </c>
+      <c r="T210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V210" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W210" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X210" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB210" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD210" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="70" t="s">
+        <v>789</v>
+      </c>
+      <c r="B211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S211" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="T211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V211" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W211" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X211" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB211" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD211" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="70" t="s">
+        <v>795</v>
+      </c>
+      <c r="B212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S212" s="49" t="s">
+        <v>796</v>
+      </c>
+      <c r="T212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V212" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W212" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X212" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB212" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD212" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="70" t="s">
+        <v>799</v>
+      </c>
+      <c r="B213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S213" s="49" t="s">
+        <v>800</v>
+      </c>
+      <c r="T213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V213" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W213" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X213" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB213" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD213" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="70" t="s">
+        <v>801</v>
+      </c>
+      <c r="B214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S214" s="49" t="s">
+        <v>785</v>
+      </c>
+      <c r="T214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V214" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W214" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X214" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB214" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD214" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -28251,17 +29776,22 @@
     <hyperlink ref="D142" r:id="rId16" xr:uid="{8898BD8E-2CA4-4CDE-890B-D65B515E0457}"/>
     <hyperlink ref="G172" r:id="rId17" xr:uid="{E0CF340A-567A-4979-87DE-4F467618A03F}"/>
     <hyperlink ref="AC192" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
-    <hyperlink ref="S184" r:id="rId19" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
+    <hyperlink ref="S184" r:id="rId19" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
     <hyperlink ref="S196" r:id="rId20" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
-    <hyperlink ref="S174" r:id="rId21" xr:uid="{1CB229C2-041D-41CF-B0B2-E8666C35759B}"/>
-    <hyperlink ref="S176" r:id="rId22" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
-    <hyperlink ref="S177" r:id="rId23" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
-    <hyperlink ref="S178" r:id="rId24" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
-    <hyperlink ref="AC175" r:id="rId25" tooltip="Beige ABCD kurta 10" display="https://qa.zlta.testingserver8.com/product-detail/beige-abcd-kurta-10" xr:uid="{04D6BD62-D6D3-4507-A9D5-80282A6668F1}"/>
-    <hyperlink ref="AC176" r:id="rId26" tooltip="Beige ABCD kurta 10" display="https://qa.zlta.testingserver8.com/product-detail/beige-abcd-kurta-10" xr:uid="{E5F22AA8-3955-4544-8875-209980B1EE50}"/>
-    <hyperlink ref="AC179" r:id="rId27" tooltip="Beige ABCD kurta 10" display="https://qa.zlta.testingserver8.com/product-detail/beige-abcd-kurta-10" xr:uid="{5920AA2A-E939-4507-BC88-3BB2798A2997}"/>
+    <hyperlink ref="S176" r:id="rId21" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
+    <hyperlink ref="S177" r:id="rId22" display="https://opt.adm.testingserver8.com/admin/home-page-banner" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
+    <hyperlink ref="S178" r:id="rId23" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
+    <hyperlink ref="S175" r:id="rId24" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{CF1B8F79-F4E1-4AB9-B852-9B1E92C5988C}"/>
+    <hyperlink ref="S179" r:id="rId25" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{B4C89834-3581-4298-A312-1087A98E46BC}"/>
+    <hyperlink ref="S180" r:id="rId26" display="https://opt.adm.testingserver8.com/admin/special-timer-event" xr:uid="{DC091BA2-1053-4AEE-9250-D6D43A208977}"/>
+    <hyperlink ref="S181" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
+    <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
+    <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
+    <hyperlink ref="AC175" r:id="rId30" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{1D561439-6DB5-4460-9DCC-1441D607E059}"/>
+    <hyperlink ref="AC176" r:id="rId31" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{7107FA92-AE31-476F-85E0-2E3EB61EA26F}"/>
+    <hyperlink ref="AC179" r:id="rId32" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{EE1283A5-0E44-46A8-988B-A844DC89A813}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA7A192-0AF5-4D70-A8B4-15BF0DEE0772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E11E1E3-7B4A-4BFC-BC41-8DCE4BFA7F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7467" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7507" uniqueCount="820">
   <si>
     <t>S.No</t>
   </si>
@@ -2447,6 +2447,45 @@
   </si>
   <si>
     <t>TC_UI_Zlaata_ADC_03</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_PSColor_01</t>
+  </si>
+  <si>
+    <t>Admin Panel  Prduct Secondary Color Page</t>
+  </si>
+  <si>
+    <t>Check Product secondary color appears across user page.</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>EEF</t>
+  </si>
+  <si>
+    <t>AGM</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>ADMI</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>APE</t>
+  </si>
+  <si>
+    <t>PSColor</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_PSColor_01</t>
   </si>
 </sst>
 </file>
@@ -3083,31 +3122,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3128,8 +3146,29 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3933,10 +3972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z225"/>
+  <dimension ref="A1:Z227"/>
   <sheetViews>
-    <sheetView topLeftCell="A204" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView topLeftCell="A206" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4689,18 +4728,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="84"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="93"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -5087,18 +5126,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="87"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="96"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5645,18 +5684,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="87"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="96"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -5979,18 +6018,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="85" t="s">
+      <c r="A66" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="86"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="86"/>
-      <c r="J66" s="87"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="96"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6345,18 +6384,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="85" t="s">
+      <c r="A78" s="94" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="86"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="86"/>
-      <c r="I78" s="86"/>
-      <c r="J78" s="87"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="96"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7223,18 +7262,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="89" t="s">
+      <c r="A106" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="89"/>
-      <c r="C106" s="89"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="89"/>
-      <c r="F106" s="89"/>
-      <c r="G106" s="89"/>
-      <c r="H106" s="89"/>
-      <c r="I106" s="89"/>
-      <c r="J106" s="89"/>
+      <c r="B106" s="97"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="97"/>
+      <c r="G106" s="97"/>
+      <c r="H106" s="97"/>
+      <c r="I106" s="97"/>
+      <c r="J106" s="97"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -7727,18 +7766,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="90" t="s">
+      <c r="A121" s="82" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="90"/>
-      <c r="C121" s="90"/>
-      <c r="D121" s="90"/>
-      <c r="E121" s="90"/>
-      <c r="F121" s="90"/>
-      <c r="G121" s="90"/>
-      <c r="H121" s="90"/>
-      <c r="I121" s="90"/>
-      <c r="J121" s="90"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="82"/>
+      <c r="D121" s="82"/>
+      <c r="E121" s="82"/>
+      <c r="F121" s="82"/>
+      <c r="G121" s="82"/>
+      <c r="H121" s="82"/>
+      <c r="I121" s="82"/>
+      <c r="J121" s="82"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -7801,18 +7840,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="90" t="s">
+      <c r="A123" s="82" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="90"/>
-      <c r="C123" s="90"/>
-      <c r="D123" s="90"/>
-      <c r="E123" s="90"/>
-      <c r="F123" s="90"/>
-      <c r="G123" s="90"/>
-      <c r="H123" s="90"/>
-      <c r="I123" s="90"/>
-      <c r="J123" s="90"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="82"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="82"/>
+      <c r="H123" s="82"/>
+      <c r="I123" s="82"/>
+      <c r="J123" s="82"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -7875,18 +7914,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="90" t="s">
+      <c r="A125" s="82" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="90"/>
-      <c r="C125" s="90"/>
-      <c r="D125" s="90"/>
-      <c r="E125" s="90"/>
-      <c r="F125" s="90"/>
-      <c r="G125" s="90"/>
-      <c r="H125" s="90"/>
-      <c r="I125" s="90"/>
-      <c r="J125" s="90"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="82"/>
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="82"/>
+      <c r="H125" s="82"/>
+      <c r="I125" s="82"/>
+      <c r="J125" s="82"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8211,18 +8250,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="90" t="s">
+      <c r="A133" s="82" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="90"/>
-      <c r="C133" s="90"/>
-      <c r="D133" s="97"/>
-      <c r="E133" s="97"/>
-      <c r="F133" s="97"/>
-      <c r="G133" s="97"/>
-      <c r="H133" s="97"/>
-      <c r="I133" s="97"/>
-      <c r="J133" s="97"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="82"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="83"/>
+      <c r="H133" s="83"/>
+      <c r="I133" s="83"/>
+      <c r="J133" s="83"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8717,18 +8756,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="94" t="s">
+      <c r="A145" s="87" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="95"/>
-      <c r="C145" s="95"/>
-      <c r="D145" s="95"/>
-      <c r="E145" s="95"/>
-      <c r="F145" s="95"/>
-      <c r="G145" s="95"/>
-      <c r="H145" s="95"/>
-      <c r="I145" s="95"/>
-      <c r="J145" s="96"/>
+      <c r="B145" s="88"/>
+      <c r="C145" s="88"/>
+      <c r="D145" s="88"/>
+      <c r="E145" s="88"/>
+      <c r="F145" s="88"/>
+      <c r="G145" s="88"/>
+      <c r="H145" s="88"/>
+      <c r="I145" s="88"/>
+      <c r="J145" s="89"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9175,18 +9214,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="90" t="s">
+      <c r="A156" s="82" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="90"/>
-      <c r="C156" s="90"/>
-      <c r="D156" s="90"/>
-      <c r="E156" s="90"/>
-      <c r="F156" s="90"/>
-      <c r="G156" s="90"/>
-      <c r="H156" s="90"/>
-      <c r="I156" s="90"/>
-      <c r="J156" s="90"/>
+      <c r="B156" s="82"/>
+      <c r="C156" s="82"/>
+      <c r="D156" s="82"/>
+      <c r="E156" s="82"/>
+      <c r="F156" s="82"/>
+      <c r="G156" s="82"/>
+      <c r="H156" s="82"/>
+      <c r="I156" s="82"/>
+      <c r="J156" s="82"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9253,18 +9292,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="90" t="s">
+      <c r="A158" s="82" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="90"/>
-      <c r="C158" s="90"/>
-      <c r="D158" s="90"/>
-      <c r="E158" s="90"/>
-      <c r="F158" s="90"/>
-      <c r="G158" s="90"/>
-      <c r="H158" s="90"/>
-      <c r="I158" s="90"/>
-      <c r="J158" s="90"/>
+      <c r="B158" s="82"/>
+      <c r="C158" s="82"/>
+      <c r="D158" s="82"/>
+      <c r="E158" s="82"/>
+      <c r="F158" s="82"/>
+      <c r="G158" s="82"/>
+      <c r="H158" s="82"/>
+      <c r="I158" s="82"/>
+      <c r="J158" s="82"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10003,18 +10042,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="90" t="s">
+      <c r="A177" s="82" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="90"/>
-      <c r="C177" s="90"/>
-      <c r="D177" s="88"/>
-      <c r="E177" s="90"/>
-      <c r="F177" s="90"/>
-      <c r="G177" s="90"/>
-      <c r="H177" s="90"/>
-      <c r="I177" s="90"/>
-      <c r="J177" s="90"/>
+      <c r="B177" s="82"/>
+      <c r="C177" s="82"/>
+      <c r="D177" s="90"/>
+      <c r="E177" s="82"/>
+      <c r="F177" s="82"/>
+      <c r="G177" s="82"/>
+      <c r="H177" s="82"/>
+      <c r="I177" s="82"/>
+      <c r="J177" s="82"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -10039,7 +10078,7 @@
         <v>11</v>
       </c>
       <c r="H178" s="69" t="s">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="I178" s="69" t="s">
         <v>12</v>
@@ -10071,7 +10110,7 @@
         <v>11</v>
       </c>
       <c r="H179" s="69" t="s">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="I179" s="69" t="s">
         <v>12</v>
@@ -10103,7 +10142,7 @@
         <v>11</v>
       </c>
       <c r="H180" s="69" t="s">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="I180" s="69" t="s">
         <v>12</v>
@@ -10135,7 +10174,7 @@
         <v>11</v>
       </c>
       <c r="H181" s="69" t="s">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="I181" s="69" t="s">
         <v>12</v>
@@ -10167,7 +10206,7 @@
         <v>11</v>
       </c>
       <c r="H182" s="69" t="s">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="I182" s="69" t="s">
         <v>12</v>
@@ -10199,7 +10238,7 @@
         <v>11</v>
       </c>
       <c r="H183" s="69" t="s">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="I183" s="69" t="s">
         <v>12</v>
@@ -10231,7 +10270,7 @@
         <v>11</v>
       </c>
       <c r="H184" s="69" t="s">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="I184" s="69" t="s">
         <v>12</v>
@@ -10263,7 +10302,7 @@
         <v>11</v>
       </c>
       <c r="H185" s="69" t="s">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="I185" s="69" t="s">
         <v>12</v>
@@ -10295,7 +10334,7 @@
         <v>11</v>
       </c>
       <c r="H186" s="69" t="s">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="I186" s="69" t="s">
         <v>12</v>
@@ -10305,18 +10344,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="91" t="s">
+      <c r="A187" s="84" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="92"/>
-      <c r="C187" s="92"/>
-      <c r="D187" s="92"/>
-      <c r="E187" s="92"/>
-      <c r="F187" s="92"/>
-      <c r="G187" s="92"/>
-      <c r="H187" s="92"/>
-      <c r="I187" s="92"/>
-      <c r="J187" s="93"/>
+      <c r="B187" s="85"/>
+      <c r="C187" s="85"/>
+      <c r="D187" s="85"/>
+      <c r="E187" s="85"/>
+      <c r="F187" s="85"/>
+      <c r="G187" s="85"/>
+      <c r="H187" s="85"/>
+      <c r="I187" s="85"/>
+      <c r="J187" s="86"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10341,7 +10380,7 @@
         <v>11</v>
       </c>
       <c r="H188" s="69" t="s">
-        <v>540</v>
+        <v>811</v>
       </c>
       <c r="I188" s="69" t="s">
         <v>12</v>
@@ -10373,7 +10412,7 @@
         <v>11</v>
       </c>
       <c r="H189" s="69" t="s">
-        <v>540</v>
+        <v>811</v>
       </c>
       <c r="I189" s="69" t="s">
         <v>12</v>
@@ -10405,7 +10444,7 @@
         <v>11</v>
       </c>
       <c r="H190" s="69" t="s">
-        <v>540</v>
+        <v>811</v>
       </c>
       <c r="I190" s="69" t="s">
         <v>12</v>
@@ -10437,7 +10476,7 @@
         <v>11</v>
       </c>
       <c r="H191" s="69" t="s">
-        <v>540</v>
+        <v>811</v>
       </c>
       <c r="I191" s="69" t="s">
         <v>12</v>
@@ -10469,7 +10508,7 @@
         <v>11</v>
       </c>
       <c r="H192" s="69" t="s">
-        <v>540</v>
+        <v>811</v>
       </c>
       <c r="I192" s="69" t="s">
         <v>12</v>
@@ -10479,18 +10518,18 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="88" t="s">
+      <c r="A193" s="90" t="s">
         <v>638</v>
       </c>
-      <c r="B193" s="88"/>
-      <c r="C193" s="88"/>
-      <c r="D193" s="88"/>
-      <c r="E193" s="88"/>
-      <c r="F193" s="88"/>
-      <c r="G193" s="88"/>
-      <c r="H193" s="88"/>
-      <c r="I193" s="88"/>
-      <c r="J193" s="88"/>
+      <c r="B193" s="90"/>
+      <c r="C193" s="90"/>
+      <c r="D193" s="90"/>
+      <c r="E193" s="90"/>
+      <c r="F193" s="90"/>
+      <c r="G193" s="90"/>
+      <c r="H193" s="90"/>
+      <c r="I193" s="90"/>
+      <c r="J193" s="90"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
@@ -10515,7 +10554,7 @@
         <v>11</v>
       </c>
       <c r="H194" s="48" t="s">
-        <v>540</v>
+        <v>812</v>
       </c>
       <c r="I194" s="48" t="s">
         <v>12</v>
@@ -10547,7 +10586,7 @@
         <v>11</v>
       </c>
       <c r="H195" s="48" t="s">
-        <v>540</v>
+        <v>812</v>
       </c>
       <c r="I195" s="48" t="s">
         <v>12</v>
@@ -10579,7 +10618,7 @@
         <v>11</v>
       </c>
       <c r="H196" s="48" t="s">
-        <v>540</v>
+        <v>812</v>
       </c>
       <c r="I196" s="48" t="s">
         <v>12</v>
@@ -10611,7 +10650,7 @@
         <v>11</v>
       </c>
       <c r="H197" s="48" t="s">
-        <v>540</v>
+        <v>812</v>
       </c>
       <c r="I197" s="48" t="s">
         <v>12</v>
@@ -10621,18 +10660,18 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="88" t="s">
+      <c r="A198" s="90" t="s">
         <v>651</v>
       </c>
-      <c r="B198" s="88"/>
-      <c r="C198" s="88"/>
-      <c r="D198" s="88"/>
-      <c r="E198" s="88"/>
-      <c r="F198" s="88"/>
-      <c r="G198" s="88"/>
-      <c r="H198" s="88"/>
-      <c r="I198" s="88"/>
-      <c r="J198" s="88"/>
+      <c r="B198" s="90"/>
+      <c r="C198" s="90"/>
+      <c r="D198" s="90"/>
+      <c r="E198" s="90"/>
+      <c r="F198" s="90"/>
+      <c r="G198" s="90"/>
+      <c r="H198" s="90"/>
+      <c r="I198" s="90"/>
+      <c r="J198" s="90"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
@@ -10657,7 +10696,7 @@
         <v>11</v>
       </c>
       <c r="H199" s="48" t="s">
-        <v>540</v>
+        <v>813</v>
       </c>
       <c r="I199" s="48" t="s">
         <v>12</v>
@@ -10667,18 +10706,18 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="88" t="s">
+      <c r="A200" s="90" t="s">
         <v>657</v>
       </c>
-      <c r="B200" s="88"/>
-      <c r="C200" s="88"/>
-      <c r="D200" s="88"/>
-      <c r="E200" s="88"/>
-      <c r="F200" s="88"/>
-      <c r="G200" s="88"/>
-      <c r="H200" s="88"/>
-      <c r="I200" s="88"/>
-      <c r="J200" s="88"/>
+      <c r="B200" s="90"/>
+      <c r="C200" s="90"/>
+      <c r="D200" s="90"/>
+      <c r="E200" s="90"/>
+      <c r="F200" s="90"/>
+      <c r="G200" s="90"/>
+      <c r="H200" s="90"/>
+      <c r="I200" s="90"/>
+      <c r="J200" s="90"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
@@ -10703,7 +10742,7 @@
         <v>11</v>
       </c>
       <c r="H201" s="48" t="s">
-        <v>540</v>
+        <v>814</v>
       </c>
       <c r="I201" s="48" t="s">
         <v>12</v>
@@ -10735,7 +10774,7 @@
         <v>11</v>
       </c>
       <c r="H202" s="48" t="s">
-        <v>540</v>
+        <v>814</v>
       </c>
       <c r="I202" s="48" t="s">
         <v>12</v>
@@ -10767,7 +10806,7 @@
         <v>11</v>
       </c>
       <c r="H203" s="48" t="s">
-        <v>540</v>
+        <v>814</v>
       </c>
       <c r="I203" s="48" t="s">
         <v>12</v>
@@ -10799,7 +10838,7 @@
         <v>11</v>
       </c>
       <c r="H204" s="48" t="s">
-        <v>540</v>
+        <v>814</v>
       </c>
       <c r="I204" s="48" t="s">
         <v>12</v>
@@ -10831,7 +10870,7 @@
         <v>11</v>
       </c>
       <c r="H205" s="48" t="s">
-        <v>540</v>
+        <v>814</v>
       </c>
       <c r="I205" s="48" t="s">
         <v>12</v>
@@ -10863,7 +10902,7 @@
         <v>11</v>
       </c>
       <c r="H206" s="48" t="s">
-        <v>540</v>
+        <v>814</v>
       </c>
       <c r="I206" s="48" t="s">
         <v>12</v>
@@ -10895,7 +10934,7 @@
         <v>11</v>
       </c>
       <c r="H207" s="48" t="s">
-        <v>540</v>
+        <v>814</v>
       </c>
       <c r="I207" s="48" t="s">
         <v>12</v>
@@ -10905,18 +10944,18 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="88" t="s">
+      <c r="A208" s="90" t="s">
         <v>733</v>
       </c>
-      <c r="B208" s="88"/>
-      <c r="C208" s="88"/>
-      <c r="D208" s="88"/>
-      <c r="E208" s="88"/>
-      <c r="F208" s="88"/>
-      <c r="G208" s="88"/>
-      <c r="H208" s="88"/>
-      <c r="I208" s="88"/>
-      <c r="J208" s="88"/>
+      <c r="B208" s="90"/>
+      <c r="C208" s="90"/>
+      <c r="D208" s="90"/>
+      <c r="E208" s="90"/>
+      <c r="F208" s="90"/>
+      <c r="G208" s="90"/>
+      <c r="H208" s="90"/>
+      <c r="I208" s="90"/>
+      <c r="J208" s="90"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
@@ -10941,7 +10980,7 @@
         <v>11</v>
       </c>
       <c r="H209" s="48" t="s">
-        <v>540</v>
+        <v>815</v>
       </c>
       <c r="I209" s="48" t="s">
         <v>12</v>
@@ -10951,18 +10990,18 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="88" t="s">
+      <c r="A210" s="90" t="s">
         <v>736</v>
       </c>
-      <c r="B210" s="88"/>
-      <c r="C210" s="88"/>
-      <c r="D210" s="88"/>
-      <c r="E210" s="88"/>
-      <c r="F210" s="88"/>
-      <c r="G210" s="88"/>
-      <c r="H210" s="88"/>
-      <c r="I210" s="88"/>
-      <c r="J210" s="88"/>
+      <c r="B210" s="90"/>
+      <c r="C210" s="90"/>
+      <c r="D210" s="90"/>
+      <c r="E210" s="90"/>
+      <c r="F210" s="90"/>
+      <c r="G210" s="90"/>
+      <c r="H210" s="90"/>
+      <c r="I210" s="90"/>
+      <c r="J210" s="90"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
@@ -10987,7 +11026,7 @@
         <v>11</v>
       </c>
       <c r="H211" s="48" t="s">
-        <v>540</v>
+        <v>816</v>
       </c>
       <c r="I211" s="48" t="s">
         <v>12</v>
@@ -11019,7 +11058,7 @@
         <v>11</v>
       </c>
       <c r="H212" s="48" t="s">
-        <v>540</v>
+        <v>816</v>
       </c>
       <c r="I212" s="48" t="s">
         <v>12</v>
@@ -11051,7 +11090,7 @@
         <v>11</v>
       </c>
       <c r="H213" s="48" t="s">
-        <v>540</v>
+        <v>816</v>
       </c>
       <c r="I213" s="48" t="s">
         <v>12</v>
@@ -11061,18 +11100,18 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="88" t="s">
+      <c r="A214" s="90" t="s">
         <v>746</v>
       </c>
-      <c r="B214" s="88"/>
-      <c r="C214" s="88"/>
-      <c r="D214" s="88"/>
-      <c r="E214" s="88"/>
-      <c r="F214" s="88"/>
-      <c r="G214" s="88"/>
-      <c r="H214" s="88"/>
-      <c r="I214" s="88"/>
-      <c r="J214" s="88"/>
+      <c r="B214" s="90"/>
+      <c r="C214" s="90"/>
+      <c r="D214" s="90"/>
+      <c r="E214" s="90"/>
+      <c r="F214" s="90"/>
+      <c r="G214" s="90"/>
+      <c r="H214" s="90"/>
+      <c r="I214" s="90"/>
+      <c r="J214" s="90"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="48">
@@ -11097,7 +11136,7 @@
         <v>11</v>
       </c>
       <c r="H215" s="48" t="s">
-        <v>540</v>
+        <v>817</v>
       </c>
       <c r="I215" s="48" t="s">
         <v>12</v>
@@ -11129,7 +11168,7 @@
         <v>11</v>
       </c>
       <c r="H216" s="48" t="s">
-        <v>540</v>
+        <v>817</v>
       </c>
       <c r="I216" s="48" t="s">
         <v>12</v>
@@ -11161,7 +11200,7 @@
         <v>11</v>
       </c>
       <c r="H217" s="48" t="s">
-        <v>540</v>
+        <v>817</v>
       </c>
       <c r="I217" s="48" t="s">
         <v>12</v>
@@ -11193,7 +11232,7 @@
         <v>11</v>
       </c>
       <c r="H218" s="48" t="s">
-        <v>540</v>
+        <v>817</v>
       </c>
       <c r="I218" s="48" t="s">
         <v>12</v>
@@ -11225,7 +11264,7 @@
         <v>11</v>
       </c>
       <c r="H219" s="48" t="s">
-        <v>540</v>
+        <v>817</v>
       </c>
       <c r="I219" s="48" t="s">
         <v>12</v>
@@ -11257,7 +11296,7 @@
         <v>11</v>
       </c>
       <c r="H220" s="48" t="s">
-        <v>540</v>
+        <v>817</v>
       </c>
       <c r="I220" s="48" t="s">
         <v>12</v>
@@ -11289,7 +11328,7 @@
         <v>11</v>
       </c>
       <c r="H221" s="48" t="s">
-        <v>540</v>
+        <v>817</v>
       </c>
       <c r="I221" s="48" t="s">
         <v>12</v>
@@ -11321,7 +11360,7 @@
         <v>11</v>
       </c>
       <c r="H222" s="48" t="s">
-        <v>540</v>
+        <v>817</v>
       </c>
       <c r="I222" s="48" t="s">
         <v>12</v>
@@ -11353,7 +11392,7 @@
         <v>11</v>
       </c>
       <c r="H223" s="48" t="s">
-        <v>540</v>
+        <v>817</v>
       </c>
       <c r="I223" s="48" t="s">
         <v>12</v>
@@ -11385,7 +11424,7 @@
         <v>11</v>
       </c>
       <c r="H224" s="48" t="s">
-        <v>540</v>
+        <v>817</v>
       </c>
       <c r="I224" s="48" t="s">
         <v>12</v>
@@ -11417,7 +11456,7 @@
         <v>11</v>
       </c>
       <c r="H225" s="48" t="s">
-        <v>540</v>
+        <v>817</v>
       </c>
       <c r="I225" s="48" t="s">
         <v>12</v>
@@ -11426,8 +11465,60 @@
         <v>13</v>
       </c>
     </row>
+    <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="90" t="s">
+        <v>808</v>
+      </c>
+      <c r="B226" s="90"/>
+      <c r="C226" s="90"/>
+      <c r="D226" s="90"/>
+      <c r="E226" s="90"/>
+      <c r="F226" s="90"/>
+      <c r="G226" s="90"/>
+      <c r="H226" s="90"/>
+      <c r="I226" s="90"/>
+      <c r="J226" s="90"/>
+    </row>
+    <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="48">
+        <v>1</v>
+      </c>
+      <c r="B227" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="79" t="s">
+        <v>819</v>
+      </c>
+      <c r="D227" s="78" t="s">
+        <v>809</v>
+      </c>
+      <c r="E227" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227" s="70" t="s">
+        <v>807</v>
+      </c>
+      <c r="G227" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" s="48" t="s">
+        <v>818</v>
+      </c>
+      <c r="I227" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J227" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="A226:J226"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A210:J210"/>
     <mergeCell ref="A208:J208"/>
     <mergeCell ref="A200:J200"/>
@@ -11438,17 +11529,12 @@
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A198:J198"/>
     <mergeCell ref="A193:J193"/>
+    <mergeCell ref="A133:J133"/>
     <mergeCell ref="A187:J187"/>
     <mergeCell ref="A145:J145"/>
     <mergeCell ref="A156:J156"/>
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
-    <mergeCell ref="A133:J133"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -11546,10 +11632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AF214"/>
+  <dimension ref="A1:AF215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203"/>
+    <sheetView tabSelected="1" topLeftCell="M201" workbookViewId="0">
+      <selection activeCell="S215" sqref="S215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29648,6 +29734,98 @@
         <v>22</v>
       </c>
       <c r="AD214" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="70" t="s">
+        <v>807</v>
+      </c>
+      <c r="B215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S215" s="49" t="s">
+        <v>766</v>
+      </c>
+      <c r="T215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V215" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W215" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X215" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB215" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD215" s="48" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E11E1E3-7B4A-4BFC-BC41-8DCE4BFA7F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787DE165-1501-4C1B-9EE6-E35E1FB4E2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7507" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7543" uniqueCount="823">
   <si>
     <t>S.No</t>
   </si>
@@ -2320,9 +2320,6 @@
     <t>Verify exported Order &gt; CANCELED &gt; Exchange Page have dates within selected range.</t>
   </si>
   <si>
-    <t>Test By Auto2</t>
-  </si>
-  <si>
     <t>https://qa.adm.testingserver8.com/admin/home-page-banner</t>
   </si>
   <si>
@@ -2368,18 +2365,6 @@
     <t>https://qa.adm.testingserver8.com/admin/exchange-cancel</t>
   </si>
   <si>
-    <t>Adayein</t>
-  </si>
-  <si>
-    <t>Casuals</t>
-  </si>
-  <si>
-    <t>Ganesh Chaturthi</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/order</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_APE_07</t>
   </si>
   <si>
@@ -2486,6 +2471,30 @@
   </si>
   <si>
     <t>TC_UI_Admin_PSColor_01</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_01</t>
+  </si>
+  <si>
+    <t>Order Flow Email Verify Page</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_01</t>
+  </si>
+  <si>
+    <t>Verify emails for order placed, shipped, and delivered.</t>
+  </si>
+  <si>
+    <t>OEV</t>
+  </si>
+  <si>
+    <t>Multi color Flare Formal Dress 1</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/order</t>
+  </si>
+  <si>
+    <t>Test By Auto1</t>
   </si>
 </sst>
 </file>
@@ -3122,6 +3131,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3144,9 +3156,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3972,10 +3981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z227"/>
+  <dimension ref="A1:Z229"/>
   <sheetViews>
-    <sheetView topLeftCell="A206" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView topLeftCell="D218" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D244" sqref="D244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7766,18 +7775,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="82" t="s">
+      <c r="A121" s="83" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="82"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="82"/>
-      <c r="G121" s="82"/>
-      <c r="H121" s="82"/>
-      <c r="I121" s="82"/>
-      <c r="J121" s="82"/>
+      <c r="B121" s="83"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
+      <c r="G121" s="83"/>
+      <c r="H121" s="83"/>
+      <c r="I121" s="83"/>
+      <c r="J121" s="83"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -7840,18 +7849,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="82" t="s">
+      <c r="A123" s="83" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="82"/>
-      <c r="G123" s="82"/>
-      <c r="H123" s="82"/>
-      <c r="I123" s="82"/>
-      <c r="J123" s="82"/>
+      <c r="B123" s="83"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="83"/>
+      <c r="I123" s="83"/>
+      <c r="J123" s="83"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -7914,18 +7923,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="82" t="s">
+      <c r="A125" s="83" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="82"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="82"/>
-      <c r="H125" s="82"/>
-      <c r="I125" s="82"/>
-      <c r="J125" s="82"/>
+      <c r="B125" s="83"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="83"/>
+      <c r="E125" s="83"/>
+      <c r="F125" s="83"/>
+      <c r="G125" s="83"/>
+      <c r="H125" s="83"/>
+      <c r="I125" s="83"/>
+      <c r="J125" s="83"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8250,18 +8259,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="82" t="s">
+      <c r="A133" s="83" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="82"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="83"/>
-      <c r="H133" s="83"/>
-      <c r="I133" s="83"/>
-      <c r="J133" s="83"/>
+      <c r="B133" s="83"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="84"/>
+      <c r="E133" s="84"/>
+      <c r="F133" s="84"/>
+      <c r="G133" s="84"/>
+      <c r="H133" s="84"/>
+      <c r="I133" s="84"/>
+      <c r="J133" s="84"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8756,18 +8765,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="87" t="s">
+      <c r="A145" s="88" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="88"/>
-      <c r="C145" s="88"/>
-      <c r="D145" s="88"/>
-      <c r="E145" s="88"/>
-      <c r="F145" s="88"/>
-      <c r="G145" s="88"/>
-      <c r="H145" s="88"/>
-      <c r="I145" s="88"/>
-      <c r="J145" s="89"/>
+      <c r="B145" s="89"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="89"/>
+      <c r="E145" s="89"/>
+      <c r="F145" s="89"/>
+      <c r="G145" s="89"/>
+      <c r="H145" s="89"/>
+      <c r="I145" s="89"/>
+      <c r="J145" s="90"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9214,18 +9223,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="82" t="s">
+      <c r="A156" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="82"/>
-      <c r="C156" s="82"/>
-      <c r="D156" s="82"/>
-      <c r="E156" s="82"/>
-      <c r="F156" s="82"/>
-      <c r="G156" s="82"/>
-      <c r="H156" s="82"/>
-      <c r="I156" s="82"/>
-      <c r="J156" s="82"/>
+      <c r="B156" s="83"/>
+      <c r="C156" s="83"/>
+      <c r="D156" s="83"/>
+      <c r="E156" s="83"/>
+      <c r="F156" s="83"/>
+      <c r="G156" s="83"/>
+      <c r="H156" s="83"/>
+      <c r="I156" s="83"/>
+      <c r="J156" s="83"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9292,18 +9301,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="82" t="s">
+      <c r="A158" s="83" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="82"/>
-      <c r="C158" s="82"/>
-      <c r="D158" s="82"/>
-      <c r="E158" s="82"/>
-      <c r="F158" s="82"/>
-      <c r="G158" s="82"/>
-      <c r="H158" s="82"/>
-      <c r="I158" s="82"/>
-      <c r="J158" s="82"/>
+      <c r="B158" s="83"/>
+      <c r="C158" s="83"/>
+      <c r="D158" s="83"/>
+      <c r="E158" s="83"/>
+      <c r="F158" s="83"/>
+      <c r="G158" s="83"/>
+      <c r="H158" s="83"/>
+      <c r="I158" s="83"/>
+      <c r="J158" s="83"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10042,18 +10051,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="82" t="s">
+      <c r="A177" s="83" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="82"/>
-      <c r="C177" s="82"/>
-      <c r="D177" s="90"/>
-      <c r="E177" s="82"/>
-      <c r="F177" s="82"/>
-      <c r="G177" s="82"/>
-      <c r="H177" s="82"/>
-      <c r="I177" s="82"/>
-      <c r="J177" s="82"/>
+      <c r="B177" s="83"/>
+      <c r="C177" s="83"/>
+      <c r="D177" s="82"/>
+      <c r="E177" s="83"/>
+      <c r="F177" s="83"/>
+      <c r="G177" s="83"/>
+      <c r="H177" s="83"/>
+      <c r="I177" s="83"/>
+      <c r="J177" s="83"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -10078,7 +10087,7 @@
         <v>11</v>
       </c>
       <c r="H178" s="69" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="I178" s="69" t="s">
         <v>12</v>
@@ -10110,7 +10119,7 @@
         <v>11</v>
       </c>
       <c r="H179" s="69" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="I179" s="69" t="s">
         <v>12</v>
@@ -10142,7 +10151,7 @@
         <v>11</v>
       </c>
       <c r="H180" s="69" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="I180" s="69" t="s">
         <v>12</v>
@@ -10174,7 +10183,7 @@
         <v>11</v>
       </c>
       <c r="H181" s="69" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="I181" s="69" t="s">
         <v>12</v>
@@ -10206,7 +10215,7 @@
         <v>11</v>
       </c>
       <c r="H182" s="69" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="I182" s="69" t="s">
         <v>12</v>
@@ -10238,7 +10247,7 @@
         <v>11</v>
       </c>
       <c r="H183" s="69" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="I183" s="69" t="s">
         <v>12</v>
@@ -10270,7 +10279,7 @@
         <v>11</v>
       </c>
       <c r="H184" s="69" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="I184" s="69" t="s">
         <v>12</v>
@@ -10302,7 +10311,7 @@
         <v>11</v>
       </c>
       <c r="H185" s="69" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="I185" s="69" t="s">
         <v>12</v>
@@ -10334,7 +10343,7 @@
         <v>11</v>
       </c>
       <c r="H186" s="69" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="I186" s="69" t="s">
         <v>12</v>
@@ -10344,18 +10353,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="84" t="s">
+      <c r="A187" s="85" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="85"/>
-      <c r="C187" s="85"/>
-      <c r="D187" s="85"/>
-      <c r="E187" s="85"/>
-      <c r="F187" s="85"/>
-      <c r="G187" s="85"/>
-      <c r="H187" s="85"/>
-      <c r="I187" s="85"/>
-      <c r="J187" s="86"/>
+      <c r="B187" s="86"/>
+      <c r="C187" s="86"/>
+      <c r="D187" s="86"/>
+      <c r="E187" s="86"/>
+      <c r="F187" s="86"/>
+      <c r="G187" s="86"/>
+      <c r="H187" s="86"/>
+      <c r="I187" s="86"/>
+      <c r="J187" s="87"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10380,7 +10389,7 @@
         <v>11</v>
       </c>
       <c r="H188" s="69" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="I188" s="69" t="s">
         <v>12</v>
@@ -10412,7 +10421,7 @@
         <v>11</v>
       </c>
       <c r="H189" s="69" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="I189" s="69" t="s">
         <v>12</v>
@@ -10444,7 +10453,7 @@
         <v>11</v>
       </c>
       <c r="H190" s="69" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="I190" s="69" t="s">
         <v>12</v>
@@ -10476,7 +10485,7 @@
         <v>11</v>
       </c>
       <c r="H191" s="69" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="I191" s="69" t="s">
         <v>12</v>
@@ -10508,7 +10517,7 @@
         <v>11</v>
       </c>
       <c r="H192" s="69" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="I192" s="69" t="s">
         <v>12</v>
@@ -10518,18 +10527,18 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="90" t="s">
+      <c r="A193" s="82" t="s">
         <v>638</v>
       </c>
-      <c r="B193" s="90"/>
-      <c r="C193" s="90"/>
-      <c r="D193" s="90"/>
-      <c r="E193" s="90"/>
-      <c r="F193" s="90"/>
-      <c r="G193" s="90"/>
-      <c r="H193" s="90"/>
-      <c r="I193" s="90"/>
-      <c r="J193" s="90"/>
+      <c r="B193" s="82"/>
+      <c r="C193" s="82"/>
+      <c r="D193" s="82"/>
+      <c r="E193" s="82"/>
+      <c r="F193" s="82"/>
+      <c r="G193" s="82"/>
+      <c r="H193" s="82"/>
+      <c r="I193" s="82"/>
+      <c r="J193" s="82"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
@@ -10554,7 +10563,7 @@
         <v>11</v>
       </c>
       <c r="H194" s="48" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="I194" s="48" t="s">
         <v>12</v>
@@ -10586,7 +10595,7 @@
         <v>11</v>
       </c>
       <c r="H195" s="48" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="I195" s="48" t="s">
         <v>12</v>
@@ -10618,7 +10627,7 @@
         <v>11</v>
       </c>
       <c r="H196" s="48" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="I196" s="48" t="s">
         <v>12</v>
@@ -10650,7 +10659,7 @@
         <v>11</v>
       </c>
       <c r="H197" s="48" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="I197" s="48" t="s">
         <v>12</v>
@@ -10660,18 +10669,18 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="90" t="s">
+      <c r="A198" s="82" t="s">
         <v>651</v>
       </c>
-      <c r="B198" s="90"/>
-      <c r="C198" s="90"/>
-      <c r="D198" s="90"/>
-      <c r="E198" s="90"/>
-      <c r="F198" s="90"/>
-      <c r="G198" s="90"/>
-      <c r="H198" s="90"/>
-      <c r="I198" s="90"/>
-      <c r="J198" s="90"/>
+      <c r="B198" s="82"/>
+      <c r="C198" s="82"/>
+      <c r="D198" s="82"/>
+      <c r="E198" s="82"/>
+      <c r="F198" s="82"/>
+      <c r="G198" s="82"/>
+      <c r="H198" s="82"/>
+      <c r="I198" s="82"/>
+      <c r="J198" s="82"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
@@ -10696,7 +10705,7 @@
         <v>11</v>
       </c>
       <c r="H199" s="48" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="I199" s="48" t="s">
         <v>12</v>
@@ -10706,18 +10715,18 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="90" t="s">
+      <c r="A200" s="82" t="s">
         <v>657</v>
       </c>
-      <c r="B200" s="90"/>
-      <c r="C200" s="90"/>
-      <c r="D200" s="90"/>
-      <c r="E200" s="90"/>
-      <c r="F200" s="90"/>
-      <c r="G200" s="90"/>
-      <c r="H200" s="90"/>
-      <c r="I200" s="90"/>
-      <c r="J200" s="90"/>
+      <c r="B200" s="82"/>
+      <c r="C200" s="82"/>
+      <c r="D200" s="82"/>
+      <c r="E200" s="82"/>
+      <c r="F200" s="82"/>
+      <c r="G200" s="82"/>
+      <c r="H200" s="82"/>
+      <c r="I200" s="82"/>
+      <c r="J200" s="82"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
@@ -10742,7 +10751,7 @@
         <v>11</v>
       </c>
       <c r="H201" s="48" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="I201" s="48" t="s">
         <v>12</v>
@@ -10774,7 +10783,7 @@
         <v>11</v>
       </c>
       <c r="H202" s="48" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="I202" s="48" t="s">
         <v>12</v>
@@ -10806,7 +10815,7 @@
         <v>11</v>
       </c>
       <c r="H203" s="48" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="I203" s="48" t="s">
         <v>12</v>
@@ -10838,7 +10847,7 @@
         <v>11</v>
       </c>
       <c r="H204" s="48" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="I204" s="48" t="s">
         <v>12</v>
@@ -10870,7 +10879,7 @@
         <v>11</v>
       </c>
       <c r="H205" s="48" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="I205" s="48" t="s">
         <v>12</v>
@@ -10902,7 +10911,7 @@
         <v>11</v>
       </c>
       <c r="H206" s="48" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="I206" s="48" t="s">
         <v>12</v>
@@ -10934,7 +10943,7 @@
         <v>11</v>
       </c>
       <c r="H207" s="48" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="I207" s="48" t="s">
         <v>12</v>
@@ -10944,18 +10953,18 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="90" t="s">
+      <c r="A208" s="82" t="s">
         <v>733</v>
       </c>
-      <c r="B208" s="90"/>
-      <c r="C208" s="90"/>
-      <c r="D208" s="90"/>
-      <c r="E208" s="90"/>
-      <c r="F208" s="90"/>
-      <c r="G208" s="90"/>
-      <c r="H208" s="90"/>
-      <c r="I208" s="90"/>
-      <c r="J208" s="90"/>
+      <c r="B208" s="82"/>
+      <c r="C208" s="82"/>
+      <c r="D208" s="82"/>
+      <c r="E208" s="82"/>
+      <c r="F208" s="82"/>
+      <c r="G208" s="82"/>
+      <c r="H208" s="82"/>
+      <c r="I208" s="82"/>
+      <c r="J208" s="82"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
@@ -10980,7 +10989,7 @@
         <v>11</v>
       </c>
       <c r="H209" s="48" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="I209" s="48" t="s">
         <v>12</v>
@@ -10990,18 +10999,18 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="90" t="s">
+      <c r="A210" s="82" t="s">
         <v>736</v>
       </c>
-      <c r="B210" s="90"/>
-      <c r="C210" s="90"/>
-      <c r="D210" s="90"/>
-      <c r="E210" s="90"/>
-      <c r="F210" s="90"/>
-      <c r="G210" s="90"/>
-      <c r="H210" s="90"/>
-      <c r="I210" s="90"/>
-      <c r="J210" s="90"/>
+      <c r="B210" s="82"/>
+      <c r="C210" s="82"/>
+      <c r="D210" s="82"/>
+      <c r="E210" s="82"/>
+      <c r="F210" s="82"/>
+      <c r="G210" s="82"/>
+      <c r="H210" s="82"/>
+      <c r="I210" s="82"/>
+      <c r="J210" s="82"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
@@ -11026,7 +11035,7 @@
         <v>11</v>
       </c>
       <c r="H211" s="48" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I211" s="48" t="s">
         <v>12</v>
@@ -11058,7 +11067,7 @@
         <v>11</v>
       </c>
       <c r="H212" s="48" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I212" s="48" t="s">
         <v>12</v>
@@ -11075,22 +11084,22 @@
         <v>10</v>
       </c>
       <c r="C213" s="79" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D213" s="78" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E213" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F213" s="79" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G213" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H213" s="48" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I213" s="48" t="s">
         <v>12</v>
@@ -11100,18 +11109,18 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="90" t="s">
+      <c r="A214" s="82" t="s">
         <v>746</v>
       </c>
-      <c r="B214" s="90"/>
-      <c r="C214" s="90"/>
-      <c r="D214" s="90"/>
-      <c r="E214" s="90"/>
-      <c r="F214" s="90"/>
-      <c r="G214" s="90"/>
-      <c r="H214" s="90"/>
-      <c r="I214" s="90"/>
-      <c r="J214" s="90"/>
+      <c r="B214" s="82"/>
+      <c r="C214" s="82"/>
+      <c r="D214" s="82"/>
+      <c r="E214" s="82"/>
+      <c r="F214" s="82"/>
+      <c r="G214" s="82"/>
+      <c r="H214" s="82"/>
+      <c r="I214" s="82"/>
+      <c r="J214" s="82"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="48">
@@ -11136,7 +11145,7 @@
         <v>11</v>
       </c>
       <c r="H215" s="48" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I215" s="48" t="s">
         <v>12</v>
@@ -11168,7 +11177,7 @@
         <v>11</v>
       </c>
       <c r="H216" s="48" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I216" s="48" t="s">
         <v>12</v>
@@ -11200,7 +11209,7 @@
         <v>11</v>
       </c>
       <c r="H217" s="48" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I217" s="48" t="s">
         <v>12</v>
@@ -11232,7 +11241,7 @@
         <v>11</v>
       </c>
       <c r="H218" s="48" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I218" s="48" t="s">
         <v>12</v>
@@ -11264,7 +11273,7 @@
         <v>11</v>
       </c>
       <c r="H219" s="48" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I219" s="48" t="s">
         <v>12</v>
@@ -11296,7 +11305,7 @@
         <v>11</v>
       </c>
       <c r="H220" s="48" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I220" s="48" t="s">
         <v>12</v>
@@ -11313,22 +11322,22 @@
         <v>10</v>
       </c>
       <c r="C221" s="79" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D221" s="78" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E221" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F221" s="79" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G221" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H221" s="48" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I221" s="48" t="s">
         <v>12</v>
@@ -11345,22 +11354,22 @@
         <v>10</v>
       </c>
       <c r="C222" s="79" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D222" s="78" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="E222" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="79" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G222" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H222" s="48" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I222" s="48" t="s">
         <v>12</v>
@@ -11377,22 +11386,22 @@
         <v>10</v>
       </c>
       <c r="C223" s="79" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D223" s="78" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E223" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="79" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G223" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H223" s="48" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I223" s="48" t="s">
         <v>12</v>
@@ -11409,22 +11418,22 @@
         <v>10</v>
       </c>
       <c r="C224" s="79" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D224" s="78" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E224" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F224" s="79" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="G224" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H224" s="48" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I224" s="48" t="s">
         <v>12</v>
@@ -11441,22 +11450,22 @@
         <v>10</v>
       </c>
       <c r="C225" s="79" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D225" s="78" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E225" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F225" s="79" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="G225" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H225" s="48" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I225" s="48" t="s">
         <v>12</v>
@@ -11466,18 +11475,18 @@
       </c>
     </row>
     <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="90" t="s">
-        <v>808</v>
-      </c>
-      <c r="B226" s="90"/>
-      <c r="C226" s="90"/>
-      <c r="D226" s="90"/>
-      <c r="E226" s="90"/>
-      <c r="F226" s="90"/>
-      <c r="G226" s="90"/>
-      <c r="H226" s="90"/>
-      <c r="I226" s="90"/>
-      <c r="J226" s="90"/>
+      <c r="A226" s="82" t="s">
+        <v>803</v>
+      </c>
+      <c r="B226" s="82"/>
+      <c r="C226" s="82"/>
+      <c r="D226" s="82"/>
+      <c r="E226" s="82"/>
+      <c r="F226" s="82"/>
+      <c r="G226" s="82"/>
+      <c r="H226" s="82"/>
+      <c r="I226" s="82"/>
+      <c r="J226" s="82"/>
     </row>
     <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="48">
@@ -11487,22 +11496,22 @@
         <v>10</v>
       </c>
       <c r="C227" s="79" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="D227" s="78" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E227" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F227" s="70" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="G227" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H227" s="48" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="I227" s="48" t="s">
         <v>12</v>
@@ -11511,30 +11520,77 @@
         <v>13</v>
       </c>
     </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" s="82" t="s">
+        <v>816</v>
+      </c>
+      <c r="B228" s="82"/>
+      <c r="C228" s="82"/>
+      <c r="D228" s="82"/>
+      <c r="E228" s="82"/>
+      <c r="F228" s="82"/>
+      <c r="G228" s="82"/>
+      <c r="H228" s="82"/>
+      <c r="I228" s="82"/>
+      <c r="J228" s="82"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" s="48">
+        <v>1</v>
+      </c>
+      <c r="B229" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="79" t="s">
+        <v>817</v>
+      </c>
+      <c r="D229" s="78" t="s">
+        <v>818</v>
+      </c>
+      <c r="E229" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" s="79" t="s">
+        <v>815</v>
+      </c>
+      <c r="G229" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H229" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I229" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J229" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A226:J226"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="A208:J208"/>
-    <mergeCell ref="A200:J200"/>
-    <mergeCell ref="A214:J214"/>
+  <mergeCells count="23">
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A198:J198"/>
     <mergeCell ref="A193:J193"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A228:J228"/>
     <mergeCell ref="A133:J133"/>
     <mergeCell ref="A187:J187"/>
     <mergeCell ref="A145:J145"/>
     <mergeCell ref="A156:J156"/>
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
+    <mergeCell ref="A226:J226"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="A208:J208"/>
+    <mergeCell ref="A200:J200"/>
+    <mergeCell ref="A214:J214"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -11632,10 +11688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AF215"/>
+  <dimension ref="A1:AF216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M201" workbookViewId="0">
-      <selection activeCell="S215" sqref="S215"/>
+    <sheetView tabSelected="1" topLeftCell="U37" workbookViewId="0">
+      <selection activeCell="AD186" sqref="AD186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26007,7 +26063,7 @@
         <v>22</v>
       </c>
       <c r="S174" s="49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -26099,7 +26155,7 @@
         <v>22</v>
       </c>
       <c r="S175" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
@@ -26129,7 +26185,7 @@
         <v>22</v>
       </c>
       <c r="AC175" s="73" t="s">
-        <v>764</v>
+        <v>822</v>
       </c>
       <c r="AD175" s="48" t="s">
         <v>22</v>
@@ -26191,7 +26247,7 @@
         <v>22</v>
       </c>
       <c r="S176" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
@@ -26221,7 +26277,7 @@
         <v>22</v>
       </c>
       <c r="AC176" s="73" t="s">
-        <v>764</v>
+        <v>822</v>
       </c>
       <c r="AD176" s="48" t="s">
         <v>22</v>
@@ -26283,7 +26339,7 @@
         <v>22</v>
       </c>
       <c r="S177" s="49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="T177" s="48" t="s">
         <v>22</v>
@@ -26375,7 +26431,7 @@
         <v>22</v>
       </c>
       <c r="S178" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="T178" s="48" t="s">
         <v>22</v>
@@ -26467,7 +26523,7 @@
         <v>22</v>
       </c>
       <c r="S179" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="T179" s="48" t="s">
         <v>22</v>
@@ -26497,7 +26553,7 @@
         <v>22</v>
       </c>
       <c r="AC179" s="73" t="s">
-        <v>764</v>
+        <v>822</v>
       </c>
       <c r="AD179" s="48" t="s">
         <v>22</v>
@@ -26559,7 +26615,7 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="T180" s="48" t="s">
         <v>22</v>
@@ -26651,7 +26707,7 @@
         <v>22</v>
       </c>
       <c r="S181" s="49" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T181" s="48" t="s">
         <v>22</v>
@@ -26743,7 +26799,7 @@
         <v>22</v>
       </c>
       <c r="S182" s="49" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="T182" s="48" t="s">
         <v>22</v>
@@ -26835,7 +26891,7 @@
         <v>22</v>
       </c>
       <c r="S183" s="49" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T183" s="48" t="s">
         <v>22</v>
@@ -26870,11 +26926,9 @@
       <c r="AD183" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="AE183" s="48" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="184" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE183" s="48"/>
+    </row>
+    <row r="184" spans="1:32" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="70" t="s">
         <v>623</v>
       </c>
@@ -26930,7 +26984,7 @@
         <v>22</v>
       </c>
       <c r="S184" s="49" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="T184" s="48" t="s">
         <v>22</v>
@@ -26963,14 +27017,11 @@
         <v>22</v>
       </c>
       <c r="AD184" s="48" t="s">
-        <v>780</v>
-      </c>
-      <c r="AE184" s="48" t="s">
         <v>624</v>
       </c>
       <c r="AF184" s="81"/>
     </row>
-    <row r="185" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:32" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="70" t="s">
         <v>629</v>
       </c>
@@ -27059,9 +27110,6 @@
         <v>22</v>
       </c>
       <c r="AD185" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="AE185" s="48" t="s">
         <v>641</v>
       </c>
       <c r="AF185" s="81"/>
@@ -27155,9 +27203,6 @@
         <v>22</v>
       </c>
       <c r="AD186" s="78" t="s">
-        <v>782</v>
-      </c>
-      <c r="AE186" s="78" t="s">
         <v>633</v>
       </c>
     </row>
@@ -27677,7 +27722,7 @@
         <v>22</v>
       </c>
       <c r="S192" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="T192" s="48" t="s">
         <v>22</v>
@@ -27769,7 +27814,7 @@
         <v>22</v>
       </c>
       <c r="S193" s="49" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T193" s="48" t="s">
         <v>22</v>
@@ -27861,7 +27906,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -27953,7 +27998,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -28045,7 +28090,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -28137,7 +28182,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -28229,7 +28274,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -28321,7 +28366,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -28413,7 +28458,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -28505,7 +28550,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -28597,7 +28642,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -28635,7 +28680,7 @@
     </row>
     <row r="203" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="70" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B203" s="48" t="s">
         <v>22</v>
@@ -28689,7 +28734,7 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="T203" s="48" t="s">
         <v>22</v>
@@ -28781,7 +28826,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>783</v>
+        <v>821</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -28873,7 +28918,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -28965,7 +29010,7 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="T206" s="48" t="s">
         <v>22</v>
@@ -29057,7 +29102,7 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="T207" s="48" t="s">
         <v>22</v>
@@ -29149,7 +29194,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -29241,7 +29286,7 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="T209" s="48" t="s">
         <v>22</v>
@@ -29279,7 +29324,7 @@
     </row>
     <row r="210" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="70" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B210" s="48" t="s">
         <v>22</v>
@@ -29333,7 +29378,7 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="T210" s="48" t="s">
         <v>22</v>
@@ -29371,7 +29416,7 @@
     </row>
     <row r="211" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="70" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B211" s="48" t="s">
         <v>22</v>
@@ -29425,7 +29470,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -29463,7 +29508,7 @@
     </row>
     <row r="212" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="70" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B212" s="48" t="s">
         <v>22</v>
@@ -29517,7 +29562,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -29555,7 +29600,7 @@
     </row>
     <row r="213" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="70" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B213" s="48" t="s">
         <v>22</v>
@@ -29609,7 +29654,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -29647,7 +29692,7 @@
     </row>
     <row r="214" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="70" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B214" s="48" t="s">
         <v>22</v>
@@ -29701,7 +29746,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -29739,7 +29784,7 @@
     </row>
     <row r="215" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="70" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B215" s="48" t="s">
         <v>22</v>
@@ -29793,7 +29838,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -29826,6 +29871,98 @@
         <v>22</v>
       </c>
       <c r="AD215" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="70" t="s">
+        <v>815</v>
+      </c>
+      <c r="B216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V216" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W216" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X216" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB216" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC216" s="73" t="s">
+        <v>820</v>
+      </c>
+      <c r="AD216" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -29965,11 +30102,14 @@
     <hyperlink ref="S181" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
-    <hyperlink ref="AC175" r:id="rId30" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{1D561439-6DB5-4460-9DCC-1441D607E059}"/>
-    <hyperlink ref="AC176" r:id="rId31" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{7107FA92-AE31-476F-85E0-2E3EB61EA26F}"/>
-    <hyperlink ref="AC179" r:id="rId32" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{EE1283A5-0E44-46A8-988B-A844DC89A813}"/>
+    <hyperlink ref="AC179" r:id="rId30" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{EE1283A5-0E44-46A8-988B-A844DC89A813}"/>
+    <hyperlink ref="AC216" r:id="rId31" tooltip="Multi color Flare Formal Dress 1" display="https://qa.zlta.testingserver8.com/product-detail/multi-color-flare-formal-dress-1" xr:uid="{E3FE240F-4A26-4821-B387-B34BBE98B85B}"/>
+    <hyperlink ref="S205" r:id="rId32" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S204" r:id="rId33" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="AC176" r:id="rId34" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{E0F1FB94-6902-4F15-B228-216A379621AC}"/>
+    <hyperlink ref="AC175" r:id="rId35" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{C022A20D-615A-41FD-8FD1-BC4D60CF4995}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787DE165-1501-4C1B-9EE6-E35E1FB4E2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBD531E-845E-4218-8CAA-3384851D077C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -3131,11 +3131,32 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3157,27 +3178,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4737,18 +4737,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="93"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="87"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -5135,18 +5135,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="96"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="90"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5693,18 +5693,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="96"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="90"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -6027,18 +6027,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="94" t="s">
+      <c r="A66" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="96"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="90"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6393,18 +6393,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="94" t="s">
+      <c r="A78" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="96"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="90"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7271,18 +7271,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="97" t="s">
+      <c r="A106" s="82" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="97"/>
-      <c r="C106" s="97"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="97"/>
-      <c r="G106" s="97"/>
-      <c r="H106" s="97"/>
-      <c r="I106" s="97"/>
-      <c r="J106" s="97"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="82"/>
+      <c r="H106" s="82"/>
+      <c r="I106" s="82"/>
+      <c r="J106" s="82"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -8264,13 +8264,13 @@
       </c>
       <c r="B133" s="83"/>
       <c r="C133" s="83"/>
-      <c r="D133" s="84"/>
-      <c r="E133" s="84"/>
-      <c r="F133" s="84"/>
-      <c r="G133" s="84"/>
-      <c r="H133" s="84"/>
-      <c r="I133" s="84"/>
-      <c r="J133" s="84"/>
+      <c r="D133" s="91"/>
+      <c r="E133" s="91"/>
+      <c r="F133" s="91"/>
+      <c r="G133" s="91"/>
+      <c r="H133" s="91"/>
+      <c r="I133" s="91"/>
+      <c r="J133" s="91"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8765,18 +8765,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="88" t="s">
+      <c r="A145" s="95" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="89"/>
-      <c r="C145" s="89"/>
-      <c r="D145" s="89"/>
-      <c r="E145" s="89"/>
-      <c r="F145" s="89"/>
-      <c r="G145" s="89"/>
-      <c r="H145" s="89"/>
-      <c r="I145" s="89"/>
-      <c r="J145" s="90"/>
+      <c r="B145" s="96"/>
+      <c r="C145" s="96"/>
+      <c r="D145" s="96"/>
+      <c r="E145" s="96"/>
+      <c r="F145" s="96"/>
+      <c r="G145" s="96"/>
+      <c r="H145" s="96"/>
+      <c r="I145" s="96"/>
+      <c r="J145" s="97"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="B177" s="83"/>
       <c r="C177" s="83"/>
-      <c r="D177" s="82"/>
+      <c r="D177" s="84"/>
       <c r="E177" s="83"/>
       <c r="F177" s="83"/>
       <c r="G177" s="83"/>
@@ -10353,18 +10353,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="85" t="s">
+      <c r="A187" s="92" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="86"/>
-      <c r="C187" s="86"/>
-      <c r="D187" s="86"/>
-      <c r="E187" s="86"/>
-      <c r="F187" s="86"/>
-      <c r="G187" s="86"/>
-      <c r="H187" s="86"/>
-      <c r="I187" s="86"/>
-      <c r="J187" s="87"/>
+      <c r="B187" s="93"/>
+      <c r="C187" s="93"/>
+      <c r="D187" s="93"/>
+      <c r="E187" s="93"/>
+      <c r="F187" s="93"/>
+      <c r="G187" s="93"/>
+      <c r="H187" s="93"/>
+      <c r="I187" s="93"/>
+      <c r="J187" s="94"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10527,18 +10527,18 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="82" t="s">
+      <c r="A193" s="84" t="s">
         <v>638</v>
       </c>
-      <c r="B193" s="82"/>
-      <c r="C193" s="82"/>
-      <c r="D193" s="82"/>
-      <c r="E193" s="82"/>
-      <c r="F193" s="82"/>
-      <c r="G193" s="82"/>
-      <c r="H193" s="82"/>
-      <c r="I193" s="82"/>
-      <c r="J193" s="82"/>
+      <c r="B193" s="84"/>
+      <c r="C193" s="84"/>
+      <c r="D193" s="84"/>
+      <c r="E193" s="84"/>
+      <c r="F193" s="84"/>
+      <c r="G193" s="84"/>
+      <c r="H193" s="84"/>
+      <c r="I193" s="84"/>
+      <c r="J193" s="84"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
@@ -10669,18 +10669,18 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="82" t="s">
+      <c r="A198" s="84" t="s">
         <v>651</v>
       </c>
-      <c r="B198" s="82"/>
-      <c r="C198" s="82"/>
-      <c r="D198" s="82"/>
-      <c r="E198" s="82"/>
-      <c r="F198" s="82"/>
-      <c r="G198" s="82"/>
-      <c r="H198" s="82"/>
-      <c r="I198" s="82"/>
-      <c r="J198" s="82"/>
+      <c r="B198" s="84"/>
+      <c r="C198" s="84"/>
+      <c r="D198" s="84"/>
+      <c r="E198" s="84"/>
+      <c r="F198" s="84"/>
+      <c r="G198" s="84"/>
+      <c r="H198" s="84"/>
+      <c r="I198" s="84"/>
+      <c r="J198" s="84"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
@@ -10715,18 +10715,18 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="82" t="s">
+      <c r="A200" s="84" t="s">
         <v>657</v>
       </c>
-      <c r="B200" s="82"/>
-      <c r="C200" s="82"/>
-      <c r="D200" s="82"/>
-      <c r="E200" s="82"/>
-      <c r="F200" s="82"/>
-      <c r="G200" s="82"/>
-      <c r="H200" s="82"/>
-      <c r="I200" s="82"/>
-      <c r="J200" s="82"/>
+      <c r="B200" s="84"/>
+      <c r="C200" s="84"/>
+      <c r="D200" s="84"/>
+      <c r="E200" s="84"/>
+      <c r="F200" s="84"/>
+      <c r="G200" s="84"/>
+      <c r="H200" s="84"/>
+      <c r="I200" s="84"/>
+      <c r="J200" s="84"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
@@ -10953,18 +10953,18 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="82" t="s">
+      <c r="A208" s="84" t="s">
         <v>733</v>
       </c>
-      <c r="B208" s="82"/>
-      <c r="C208" s="82"/>
-      <c r="D208" s="82"/>
-      <c r="E208" s="82"/>
-      <c r="F208" s="82"/>
-      <c r="G208" s="82"/>
-      <c r="H208" s="82"/>
-      <c r="I208" s="82"/>
-      <c r="J208" s="82"/>
+      <c r="B208" s="84"/>
+      <c r="C208" s="84"/>
+      <c r="D208" s="84"/>
+      <c r="E208" s="84"/>
+      <c r="F208" s="84"/>
+      <c r="G208" s="84"/>
+      <c r="H208" s="84"/>
+      <c r="I208" s="84"/>
+      <c r="J208" s="84"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
@@ -10999,18 +10999,18 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="82" t="s">
+      <c r="A210" s="84" t="s">
         <v>736</v>
       </c>
-      <c r="B210" s="82"/>
-      <c r="C210" s="82"/>
-      <c r="D210" s="82"/>
-      <c r="E210" s="82"/>
-      <c r="F210" s="82"/>
-      <c r="G210" s="82"/>
-      <c r="H210" s="82"/>
-      <c r="I210" s="82"/>
-      <c r="J210" s="82"/>
+      <c r="B210" s="84"/>
+      <c r="C210" s="84"/>
+      <c r="D210" s="84"/>
+      <c r="E210" s="84"/>
+      <c r="F210" s="84"/>
+      <c r="G210" s="84"/>
+      <c r="H210" s="84"/>
+      <c r="I210" s="84"/>
+      <c r="J210" s="84"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
@@ -11109,18 +11109,18 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="82" t="s">
+      <c r="A214" s="84" t="s">
         <v>746</v>
       </c>
-      <c r="B214" s="82"/>
-      <c r="C214" s="82"/>
-      <c r="D214" s="82"/>
-      <c r="E214" s="82"/>
-      <c r="F214" s="82"/>
-      <c r="G214" s="82"/>
-      <c r="H214" s="82"/>
-      <c r="I214" s="82"/>
-      <c r="J214" s="82"/>
+      <c r="B214" s="84"/>
+      <c r="C214" s="84"/>
+      <c r="D214" s="84"/>
+      <c r="E214" s="84"/>
+      <c r="F214" s="84"/>
+      <c r="G214" s="84"/>
+      <c r="H214" s="84"/>
+      <c r="I214" s="84"/>
+      <c r="J214" s="84"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="48">
@@ -11475,18 +11475,18 @@
       </c>
     </row>
     <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="82" t="s">
+      <c r="A226" s="84" t="s">
         <v>803</v>
       </c>
-      <c r="B226" s="82"/>
-      <c r="C226" s="82"/>
-      <c r="D226" s="82"/>
-      <c r="E226" s="82"/>
-      <c r="F226" s="82"/>
-      <c r="G226" s="82"/>
-      <c r="H226" s="82"/>
-      <c r="I226" s="82"/>
-      <c r="J226" s="82"/>
+      <c r="B226" s="84"/>
+      <c r="C226" s="84"/>
+      <c r="D226" s="84"/>
+      <c r="E226" s="84"/>
+      <c r="F226" s="84"/>
+      <c r="G226" s="84"/>
+      <c r="H226" s="84"/>
+      <c r="I226" s="84"/>
+      <c r="J226" s="84"/>
     </row>
     <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="48">
@@ -11521,18 +11521,18 @@
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" s="82" t="s">
+      <c r="A228" s="84" t="s">
         <v>816</v>
       </c>
-      <c r="B228" s="82"/>
-      <c r="C228" s="82"/>
-      <c r="D228" s="82"/>
-      <c r="E228" s="82"/>
-      <c r="F228" s="82"/>
-      <c r="G228" s="82"/>
-      <c r="H228" s="82"/>
-      <c r="I228" s="82"/>
-      <c r="J228" s="82"/>
+      <c r="B228" s="84"/>
+      <c r="C228" s="84"/>
+      <c r="D228" s="84"/>
+      <c r="E228" s="84"/>
+      <c r="F228" s="84"/>
+      <c r="G228" s="84"/>
+      <c r="H228" s="84"/>
+      <c r="I228" s="84"/>
+      <c r="J228" s="84"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="48">
@@ -11568,17 +11568,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="A121:J121"/>
-    <mergeCell ref="A123:J123"/>
-    <mergeCell ref="A125:J125"/>
-    <mergeCell ref="A198:J198"/>
-    <mergeCell ref="A193:J193"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A228:J228"/>
     <mergeCell ref="A133:J133"/>
     <mergeCell ref="A187:J187"/>
@@ -11591,6 +11580,17 @@
     <mergeCell ref="A208:J208"/>
     <mergeCell ref="A200:J200"/>
     <mergeCell ref="A214:J214"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="A121:J121"/>
+    <mergeCell ref="A123:J123"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A198:J198"/>
+    <mergeCell ref="A193:J193"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -11690,8 +11690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AF216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U37" workbookViewId="0">
-      <selection activeCell="AD186" sqref="AD186"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29929,8 +29929,8 @@
       <c r="R216" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S216" s="48" t="s">
-        <v>22</v>
+      <c r="S216" s="49" t="s">
+        <v>821</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -30108,8 +30108,9 @@
     <hyperlink ref="S204" r:id="rId33" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
     <hyperlink ref="AC176" r:id="rId34" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{E0F1FB94-6902-4F15-B228-216A379621AC}"/>
     <hyperlink ref="AC175" r:id="rId35" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{C022A20D-615A-41FD-8FD1-BC4D60CF4995}"/>
+    <hyperlink ref="S216" r:id="rId36" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBD531E-845E-4218-8CAA-3384851D077C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0122F1-7C3C-440B-A785-F471568DE803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7543" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7972" uniqueCount="857">
   <si>
     <t>S.No</t>
   </si>
@@ -2488,13 +2488,115 @@
     <t>OEV</t>
   </si>
   <si>
-    <t>Multi color Flare Formal Dress 1</t>
-  </si>
-  <si>
     <t>https://qa.adm.testingserver8.com/admin/order</t>
   </si>
   <si>
     <t>Test By Auto1</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_02</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_02</t>
+  </si>
+  <si>
+    <t>Verify emails for cancel Order From User Side and Refund.</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_03</t>
+  </si>
+  <si>
+    <t>Verify exchange order email notifications for Exchange, Shipped, and Delivered statuses.</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_03</t>
+  </si>
+  <si>
+    <t>Verify return order email notifications for return statuses.</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_04</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_04</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_05</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_05</t>
+  </si>
+  <si>
+    <t>Verify emails for Order Cancelled by Admin Side.</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_06</t>
+  </si>
+  <si>
+    <t>Verify that Return Order Cancellation email is received after the user cancels the return order.</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_06</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_07</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_07</t>
+  </si>
+  <si>
+    <t>Verify that Return Order Cancellation email is received after the admin changes the status to Product Received in Damaged State.</t>
+  </si>
+  <si>
+    <t>Purple saree</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_08</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_08</t>
+  </si>
+  <si>
+    <t>Verify that Return Order Rejection email is received after the admin changes the status to Rejected with reason Product Not Available.</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_09</t>
+  </si>
+  <si>
+    <t>Verify that Exchange Order Cancelled email is received after the user cancels the exchange product.</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_09</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_10</t>
+  </si>
+  <si>
+    <t>Verify that Exchange Out of Stock Cancellation email is received after the admin changes the status to Product Out of Stock</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_10</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_11</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_11</t>
+  </si>
+  <si>
+    <t>Verify that Exchange Reiceived Damage State Cancellation email is received after the admin changes the status to Product Out of Stock.</t>
+  </si>
+  <si>
+    <t>TC_UI_Admin_OEV_12</t>
+  </si>
+  <si>
+    <t>Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.</t>
+  </si>
+  <si>
+    <t>TD_UI_Admin_OEV_12</t>
   </si>
 </sst>
 </file>
@@ -3131,32 +3233,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3178,6 +3259,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3981,10 +4083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z229"/>
+  <dimension ref="A1:Z240"/>
   <sheetViews>
-    <sheetView topLeftCell="D218" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+    <sheetView topLeftCell="A230" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F240" sqref="F240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4737,18 +4839,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="87"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="93"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -5135,18 +5237,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="90"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="96"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5693,18 +5795,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="89"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="90"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="96"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -6027,18 +6129,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="88" t="s">
+      <c r="A66" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="90"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="96"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6393,18 +6495,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="88" t="s">
+      <c r="A78" s="94" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="89"/>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="90"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="96"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7271,18 +7373,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="82"/>
-      <c r="H106" s="82"/>
-      <c r="I106" s="82"/>
-      <c r="J106" s="82"/>
+      <c r="B106" s="97"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="97"/>
+      <c r="G106" s="97"/>
+      <c r="H106" s="97"/>
+      <c r="I106" s="97"/>
+      <c r="J106" s="97"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -8264,13 +8366,13 @@
       </c>
       <c r="B133" s="83"/>
       <c r="C133" s="83"/>
-      <c r="D133" s="91"/>
-      <c r="E133" s="91"/>
-      <c r="F133" s="91"/>
-      <c r="G133" s="91"/>
-      <c r="H133" s="91"/>
-      <c r="I133" s="91"/>
-      <c r="J133" s="91"/>
+      <c r="D133" s="84"/>
+      <c r="E133" s="84"/>
+      <c r="F133" s="84"/>
+      <c r="G133" s="84"/>
+      <c r="H133" s="84"/>
+      <c r="I133" s="84"/>
+      <c r="J133" s="84"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8765,18 +8867,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="95" t="s">
+      <c r="A145" s="88" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="96"/>
-      <c r="C145" s="96"/>
-      <c r="D145" s="96"/>
-      <c r="E145" s="96"/>
-      <c r="F145" s="96"/>
-      <c r="G145" s="96"/>
-      <c r="H145" s="96"/>
-      <c r="I145" s="96"/>
-      <c r="J145" s="97"/>
+      <c r="B145" s="89"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="89"/>
+      <c r="E145" s="89"/>
+      <c r="F145" s="89"/>
+      <c r="G145" s="89"/>
+      <c r="H145" s="89"/>
+      <c r="I145" s="89"/>
+      <c r="J145" s="90"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -10056,7 +10158,7 @@
       </c>
       <c r="B177" s="83"/>
       <c r="C177" s="83"/>
-      <c r="D177" s="84"/>
+      <c r="D177" s="82"/>
       <c r="E177" s="83"/>
       <c r="F177" s="83"/>
       <c r="G177" s="83"/>
@@ -10353,18 +10455,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="92" t="s">
+      <c r="A187" s="85" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="93"/>
-      <c r="C187" s="93"/>
-      <c r="D187" s="93"/>
-      <c r="E187" s="93"/>
-      <c r="F187" s="93"/>
-      <c r="G187" s="93"/>
-      <c r="H187" s="93"/>
-      <c r="I187" s="93"/>
-      <c r="J187" s="94"/>
+      <c r="B187" s="86"/>
+      <c r="C187" s="86"/>
+      <c r="D187" s="86"/>
+      <c r="E187" s="86"/>
+      <c r="F187" s="86"/>
+      <c r="G187" s="86"/>
+      <c r="H187" s="86"/>
+      <c r="I187" s="86"/>
+      <c r="J187" s="87"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10527,18 +10629,18 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="84" t="s">
+      <c r="A193" s="82" t="s">
         <v>638</v>
       </c>
-      <c r="B193" s="84"/>
-      <c r="C193" s="84"/>
-      <c r="D193" s="84"/>
-      <c r="E193" s="84"/>
-      <c r="F193" s="84"/>
-      <c r="G193" s="84"/>
-      <c r="H193" s="84"/>
-      <c r="I193" s="84"/>
-      <c r="J193" s="84"/>
+      <c r="B193" s="82"/>
+      <c r="C193" s="82"/>
+      <c r="D193" s="82"/>
+      <c r="E193" s="82"/>
+      <c r="F193" s="82"/>
+      <c r="G193" s="82"/>
+      <c r="H193" s="82"/>
+      <c r="I193" s="82"/>
+      <c r="J193" s="82"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
@@ -10669,18 +10771,18 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="84" t="s">
+      <c r="A198" s="82" t="s">
         <v>651</v>
       </c>
-      <c r="B198" s="84"/>
-      <c r="C198" s="84"/>
-      <c r="D198" s="84"/>
-      <c r="E198" s="84"/>
-      <c r="F198" s="84"/>
-      <c r="G198" s="84"/>
-      <c r="H198" s="84"/>
-      <c r="I198" s="84"/>
-      <c r="J198" s="84"/>
+      <c r="B198" s="82"/>
+      <c r="C198" s="82"/>
+      <c r="D198" s="82"/>
+      <c r="E198" s="82"/>
+      <c r="F198" s="82"/>
+      <c r="G198" s="82"/>
+      <c r="H198" s="82"/>
+      <c r="I198" s="82"/>
+      <c r="J198" s="82"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
@@ -10715,18 +10817,18 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="84" t="s">
+      <c r="A200" s="82" t="s">
         <v>657</v>
       </c>
-      <c r="B200" s="84"/>
-      <c r="C200" s="84"/>
-      <c r="D200" s="84"/>
-      <c r="E200" s="84"/>
-      <c r="F200" s="84"/>
-      <c r="G200" s="84"/>
-      <c r="H200" s="84"/>
-      <c r="I200" s="84"/>
-      <c r="J200" s="84"/>
+      <c r="B200" s="82"/>
+      <c r="C200" s="82"/>
+      <c r="D200" s="82"/>
+      <c r="E200" s="82"/>
+      <c r="F200" s="82"/>
+      <c r="G200" s="82"/>
+      <c r="H200" s="82"/>
+      <c r="I200" s="82"/>
+      <c r="J200" s="82"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
@@ -10953,18 +11055,18 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="84" t="s">
+      <c r="A208" s="82" t="s">
         <v>733</v>
       </c>
-      <c r="B208" s="84"/>
-      <c r="C208" s="84"/>
-      <c r="D208" s="84"/>
-      <c r="E208" s="84"/>
-      <c r="F208" s="84"/>
-      <c r="G208" s="84"/>
-      <c r="H208" s="84"/>
-      <c r="I208" s="84"/>
-      <c r="J208" s="84"/>
+      <c r="B208" s="82"/>
+      <c r="C208" s="82"/>
+      <c r="D208" s="82"/>
+      <c r="E208" s="82"/>
+      <c r="F208" s="82"/>
+      <c r="G208" s="82"/>
+      <c r="H208" s="82"/>
+      <c r="I208" s="82"/>
+      <c r="J208" s="82"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
@@ -10999,18 +11101,18 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="84" t="s">
+      <c r="A210" s="82" t="s">
         <v>736</v>
       </c>
-      <c r="B210" s="84"/>
-      <c r="C210" s="84"/>
-      <c r="D210" s="84"/>
-      <c r="E210" s="84"/>
-      <c r="F210" s="84"/>
-      <c r="G210" s="84"/>
-      <c r="H210" s="84"/>
-      <c r="I210" s="84"/>
-      <c r="J210" s="84"/>
+      <c r="B210" s="82"/>
+      <c r="C210" s="82"/>
+      <c r="D210" s="82"/>
+      <c r="E210" s="82"/>
+      <c r="F210" s="82"/>
+      <c r="G210" s="82"/>
+      <c r="H210" s="82"/>
+      <c r="I210" s="82"/>
+      <c r="J210" s="82"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
@@ -11109,18 +11211,18 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="84" t="s">
+      <c r="A214" s="82" t="s">
         <v>746</v>
       </c>
-      <c r="B214" s="84"/>
-      <c r="C214" s="84"/>
-      <c r="D214" s="84"/>
-      <c r="E214" s="84"/>
-      <c r="F214" s="84"/>
-      <c r="G214" s="84"/>
-      <c r="H214" s="84"/>
-      <c r="I214" s="84"/>
-      <c r="J214" s="84"/>
+      <c r="B214" s="82"/>
+      <c r="C214" s="82"/>
+      <c r="D214" s="82"/>
+      <c r="E214" s="82"/>
+      <c r="F214" s="82"/>
+      <c r="G214" s="82"/>
+      <c r="H214" s="82"/>
+      <c r="I214" s="82"/>
+      <c r="J214" s="82"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="48">
@@ -11475,18 +11577,18 @@
       </c>
     </row>
     <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="84" t="s">
+      <c r="A226" s="82" t="s">
         <v>803</v>
       </c>
-      <c r="B226" s="84"/>
-      <c r="C226" s="84"/>
-      <c r="D226" s="84"/>
-      <c r="E226" s="84"/>
-      <c r="F226" s="84"/>
-      <c r="G226" s="84"/>
-      <c r="H226" s="84"/>
-      <c r="I226" s="84"/>
-      <c r="J226" s="84"/>
+      <c r="B226" s="82"/>
+      <c r="C226" s="82"/>
+      <c r="D226" s="82"/>
+      <c r="E226" s="82"/>
+      <c r="F226" s="82"/>
+      <c r="G226" s="82"/>
+      <c r="H226" s="82"/>
+      <c r="I226" s="82"/>
+      <c r="J226" s="82"/>
     </row>
     <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="48">
@@ -11521,18 +11623,18 @@
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" s="84" t="s">
+      <c r="A228" s="82" t="s">
         <v>816</v>
       </c>
-      <c r="B228" s="84"/>
-      <c r="C228" s="84"/>
-      <c r="D228" s="84"/>
-      <c r="E228" s="84"/>
-      <c r="F228" s="84"/>
-      <c r="G228" s="84"/>
-      <c r="H228" s="84"/>
-      <c r="I228" s="84"/>
-      <c r="J228" s="84"/>
+      <c r="B228" s="82"/>
+      <c r="C228" s="82"/>
+      <c r="D228" s="82"/>
+      <c r="E228" s="82"/>
+      <c r="F228" s="82"/>
+      <c r="G228" s="82"/>
+      <c r="H228" s="82"/>
+      <c r="I228" s="82"/>
+      <c r="J228" s="82"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="48">
@@ -11566,8 +11668,371 @@
         <v>13</v>
       </c>
     </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" s="48">
+        <v>2</v>
+      </c>
+      <c r="B230" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="79" t="s">
+        <v>823</v>
+      </c>
+      <c r="D230" s="78" t="s">
+        <v>824</v>
+      </c>
+      <c r="E230" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" s="79" t="s">
+        <v>822</v>
+      </c>
+      <c r="G230" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I230" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J230" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" s="48">
+        <v>3</v>
+      </c>
+      <c r="B231" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" s="79" t="s">
+        <v>825</v>
+      </c>
+      <c r="D231" s="78" t="s">
+        <v>826</v>
+      </c>
+      <c r="E231" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231" s="79" t="s">
+        <v>827</v>
+      </c>
+      <c r="G231" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I231" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J231" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" s="48">
+        <v>4</v>
+      </c>
+      <c r="B232" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="79" t="s">
+        <v>830</v>
+      </c>
+      <c r="D232" s="78" t="s">
+        <v>828</v>
+      </c>
+      <c r="E232" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" s="79" t="s">
+        <v>829</v>
+      </c>
+      <c r="G232" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I232" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J232" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" s="48">
+        <v>5</v>
+      </c>
+      <c r="B233" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="79" t="s">
+        <v>832</v>
+      </c>
+      <c r="D233" s="78" t="s">
+        <v>833</v>
+      </c>
+      <c r="E233" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" s="79" t="s">
+        <v>831</v>
+      </c>
+      <c r="G233" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H233" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I233" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J233" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" s="48">
+        <v>6</v>
+      </c>
+      <c r="B234" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="79" t="s">
+        <v>834</v>
+      </c>
+      <c r="D234" s="78" t="s">
+        <v>835</v>
+      </c>
+      <c r="E234" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" s="79" t="s">
+        <v>836</v>
+      </c>
+      <c r="G234" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H234" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I234" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J234" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" s="48">
+        <v>7</v>
+      </c>
+      <c r="B235" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" s="79" t="s">
+        <v>839</v>
+      </c>
+      <c r="D235" s="78" t="s">
+        <v>840</v>
+      </c>
+      <c r="E235" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" s="79" t="s">
+        <v>838</v>
+      </c>
+      <c r="G235" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H235" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I235" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J235" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" s="48">
+        <v>8</v>
+      </c>
+      <c r="B236" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" s="79" t="s">
+        <v>843</v>
+      </c>
+      <c r="D236" s="78" t="s">
+        <v>844</v>
+      </c>
+      <c r="E236" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236" s="79" t="s">
+        <v>842</v>
+      </c>
+      <c r="G236" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I236" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J236" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" s="48">
+        <v>9</v>
+      </c>
+      <c r="B237" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" s="79" t="s">
+        <v>845</v>
+      </c>
+      <c r="D237" s="78" t="s">
+        <v>846</v>
+      </c>
+      <c r="E237" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" s="79" t="s">
+        <v>847</v>
+      </c>
+      <c r="G237" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H237" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I237" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J237" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" s="48">
+        <v>10</v>
+      </c>
+      <c r="B238" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="79" t="s">
+        <v>848</v>
+      </c>
+      <c r="D238" s="78" t="s">
+        <v>849</v>
+      </c>
+      <c r="E238" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="G238" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H238" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I238" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J238" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" s="48">
+        <v>11</v>
+      </c>
+      <c r="B239" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="79" t="s">
+        <v>852</v>
+      </c>
+      <c r="D239" s="78" t="s">
+        <v>853</v>
+      </c>
+      <c r="E239" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239" s="79" t="s">
+        <v>851</v>
+      </c>
+      <c r="G239" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H239" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I239" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J239" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" s="48">
+        <v>12</v>
+      </c>
+      <c r="B240" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" s="79" t="s">
+        <v>854</v>
+      </c>
+      <c r="D240" s="78" t="s">
+        <v>855</v>
+      </c>
+      <c r="E240" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" s="79" t="s">
+        <v>856</v>
+      </c>
+      <c r="G240" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H240" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="I240" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J240" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="A121:J121"/>
+    <mergeCell ref="A123:J123"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A198:J198"/>
+    <mergeCell ref="A193:J193"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A228:J228"/>
     <mergeCell ref="A133:J133"/>
     <mergeCell ref="A187:J187"/>
@@ -11580,17 +12045,6 @@
     <mergeCell ref="A208:J208"/>
     <mergeCell ref="A200:J200"/>
     <mergeCell ref="A214:J214"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="A121:J121"/>
-    <mergeCell ref="A123:J123"/>
-    <mergeCell ref="A125:J125"/>
-    <mergeCell ref="A198:J198"/>
-    <mergeCell ref="A193:J193"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -11688,10 +12142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AF216"/>
+  <dimension ref="A1:AF227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11710,7 +12164,7 @@
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="71.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" customWidth="1"/>
+    <col min="20" max="20" width="52.33203125" customWidth="1"/>
     <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
     <col min="24" max="25" width="29" customWidth="1"/>
@@ -11780,7 +12234,7 @@
         <v>134</v>
       </c>
       <c r="T1" s="30" t="s">
-        <v>346</v>
+        <v>837</v>
       </c>
       <c r="U1" s="30" t="s">
         <v>490</v>
@@ -26185,7 +26639,7 @@
         <v>22</v>
       </c>
       <c r="AC175" s="73" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AD175" s="48" t="s">
         <v>22</v>
@@ -26277,7 +26731,7 @@
         <v>22</v>
       </c>
       <c r="AC176" s="73" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AD176" s="48" t="s">
         <v>22</v>
@@ -26553,7 +27007,7 @@
         <v>22</v>
       </c>
       <c r="AC179" s="73" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AD179" s="48" t="s">
         <v>22</v>
@@ -28826,7 +29280,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29874,7 +30328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="70" t="s">
         <v>815</v>
       </c>
@@ -29930,7 +30384,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -29960,9 +30414,1021 @@
         <v>22</v>
       </c>
       <c r="AC216" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD216" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="70" t="s">
+        <v>822</v>
+      </c>
+      <c r="B217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S217" s="49" t="s">
+        <v>776</v>
+      </c>
+      <c r="T217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V217" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W217" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X217" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB217" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC217" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD217" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="70" t="s">
+        <v>827</v>
+      </c>
+      <c r="B218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S218" s="49" t="s">
         <v>820</v>
       </c>
-      <c r="AD216" s="48" t="s">
+      <c r="T218" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="U218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V218" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W218" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X218" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB218" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC218" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD218" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="70" t="s">
+        <v>829</v>
+      </c>
+      <c r="B219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S219" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="T219" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="U219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V219" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W219" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X219" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB219" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC219" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD219" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="70" t="s">
+        <v>831</v>
+      </c>
+      <c r="B220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S220" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="T220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V220" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W220" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X220" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB220" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC220" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD220" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="70" t="s">
+        <v>836</v>
+      </c>
+      <c r="B221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S221" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="T221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V221" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W221" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X221" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB221" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC221" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD221" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="70" t="s">
+        <v>838</v>
+      </c>
+      <c r="B222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S222" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="T222" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="U222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V222" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W222" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X222" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB222" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC222" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD222" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="70" t="s">
+        <v>842</v>
+      </c>
+      <c r="B223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S223" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="T223" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="U223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V223" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W223" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X223" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB223" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC223" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD223" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="70" t="s">
+        <v>847</v>
+      </c>
+      <c r="B224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S224" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="T224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V224" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W224" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X224" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB224" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC224" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD224" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="70" t="s">
+        <v>850</v>
+      </c>
+      <c r="B225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S225" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="T225" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="U225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V225" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W225" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X225" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB225" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC225" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD225" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="70" t="s">
+        <v>851</v>
+      </c>
+      <c r="B226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S226" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="T226" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="U226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V226" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W226" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X226" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB226" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC226" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD226" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="70" t="s">
+        <v>856</v>
+      </c>
+      <c r="B227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S227" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="T227" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="U227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V227" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W227" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X227" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB227" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC227" s="73" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD227" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -30103,14 +31569,24 @@
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
     <hyperlink ref="AC179" r:id="rId30" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{EE1283A5-0E44-46A8-988B-A844DC89A813}"/>
-    <hyperlink ref="AC216" r:id="rId31" tooltip="Multi color Flare Formal Dress 1" display="https://qa.zlta.testingserver8.com/product-detail/multi-color-flare-formal-dress-1" xr:uid="{E3FE240F-4A26-4821-B387-B34BBE98B85B}"/>
-    <hyperlink ref="S205" r:id="rId32" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S204" r:id="rId33" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
-    <hyperlink ref="AC176" r:id="rId34" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{E0F1FB94-6902-4F15-B228-216A379621AC}"/>
-    <hyperlink ref="AC175" r:id="rId35" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{C022A20D-615A-41FD-8FD1-BC4D60CF4995}"/>
-    <hyperlink ref="S216" r:id="rId36" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S205" r:id="rId31" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S204" r:id="rId32" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="AC176" r:id="rId33" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{E0F1FB94-6902-4F15-B228-216A379621AC}"/>
+    <hyperlink ref="AC175" r:id="rId34" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{C022A20D-615A-41FD-8FD1-BC4D60CF4995}"/>
+    <hyperlink ref="S216" r:id="rId35" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S221" r:id="rId36" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S219" r:id="rId37" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S218" r:id="rId38" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S222" r:id="rId39" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T222" r:id="rId40" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S223" r:id="rId41" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T223" r:id="rId42" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S224" r:id="rId43" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S225" r:id="rId44" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S226" r:id="rId45" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S227" r:id="rId46" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0122F1-7C3C-440B-A785-F471568DE803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B7C593-5A8F-4F27-908B-D42CAEE6A00D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7972" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7972" uniqueCount="858">
   <si>
     <t>S.No</t>
   </si>
@@ -2320,72 +2320,18 @@
     <t>Verify exported Order &gt; CANCELED &gt; Exchange Page have dates within selected range.</t>
   </si>
   <si>
-    <t>https://qa.adm.testingserver8.com/admin/home-page-banner</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/special-timer-event</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/categories</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product-collection</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product-style</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product-search-keyword</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/collection-search-keyword</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/style-search-keyword</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/coupon</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/return-order</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/exchange-order</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/cancel-order</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/return-cancel</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/exchange-cancel</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_APE_07</t>
   </si>
   <si>
-    <t>https://qa.adm.testingserver8.com/admin/all-orders</t>
-  </si>
-  <si>
     <t>TC_UI_Zlaata_APE_07</t>
   </si>
   <si>
     <t>Verify exported Payment Pending Page have dates within selected range.</t>
   </si>
   <si>
-    <t>https://qa.adm.testingserver8.com/admin/payment-pending</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_APE_08</t>
   </si>
   <si>
-    <t>https://qa.adm.testingserver8.com/admin/payment-refund</t>
-  </si>
-  <si>
     <t>TC_UI_Zlaata_APE_08</t>
   </si>
   <si>
@@ -2401,9 +2347,6 @@
     <t>TD_UI_Zlaata_APE_09</t>
   </si>
   <si>
-    <t>https://qa.adm.testingserver8.com/admin/payment-failed</t>
-  </si>
-  <si>
     <t>TC_UI_Zlaata_APE_10</t>
   </si>
   <si>
@@ -2413,9 +2356,6 @@
     <t>TD_UI_Zlaata_APE_10</t>
   </si>
   <si>
-    <t>https://qa.adm.testingserver8.com/admin/rto-orders</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_APE_11</t>
   </si>
   <si>
@@ -2488,9 +2428,6 @@
     <t>OEV</t>
   </si>
   <si>
-    <t>https://qa.adm.testingserver8.com/admin/order</t>
-  </si>
-  <si>
     <t>Test By Auto1</t>
   </si>
   <si>
@@ -2597,6 +2534,72 @@
   </si>
   <si>
     <t>TD_UI_Admin_OEV_12</t>
+  </si>
+  <si>
+    <t>Crop Waistcoat Set</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/home-page-banner</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/special-timer-event</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/categories</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product-collection</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product-style</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product-search-keyword</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/collection-search-keyword</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/style-search-keyword</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/coupon</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/return-order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/exchange-order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/cancel-order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/return-cancel</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/exchange-cancel</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/payment-pending</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/payment-refund</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/payment-failed</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/rto-orders</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/all-orders</t>
   </si>
 </sst>
 </file>
@@ -10189,7 +10192,7 @@
         <v>11</v>
       </c>
       <c r="H178" s="69" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="I178" s="69" t="s">
         <v>12</v>
@@ -10221,7 +10224,7 @@
         <v>11</v>
       </c>
       <c r="H179" s="69" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="I179" s="69" t="s">
         <v>12</v>
@@ -10253,7 +10256,7 @@
         <v>11</v>
       </c>
       <c r="H180" s="69" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="I180" s="69" t="s">
         <v>12</v>
@@ -10285,7 +10288,7 @@
         <v>11</v>
       </c>
       <c r="H181" s="69" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="I181" s="69" t="s">
         <v>12</v>
@@ -10317,7 +10320,7 @@
         <v>11</v>
       </c>
       <c r="H182" s="69" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="I182" s="69" t="s">
         <v>12</v>
@@ -10349,7 +10352,7 @@
         <v>11</v>
       </c>
       <c r="H183" s="69" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="I183" s="69" t="s">
         <v>12</v>
@@ -10381,7 +10384,7 @@
         <v>11</v>
       </c>
       <c r="H184" s="69" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="I184" s="69" t="s">
         <v>12</v>
@@ -10413,7 +10416,7 @@
         <v>11</v>
       </c>
       <c r="H185" s="69" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="I185" s="69" t="s">
         <v>12</v>
@@ -10445,7 +10448,7 @@
         <v>11</v>
       </c>
       <c r="H186" s="69" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="I186" s="69" t="s">
         <v>12</v>
@@ -10491,7 +10494,7 @@
         <v>11</v>
       </c>
       <c r="H188" s="69" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="I188" s="69" t="s">
         <v>12</v>
@@ -10523,7 +10526,7 @@
         <v>11</v>
       </c>
       <c r="H189" s="69" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="I189" s="69" t="s">
         <v>12</v>
@@ -10555,7 +10558,7 @@
         <v>11</v>
       </c>
       <c r="H190" s="69" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="I190" s="69" t="s">
         <v>12</v>
@@ -10587,7 +10590,7 @@
         <v>11</v>
       </c>
       <c r="H191" s="69" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="I191" s="69" t="s">
         <v>12</v>
@@ -10619,7 +10622,7 @@
         <v>11</v>
       </c>
       <c r="H192" s="69" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="I192" s="69" t="s">
         <v>12</v>
@@ -10665,7 +10668,7 @@
         <v>11</v>
       </c>
       <c r="H194" s="48" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="I194" s="48" t="s">
         <v>12</v>
@@ -10697,7 +10700,7 @@
         <v>11</v>
       </c>
       <c r="H195" s="48" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="I195" s="48" t="s">
         <v>12</v>
@@ -10729,7 +10732,7 @@
         <v>11</v>
       </c>
       <c r="H196" s="48" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="I196" s="48" t="s">
         <v>12</v>
@@ -10761,7 +10764,7 @@
         <v>11</v>
       </c>
       <c r="H197" s="48" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="I197" s="48" t="s">
         <v>12</v>
@@ -10807,7 +10810,7 @@
         <v>11</v>
       </c>
       <c r="H199" s="48" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="I199" s="48" t="s">
         <v>12</v>
@@ -10853,7 +10856,7 @@
         <v>11</v>
       </c>
       <c r="H201" s="48" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="I201" s="48" t="s">
         <v>12</v>
@@ -10885,7 +10888,7 @@
         <v>11</v>
       </c>
       <c r="H202" s="48" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="I202" s="48" t="s">
         <v>12</v>
@@ -10917,7 +10920,7 @@
         <v>11</v>
       </c>
       <c r="H203" s="48" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="I203" s="48" t="s">
         <v>12</v>
@@ -10949,7 +10952,7 @@
         <v>11</v>
       </c>
       <c r="H204" s="48" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="I204" s="48" t="s">
         <v>12</v>
@@ -10981,7 +10984,7 @@
         <v>11</v>
       </c>
       <c r="H205" s="48" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="I205" s="48" t="s">
         <v>12</v>
@@ -11013,7 +11016,7 @@
         <v>11</v>
       </c>
       <c r="H206" s="48" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="I206" s="48" t="s">
         <v>12</v>
@@ -11045,7 +11048,7 @@
         <v>11</v>
       </c>
       <c r="H207" s="48" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="I207" s="48" t="s">
         <v>12</v>
@@ -11091,7 +11094,7 @@
         <v>11</v>
       </c>
       <c r="H209" s="48" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="I209" s="48" t="s">
         <v>12</v>
@@ -11137,7 +11140,7 @@
         <v>11</v>
       </c>
       <c r="H211" s="48" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="I211" s="48" t="s">
         <v>12</v>
@@ -11169,7 +11172,7 @@
         <v>11</v>
       </c>
       <c r="H212" s="48" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="I212" s="48" t="s">
         <v>12</v>
@@ -11186,22 +11189,22 @@
         <v>10</v>
       </c>
       <c r="C213" s="79" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="D213" s="78" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="E213" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F213" s="79" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="G213" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H213" s="48" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="I213" s="48" t="s">
         <v>12</v>
@@ -11247,7 +11250,7 @@
         <v>11</v>
       </c>
       <c r="H215" s="48" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="I215" s="48" t="s">
         <v>12</v>
@@ -11279,7 +11282,7 @@
         <v>11</v>
       </c>
       <c r="H216" s="48" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="I216" s="48" t="s">
         <v>12</v>
@@ -11311,7 +11314,7 @@
         <v>11</v>
       </c>
       <c r="H217" s="48" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="I217" s="48" t="s">
         <v>12</v>
@@ -11343,7 +11346,7 @@
         <v>11</v>
       </c>
       <c r="H218" s="48" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="I218" s="48" t="s">
         <v>12</v>
@@ -11375,7 +11378,7 @@
         <v>11</v>
       </c>
       <c r="H219" s="48" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="I219" s="48" t="s">
         <v>12</v>
@@ -11407,7 +11410,7 @@
         <v>11</v>
       </c>
       <c r="H220" s="48" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="I220" s="48" t="s">
         <v>12</v>
@@ -11424,22 +11427,22 @@
         <v>10</v>
       </c>
       <c r="C221" s="79" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="D221" s="78" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="E221" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F221" s="79" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="G221" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H221" s="48" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="I221" s="48" t="s">
         <v>12</v>
@@ -11456,22 +11459,22 @@
         <v>10</v>
       </c>
       <c r="C222" s="79" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="D222" s="78" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="E222" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="79" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="G222" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H222" s="48" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="I222" s="48" t="s">
         <v>12</v>
@@ -11488,22 +11491,22 @@
         <v>10</v>
       </c>
       <c r="C223" s="79" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="D223" s="78" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="E223" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="79" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="G223" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H223" s="48" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="I223" s="48" t="s">
         <v>12</v>
@@ -11520,22 +11523,22 @@
         <v>10</v>
       </c>
       <c r="C224" s="79" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="D224" s="78" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="E224" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F224" s="79" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="G224" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H224" s="48" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="I224" s="48" t="s">
         <v>12</v>
@@ -11552,22 +11555,22 @@
         <v>10</v>
       </c>
       <c r="C225" s="79" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="D225" s="78" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="E225" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F225" s="79" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="G225" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H225" s="48" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="I225" s="48" t="s">
         <v>12</v>
@@ -11578,7 +11581,7 @@
     </row>
     <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="82" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="B226" s="82"/>
       <c r="C226" s="82"/>
@@ -11598,22 +11601,22 @@
         <v>10</v>
       </c>
       <c r="C227" s="79" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="D227" s="78" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="E227" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F227" s="70" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="G227" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H227" s="48" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="I227" s="48" t="s">
         <v>12</v>
@@ -11624,7 +11627,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="82" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="B228" s="82"/>
       <c r="C228" s="82"/>
@@ -11644,22 +11647,22 @@
         <v>10</v>
       </c>
       <c r="C229" s="79" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="D229" s="78" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="E229" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F229" s="79" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="G229" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H229" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I229" s="48" t="s">
         <v>12</v>
@@ -11676,22 +11679,22 @@
         <v>10</v>
       </c>
       <c r="C230" s="79" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="D230" s="78" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="E230" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F230" s="79" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="G230" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H230" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I230" s="48" t="s">
         <v>12</v>
@@ -11708,22 +11711,22 @@
         <v>10</v>
       </c>
       <c r="C231" s="79" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="D231" s="78" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="E231" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F231" s="79" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="G231" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H231" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I231" s="48" t="s">
         <v>12</v>
@@ -11740,22 +11743,22 @@
         <v>10</v>
       </c>
       <c r="C232" s="79" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="D232" s="78" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="E232" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F232" s="79" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="G232" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H232" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I232" s="48" t="s">
         <v>12</v>
@@ -11772,22 +11775,22 @@
         <v>10</v>
       </c>
       <c r="C233" s="79" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="D233" s="78" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="E233" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F233" s="79" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="G233" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H233" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I233" s="48" t="s">
         <v>12</v>
@@ -11804,22 +11807,22 @@
         <v>10</v>
       </c>
       <c r="C234" s="79" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="D234" s="78" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="E234" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F234" s="79" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="G234" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H234" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I234" s="48" t="s">
         <v>12</v>
@@ -11836,22 +11839,22 @@
         <v>10</v>
       </c>
       <c r="C235" s="79" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="D235" s="78" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="E235" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F235" s="79" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="G235" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H235" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I235" s="48" t="s">
         <v>12</v>
@@ -11868,22 +11871,22 @@
         <v>10</v>
       </c>
       <c r="C236" s="79" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="D236" s="78" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="E236" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F236" s="79" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="G236" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H236" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I236" s="48" t="s">
         <v>12</v>
@@ -11900,22 +11903,22 @@
         <v>10</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="D237" s="78" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="E237" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F237" s="79" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="G237" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H237" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I237" s="48" t="s">
         <v>12</v>
@@ -11932,22 +11935,22 @@
         <v>10</v>
       </c>
       <c r="C238" s="79" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="D238" s="78" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="E238" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F238" s="79" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="G238" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H238" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I238" s="48" t="s">
         <v>12</v>
@@ -11964,22 +11967,22 @@
         <v>10</v>
       </c>
       <c r="C239" s="79" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="D239" s="78" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="E239" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F239" s="79" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="G239" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H239" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I239" s="48" t="s">
         <v>12</v>
@@ -11996,22 +11999,22 @@
         <v>10</v>
       </c>
       <c r="C240" s="79" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="D240" s="78" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="E240" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F240" s="79" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="G240" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H240" s="48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I240" s="48" t="s">
         <v>12</v>
@@ -12144,8 +12147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AF227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227"/>
+    <sheetView tabSelected="1" topLeftCell="R211" workbookViewId="0">
+      <selection activeCell="T227" sqref="T227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12234,7 +12237,7 @@
         <v>134</v>
       </c>
       <c r="T1" s="30" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="U1" s="30" t="s">
         <v>490</v>
@@ -26517,7 +26520,7 @@
         <v>22</v>
       </c>
       <c r="S174" s="49" t="s">
-        <v>764</v>
+        <v>838</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -26609,7 +26612,7 @@
         <v>22</v>
       </c>
       <c r="S175" s="49" t="s">
-        <v>765</v>
+        <v>839</v>
       </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
@@ -26639,7 +26642,7 @@
         <v>22</v>
       </c>
       <c r="AC175" s="73" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="AD175" s="48" t="s">
         <v>22</v>
@@ -26701,7 +26704,7 @@
         <v>22</v>
       </c>
       <c r="S176" s="49" t="s">
-        <v>765</v>
+        <v>839</v>
       </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
@@ -26731,7 +26734,7 @@
         <v>22</v>
       </c>
       <c r="AC176" s="73" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="AD176" s="48" t="s">
         <v>22</v>
@@ -26793,7 +26796,7 @@
         <v>22</v>
       </c>
       <c r="S177" s="49" t="s">
-        <v>764</v>
+        <v>838</v>
       </c>
       <c r="T177" s="48" t="s">
         <v>22</v>
@@ -26885,7 +26888,7 @@
         <v>22</v>
       </c>
       <c r="S178" s="49" t="s">
-        <v>765</v>
+        <v>839</v>
       </c>
       <c r="T178" s="48" t="s">
         <v>22</v>
@@ -26977,7 +26980,7 @@
         <v>22</v>
       </c>
       <c r="S179" s="49" t="s">
-        <v>765</v>
+        <v>839</v>
       </c>
       <c r="T179" s="48" t="s">
         <v>22</v>
@@ -27007,7 +27010,7 @@
         <v>22</v>
       </c>
       <c r="AC179" s="73" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="AD179" s="48" t="s">
         <v>22</v>
@@ -27069,7 +27072,7 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
-        <v>766</v>
+        <v>840</v>
       </c>
       <c r="T180" s="48" t="s">
         <v>22</v>
@@ -27161,7 +27164,7 @@
         <v>22</v>
       </c>
       <c r="S181" s="49" t="s">
-        <v>767</v>
+        <v>841</v>
       </c>
       <c r="T181" s="48" t="s">
         <v>22</v>
@@ -27253,7 +27256,7 @@
         <v>22</v>
       </c>
       <c r="S182" s="49" t="s">
-        <v>768</v>
+        <v>842</v>
       </c>
       <c r="T182" s="48" t="s">
         <v>22</v>
@@ -27345,7 +27348,7 @@
         <v>22</v>
       </c>
       <c r="S183" s="49" t="s">
-        <v>767</v>
+        <v>841</v>
       </c>
       <c r="T183" s="48" t="s">
         <v>22</v>
@@ -27438,7 +27441,7 @@
         <v>22</v>
       </c>
       <c r="S184" s="49" t="s">
-        <v>768</v>
+        <v>842</v>
       </c>
       <c r="T184" s="48" t="s">
         <v>22</v>
@@ -28176,7 +28179,7 @@
         <v>22</v>
       </c>
       <c r="S192" s="49" t="s">
-        <v>765</v>
+        <v>839</v>
       </c>
       <c r="T192" s="48" t="s">
         <v>22</v>
@@ -28268,7 +28271,7 @@
         <v>22</v>
       </c>
       <c r="S193" s="49" t="s">
-        <v>767</v>
+        <v>841</v>
       </c>
       <c r="T193" s="48" t="s">
         <v>22</v>
@@ -28360,7 +28363,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>768</v>
+        <v>842</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -28452,7 +28455,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>769</v>
+        <v>843</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -28544,7 +28547,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>765</v>
+        <v>839</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -28636,7 +28639,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>770</v>
+        <v>844</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -28728,7 +28731,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>771</v>
+        <v>845</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -28820,7 +28823,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>772</v>
+        <v>846</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -28912,7 +28915,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>765</v>
+        <v>839</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -29004,7 +29007,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>773</v>
+        <v>847</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -29096,7 +29099,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>773</v>
+        <v>847</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -29134,7 +29137,7 @@
     </row>
     <row r="203" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="70" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="B203" s="48" t="s">
         <v>22</v>
@@ -29188,7 +29191,7 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
-        <v>773</v>
+        <v>847</v>
       </c>
       <c r="T203" s="48" t="s">
         <v>22</v>
@@ -29280,7 +29283,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29372,7 +29375,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>774</v>
+        <v>848</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -29464,7 +29467,7 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>775</v>
+        <v>849</v>
       </c>
       <c r="T206" s="48" t="s">
         <v>22</v>
@@ -29556,7 +29559,7 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>776</v>
+        <v>850</v>
       </c>
       <c r="T207" s="48" t="s">
         <v>22</v>
@@ -29648,7 +29651,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>777</v>
+        <v>851</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -29740,7 +29743,7 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>778</v>
+        <v>852</v>
       </c>
       <c r="T209" s="48" t="s">
         <v>22</v>
@@ -29778,7 +29781,7 @@
     </row>
     <row r="210" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="70" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="B210" s="48" t="s">
         <v>22</v>
@@ -29832,7 +29835,7 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>783</v>
+        <v>853</v>
       </c>
       <c r="T210" s="48" t="s">
         <v>22</v>
@@ -29870,7 +29873,7 @@
     </row>
     <row r="211" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="70" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="B211" s="48" t="s">
         <v>22</v>
@@ -29924,7 +29927,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>785</v>
+        <v>854</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -29962,7 +29965,7 @@
     </row>
     <row r="212" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="70" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="B212" s="48" t="s">
         <v>22</v>
@@ -30016,7 +30019,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>791</v>
+        <v>855</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30054,7 +30057,7 @@
     </row>
     <row r="213" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="70" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="B213" s="48" t="s">
         <v>22</v>
@@ -30108,7 +30111,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>795</v>
+        <v>856</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30146,7 +30149,7 @@
     </row>
     <row r="214" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="70" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="B214" s="48" t="s">
         <v>22</v>
@@ -30200,7 +30203,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>780</v>
+        <v>857</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30238,7 +30241,7 @@
     </row>
     <row r="215" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="70" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="B215" s="48" t="s">
         <v>22</v>
@@ -30292,7 +30295,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>765</v>
+        <v>839</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30330,7 +30333,7 @@
     </row>
     <row r="216" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="70" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="B216" s="48" t="s">
         <v>22</v>
@@ -30384,45 +30387,45 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
+        <v>837</v>
+      </c>
+      <c r="T216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V216" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W216" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X216" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB216" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC216" s="73" t="s">
+        <v>836</v>
+      </c>
+      <c r="AD216" s="73" t="s">
         <v>820</v>
-      </c>
-      <c r="T216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V216" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W216" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X216" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB216" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC216" s="73" t="s">
-        <v>841</v>
-      </c>
-      <c r="AD216" s="48" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="70" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>22</v>
@@ -30476,7 +30479,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>776</v>
+        <v>850</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -30506,7 +30509,7 @@
         <v>22</v>
       </c>
       <c r="AC217" s="73" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AD217" s="48" t="s">
         <v>22</v>
@@ -30514,7 +30517,7 @@
     </row>
     <row r="218" spans="1:30" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="70" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="B218" s="48" t="s">
         <v>22</v>
@@ -30568,10 +30571,10 @@
         <v>22</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="T218" s="49" t="s">
-        <v>775</v>
+        <v>849</v>
       </c>
       <c r="U218" s="48" t="s">
         <v>22</v>
@@ -30598,7 +30601,7 @@
         <v>22</v>
       </c>
       <c r="AC218" s="73" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AD218" s="48" t="s">
         <v>22</v>
@@ -30606,7 +30609,7 @@
     </row>
     <row r="219" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="70" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>22</v>
@@ -30660,10 +30663,10 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="T219" s="49" t="s">
-        <v>774</v>
+        <v>848</v>
       </c>
       <c r="U219" s="48" t="s">
         <v>22</v>
@@ -30690,7 +30693,7 @@
         <v>22</v>
       </c>
       <c r="AC219" s="73" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AD219" s="48" t="s">
         <v>22</v>
@@ -30698,7 +30701,7 @@
     </row>
     <row r="220" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="70" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>22</v>
@@ -30752,7 +30755,7 @@
         <v>22</v>
       </c>
       <c r="S220" s="49" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="T220" s="48" t="s">
         <v>22</v>
@@ -30782,7 +30785,7 @@
         <v>22</v>
       </c>
       <c r="AC220" s="73" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AD220" s="48" t="s">
         <v>22</v>
@@ -30790,91 +30793,91 @@
     </row>
     <row r="221" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="70" t="s">
+        <v>815</v>
+      </c>
+      <c r="B221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S221" s="49" t="s">
+        <v>837</v>
+      </c>
+      <c r="T221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V221" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W221" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X221" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB221" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC221" s="73" t="s">
         <v>836</v>
-      </c>
-      <c r="B221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S221" s="49" t="s">
-        <v>820</v>
-      </c>
-      <c r="T221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V221" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W221" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X221" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB221" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC221" s="73" t="s">
-        <v>841</v>
       </c>
       <c r="AD221" s="48" t="s">
         <v>22</v>
@@ -30882,7 +30885,7 @@
     </row>
     <row r="222" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="70" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>22</v>
@@ -30936,10 +30939,10 @@
         <v>22</v>
       </c>
       <c r="S222" s="49" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="T222" s="49" t="s">
-        <v>774</v>
+        <v>848</v>
       </c>
       <c r="U222" s="48" t="s">
         <v>22</v>
@@ -30966,7 +30969,7 @@
         <v>22</v>
       </c>
       <c r="AC222" s="73" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AD222" s="48" t="s">
         <v>22</v>
@@ -30974,7 +30977,7 @@
     </row>
     <row r="223" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="70" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>22</v>
@@ -31028,10 +31031,10 @@
         <v>22</v>
       </c>
       <c r="S223" s="49" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="T223" s="49" t="s">
-        <v>774</v>
+        <v>848</v>
       </c>
       <c r="U223" s="48" t="s">
         <v>22</v>
@@ -31058,7 +31061,7 @@
         <v>22</v>
       </c>
       <c r="AC223" s="73" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AD223" s="48" t="s">
         <v>22</v>
@@ -31066,7 +31069,7 @@
     </row>
     <row r="224" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="70" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>22</v>
@@ -31120,7 +31123,7 @@
         <v>22</v>
       </c>
       <c r="S224" s="49" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="T224" s="48" t="s">
         <v>22</v>
@@ -31150,7 +31153,7 @@
         <v>22</v>
       </c>
       <c r="AC224" s="73" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AD224" s="48" t="s">
         <v>22</v>
@@ -31158,7 +31161,7 @@
     </row>
     <row r="225" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="70" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>22</v>
@@ -31212,10 +31215,10 @@
         <v>22</v>
       </c>
       <c r="S225" s="49" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="T225" s="49" t="s">
-        <v>775</v>
+        <v>849</v>
       </c>
       <c r="U225" s="48" t="s">
         <v>22</v>
@@ -31242,7 +31245,7 @@
         <v>22</v>
       </c>
       <c r="AC225" s="73" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AD225" s="48" t="s">
         <v>22</v>
@@ -31250,7 +31253,7 @@
     </row>
     <row r="226" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="70" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>22</v>
@@ -31304,10 +31307,10 @@
         <v>22</v>
       </c>
       <c r="S226" s="49" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="T226" s="49" t="s">
-        <v>775</v>
+        <v>849</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31334,7 +31337,7 @@
         <v>22</v>
       </c>
       <c r="AC226" s="73" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AD226" s="48" t="s">
         <v>22</v>
@@ -31342,7 +31345,7 @@
     </row>
     <row r="227" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="70" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>22</v>
@@ -31396,10 +31399,10 @@
         <v>22</v>
       </c>
       <c r="S227" s="49" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="T227" s="49" t="s">
-        <v>775</v>
+        <v>849</v>
       </c>
       <c r="U227" s="48" t="s">
         <v>22</v>
@@ -31426,7 +31429,7 @@
         <v>22</v>
       </c>
       <c r="AC227" s="73" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AD227" s="48" t="s">
         <v>22</v>
@@ -31558,7 +31561,7 @@
     <hyperlink ref="G172" r:id="rId17" xr:uid="{E0CF340A-567A-4979-87DE-4F467618A03F}"/>
     <hyperlink ref="AC192" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
     <hyperlink ref="S184" r:id="rId19" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
-    <hyperlink ref="S196" r:id="rId20" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
+    <hyperlink ref="S196" r:id="rId20" display="https://qa.adm.testingserver8.com/admin/product" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
     <hyperlink ref="S176" r:id="rId21" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
     <hyperlink ref="S177" r:id="rId22" display="https://opt.adm.testingserver8.com/admin/home-page-banner" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
     <hyperlink ref="S178" r:id="rId23" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
@@ -31569,24 +31572,26 @@
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
     <hyperlink ref="AC179" r:id="rId30" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{EE1283A5-0E44-46A8-988B-A844DC89A813}"/>
-    <hyperlink ref="S205" r:id="rId31" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S204" r:id="rId32" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="S205" r:id="rId31" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S204" r:id="rId32" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
     <hyperlink ref="AC176" r:id="rId33" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{E0F1FB94-6902-4F15-B228-216A379621AC}"/>
     <hyperlink ref="AC175" r:id="rId34" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{C022A20D-615A-41FD-8FD1-BC4D60CF4995}"/>
-    <hyperlink ref="S216" r:id="rId35" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
-    <hyperlink ref="S221" r:id="rId36" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
-    <hyperlink ref="S219" r:id="rId37" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
-    <hyperlink ref="S218" r:id="rId38" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
-    <hyperlink ref="S222" r:id="rId39" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
-    <hyperlink ref="T222" r:id="rId40" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
-    <hyperlink ref="S223" r:id="rId41" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T223" r:id="rId42" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
-    <hyperlink ref="S224" r:id="rId43" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
-    <hyperlink ref="S225" r:id="rId44" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
-    <hyperlink ref="S226" r:id="rId45" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
-    <hyperlink ref="S227" r:id="rId46" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="S216" r:id="rId35" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S221" r:id="rId36" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S219" r:id="rId37" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S218" r:id="rId38" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S222" r:id="rId39" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T222" r:id="rId40" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S223" r:id="rId41" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T223" r:id="rId42" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S224" r:id="rId43" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S225" r:id="rId44" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S226" r:id="rId45" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S227" r:id="rId46" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="AC216" r:id="rId47" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{939869DC-8EFA-44FF-8122-0065B9B92171}"/>
+    <hyperlink ref="AC217:AC227" r:id="rId48" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{43800A2C-3378-46BE-8D88-1F9AB354CF0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B7C593-5A8F-4F27-908B-D42CAEE6A00D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEA56A9-C7F8-42E4-BAD6-66A8A333B6FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -2428,9 +2428,6 @@
     <t>OEV</t>
   </si>
   <si>
-    <t>Test By Auto1</t>
-  </si>
-  <si>
     <t>TD_UI_Admin_OEV_02</t>
   </si>
   <si>
@@ -2539,67 +2536,70 @@
     <t>Crop Waistcoat Set</t>
   </si>
   <si>
-    <t>https://console.zlaata.com/admin/order</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/home-page-banner</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/product</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/special-timer-event</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/categories</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/product-collection</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/product-style</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/product-search-keyword</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/collection-search-keyword</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/style-search-keyword</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/coupon</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/return-order</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/exchange-order</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/cancel-order</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/return-cancel</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/exchange-cancel</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/payment-pending</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/payment-refund</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/payment-failed</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/rto-orders</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/all-orders</t>
+    <t>https://qa.adm.testingserver8.com/admin/home-page-banner</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/product</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/special-timer-event</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/categories</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/product-collection</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/product-style</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/product-search-keyword</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/collection-search-keyword</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/style-search-keyword</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/coupon</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/order</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/return-order</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/exchange-order</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/cancel-order</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/return-cancel</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/exchange-cancel</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/payment-pending</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/payment-refund</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/payment-failed</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/rto-orders</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/all-orders</t>
+  </si>
+  <si>
+    <t>Blue dskjjksdjkdjds</t>
   </si>
 </sst>
 </file>
@@ -11679,16 +11679,16 @@
         <v>10</v>
       </c>
       <c r="C230" s="79" t="s">
+        <v>801</v>
+      </c>
+      <c r="D230" s="78" t="s">
         <v>802</v>
-      </c>
-      <c r="D230" s="78" t="s">
-        <v>803</v>
       </c>
       <c r="E230" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F230" s="79" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G230" s="48" t="s">
         <v>11</v>
@@ -11711,16 +11711,16 @@
         <v>10</v>
       </c>
       <c r="C231" s="79" t="s">
+        <v>803</v>
+      </c>
+      <c r="D231" s="78" t="s">
         <v>804</v>
-      </c>
-      <c r="D231" s="78" t="s">
-        <v>805</v>
       </c>
       <c r="E231" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F231" s="79" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G231" s="48" t="s">
         <v>11</v>
@@ -11743,16 +11743,16 @@
         <v>10</v>
       </c>
       <c r="C232" s="79" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D232" s="78" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E232" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F232" s="79" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G232" s="48" t="s">
         <v>11</v>
@@ -11775,16 +11775,16 @@
         <v>10</v>
       </c>
       <c r="C233" s="79" t="s">
+        <v>810</v>
+      </c>
+      <c r="D233" s="78" t="s">
         <v>811</v>
-      </c>
-      <c r="D233" s="78" t="s">
-        <v>812</v>
       </c>
       <c r="E233" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F233" s="79" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G233" s="48" t="s">
         <v>11</v>
@@ -11807,16 +11807,16 @@
         <v>10</v>
       </c>
       <c r="C234" s="79" t="s">
+        <v>812</v>
+      </c>
+      <c r="D234" s="78" t="s">
         <v>813</v>
-      </c>
-      <c r="D234" s="78" t="s">
-        <v>814</v>
       </c>
       <c r="E234" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F234" s="79" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G234" s="48" t="s">
         <v>11</v>
@@ -11839,16 +11839,16 @@
         <v>10</v>
       </c>
       <c r="C235" s="79" t="s">
+        <v>817</v>
+      </c>
+      <c r="D235" s="78" t="s">
         <v>818</v>
-      </c>
-      <c r="D235" s="78" t="s">
-        <v>819</v>
       </c>
       <c r="E235" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F235" s="79" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G235" s="48" t="s">
         <v>11</v>
@@ -11871,16 +11871,16 @@
         <v>10</v>
       </c>
       <c r="C236" s="79" t="s">
+        <v>821</v>
+      </c>
+      <c r="D236" s="78" t="s">
         <v>822</v>
-      </c>
-      <c r="D236" s="78" t="s">
-        <v>823</v>
       </c>
       <c r="E236" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F236" s="79" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G236" s="48" t="s">
         <v>11</v>
@@ -11903,16 +11903,16 @@
         <v>10</v>
       </c>
       <c r="C237" s="79" t="s">
+        <v>823</v>
+      </c>
+      <c r="D237" s="78" t="s">
         <v>824</v>
-      </c>
-      <c r="D237" s="78" t="s">
-        <v>825</v>
       </c>
       <c r="E237" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F237" s="79" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G237" s="48" t="s">
         <v>11</v>
@@ -11935,16 +11935,16 @@
         <v>10</v>
       </c>
       <c r="C238" s="79" t="s">
+        <v>826</v>
+      </c>
+      <c r="D238" s="78" t="s">
         <v>827</v>
-      </c>
-      <c r="D238" s="78" t="s">
-        <v>828</v>
       </c>
       <c r="E238" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F238" s="79" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G238" s="48" t="s">
         <v>11</v>
@@ -11967,16 +11967,16 @@
         <v>10</v>
       </c>
       <c r="C239" s="79" t="s">
+        <v>830</v>
+      </c>
+      <c r="D239" s="78" t="s">
         <v>831</v>
-      </c>
-      <c r="D239" s="78" t="s">
-        <v>832</v>
       </c>
       <c r="E239" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F239" s="79" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G239" s="48" t="s">
         <v>11</v>
@@ -11999,16 +11999,16 @@
         <v>10</v>
       </c>
       <c r="C240" s="79" t="s">
+        <v>832</v>
+      </c>
+      <c r="D240" s="78" t="s">
         <v>833</v>
-      </c>
-      <c r="D240" s="78" t="s">
-        <v>834</v>
       </c>
       <c r="E240" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F240" s="79" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G240" s="48" t="s">
         <v>11</v>
@@ -12147,8 +12147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AF227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R211" workbookViewId="0">
-      <selection activeCell="T227" sqref="T227"/>
+    <sheetView tabSelected="1" topLeftCell="W172" workbookViewId="0">
+      <selection activeCell="AC179" sqref="AC179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12237,7 +12237,7 @@
         <v>134</v>
       </c>
       <c r="T1" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U1" s="30" t="s">
         <v>490</v>
@@ -26520,7 +26520,7 @@
         <v>22</v>
       </c>
       <c r="S174" s="49" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -26612,7 +26612,7 @@
         <v>22</v>
       </c>
       <c r="S175" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
@@ -26642,7 +26642,7 @@
         <v>22</v>
       </c>
       <c r="AC175" s="73" t="s">
-        <v>800</v>
+        <v>857</v>
       </c>
       <c r="AD175" s="48" t="s">
         <v>22</v>
@@ -26704,7 +26704,7 @@
         <v>22</v>
       </c>
       <c r="S176" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
@@ -26734,7 +26734,7 @@
         <v>22</v>
       </c>
       <c r="AC176" s="73" t="s">
-        <v>800</v>
+        <v>857</v>
       </c>
       <c r="AD176" s="48" t="s">
         <v>22</v>
@@ -26796,7 +26796,7 @@
         <v>22</v>
       </c>
       <c r="S177" s="49" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="T177" s="48" t="s">
         <v>22</v>
@@ -26888,7 +26888,7 @@
         <v>22</v>
       </c>
       <c r="S178" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T178" s="48" t="s">
         <v>22</v>
@@ -26980,7 +26980,7 @@
         <v>22</v>
       </c>
       <c r="S179" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T179" s="48" t="s">
         <v>22</v>
@@ -27010,7 +27010,7 @@
         <v>22</v>
       </c>
       <c r="AC179" s="73" t="s">
-        <v>800</v>
+        <v>857</v>
       </c>
       <c r="AD179" s="48" t="s">
         <v>22</v>
@@ -27072,7 +27072,7 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="T180" s="48" t="s">
         <v>22</v>
@@ -27164,7 +27164,7 @@
         <v>22</v>
       </c>
       <c r="S181" s="49" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="T181" s="48" t="s">
         <v>22</v>
@@ -27256,7 +27256,7 @@
         <v>22</v>
       </c>
       <c r="S182" s="49" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="T182" s="48" t="s">
         <v>22</v>
@@ -27348,7 +27348,7 @@
         <v>22</v>
       </c>
       <c r="S183" s="49" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="T183" s="48" t="s">
         <v>22</v>
@@ -27441,7 +27441,7 @@
         <v>22</v>
       </c>
       <c r="S184" s="49" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="T184" s="48" t="s">
         <v>22</v>
@@ -28179,7 +28179,7 @@
         <v>22</v>
       </c>
       <c r="S192" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T192" s="48" t="s">
         <v>22</v>
@@ -28271,7 +28271,7 @@
         <v>22</v>
       </c>
       <c r="S193" s="49" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="T193" s="48" t="s">
         <v>22</v>
@@ -28363,7 +28363,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -28455,7 +28455,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -28547,7 +28547,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -28639,7 +28639,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -28731,7 +28731,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -28823,7 +28823,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -28915,7 +28915,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -29007,7 +29007,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -29099,7 +29099,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -29191,7 +29191,7 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="T203" s="48" t="s">
         <v>22</v>
@@ -29283,7 +29283,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29375,7 +29375,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -29467,7 +29467,7 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="T206" s="48" t="s">
         <v>22</v>
@@ -29559,7 +29559,7 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="T207" s="48" t="s">
         <v>22</v>
@@ -29651,7 +29651,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -29743,7 +29743,7 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="T209" s="48" t="s">
         <v>22</v>
@@ -29835,7 +29835,7 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="T210" s="48" t="s">
         <v>22</v>
@@ -29927,7 +29927,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30019,7 +30019,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30111,7 +30111,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30203,7 +30203,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30295,7 +30295,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30387,7 +30387,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -30417,15 +30417,15 @@
         <v>22</v>
       </c>
       <c r="AC216" s="73" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="AD216" s="73" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="217" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="70" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>22</v>
@@ -30479,7 +30479,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -30509,7 +30509,7 @@
         <v>22</v>
       </c>
       <c r="AC217" s="73" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="AD217" s="48" t="s">
         <v>22</v>
@@ -30517,7 +30517,7 @@
     </row>
     <row r="218" spans="1:30" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B218" s="48" t="s">
         <v>22</v>
@@ -30571,10 +30571,10 @@
         <v>22</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T218" s="49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U218" s="48" t="s">
         <v>22</v>
@@ -30601,7 +30601,7 @@
         <v>22</v>
       </c>
       <c r="AC218" s="73" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="AD218" s="48" t="s">
         <v>22</v>
@@ -30609,7 +30609,7 @@
     </row>
     <row r="219" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="70" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>22</v>
@@ -30663,10 +30663,10 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T219" s="49" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="U219" s="48" t="s">
         <v>22</v>
@@ -30693,7 +30693,7 @@
         <v>22</v>
       </c>
       <c r="AC219" s="73" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="AD219" s="48" t="s">
         <v>22</v>
@@ -30701,7 +30701,7 @@
     </row>
     <row r="220" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="70" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>22</v>
@@ -30755,7 +30755,7 @@
         <v>22</v>
       </c>
       <c r="S220" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T220" s="48" t="s">
         <v>22</v>
@@ -30785,7 +30785,7 @@
         <v>22</v>
       </c>
       <c r="AC220" s="73" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="AD220" s="48" t="s">
         <v>22</v>
@@ -30793,7 +30793,7 @@
     </row>
     <row r="221" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="70" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>22</v>
@@ -30847,7 +30847,7 @@
         <v>22</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T221" s="48" t="s">
         <v>22</v>
@@ -30877,7 +30877,7 @@
         <v>22</v>
       </c>
       <c r="AC221" s="73" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="AD221" s="48" t="s">
         <v>22</v>
@@ -30885,7 +30885,7 @@
     </row>
     <row r="222" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="70" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>22</v>
@@ -30939,10 +30939,10 @@
         <v>22</v>
       </c>
       <c r="S222" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T222" s="49" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="U222" s="48" t="s">
         <v>22</v>
@@ -30969,15 +30969,15 @@
         <v>22</v>
       </c>
       <c r="AC222" s="73" t="s">
-        <v>836</v>
-      </c>
-      <c r="AD222" s="48" t="s">
-        <v>22</v>
+        <v>819</v>
+      </c>
+      <c r="AD222" s="73" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="223" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="70" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>22</v>
@@ -31031,10 +31031,10 @@
         <v>22</v>
       </c>
       <c r="S223" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T223" s="49" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="U223" s="48" t="s">
         <v>22</v>
@@ -31061,7 +31061,7 @@
         <v>22</v>
       </c>
       <c r="AC223" s="73" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="AD223" s="48" t="s">
         <v>22</v>
@@ -31069,7 +31069,7 @@
     </row>
     <row r="224" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="70" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>22</v>
@@ -31123,7 +31123,7 @@
         <v>22</v>
       </c>
       <c r="S224" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T224" s="48" t="s">
         <v>22</v>
@@ -31153,7 +31153,7 @@
         <v>22</v>
       </c>
       <c r="AC224" s="73" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="AD224" s="48" t="s">
         <v>22</v>
@@ -31161,7 +31161,7 @@
     </row>
     <row r="225" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="70" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>22</v>
@@ -31215,10 +31215,10 @@
         <v>22</v>
       </c>
       <c r="S225" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T225" s="49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U225" s="48" t="s">
         <v>22</v>
@@ -31245,7 +31245,7 @@
         <v>22</v>
       </c>
       <c r="AC225" s="73" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="AD225" s="48" t="s">
         <v>22</v>
@@ -31253,7 +31253,7 @@
     </row>
     <row r="226" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="70" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>22</v>
@@ -31307,10 +31307,10 @@
         <v>22</v>
       </c>
       <c r="S226" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T226" s="49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31337,7 +31337,7 @@
         <v>22</v>
       </c>
       <c r="AC226" s="73" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="AD226" s="48" t="s">
         <v>22</v>
@@ -31345,7 +31345,7 @@
     </row>
     <row r="227" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="70" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>22</v>
@@ -31399,10 +31399,10 @@
         <v>22</v>
       </c>
       <c r="S227" s="49" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="T227" s="49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U227" s="48" t="s">
         <v>22</v>
@@ -31429,7 +31429,7 @@
         <v>22</v>
       </c>
       <c r="AC227" s="73" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="AD227" s="48" t="s">
         <v>22</v>
@@ -31561,7 +31561,7 @@
     <hyperlink ref="G172" r:id="rId17" xr:uid="{E0CF340A-567A-4979-87DE-4F467618A03F}"/>
     <hyperlink ref="AC192" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
     <hyperlink ref="S184" r:id="rId19" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
-    <hyperlink ref="S196" r:id="rId20" display="https://qa.adm.testingserver8.com/admin/product" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
+    <hyperlink ref="S196" r:id="rId20" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
     <hyperlink ref="S176" r:id="rId21" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
     <hyperlink ref="S177" r:id="rId22" display="https://opt.adm.testingserver8.com/admin/home-page-banner" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
     <hyperlink ref="S178" r:id="rId23" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
@@ -31571,25 +31571,25 @@
     <hyperlink ref="S181" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
-    <hyperlink ref="AC179" r:id="rId30" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{EE1283A5-0E44-46A8-988B-A844DC89A813}"/>
-    <hyperlink ref="S205" r:id="rId31" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S204" r:id="rId32" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
-    <hyperlink ref="AC176" r:id="rId33" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{E0F1FB94-6902-4F15-B228-216A379621AC}"/>
-    <hyperlink ref="AC175" r:id="rId34" tooltip="Test By Auto2" display="https://qa.zlta.testingserver8.com/product-detail/test-by-auto2" xr:uid="{C022A20D-615A-41FD-8FD1-BC4D60CF4995}"/>
-    <hyperlink ref="S216" r:id="rId35" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
-    <hyperlink ref="S221" r:id="rId36" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
-    <hyperlink ref="S219" r:id="rId37" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
-    <hyperlink ref="S218" r:id="rId38" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
-    <hyperlink ref="S222" r:id="rId39" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
-    <hyperlink ref="T222" r:id="rId40" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
-    <hyperlink ref="S223" r:id="rId41" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T223" r:id="rId42" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
-    <hyperlink ref="S224" r:id="rId43" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
-    <hyperlink ref="S225" r:id="rId44" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
-    <hyperlink ref="S226" r:id="rId45" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
-    <hyperlink ref="S227" r:id="rId46" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
-    <hyperlink ref="AC216" r:id="rId47" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{939869DC-8EFA-44FF-8122-0065B9B92171}"/>
-    <hyperlink ref="AC217:AC227" r:id="rId48" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{43800A2C-3378-46BE-8D88-1F9AB354CF0C}"/>
+    <hyperlink ref="S205" r:id="rId30" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S204" r:id="rId31" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="S216" r:id="rId32" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S221" r:id="rId33" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S219" r:id="rId34" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S218" r:id="rId35" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S222" r:id="rId36" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T222" r:id="rId37" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S223" r:id="rId38" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T223" r:id="rId39" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S224" r:id="rId40" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S225" r:id="rId41" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S226" r:id="rId42" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S227" r:id="rId43" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="T225" r:id="rId44" display="https://console.zlaata.com/admin/exchange-order" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
+    <hyperlink ref="AD222" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
+    <hyperlink ref="AC175" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
+    <hyperlink ref="AC176" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
+    <hyperlink ref="AC179" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId49"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEA56A9-C7F8-42E4-BAD6-66A8A333B6FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B955FEA3-12CC-48DA-8B3B-C081744E5174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7972" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8095" uniqueCount="874">
   <si>
     <t>S.No</t>
   </si>
@@ -2536,6 +2536,21 @@
     <t>Crop Waistcoat Set</t>
   </si>
   <si>
+    <t>Blue dskjjksdjkdjds</t>
+  </si>
+  <si>
+    <t>DRESSES</t>
+  </si>
+  <si>
+    <t>ADAYEIN</t>
+  </si>
+  <si>
+    <t>FESTIVES</t>
+  </si>
+  <si>
+    <t>Ganesh Chaturthi</t>
+  </si>
+  <si>
     <t>https://qa.adm.testingserver8.com/admin/home-page-banner</t>
   </si>
   <si>
@@ -2599,14 +2614,47 @@
     <t>https://qa.adm.testingserver8.com/admin/all-orders</t>
   </si>
   <si>
-    <t>Blue dskjjksdjkdjds</t>
+    <t>TD_UI_Zlaata_COD_01</t>
+  </si>
+  <si>
+    <t>COD Verfication In Check Out Page</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COD_01</t>
+  </si>
+  <si>
+    <t>Verify COD visibility when two products with Gift Wrap are added.</t>
+  </si>
+  <si>
+    <t>Calculation Verification RazorPay and My Order Page</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_01</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_Calculate_01</t>
+  </si>
+  <si>
+    <t>Calculate</t>
+  </si>
+  <si>
+    <t>Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_02</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_Calculate_02</t>
+  </si>
+  <si>
+    <t>Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2701,12 +2749,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="19"/>
-      <color rgb="FF383838"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3033,7 +3075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3233,14 +3275,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3262,27 +3328,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4086,10 +4131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z240"/>
+  <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView topLeftCell="A230" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F240" sqref="F240"/>
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4842,18 +4887,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="93"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -5240,18 +5285,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="96"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="91"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5798,18 +5843,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="96"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="91"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -6132,18 +6177,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="94" t="s">
+      <c r="A66" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="96"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="91"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6498,18 +6543,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="94" t="s">
+      <c r="A78" s="89" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="96"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="90"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="91"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7376,18 +7421,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="97" t="s">
+      <c r="A106" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="97"/>
-      <c r="C106" s="97"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="97"/>
-      <c r="G106" s="97"/>
-      <c r="H106" s="97"/>
-      <c r="I106" s="97"/>
-      <c r="J106" s="97"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -7880,18 +7925,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="83" t="s">
+      <c r="A121" s="85" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="83"/>
-      <c r="C121" s="83"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="83"/>
-      <c r="G121" s="83"/>
-      <c r="H121" s="83"/>
-      <c r="I121" s="83"/>
-      <c r="J121" s="83"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -7954,18 +7999,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="83"/>
-      <c r="C123" s="83"/>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="83"/>
-      <c r="I123" s="83"/>
-      <c r="J123" s="83"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8028,18 +8073,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="83" t="s">
+      <c r="A125" s="85" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="83"/>
-      <c r="C125" s="83"/>
-      <c r="D125" s="83"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="83"/>
-      <c r="G125" s="83"/>
-      <c r="H125" s="83"/>
-      <c r="I125" s="83"/>
-      <c r="J125" s="83"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8364,18 +8409,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="83" t="s">
+      <c r="A133" s="85" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="83"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="84"/>
-      <c r="E133" s="84"/>
-      <c r="F133" s="84"/>
-      <c r="G133" s="84"/>
-      <c r="H133" s="84"/>
-      <c r="I133" s="84"/>
-      <c r="J133" s="84"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="92"/>
+      <c r="F133" s="92"/>
+      <c r="G133" s="92"/>
+      <c r="H133" s="92"/>
+      <c r="I133" s="92"/>
+      <c r="J133" s="92"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8870,18 +8915,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="88" t="s">
+      <c r="A145" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="89"/>
-      <c r="C145" s="89"/>
-      <c r="D145" s="89"/>
-      <c r="E145" s="89"/>
-      <c r="F145" s="89"/>
-      <c r="G145" s="89"/>
-      <c r="H145" s="89"/>
-      <c r="I145" s="89"/>
-      <c r="J145" s="90"/>
+      <c r="B145" s="97"/>
+      <c r="C145" s="97"/>
+      <c r="D145" s="97"/>
+      <c r="E145" s="97"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="97"/>
+      <c r="H145" s="97"/>
+      <c r="I145" s="97"/>
+      <c r="J145" s="98"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9328,18 +9373,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="83" t="s">
+      <c r="A156" s="85" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="83"/>
-      <c r="C156" s="83"/>
-      <c r="D156" s="83"/>
-      <c r="E156" s="83"/>
-      <c r="F156" s="83"/>
-      <c r="G156" s="83"/>
-      <c r="H156" s="83"/>
-      <c r="I156" s="83"/>
-      <c r="J156" s="83"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9406,18 +9451,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="83" t="s">
+      <c r="A158" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="83"/>
-      <c r="C158" s="83"/>
-      <c r="D158" s="83"/>
-      <c r="E158" s="83"/>
-      <c r="F158" s="83"/>
-      <c r="G158" s="83"/>
-      <c r="H158" s="83"/>
-      <c r="I158" s="83"/>
-      <c r="J158" s="83"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10156,18 +10201,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="83" t="s">
+      <c r="A177" s="85" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="83"/>
-      <c r="C177" s="83"/>
-      <c r="D177" s="82"/>
-      <c r="E177" s="83"/>
-      <c r="F177" s="83"/>
-      <c r="G177" s="83"/>
-      <c r="H177" s="83"/>
-      <c r="I177" s="83"/>
-      <c r="J177" s="83"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="85"/>
+      <c r="D177" s="83"/>
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="85"/>
+      <c r="I177" s="85"/>
+      <c r="J177" s="85"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -10458,18 +10503,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="85" t="s">
+      <c r="A187" s="93" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="86"/>
-      <c r="C187" s="86"/>
-      <c r="D187" s="86"/>
-      <c r="E187" s="86"/>
-      <c r="F187" s="86"/>
-      <c r="G187" s="86"/>
-      <c r="H187" s="86"/>
-      <c r="I187" s="86"/>
-      <c r="J187" s="87"/>
+      <c r="B187" s="94"/>
+      <c r="C187" s="94"/>
+      <c r="D187" s="94"/>
+      <c r="E187" s="94"/>
+      <c r="F187" s="94"/>
+      <c r="G187" s="94"/>
+      <c r="H187" s="94"/>
+      <c r="I187" s="94"/>
+      <c r="J187" s="95"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10632,18 +10677,18 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="82" t="s">
+      <c r="A193" s="83" t="s">
         <v>638</v>
       </c>
-      <c r="B193" s="82"/>
-      <c r="C193" s="82"/>
-      <c r="D193" s="82"/>
-      <c r="E193" s="82"/>
-      <c r="F193" s="82"/>
-      <c r="G193" s="82"/>
-      <c r="H193" s="82"/>
-      <c r="I193" s="82"/>
-      <c r="J193" s="82"/>
+      <c r="B193" s="83"/>
+      <c r="C193" s="83"/>
+      <c r="D193" s="83"/>
+      <c r="E193" s="83"/>
+      <c r="F193" s="83"/>
+      <c r="G193" s="83"/>
+      <c r="H193" s="83"/>
+      <c r="I193" s="83"/>
+      <c r="J193" s="83"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
@@ -10774,18 +10819,18 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="82" t="s">
+      <c r="A198" s="83" t="s">
         <v>651</v>
       </c>
-      <c r="B198" s="82"/>
-      <c r="C198" s="82"/>
-      <c r="D198" s="82"/>
-      <c r="E198" s="82"/>
-      <c r="F198" s="82"/>
-      <c r="G198" s="82"/>
-      <c r="H198" s="82"/>
-      <c r="I198" s="82"/>
-      <c r="J198" s="82"/>
+      <c r="B198" s="83"/>
+      <c r="C198" s="83"/>
+      <c r="D198" s="83"/>
+      <c r="E198" s="83"/>
+      <c r="F198" s="83"/>
+      <c r="G198" s="83"/>
+      <c r="H198" s="83"/>
+      <c r="I198" s="83"/>
+      <c r="J198" s="83"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
@@ -10820,18 +10865,18 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="82" t="s">
+      <c r="A200" s="83" t="s">
         <v>657</v>
       </c>
-      <c r="B200" s="82"/>
-      <c r="C200" s="82"/>
-      <c r="D200" s="82"/>
-      <c r="E200" s="82"/>
-      <c r="F200" s="82"/>
-      <c r="G200" s="82"/>
-      <c r="H200" s="82"/>
-      <c r="I200" s="82"/>
-      <c r="J200" s="82"/>
+      <c r="B200" s="83"/>
+      <c r="C200" s="83"/>
+      <c r="D200" s="83"/>
+      <c r="E200" s="83"/>
+      <c r="F200" s="83"/>
+      <c r="G200" s="83"/>
+      <c r="H200" s="83"/>
+      <c r="I200" s="83"/>
+      <c r="J200" s="83"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
@@ -11058,18 +11103,18 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="82" t="s">
+      <c r="A208" s="83" t="s">
         <v>733</v>
       </c>
-      <c r="B208" s="82"/>
-      <c r="C208" s="82"/>
-      <c r="D208" s="82"/>
-      <c r="E208" s="82"/>
-      <c r="F208" s="82"/>
-      <c r="G208" s="82"/>
-      <c r="H208" s="82"/>
-      <c r="I208" s="82"/>
-      <c r="J208" s="82"/>
+      <c r="B208" s="83"/>
+      <c r="C208" s="83"/>
+      <c r="D208" s="83"/>
+      <c r="E208" s="83"/>
+      <c r="F208" s="83"/>
+      <c r="G208" s="83"/>
+      <c r="H208" s="83"/>
+      <c r="I208" s="83"/>
+      <c r="J208" s="83"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
@@ -11104,18 +11149,18 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="82" t="s">
+      <c r="A210" s="83" t="s">
         <v>736</v>
       </c>
-      <c r="B210" s="82"/>
-      <c r="C210" s="82"/>
-      <c r="D210" s="82"/>
-      <c r="E210" s="82"/>
-      <c r="F210" s="82"/>
-      <c r="G210" s="82"/>
-      <c r="H210" s="82"/>
-      <c r="I210" s="82"/>
-      <c r="J210" s="82"/>
+      <c r="B210" s="83"/>
+      <c r="C210" s="83"/>
+      <c r="D210" s="83"/>
+      <c r="E210" s="83"/>
+      <c r="F210" s="83"/>
+      <c r="G210" s="83"/>
+      <c r="H210" s="83"/>
+      <c r="I210" s="83"/>
+      <c r="J210" s="83"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
@@ -11214,18 +11259,18 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="82" t="s">
+      <c r="A214" s="83" t="s">
         <v>746</v>
       </c>
-      <c r="B214" s="82"/>
-      <c r="C214" s="82"/>
-      <c r="D214" s="82"/>
-      <c r="E214" s="82"/>
-      <c r="F214" s="82"/>
-      <c r="G214" s="82"/>
-      <c r="H214" s="82"/>
-      <c r="I214" s="82"/>
-      <c r="J214" s="82"/>
+      <c r="B214" s="83"/>
+      <c r="C214" s="83"/>
+      <c r="D214" s="83"/>
+      <c r="E214" s="83"/>
+      <c r="F214" s="83"/>
+      <c r="G214" s="83"/>
+      <c r="H214" s="83"/>
+      <c r="I214" s="83"/>
+      <c r="J214" s="83"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="48">
@@ -11580,18 +11625,18 @@
       </c>
     </row>
     <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="82" t="s">
+      <c r="A226" s="83" t="s">
         <v>783</v>
       </c>
-      <c r="B226" s="82"/>
-      <c r="C226" s="82"/>
-      <c r="D226" s="82"/>
-      <c r="E226" s="82"/>
-      <c r="F226" s="82"/>
-      <c r="G226" s="82"/>
-      <c r="H226" s="82"/>
-      <c r="I226" s="82"/>
-      <c r="J226" s="82"/>
+      <c r="B226" s="83"/>
+      <c r="C226" s="83"/>
+      <c r="D226" s="83"/>
+      <c r="E226" s="83"/>
+      <c r="F226" s="83"/>
+      <c r="G226" s="83"/>
+      <c r="H226" s="83"/>
+      <c r="I226" s="83"/>
+      <c r="J226" s="83"/>
     </row>
     <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="48">
@@ -11626,18 +11671,18 @@
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" s="82" t="s">
+      <c r="A228" s="83" t="s">
         <v>796</v>
       </c>
-      <c r="B228" s="82"/>
-      <c r="C228" s="82"/>
-      <c r="D228" s="82"/>
-      <c r="E228" s="82"/>
-      <c r="F228" s="82"/>
-      <c r="G228" s="82"/>
-      <c r="H228" s="82"/>
-      <c r="I228" s="82"/>
-      <c r="J228" s="82"/>
+      <c r="B228" s="83"/>
+      <c r="C228" s="83"/>
+      <c r="D228" s="83"/>
+      <c r="E228" s="83"/>
+      <c r="F228" s="83"/>
+      <c r="G228" s="83"/>
+      <c r="H228" s="83"/>
+      <c r="I228" s="83"/>
+      <c r="J228" s="83"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="48">
@@ -12023,19 +12068,149 @@
         <v>13</v>
       </c>
     </row>
+    <row r="241" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="83" t="s">
+        <v>863</v>
+      </c>
+      <c r="B241" s="83"/>
+      <c r="C241" s="83"/>
+      <c r="D241" s="83"/>
+      <c r="E241" s="83"/>
+      <c r="F241" s="83"/>
+      <c r="G241" s="83"/>
+      <c r="H241" s="83"/>
+      <c r="I241" s="83"/>
+      <c r="J241" s="83"/>
+    </row>
+    <row r="242" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="48">
+        <v>1</v>
+      </c>
+      <c r="B242" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" s="79" t="s">
+        <v>864</v>
+      </c>
+      <c r="D242" s="78" t="s">
+        <v>865</v>
+      </c>
+      <c r="E242" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242" s="70" t="s">
+        <v>862</v>
+      </c>
+      <c r="G242" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H242" s="48" t="s">
+        <v>793</v>
+      </c>
+      <c r="I242" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J242" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="83" t="s">
+        <v>866</v>
+      </c>
+      <c r="B243" s="83"/>
+      <c r="C243" s="83"/>
+      <c r="D243" s="83"/>
+      <c r="E243" s="83"/>
+      <c r="F243" s="83"/>
+      <c r="G243" s="83"/>
+      <c r="H243" s="83"/>
+      <c r="I243" s="83"/>
+      <c r="J243" s="83"/>
+    </row>
+    <row r="244" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="48">
+        <v>1</v>
+      </c>
+      <c r="B244" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" s="79" t="s">
+        <v>867</v>
+      </c>
+      <c r="D244" s="78" t="s">
+        <v>870</v>
+      </c>
+      <c r="E244" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F244" s="70" t="s">
+        <v>868</v>
+      </c>
+      <c r="G244" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="I244" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J244" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="48">
+        <v>2</v>
+      </c>
+      <c r="B245" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" s="79" t="s">
+        <v>871</v>
+      </c>
+      <c r="D245" s="78" t="s">
+        <v>873</v>
+      </c>
+      <c r="E245" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F245" s="70" t="s">
+        <v>872</v>
+      </c>
+      <c r="G245" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H245" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="I245" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J245" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="A208:J208"/>
+    <mergeCell ref="A200:J200"/>
+    <mergeCell ref="A214:J214"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A243:J243"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A198:J198"/>
     <mergeCell ref="A193:J193"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A241:J241"/>
     <mergeCell ref="A228:J228"/>
     <mergeCell ref="A133:J133"/>
     <mergeCell ref="A187:J187"/>
@@ -12044,10 +12219,6 @@
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
     <mergeCell ref="A226:J226"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="A208:J208"/>
-    <mergeCell ref="A200:J200"/>
-    <mergeCell ref="A214:J214"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -12145,10 +12316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AF227"/>
+  <dimension ref="A1:AE230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W172" workbookViewId="0">
-      <selection activeCell="AC179" sqref="AC179"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12176,6 +12347,7 @@
     <col min="28" max="28" width="9.44140625" customWidth="1"/>
     <col min="29" max="29" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14.6640625" customWidth="1"/>
+    <col min="31" max="31" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -26520,7 +26692,7 @@
         <v>22</v>
       </c>
       <c r="S174" s="49" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -26612,7 +26784,7 @@
         <v>22</v>
       </c>
       <c r="S175" s="49" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
@@ -26642,7 +26814,7 @@
         <v>22</v>
       </c>
       <c r="AC175" s="73" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="AD175" s="48" t="s">
         <v>22</v>
@@ -26704,7 +26876,7 @@
         <v>22</v>
       </c>
       <c r="S176" s="49" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
@@ -26734,13 +26906,13 @@
         <v>22</v>
       </c>
       <c r="AC176" s="73" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="AD176" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:31" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="70" t="s">
         <v>607</v>
       </c>
@@ -26796,7 +26968,7 @@
         <v>22</v>
       </c>
       <c r="S177" s="49" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="T177" s="48" t="s">
         <v>22</v>
@@ -26832,7 +27004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="70" t="s">
         <v>609</v>
       </c>
@@ -26888,7 +27060,7 @@
         <v>22</v>
       </c>
       <c r="S178" s="49" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="T178" s="48" t="s">
         <v>22</v>
@@ -26924,7 +27096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="70" t="s">
         <v>610</v>
       </c>
@@ -26980,7 +27152,7 @@
         <v>22</v>
       </c>
       <c r="S179" s="49" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="T179" s="48" t="s">
         <v>22</v>
@@ -27010,13 +27182,13 @@
         <v>22</v>
       </c>
       <c r="AC179" s="73" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="AD179" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="70" t="s">
         <v>611</v>
       </c>
@@ -27072,7 +27244,7 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="T180" s="48" t="s">
         <v>22</v>
@@ -27108,7 +27280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="70" t="s">
         <v>615</v>
       </c>
@@ -27164,7 +27336,7 @@
         <v>22</v>
       </c>
       <c r="S181" s="49" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="T181" s="48" t="s">
         <v>22</v>
@@ -27200,7 +27372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="70" t="s">
         <v>614</v>
       </c>
@@ -27256,7 +27428,7 @@
         <v>22</v>
       </c>
       <c r="S182" s="49" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="T182" s="48" t="s">
         <v>22</v>
@@ -27292,7 +27464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="70" t="s">
         <v>619</v>
       </c>
@@ -27348,7 +27520,7 @@
         <v>22</v>
       </c>
       <c r="S183" s="49" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="T183" s="48" t="s">
         <v>22</v>
@@ -27383,9 +27555,11 @@
       <c r="AD183" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="AE183" s="48"/>
-    </row>
-    <row r="184" spans="1:32" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE183" s="81" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="70" t="s">
         <v>623</v>
       </c>
@@ -27441,7 +27615,7 @@
         <v>22</v>
       </c>
       <c r="S184" s="49" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="T184" s="48" t="s">
         <v>22</v>
@@ -27476,9 +27650,11 @@
       <c r="AD184" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="AF184" s="81"/>
-    </row>
-    <row r="185" spans="1:32" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE184" s="81" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="70" t="s">
         <v>629</v>
       </c>
@@ -27569,9 +27745,11 @@
       <c r="AD185" s="48" t="s">
         <v>641</v>
       </c>
-      <c r="AF185" s="81"/>
-    </row>
-    <row r="186" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE185" s="82" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="70" t="s">
         <v>630</v>
       </c>
@@ -27662,8 +27840,11 @@
       <c r="AD186" s="78" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="187" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE186" s="78" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="70" t="s">
         <v>636</v>
       </c>
@@ -27755,7 +27936,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="188" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="70" t="s">
         <v>640</v>
       </c>
@@ -27847,7 +28028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="70" t="s">
         <v>642</v>
       </c>
@@ -27939,7 +28120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="70" t="s">
         <v>648</v>
       </c>
@@ -28031,7 +28212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="70" t="s">
         <v>649</v>
       </c>
@@ -28123,7 +28304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="70" t="s">
         <v>654</v>
       </c>
@@ -28179,7 +28360,7 @@
         <v>22</v>
       </c>
       <c r="S192" s="49" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="T192" s="48" t="s">
         <v>22</v>
@@ -28271,7 +28452,7 @@
         <v>22</v>
       </c>
       <c r="S193" s="49" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="T193" s="48" t="s">
         <v>22</v>
@@ -28363,7 +28544,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -28455,7 +28636,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -28547,7 +28728,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -28639,7 +28820,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -28731,7 +28912,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -28823,7 +29004,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -28915,7 +29096,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -29007,7 +29188,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -29099,7 +29280,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -29191,7 +29372,7 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="T203" s="48" t="s">
         <v>22</v>
@@ -29283,7 +29464,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29375,7 +29556,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -29467,7 +29648,7 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="T206" s="48" t="s">
         <v>22</v>
@@ -29559,7 +29740,7 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="T207" s="48" t="s">
         <v>22</v>
@@ -29651,7 +29832,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -29743,7 +29924,7 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="T209" s="48" t="s">
         <v>22</v>
@@ -29835,7 +30016,7 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="T210" s="48" t="s">
         <v>22</v>
@@ -29927,7 +30108,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30019,7 +30200,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30111,7 +30292,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30203,7 +30384,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30295,7 +30476,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30387,7 +30568,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -30479,7 +30660,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -30571,10 +30752,10 @@
         <v>22</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T218" s="49" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="U218" s="48" t="s">
         <v>22</v>
@@ -30663,10 +30844,10 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T219" s="49" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="U219" s="48" t="s">
         <v>22</v>
@@ -30755,7 +30936,7 @@
         <v>22</v>
       </c>
       <c r="S220" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T220" s="48" t="s">
         <v>22</v>
@@ -30847,7 +31028,7 @@
         <v>22</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T221" s="48" t="s">
         <v>22</v>
@@ -30939,10 +31120,10 @@
         <v>22</v>
       </c>
       <c r="S222" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T222" s="49" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="U222" s="48" t="s">
         <v>22</v>
@@ -31031,10 +31212,10 @@
         <v>22</v>
       </c>
       <c r="S223" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T223" s="49" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="U223" s="48" t="s">
         <v>22</v>
@@ -31123,7 +31304,7 @@
         <v>22</v>
       </c>
       <c r="S224" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T224" s="48" t="s">
         <v>22</v>
@@ -31215,10 +31396,10 @@
         <v>22</v>
       </c>
       <c r="S225" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T225" s="49" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="U225" s="48" t="s">
         <v>22</v>
@@ -31307,10 +31488,10 @@
         <v>22</v>
       </c>
       <c r="S226" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T226" s="49" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31399,10 +31580,10 @@
         <v>22</v>
       </c>
       <c r="S227" s="49" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="T227" s="49" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="U227" s="48" t="s">
         <v>22</v>
@@ -31432,6 +31613,282 @@
         <v>819</v>
       </c>
       <c r="AD227" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="70" t="s">
+        <v>862</v>
+      </c>
+      <c r="B228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V228" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W228" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X228" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB228" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD228" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="70" t="s">
+        <v>868</v>
+      </c>
+      <c r="B229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V229" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W229" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X229" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB229" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD229" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="70" t="s">
+        <v>872</v>
+      </c>
+      <c r="B230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V230" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W230" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X230" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB230" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD230" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -31580,7 +32037,7 @@
     <hyperlink ref="S222" r:id="rId36" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
     <hyperlink ref="T222" r:id="rId37" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
     <hyperlink ref="S223" r:id="rId38" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T223" r:id="rId39" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="T223" r:id="rId39" display="https://console.zlaata.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
     <hyperlink ref="S224" r:id="rId40" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
     <hyperlink ref="S225" r:id="rId41" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
     <hyperlink ref="S226" r:id="rId42" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B955FEA3-12CC-48DA-8B3B-C081744E5174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19825C5F-01C7-43B3-8884-B67162FCCADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8095" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8134" uniqueCount="877">
   <si>
     <t>S.No</t>
   </si>
@@ -2648,6 +2648,15 @@
   </si>
   <si>
     <t>Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_Calculate_03</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_03</t>
+  </si>
+  <si>
+    <t>Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.</t>
   </si>
 </sst>
 </file>
@@ -3284,12 +3293,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3307,6 +3310,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4131,10 +4140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z245"/>
+  <dimension ref="A1:Z246"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D245" sqref="D245"/>
+    <sheetView topLeftCell="A200" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4887,18 +4896,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="88"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -5285,18 +5294,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="91"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5843,18 +5852,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="91"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="89"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -6177,18 +6186,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="89" t="s">
+      <c r="A66" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="91"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="89"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6543,18 +6552,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="89" t="s">
+      <c r="A78" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="91"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="89"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7421,18 +7430,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="90" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="84"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
-      <c r="F106" s="84"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="84"/>
-      <c r="I106" s="84"/>
-      <c r="J106" s="84"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="90"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="90"/>
+      <c r="J106" s="90"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -7925,18 +7934,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="85" t="s">
+      <c r="A121" s="91" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="85"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
-      <c r="I121" s="85"/>
-      <c r="J121" s="85"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="91"/>
+      <c r="D121" s="91"/>
+      <c r="E121" s="91"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="91"/>
+      <c r="H121" s="91"/>
+      <c r="I121" s="91"/>
+      <c r="J121" s="91"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -7999,18 +8008,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="85" t="s">
+      <c r="A123" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="85"/>
-      <c r="I123" s="85"/>
-      <c r="J123" s="85"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="91"/>
+      <c r="D123" s="91"/>
+      <c r="E123" s="91"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="91"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="91"/>
+      <c r="J123" s="91"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8073,18 +8082,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="85" t="s">
+      <c r="A125" s="91" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="85"/>
-      <c r="I125" s="85"/>
-      <c r="J125" s="85"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="91"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="91"/>
+      <c r="F125" s="91"/>
+      <c r="G125" s="91"/>
+      <c r="H125" s="91"/>
+      <c r="I125" s="91"/>
+      <c r="J125" s="91"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8409,11 +8418,11 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="85" t="s">
+      <c r="A133" s="91" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="85"/>
-      <c r="C133" s="85"/>
+      <c r="B133" s="91"/>
+      <c r="C133" s="91"/>
       <c r="D133" s="92"/>
       <c r="E133" s="92"/>
       <c r="F133" s="92"/>
@@ -9373,18 +9382,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="85" t="s">
+      <c r="A156" s="91" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="85"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="85"/>
-      <c r="I156" s="85"/>
-      <c r="J156" s="85"/>
+      <c r="B156" s="91"/>
+      <c r="C156" s="91"/>
+      <c r="D156" s="91"/>
+      <c r="E156" s="91"/>
+      <c r="F156" s="91"/>
+      <c r="G156" s="91"/>
+      <c r="H156" s="91"/>
+      <c r="I156" s="91"/>
+      <c r="J156" s="91"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9451,18 +9460,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="85" t="s">
+      <c r="A158" s="91" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="85"/>
-      <c r="C158" s="85"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="85"/>
-      <c r="I158" s="85"/>
-      <c r="J158" s="85"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="91"/>
+      <c r="D158" s="91"/>
+      <c r="E158" s="91"/>
+      <c r="F158" s="91"/>
+      <c r="G158" s="91"/>
+      <c r="H158" s="91"/>
+      <c r="I158" s="91"/>
+      <c r="J158" s="91"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10201,18 +10210,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="85" t="s">
+      <c r="A177" s="91" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="85"/>
-      <c r="C177" s="85"/>
+      <c r="B177" s="91"/>
+      <c r="C177" s="91"/>
       <c r="D177" s="83"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="85"/>
-      <c r="G177" s="85"/>
-      <c r="H177" s="85"/>
-      <c r="I177" s="85"/>
-      <c r="J177" s="85"/>
+      <c r="E177" s="91"/>
+      <c r="F177" s="91"/>
+      <c r="G177" s="91"/>
+      <c r="H177" s="91"/>
+      <c r="I177" s="91"/>
+      <c r="J177" s="91"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -12192,17 +12201,40 @@
         <v>13</v>
       </c>
     </row>
+    <row r="246" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="48">
+        <v>3</v>
+      </c>
+      <c r="B246" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="79" t="s">
+        <v>875</v>
+      </c>
+      <c r="D246" s="78" t="s">
+        <v>876</v>
+      </c>
+      <c r="E246" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" s="70" t="s">
+        <v>874</v>
+      </c>
+      <c r="G246" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H246" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="I246" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J246" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="A208:J208"/>
-    <mergeCell ref="A200:J200"/>
-    <mergeCell ref="A214:J214"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A243:J243"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
@@ -12219,6 +12251,15 @@
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
     <mergeCell ref="A226:J226"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="A208:J208"/>
+    <mergeCell ref="A200:J200"/>
+    <mergeCell ref="A214:J214"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -12316,10 +12357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AE230"/>
+  <dimension ref="A1:AE231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView tabSelected="1" topLeftCell="U188" workbookViewId="0">
+      <selection activeCell="AE200" sqref="AE200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30598,7 +30639,7 @@
         <v>22</v>
       </c>
       <c r="AC216" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD216" s="73" t="s">
         <v>819</v>
@@ -30690,7 +30731,7 @@
         <v>22</v>
       </c>
       <c r="AC217" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD217" s="48" t="s">
         <v>22</v>
@@ -30782,7 +30823,7 @@
         <v>22</v>
       </c>
       <c r="AC218" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD218" s="48" t="s">
         <v>22</v>
@@ -30874,7 +30915,7 @@
         <v>22</v>
       </c>
       <c r="AC219" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD219" s="48" t="s">
         <v>22</v>
@@ -30966,7 +31007,7 @@
         <v>22</v>
       </c>
       <c r="AC220" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD220" s="48" t="s">
         <v>22</v>
@@ -31058,7 +31099,7 @@
         <v>22</v>
       </c>
       <c r="AC221" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD221" s="48" t="s">
         <v>22</v>
@@ -31150,7 +31191,7 @@
         <v>22</v>
       </c>
       <c r="AC222" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD222" s="73" t="s">
         <v>835</v>
@@ -31242,7 +31283,7 @@
         <v>22</v>
       </c>
       <c r="AC223" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD223" s="48" t="s">
         <v>22</v>
@@ -31334,7 +31375,7 @@
         <v>22</v>
       </c>
       <c r="AC224" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD224" s="48" t="s">
         <v>22</v>
@@ -31426,7 +31467,7 @@
         <v>22</v>
       </c>
       <c r="AC225" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD225" s="48" t="s">
         <v>22</v>
@@ -31518,7 +31559,7 @@
         <v>22</v>
       </c>
       <c r="AC226" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD226" s="48" t="s">
         <v>22</v>
@@ -31610,7 +31651,7 @@
         <v>22</v>
       </c>
       <c r="AC227" s="73" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AD227" s="48" t="s">
         <v>22</v>
@@ -31889,6 +31930,98 @@
         <v>22</v>
       </c>
       <c r="AD230" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="70" t="s">
+        <v>874</v>
+      </c>
+      <c r="B231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V231" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W231" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X231" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB231" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC231" s="73" t="s">
+        <v>835</v>
+      </c>
+      <c r="AD231" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -32047,8 +32180,11 @@
     <hyperlink ref="AC175" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
     <hyperlink ref="AC176" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
     <hyperlink ref="AC179" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
+    <hyperlink ref="AC216" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79D12B4C-D5F7-4E9B-808E-889A9BE9BDDC}"/>
+    <hyperlink ref="AC217:AC227" r:id="rId50" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{7089166A-F715-401F-8D9E-12B285594831}"/>
+    <hyperlink ref="AC231" r:id="rId51" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19825C5F-01C7-43B3-8884-B67162FCCADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7813A0C5-A244-45E4-ABCC-84D772325156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8134" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8290" uniqueCount="893">
   <si>
     <t>S.No</t>
   </si>
@@ -2657,13 +2657,61 @@
   </si>
   <si>
     <t>Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.</t>
+  </si>
+  <si>
+    <t>Beige Peplum Top With Flared Pants</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_06</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_07</t>
+  </si>
+  <si>
+    <t>autotest</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_06</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_07</t>
+  </si>
+  <si>
+    <t>Verify Search Collection sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>Verify Search Style sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_04</t>
+  </si>
+  <si>
+    <t>Verify price calculation for Acessories product shipping charge with gift card.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_Calculate_04</t>
+  </si>
+  <si>
+    <t>Sanitary Pouch Combo Set</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_Calculate_05</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_05</t>
+  </si>
+  <si>
+    <t>Verify price calculation for Acessories product shipping charge and my order page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2757,6 +2805,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3084,7 +3138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3289,6 +3343,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4140,10 +4197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z246"/>
+  <dimension ref="A1:Z250"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D246" sqref="D246"/>
+    <sheetView tabSelected="1" topLeftCell="D238" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F250" sqref="F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4896,18 +4953,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="87"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -5294,18 +5351,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="90"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5852,18 +5909,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="89"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="90"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -6186,18 +6243,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="87" t="s">
+      <c r="A66" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="89"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="90"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6552,18 +6609,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="87" t="s">
+      <c r="A78" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="89"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="90"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7430,18 +7487,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="90" t="s">
+      <c r="A106" s="91" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="90"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
+      <c r="B106" s="91"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="91"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
+      <c r="I106" s="91"/>
+      <c r="J106" s="91"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -7934,18 +7991,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="91" t="s">
+      <c r="A121" s="92" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="91"/>
-      <c r="C121" s="91"/>
-      <c r="D121" s="91"/>
-      <c r="E121" s="91"/>
-      <c r="F121" s="91"/>
-      <c r="G121" s="91"/>
-      <c r="H121" s="91"/>
-      <c r="I121" s="91"/>
-      <c r="J121" s="91"/>
+      <c r="B121" s="92"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="92"/>
+      <c r="F121" s="92"/>
+      <c r="G121" s="92"/>
+      <c r="H121" s="92"/>
+      <c r="I121" s="92"/>
+      <c r="J121" s="92"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -8008,18 +8065,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="91" t="s">
+      <c r="A123" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="91"/>
-      <c r="C123" s="91"/>
-      <c r="D123" s="91"/>
-      <c r="E123" s="91"/>
-      <c r="F123" s="91"/>
-      <c r="G123" s="91"/>
-      <c r="H123" s="91"/>
-      <c r="I123" s="91"/>
-      <c r="J123" s="91"/>
+      <c r="B123" s="92"/>
+      <c r="C123" s="92"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="92"/>
+      <c r="F123" s="92"/>
+      <c r="G123" s="92"/>
+      <c r="H123" s="92"/>
+      <c r="I123" s="92"/>
+      <c r="J123" s="92"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8082,18 +8139,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="91" t="s">
+      <c r="A125" s="92" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="91"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="91"/>
-      <c r="E125" s="91"/>
-      <c r="F125" s="91"/>
-      <c r="G125" s="91"/>
-      <c r="H125" s="91"/>
-      <c r="I125" s="91"/>
-      <c r="J125" s="91"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="92"/>
+      <c r="G125" s="92"/>
+      <c r="H125" s="92"/>
+      <c r="I125" s="92"/>
+      <c r="J125" s="92"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8418,18 +8475,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="91" t="s">
+      <c r="A133" s="92" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="91"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="92"/>
-      <c r="F133" s="92"/>
-      <c r="G133" s="92"/>
-      <c r="H133" s="92"/>
-      <c r="I133" s="92"/>
-      <c r="J133" s="92"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="92"/>
+      <c r="D133" s="93"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="93"/>
+      <c r="G133" s="93"/>
+      <c r="H133" s="93"/>
+      <c r="I133" s="93"/>
+      <c r="J133" s="93"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8924,18 +8981,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="96" t="s">
+      <c r="A145" s="97" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="97"/>
-      <c r="C145" s="97"/>
-      <c r="D145" s="97"/>
-      <c r="E145" s="97"/>
-      <c r="F145" s="97"/>
-      <c r="G145" s="97"/>
-      <c r="H145" s="97"/>
-      <c r="I145" s="97"/>
-      <c r="J145" s="98"/>
+      <c r="B145" s="98"/>
+      <c r="C145" s="98"/>
+      <c r="D145" s="98"/>
+      <c r="E145" s="98"/>
+      <c r="F145" s="98"/>
+      <c r="G145" s="98"/>
+      <c r="H145" s="98"/>
+      <c r="I145" s="98"/>
+      <c r="J145" s="99"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9382,18 +9439,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="91" t="s">
+      <c r="A156" s="92" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="91"/>
-      <c r="C156" s="91"/>
-      <c r="D156" s="91"/>
-      <c r="E156" s="91"/>
-      <c r="F156" s="91"/>
-      <c r="G156" s="91"/>
-      <c r="H156" s="91"/>
-      <c r="I156" s="91"/>
-      <c r="J156" s="91"/>
+      <c r="B156" s="92"/>
+      <c r="C156" s="92"/>
+      <c r="D156" s="92"/>
+      <c r="E156" s="92"/>
+      <c r="F156" s="92"/>
+      <c r="G156" s="92"/>
+      <c r="H156" s="92"/>
+      <c r="I156" s="92"/>
+      <c r="J156" s="92"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9460,18 +9517,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="91" t="s">
+      <c r="A158" s="92" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="91"/>
-      <c r="C158" s="91"/>
-      <c r="D158" s="91"/>
-      <c r="E158" s="91"/>
-      <c r="F158" s="91"/>
-      <c r="G158" s="91"/>
-      <c r="H158" s="91"/>
-      <c r="I158" s="91"/>
-      <c r="J158" s="91"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="92"/>
+      <c r="F158" s="92"/>
+      <c r="G158" s="92"/>
+      <c r="H158" s="92"/>
+      <c r="I158" s="92"/>
+      <c r="J158" s="92"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10210,18 +10267,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="91" t="s">
+      <c r="A177" s="92" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="91"/>
-      <c r="C177" s="91"/>
-      <c r="D177" s="83"/>
-      <c r="E177" s="91"/>
-      <c r="F177" s="91"/>
-      <c r="G177" s="91"/>
-      <c r="H177" s="91"/>
-      <c r="I177" s="91"/>
-      <c r="J177" s="91"/>
+      <c r="B177" s="92"/>
+      <c r="C177" s="92"/>
+      <c r="D177" s="84"/>
+      <c r="E177" s="92"/>
+      <c r="F177" s="92"/>
+      <c r="G177" s="92"/>
+      <c r="H177" s="92"/>
+      <c r="I177" s="92"/>
+      <c r="J177" s="92"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -10512,18 +10569,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="93" t="s">
+      <c r="A187" s="94" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="94"/>
-      <c r="C187" s="94"/>
-      <c r="D187" s="94"/>
-      <c r="E187" s="94"/>
-      <c r="F187" s="94"/>
-      <c r="G187" s="94"/>
-      <c r="H187" s="94"/>
-      <c r="I187" s="94"/>
-      <c r="J187" s="95"/>
+      <c r="B187" s="95"/>
+      <c r="C187" s="95"/>
+      <c r="D187" s="95"/>
+      <c r="E187" s="95"/>
+      <c r="F187" s="95"/>
+      <c r="G187" s="95"/>
+      <c r="H187" s="95"/>
+      <c r="I187" s="95"/>
+      <c r="J187" s="96"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10685,102 +10742,102 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="83" t="s">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="68">
+        <v>6</v>
+      </c>
+      <c r="B193" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="74" t="s">
+        <v>881</v>
+      </c>
+      <c r="D193" s="78" t="s">
+        <v>883</v>
+      </c>
+      <c r="E193" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" s="70" t="s">
+        <v>878</v>
+      </c>
+      <c r="G193" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" s="69" t="s">
+        <v>786</v>
+      </c>
+      <c r="I193" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J193" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="68">
+        <v>7</v>
+      </c>
+      <c r="B194" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="74" t="s">
+        <v>882</v>
+      </c>
+      <c r="D194" s="78" t="s">
+        <v>885</v>
+      </c>
+      <c r="E194" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" s="70" t="s">
+        <v>879</v>
+      </c>
+      <c r="G194" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="69" t="s">
+        <v>786</v>
+      </c>
+      <c r="I194" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J194" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" s="84" t="s">
         <v>638</v>
       </c>
-      <c r="B193" s="83"/>
-      <c r="C193" s="83"/>
-      <c r="D193" s="83"/>
-      <c r="E193" s="83"/>
-      <c r="F193" s="83"/>
-      <c r="G193" s="83"/>
-      <c r="H193" s="83"/>
-      <c r="I193" s="83"/>
-      <c r="J193" s="83"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" s="48">
-        <v>1</v>
-      </c>
-      <c r="B194" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C194" s="79" t="s">
-        <v>639</v>
-      </c>
-      <c r="D194" s="64" t="s">
-        <v>616</v>
-      </c>
-      <c r="E194" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F194" s="79" t="s">
-        <v>640</v>
-      </c>
-      <c r="G194" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H194" s="48" t="s">
-        <v>787</v>
-      </c>
-      <c r="I194" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J194" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A195" s="48">
-        <v>2</v>
-      </c>
-      <c r="B195" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C195" s="79" t="s">
-        <v>643</v>
-      </c>
-      <c r="D195" s="78" t="s">
-        <v>644</v>
-      </c>
-      <c r="E195" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F195" s="79" t="s">
-        <v>642</v>
-      </c>
-      <c r="G195" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H195" s="48" t="s">
-        <v>787</v>
-      </c>
-      <c r="I195" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J195" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="B195" s="84"/>
+      <c r="C195" s="84"/>
+      <c r="D195" s="84"/>
+      <c r="E195" s="84"/>
+      <c r="F195" s="84"/>
+      <c r="G195" s="84"/>
+      <c r="H195" s="84"/>
+      <c r="I195" s="84"/>
+      <c r="J195" s="84"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B196" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C196" s="79" t="s">
-        <v>645</v>
-      </c>
-      <c r="D196" s="78" t="s">
-        <v>647</v>
+        <v>639</v>
+      </c>
+      <c r="D196" s="64" t="s">
+        <v>616</v>
       </c>
       <c r="E196" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F196" s="79" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G196" s="48" t="s">
         <v>11</v>
@@ -10797,22 +10854,22 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B197" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C197" s="79" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D197" s="78" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E197" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F197" s="79" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="G197" s="48" t="s">
         <v>11</v>
@@ -10828,43 +10885,61 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="83" t="s">
-        <v>651</v>
-      </c>
-      <c r="B198" s="83"/>
-      <c r="C198" s="83"/>
-      <c r="D198" s="83"/>
-      <c r="E198" s="83"/>
-      <c r="F198" s="83"/>
-      <c r="G198" s="83"/>
-      <c r="H198" s="83"/>
-      <c r="I198" s="83"/>
-      <c r="J198" s="83"/>
+      <c r="A198" s="48">
+        <v>3</v>
+      </c>
+      <c r="B198" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="79" t="s">
+        <v>645</v>
+      </c>
+      <c r="D198" s="78" t="s">
+        <v>647</v>
+      </c>
+      <c r="E198" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="79" t="s">
+        <v>648</v>
+      </c>
+      <c r="G198" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" s="48" t="s">
+        <v>787</v>
+      </c>
+      <c r="I198" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J198" s="48" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B199" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C199" s="79" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D199" s="78" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E199" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F199" s="79" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G199" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H199" s="48" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I199" s="48" t="s">
         <v>12</v>
@@ -10874,18 +10949,18 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="83" t="s">
-        <v>657</v>
-      </c>
-      <c r="B200" s="83"/>
-      <c r="C200" s="83"/>
-      <c r="D200" s="83"/>
-      <c r="E200" s="83"/>
-      <c r="F200" s="83"/>
-      <c r="G200" s="83"/>
-      <c r="H200" s="83"/>
-      <c r="I200" s="83"/>
-      <c r="J200" s="83"/>
+      <c r="A200" s="84" t="s">
+        <v>651</v>
+      </c>
+      <c r="B200" s="84"/>
+      <c r="C200" s="84"/>
+      <c r="D200" s="84"/>
+      <c r="E200" s="84"/>
+      <c r="F200" s="84"/>
+      <c r="G200" s="84"/>
+      <c r="H200" s="84"/>
+      <c r="I200" s="84"/>
+      <c r="J200" s="84"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
@@ -10895,22 +10970,22 @@
         <v>10</v>
       </c>
       <c r="C201" s="79" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D201" s="78" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E201" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F201" s="79" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G201" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H201" s="48" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I201" s="48" t="s">
         <v>12</v>
@@ -10920,55 +10995,37 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" s="48">
-        <v>2</v>
-      </c>
-      <c r="B202" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C202" s="79" t="s">
-        <v>660</v>
-      </c>
-      <c r="D202" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="E202" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F202" s="79" t="s">
-        <v>662</v>
-      </c>
-      <c r="G202" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H202" s="48" t="s">
-        <v>789</v>
-      </c>
-      <c r="I202" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J202" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A202" s="84" t="s">
+        <v>657</v>
+      </c>
+      <c r="B202" s="84"/>
+      <c r="C202" s="84"/>
+      <c r="D202" s="84"/>
+      <c r="E202" s="84"/>
+      <c r="F202" s="84"/>
+      <c r="G202" s="84"/>
+      <c r="H202" s="84"/>
+      <c r="I202" s="84"/>
+      <c r="J202" s="84"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B203" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C203" s="79" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D203" s="78" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E203" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F203" s="79" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="G203" s="48" t="s">
         <v>11</v>
@@ -10985,22 +11042,22 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B204" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C204" s="79" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D204" s="78" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E204" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F204" s="79" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G204" s="48" t="s">
         <v>11</v>
@@ -11017,22 +11074,22 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B205" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C205" s="79" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D205" s="78" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E205" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F205" s="79" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="G205" s="48" t="s">
         <v>11</v>
@@ -11049,22 +11106,22 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B206" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C206" s="79" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D206" s="78" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E206" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F206" s="79" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G206" s="48" t="s">
         <v>11</v>
@@ -11081,22 +11138,22 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B207" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C207" s="79" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D207" s="78" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E207" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F207" s="79" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G207" s="48" t="s">
         <v>11</v>
@@ -11112,43 +11169,61 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="83" t="s">
-        <v>733</v>
-      </c>
-      <c r="B208" s="83"/>
-      <c r="C208" s="83"/>
-      <c r="D208" s="83"/>
-      <c r="E208" s="83"/>
-      <c r="F208" s="83"/>
-      <c r="G208" s="83"/>
-      <c r="H208" s="83"/>
-      <c r="I208" s="83"/>
-      <c r="J208" s="83"/>
+      <c r="A208" s="48">
+        <v>6</v>
+      </c>
+      <c r="B208" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="79" t="s">
+        <v>672</v>
+      </c>
+      <c r="D208" s="78" t="s">
+        <v>674</v>
+      </c>
+      <c r="E208" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="79" t="s">
+        <v>676</v>
+      </c>
+      <c r="G208" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" s="48" t="s">
+        <v>789</v>
+      </c>
+      <c r="I208" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J208" s="48" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B209" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C209" s="79" t="s">
-        <v>734</v>
+        <v>673</v>
       </c>
       <c r="D209" s="78" t="s">
-        <v>735</v>
+        <v>675</v>
       </c>
       <c r="E209" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F209" s="79" t="s">
-        <v>732</v>
+        <v>677</v>
       </c>
       <c r="G209" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H209" s="48" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I209" s="48" t="s">
         <v>12</v>
@@ -11158,18 +11233,18 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="83" t="s">
-        <v>736</v>
-      </c>
-      <c r="B210" s="83"/>
-      <c r="C210" s="83"/>
-      <c r="D210" s="83"/>
-      <c r="E210" s="83"/>
-      <c r="F210" s="83"/>
-      <c r="G210" s="83"/>
-      <c r="H210" s="83"/>
-      <c r="I210" s="83"/>
-      <c r="J210" s="83"/>
+      <c r="A210" s="84" t="s">
+        <v>733</v>
+      </c>
+      <c r="B210" s="84"/>
+      <c r="C210" s="84"/>
+      <c r="D210" s="84"/>
+      <c r="E210" s="84"/>
+      <c r="F210" s="84"/>
+      <c r="G210" s="84"/>
+      <c r="H210" s="84"/>
+      <c r="I210" s="84"/>
+      <c r="J210" s="84"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
@@ -11179,22 +11254,22 @@
         <v>10</v>
       </c>
       <c r="C211" s="79" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D211" s="78" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E211" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F211" s="79" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G211" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H211" s="48" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I211" s="48" t="s">
         <v>12</v>
@@ -11204,55 +11279,37 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A212" s="48">
-        <v>2</v>
-      </c>
-      <c r="B212" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C212" s="79" t="s">
-        <v>741</v>
-      </c>
-      <c r="D212" s="78" t="s">
-        <v>742</v>
-      </c>
-      <c r="E212" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F212" s="79" t="s">
-        <v>740</v>
-      </c>
-      <c r="G212" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H212" s="48" t="s">
-        <v>791</v>
-      </c>
-      <c r="I212" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J212" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A212" s="84" t="s">
+        <v>736</v>
+      </c>
+      <c r="B212" s="84"/>
+      <c r="C212" s="84"/>
+      <c r="D212" s="84"/>
+      <c r="E212" s="84"/>
+      <c r="F212" s="84"/>
+      <c r="G212" s="84"/>
+      <c r="H212" s="84"/>
+      <c r="I212" s="84"/>
+      <c r="J212" s="84"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B213" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C213" s="79" t="s">
-        <v>781</v>
+        <v>737</v>
       </c>
       <c r="D213" s="78" t="s">
-        <v>779</v>
+        <v>739</v>
       </c>
       <c r="E213" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F213" s="79" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="G213" s="48" t="s">
         <v>11</v>
@@ -11268,43 +11325,61 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="83" t="s">
-        <v>746</v>
-      </c>
-      <c r="B214" s="83"/>
-      <c r="C214" s="83"/>
-      <c r="D214" s="83"/>
-      <c r="E214" s="83"/>
-      <c r="F214" s="83"/>
-      <c r="G214" s="83"/>
-      <c r="H214" s="83"/>
-      <c r="I214" s="83"/>
-      <c r="J214" s="83"/>
+      <c r="A214" s="48">
+        <v>2</v>
+      </c>
+      <c r="B214" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="79" t="s">
+        <v>741</v>
+      </c>
+      <c r="D214" s="78" t="s">
+        <v>742</v>
+      </c>
+      <c r="E214" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" s="79" t="s">
+        <v>740</v>
+      </c>
+      <c r="G214" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H214" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="I214" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J214" s="48" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B215" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C215" s="79" t="s">
-        <v>747</v>
+        <v>781</v>
       </c>
       <c r="D215" s="78" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="E215" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F215" s="79" t="s">
-        <v>745</v>
+        <v>780</v>
       </c>
       <c r="G215" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H215" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I215" s="48" t="s">
         <v>12</v>
@@ -11314,55 +11389,37 @@
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="48">
-        <v>2</v>
-      </c>
-      <c r="B216" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C216" s="79" t="s">
-        <v>749</v>
-      </c>
-      <c r="D216" s="78" t="s">
-        <v>750</v>
-      </c>
-      <c r="E216" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F216" s="79" t="s">
-        <v>751</v>
-      </c>
-      <c r="G216" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H216" s="48" t="s">
-        <v>792</v>
-      </c>
-      <c r="I216" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J216" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A216" s="84" t="s">
+        <v>746</v>
+      </c>
+      <c r="B216" s="84"/>
+      <c r="C216" s="84"/>
+      <c r="D216" s="84"/>
+      <c r="E216" s="84"/>
+      <c r="F216" s="84"/>
+      <c r="G216" s="84"/>
+      <c r="H216" s="84"/>
+      <c r="I216" s="84"/>
+      <c r="J216" s="84"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="79" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D217" s="78" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E217" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F217" s="79" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G217" s="48" t="s">
         <v>11</v>
@@ -11379,22 +11436,22 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B218" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="79" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D218" s="78" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E218" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F218" s="79" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="G218" s="48" t="s">
         <v>11</v>
@@ -11411,22 +11468,22 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C219" s="79" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D219" s="78" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E219" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F219" s="79" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G219" s="48" t="s">
         <v>11</v>
@@ -11443,22 +11500,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C220" s="79" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D220" s="78" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E220" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F220" s="79" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G220" s="48" t="s">
         <v>11</v>
@@ -11475,22 +11532,22 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C221" s="79" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D221" s="78" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E221" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F221" s="79" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G221" s="48" t="s">
         <v>11</v>
@@ -11507,22 +11564,22 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C222" s="79" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D222" s="78" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E222" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="79" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="G222" s="48" t="s">
         <v>11</v>
@@ -11539,22 +11596,22 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C223" s="79" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D223" s="78" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E223" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="79" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G223" s="48" t="s">
         <v>11</v>
@@ -11571,22 +11628,22 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="79" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D224" s="78" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E224" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F224" s="79" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="G224" s="48" t="s">
         <v>11</v>
@@ -11603,22 +11660,22 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="79" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D225" s="78" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E225" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F225" s="79" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G225" s="48" t="s">
         <v>11</v>
@@ -11633,44 +11690,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="83" t="s">
-        <v>783</v>
-      </c>
-      <c r="B226" s="83"/>
-      <c r="C226" s="83"/>
-      <c r="D226" s="83"/>
-      <c r="E226" s="83"/>
-      <c r="F226" s="83"/>
-      <c r="G226" s="83"/>
-      <c r="H226" s="83"/>
-      <c r="I226" s="83"/>
-      <c r="J226" s="83"/>
-    </row>
-    <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" s="48">
+        <v>10</v>
+      </c>
+      <c r="B226" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="79" t="s">
+        <v>773</v>
+      </c>
+      <c r="D226" s="78" t="s">
+        <v>774</v>
+      </c>
+      <c r="E226" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" s="79" t="s">
+        <v>775</v>
+      </c>
+      <c r="G226" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="I226" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J226" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C227" s="79" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="D227" s="78" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E227" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F227" s="70" t="s">
-        <v>782</v>
+      <c r="F227" s="79" t="s">
+        <v>776</v>
       </c>
       <c r="G227" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H227" s="48" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I227" s="48" t="s">
         <v>12</v>
@@ -11679,21 +11754,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" s="83" t="s">
-        <v>796</v>
-      </c>
-      <c r="B228" s="83"/>
-      <c r="C228" s="83"/>
-      <c r="D228" s="83"/>
-      <c r="E228" s="83"/>
-      <c r="F228" s="83"/>
-      <c r="G228" s="83"/>
-      <c r="H228" s="83"/>
-      <c r="I228" s="83"/>
-      <c r="J228" s="83"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="84" t="s">
+        <v>783</v>
+      </c>
+      <c r="B228" s="84"/>
+      <c r="C228" s="84"/>
+      <c r="D228" s="84"/>
+      <c r="E228" s="84"/>
+      <c r="F228" s="84"/>
+      <c r="G228" s="84"/>
+      <c r="H228" s="84"/>
+      <c r="I228" s="84"/>
+      <c r="J228" s="84"/>
+    </row>
+    <row r="229" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="48">
         <v>1</v>
       </c>
@@ -11701,22 +11776,22 @@
         <v>10</v>
       </c>
       <c r="C229" s="79" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D229" s="78" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="E229" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F229" s="79" t="s">
-        <v>795</v>
+      <c r="F229" s="70" t="s">
+        <v>782</v>
       </c>
       <c r="G229" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H229" s="48" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="I229" s="48" t="s">
         <v>12</v>
@@ -11726,55 +11801,37 @@
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A230" s="48">
-        <v>2</v>
-      </c>
-      <c r="B230" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C230" s="79" t="s">
-        <v>801</v>
-      </c>
-      <c r="D230" s="78" t="s">
-        <v>802</v>
-      </c>
-      <c r="E230" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F230" s="79" t="s">
-        <v>800</v>
-      </c>
-      <c r="G230" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H230" s="48" t="s">
-        <v>799</v>
-      </c>
-      <c r="I230" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J230" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A230" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="B230" s="84"/>
+      <c r="C230" s="84"/>
+      <c r="D230" s="84"/>
+      <c r="E230" s="84"/>
+      <c r="F230" s="84"/>
+      <c r="G230" s="84"/>
+      <c r="H230" s="84"/>
+      <c r="I230" s="84"/>
+      <c r="J230" s="84"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B231" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C231" s="79" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D231" s="78" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="E231" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F231" s="79" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="G231" s="48" t="s">
         <v>11</v>
@@ -11791,22 +11848,22 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B232" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C232" s="79" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D232" s="78" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E232" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F232" s="79" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="G232" s="48" t="s">
         <v>11</v>
@@ -11823,22 +11880,22 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B233" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C233" s="79" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D233" s="78" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="E233" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F233" s="79" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G233" s="48" t="s">
         <v>11</v>
@@ -11855,22 +11912,22 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B234" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C234" s="79" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D234" s="78" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="E234" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F234" s="79" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G234" s="48" t="s">
         <v>11</v>
@@ -11887,22 +11944,22 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B235" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C235" s="79" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D235" s="78" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E235" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F235" s="79" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G235" s="48" t="s">
         <v>11</v>
@@ -11919,22 +11976,22 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B236" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C236" s="79" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D236" s="78" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="E236" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F236" s="79" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G236" s="48" t="s">
         <v>11</v>
@@ -11951,22 +12008,22 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B237" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D237" s="78" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E237" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F237" s="79" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="G237" s="48" t="s">
         <v>11</v>
@@ -11983,22 +12040,22 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B238" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C238" s="79" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D238" s="78" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E238" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F238" s="79" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G238" s="48" t="s">
         <v>11</v>
@@ -12015,22 +12072,22 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B239" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C239" s="79" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D239" s="78" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="E239" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F239" s="79" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G239" s="48" t="s">
         <v>11</v>
@@ -12047,22 +12104,22 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B240" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C240" s="79" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D240" s="78" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E240" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F240" s="79" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G240" s="48" t="s">
         <v>11</v>
@@ -12077,44 +12134,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="83" t="s">
-        <v>863</v>
-      </c>
-      <c r="B241" s="83"/>
-      <c r="C241" s="83"/>
-      <c r="D241" s="83"/>
-      <c r="E241" s="83"/>
-      <c r="F241" s="83"/>
-      <c r="G241" s="83"/>
-      <c r="H241" s="83"/>
-      <c r="I241" s="83"/>
-      <c r="J241" s="83"/>
-    </row>
-    <row r="242" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A241" s="48">
+        <v>11</v>
+      </c>
+      <c r="B241" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" s="79" t="s">
+        <v>830</v>
+      </c>
+      <c r="D241" s="78" t="s">
+        <v>831</v>
+      </c>
+      <c r="E241" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" s="79" t="s">
+        <v>829</v>
+      </c>
+      <c r="G241" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H241" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="I241" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J241" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B242" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C242" s="79" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="D242" s="78" t="s">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="E242" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F242" s="70" t="s">
-        <v>862</v>
+      <c r="F242" s="79" t="s">
+        <v>834</v>
       </c>
       <c r="G242" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H242" s="48" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="I242" s="48" t="s">
         <v>12</v>
@@ -12124,18 +12199,18 @@
       </c>
     </row>
     <row r="243" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="83" t="s">
-        <v>866</v>
-      </c>
-      <c r="B243" s="83"/>
-      <c r="C243" s="83"/>
-      <c r="D243" s="83"/>
-      <c r="E243" s="83"/>
-      <c r="F243" s="83"/>
-      <c r="G243" s="83"/>
-      <c r="H243" s="83"/>
-      <c r="I243" s="83"/>
-      <c r="J243" s="83"/>
+      <c r="A243" s="84" t="s">
+        <v>863</v>
+      </c>
+      <c r="B243" s="84"/>
+      <c r="C243" s="84"/>
+      <c r="D243" s="84"/>
+      <c r="E243" s="84"/>
+      <c r="F243" s="84"/>
+      <c r="G243" s="84"/>
+      <c r="H243" s="84"/>
+      <c r="I243" s="84"/>
+      <c r="J243" s="84"/>
     </row>
     <row r="244" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="48">
@@ -12145,22 +12220,22 @@
         <v>10</v>
       </c>
       <c r="C244" s="79" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D244" s="78" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E244" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F244" s="70" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G244" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H244" s="48" t="s">
-        <v>869</v>
+        <v>793</v>
       </c>
       <c r="I244" s="48" t="s">
         <v>12</v>
@@ -12170,55 +12245,37 @@
       </c>
     </row>
     <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="48">
-        <v>2</v>
-      </c>
-      <c r="B245" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C245" s="79" t="s">
-        <v>871</v>
-      </c>
-      <c r="D245" s="78" t="s">
-        <v>873</v>
-      </c>
-      <c r="E245" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F245" s="70" t="s">
-        <v>872</v>
-      </c>
-      <c r="G245" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H245" s="48" t="s">
-        <v>869</v>
-      </c>
-      <c r="I245" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J245" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A245" s="84" t="s">
+        <v>866</v>
+      </c>
+      <c r="B245" s="84"/>
+      <c r="C245" s="84"/>
+      <c r="D245" s="84"/>
+      <c r="E245" s="84"/>
+      <c r="F245" s="84"/>
+      <c r="G245" s="84"/>
+      <c r="H245" s="84"/>
+      <c r="I245" s="84"/>
+      <c r="J245" s="84"/>
     </row>
     <row r="246" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B246" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C246" s="79" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="D246" s="78" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E246" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F246" s="70" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G246" s="48" t="s">
         <v>11</v>
@@ -12233,28 +12290,156 @@
         <v>13</v>
       </c>
     </row>
+    <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="48">
+        <v>2</v>
+      </c>
+      <c r="B247" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" s="79" t="s">
+        <v>871</v>
+      </c>
+      <c r="D247" s="78" t="s">
+        <v>873</v>
+      </c>
+      <c r="E247" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" s="70" t="s">
+        <v>872</v>
+      </c>
+      <c r="G247" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H247" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="I247" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J247" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="48">
+        <v>3</v>
+      </c>
+      <c r="B248" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" s="79" t="s">
+        <v>875</v>
+      </c>
+      <c r="D248" s="78" t="s">
+        <v>876</v>
+      </c>
+      <c r="E248" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248" s="70" t="s">
+        <v>874</v>
+      </c>
+      <c r="G248" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H248" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="I248" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J248" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="48">
+        <v>4</v>
+      </c>
+      <c r="B249" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" s="79" t="s">
+        <v>886</v>
+      </c>
+      <c r="D249" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="E249" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="G249" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H249" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="I249" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J249" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="48">
+        <v>5</v>
+      </c>
+      <c r="B250" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" s="79" t="s">
+        <v>891</v>
+      </c>
+      <c r="D250" s="78" t="s">
+        <v>892</v>
+      </c>
+      <c r="E250" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F250" s="70" t="s">
+        <v>890</v>
+      </c>
+      <c r="G250" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="I250" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J250" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A243:J243"/>
+    <mergeCell ref="A245:J245"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
     <mergeCell ref="A125:J125"/>
-    <mergeCell ref="A198:J198"/>
-    <mergeCell ref="A193:J193"/>
-    <mergeCell ref="A241:J241"/>
-    <mergeCell ref="A228:J228"/>
+    <mergeCell ref="A200:J200"/>
+    <mergeCell ref="A195:J195"/>
+    <mergeCell ref="A243:J243"/>
+    <mergeCell ref="A230:J230"/>
     <mergeCell ref="A133:J133"/>
     <mergeCell ref="A187:J187"/>
     <mergeCell ref="A145:J145"/>
     <mergeCell ref="A156:J156"/>
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
-    <mergeCell ref="A226:J226"/>
+    <mergeCell ref="A228:J228"/>
+    <mergeCell ref="A212:J212"/>
     <mergeCell ref="A210:J210"/>
-    <mergeCell ref="A208:J208"/>
-    <mergeCell ref="A200:J200"/>
-    <mergeCell ref="A214:J214"/>
+    <mergeCell ref="A202:J202"/>
+    <mergeCell ref="A216:J216"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A55:J55"/>
@@ -12357,10 +12542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AE231"/>
+  <dimension ref="A1:AE235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U188" workbookViewId="0">
-      <selection activeCell="AE200" sqref="AE200"/>
+    <sheetView topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12380,7 +12565,7 @@
     <col min="17" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="71.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="52.33203125" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
     <col min="24" max="25" width="29" customWidth="1"/>
     <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -24869,7 +25054,7 @@
       <c r="AC151" s="28"/>
       <c r="AD151" s="28"/>
     </row>
-    <row r="152" spans="1:30" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="48" t="s">
         <v>466</v>
       </c>
@@ -24953,7 +25138,7 @@
       <c r="AC152" s="28"/>
       <c r="AD152" s="28"/>
     </row>
-    <row r="153" spans="1:30" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="48" t="s">
         <v>469</v>
       </c>
@@ -27979,7 +28164,7 @@
     </row>
     <row r="188" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="70" t="s">
-        <v>640</v>
+        <v>878</v>
       </c>
       <c r="B188" s="48" t="s">
         <v>22</v>
@@ -28065,13 +28250,13 @@
       <c r="AC188" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD188" s="48" t="s">
-        <v>22</v>
+      <c r="AD188" s="78" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="189" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="70" t="s">
-        <v>642</v>
+        <v>879</v>
       </c>
       <c r="B189" s="48" t="s">
         <v>22</v>
@@ -28157,13 +28342,13 @@
       <c r="AC189" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD189" s="48" t="s">
-        <v>22</v>
+      <c r="AD189" s="78" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="190" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B190" s="48" t="s">
         <v>22</v>
@@ -28255,7 +28440,7 @@
     </row>
     <row r="191" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="70" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B191" s="48" t="s">
         <v>22</v>
@@ -28347,7 +28532,7 @@
     </row>
     <row r="192" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="70" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B192" s="48" t="s">
         <v>22</v>
@@ -28400,8 +28585,8 @@
       <c r="R192" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S192" s="49" t="s">
-        <v>842</v>
+      <c r="S192" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="T192" s="48" t="s">
         <v>22</v>
@@ -28430,8 +28615,8 @@
       <c r="AB192" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC192" s="73" t="s">
-        <v>655</v>
+      <c r="AC192" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD192" s="48" t="s">
         <v>22</v>
@@ -28439,7 +28624,7 @@
     </row>
     <row r="193" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="70" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B193" s="48" t="s">
         <v>22</v>
@@ -28492,8 +28677,8 @@
       <c r="R193" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S193" s="49" t="s">
-        <v>844</v>
+      <c r="S193" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="T193" s="48" t="s">
         <v>22</v>
@@ -28531,7 +28716,7 @@
     </row>
     <row r="194" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="70" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B194" s="48" t="s">
         <v>22</v>
@@ -28585,7 +28770,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -28614,8 +28799,8 @@
       <c r="AB194" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC194" s="48" t="s">
-        <v>22</v>
+      <c r="AC194" s="73" t="s">
+        <v>655</v>
       </c>
       <c r="AD194" s="48" t="s">
         <v>22</v>
@@ -28623,7 +28808,7 @@
     </row>
     <row r="195" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="70" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B195" s="48" t="s">
         <v>22</v>
@@ -28677,7 +28862,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -28715,7 +28900,7 @@
     </row>
     <row r="196" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="70" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B196" s="48" t="s">
         <v>22</v>
@@ -28769,7 +28954,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -28807,7 +28992,7 @@
     </row>
     <row r="197" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="70" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B197" s="48" t="s">
         <v>22</v>
@@ -28861,7 +29046,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -28899,7 +29084,7 @@
     </row>
     <row r="198" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="70" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B198" s="48" t="s">
         <v>22</v>
@@ -28953,7 +29138,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -28991,7 +29176,7 @@
     </row>
     <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="70" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B199" s="48" t="s">
         <v>22</v>
@@ -29045,7 +29230,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -29083,7 +29268,7 @@
     </row>
     <row r="200" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="70" t="s">
-        <v>732</v>
+        <v>676</v>
       </c>
       <c r="B200" s="48" t="s">
         <v>22</v>
@@ -29137,7 +29322,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -29175,7 +29360,7 @@
     </row>
     <row r="201" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="70" t="s">
-        <v>738</v>
+        <v>677</v>
       </c>
       <c r="B201" s="48" t="s">
         <v>22</v>
@@ -29229,7 +29414,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -29267,7 +29452,7 @@
     </row>
     <row r="202" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="70" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B202" s="48" t="s">
         <v>22</v>
@@ -29321,7 +29506,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -29359,7 +29544,7 @@
     </row>
     <row r="203" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="70" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="B203" s="48" t="s">
         <v>22</v>
@@ -29451,7 +29636,7 @@
     </row>
     <row r="204" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="70" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B204" s="48" t="s">
         <v>22</v>
@@ -29505,7 +29690,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29543,7 +29728,7 @@
     </row>
     <row r="205" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="70" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="B205" s="48" t="s">
         <v>22</v>
@@ -29597,7 +29782,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -29635,7 +29820,7 @@
     </row>
     <row r="206" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="70" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B206" s="48" t="s">
         <v>22</v>
@@ -29689,7 +29874,7 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="T206" s="48" t="s">
         <v>22</v>
@@ -29727,7 +29912,7 @@
     </row>
     <row r="207" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="70" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B207" s="48" t="s">
         <v>22</v>
@@ -29781,7 +29966,7 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="T207" s="48" t="s">
         <v>22</v>
@@ -29819,7 +30004,7 @@
     </row>
     <row r="208" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="70" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B208" s="48" t="s">
         <v>22</v>
@@ -29873,7 +30058,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -29911,7 +30096,7 @@
     </row>
     <row r="209" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="70" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B209" s="48" t="s">
         <v>22</v>
@@ -29965,7 +30150,7 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="T209" s="48" t="s">
         <v>22</v>
@@ -30003,7 +30188,7 @@
     </row>
     <row r="210" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="70" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B210" s="48" t="s">
         <v>22</v>
@@ -30057,7 +30242,7 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="T210" s="48" t="s">
         <v>22</v>
@@ -30095,7 +30280,7 @@
     </row>
     <row r="211" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="70" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B211" s="48" t="s">
         <v>22</v>
@@ -30149,7 +30334,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30187,7 +30372,7 @@
     </row>
     <row r="212" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="70" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B212" s="48" t="s">
         <v>22</v>
@@ -30241,7 +30426,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30279,7 +30464,7 @@
     </row>
     <row r="213" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="70" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B213" s="48" t="s">
         <v>22</v>
@@ -30333,7 +30518,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30371,7 +30556,7 @@
     </row>
     <row r="214" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="70" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B214" s="48" t="s">
         <v>22</v>
@@ -30425,7 +30610,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30463,7 +30648,7 @@
     </row>
     <row r="215" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="70" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B215" s="48" t="s">
         <v>22</v>
@@ -30517,7 +30702,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30555,7 +30740,7 @@
     </row>
     <row r="216" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="70" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="B216" s="48" t="s">
         <v>22</v>
@@ -30609,7 +30794,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -30638,16 +30823,16 @@
       <c r="AB216" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC216" s="73" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD216" s="73" t="s">
-        <v>819</v>
+      <c r="AC216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD216" s="48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="70" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>22</v>
@@ -30701,7 +30886,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -30730,16 +30915,16 @@
       <c r="AB217" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC217" s="73" t="s">
-        <v>835</v>
+      <c r="AC217" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD217" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="70" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B218" s="48" t="s">
         <v>22</v>
@@ -30795,8 +30980,8 @@
       <c r="S218" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T218" s="49" t="s">
-        <v>853</v>
+      <c r="T218" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U218" s="48" t="s">
         <v>22</v>
@@ -30822,16 +31007,16 @@
       <c r="AB218" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC218" s="73" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD218" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="219" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC218" s="83" t="s">
+        <v>877</v>
+      </c>
+      <c r="AD218" s="73" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="70" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>22</v>
@@ -30885,10 +31070,10 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>851</v>
-      </c>
-      <c r="T219" s="49" t="s">
-        <v>852</v>
+        <v>854</v>
+      </c>
+      <c r="T219" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U219" s="48" t="s">
         <v>22</v>
@@ -30914,16 +31099,16 @@
       <c r="AB219" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC219" s="73" t="s">
-        <v>835</v>
+      <c r="AC219" s="83" t="s">
+        <v>877</v>
       </c>
       <c r="AD219" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:30" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="70" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>22</v>
@@ -30979,8 +31164,8 @@
       <c r="S220" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T220" s="48" t="s">
-        <v>22</v>
+      <c r="T220" s="49" t="s">
+        <v>853</v>
       </c>
       <c r="U220" s="48" t="s">
         <v>22</v>
@@ -31006,16 +31191,16 @@
       <c r="AB220" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC220" s="73" t="s">
-        <v>835</v>
+      <c r="AC220" s="83" t="s">
+        <v>877</v>
       </c>
       <c r="AD220" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="70" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>22</v>
@@ -31071,8 +31256,8 @@
       <c r="S221" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T221" s="48" t="s">
-        <v>22</v>
+      <c r="T221" s="49" t="s">
+        <v>852</v>
       </c>
       <c r="U221" s="48" t="s">
         <v>22</v>
@@ -31098,16 +31283,16 @@
       <c r="AB221" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC221" s="73" t="s">
-        <v>835</v>
+      <c r="AC221" s="83" t="s">
+        <v>877</v>
       </c>
       <c r="AD221" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="70" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>22</v>
@@ -31163,8 +31348,8 @@
       <c r="S222" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T222" s="49" t="s">
-        <v>852</v>
+      <c r="T222" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U222" s="48" t="s">
         <v>22</v>
@@ -31190,16 +31375,16 @@
       <c r="AB222" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC222" s="73" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD222" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="223" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC222" s="83" t="s">
+        <v>877</v>
+      </c>
+      <c r="AD222" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="70" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>22</v>
@@ -31255,8 +31440,8 @@
       <c r="S223" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T223" s="49" t="s">
-        <v>852</v>
+      <c r="T223" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U223" s="48" t="s">
         <v>22</v>
@@ -31282,16 +31467,16 @@
       <c r="AB223" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC223" s="73" t="s">
-        <v>835</v>
+      <c r="AC223" s="83" t="s">
+        <v>877</v>
       </c>
       <c r="AD223" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="70" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>22</v>
@@ -31347,8 +31532,8 @@
       <c r="S224" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T224" s="48" t="s">
-        <v>22</v>
+      <c r="T224" s="49" t="s">
+        <v>852</v>
       </c>
       <c r="U224" s="48" t="s">
         <v>22</v>
@@ -31374,16 +31559,16 @@
       <c r="AB224" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC224" s="73" t="s">
+      <c r="AC224" s="83" t="s">
+        <v>877</v>
+      </c>
+      <c r="AD224" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD224" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="225" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="70" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>22</v>
@@ -31440,7 +31625,7 @@
         <v>851</v>
       </c>
       <c r="T225" s="49" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U225" s="48" t="s">
         <v>22</v>
@@ -31466,16 +31651,16 @@
       <c r="AB225" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC225" s="73" t="s">
-        <v>835</v>
+      <c r="AC225" s="83" t="s">
+        <v>877</v>
       </c>
       <c r="AD225" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="70" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>22</v>
@@ -31531,8 +31716,8 @@
       <c r="S226" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T226" s="49" t="s">
-        <v>853</v>
+      <c r="T226" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31558,16 +31743,16 @@
       <c r="AB226" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC226" s="73" t="s">
-        <v>835</v>
+      <c r="AC226" s="83" t="s">
+        <v>877</v>
       </c>
       <c r="AD226" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="70" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>22</v>
@@ -31650,16 +31835,16 @@
       <c r="AB227" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC227" s="73" t="s">
-        <v>835</v>
+      <c r="AC227" s="83" t="s">
+        <v>877</v>
       </c>
       <c r="AD227" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="70" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="B228" s="48" t="s">
         <v>22</v>
@@ -31712,11 +31897,11 @@
       <c r="R228" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S228" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T228" s="48" t="s">
-        <v>22</v>
+      <c r="S228" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="T228" s="49" t="s">
+        <v>853</v>
       </c>
       <c r="U228" s="48" t="s">
         <v>22</v>
@@ -31742,8 +31927,8 @@
       <c r="AB228" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC228" s="48" t="s">
-        <v>22</v>
+      <c r="AC228" s="83" t="s">
+        <v>877</v>
       </c>
       <c r="AD228" s="48" t="s">
         <v>22</v>
@@ -31751,7 +31936,7 @@
     </row>
     <row r="229" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="70" t="s">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>22</v>
@@ -31804,11 +31989,11 @@
       <c r="R229" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S229" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T229" s="48" t="s">
-        <v>22</v>
+      <c r="S229" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="T229" s="49" t="s">
+        <v>853</v>
       </c>
       <c r="U229" s="48" t="s">
         <v>22</v>
@@ -31834,8 +32019,8 @@
       <c r="AB229" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC229" s="48" t="s">
-        <v>22</v>
+      <c r="AC229" s="83" t="s">
+        <v>877</v>
       </c>
       <c r="AD229" s="48" t="s">
         <v>22</v>
@@ -31843,7 +32028,7 @@
     </row>
     <row r="230" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="70" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="B230" s="48" t="s">
         <v>22</v>
@@ -31935,93 +32120,461 @@
     </row>
     <row r="231" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="70" t="s">
+        <v>868</v>
+      </c>
+      <c r="B231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V231" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W231" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X231" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB231" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD231" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="70" t="s">
+        <v>872</v>
+      </c>
+      <c r="B232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V232" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W232" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X232" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB232" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD232" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="70" t="s">
         <v>874</v>
       </c>
-      <c r="B231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V231" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W231" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X231" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB231" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC231" s="73" t="s">
+      <c r="B233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V233" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W233" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X233" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB233" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC233" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD231" s="48" t="s">
+      <c r="AD233" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="B234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V234" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W234" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X234" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB234" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC234" s="73" t="s">
+        <v>889</v>
+      </c>
+      <c r="AD234" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="70" t="s">
+        <v>890</v>
+      </c>
+      <c r="B235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V235" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W235" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X235" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB235" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC235" s="73" t="s">
+        <v>889</v>
+      </c>
+      <c r="AD235" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -32149,9 +32702,9 @@
     <hyperlink ref="G131" r:id="rId15" xr:uid="{27008350-2CEC-4E23-B4FE-4597862DB8D5}"/>
     <hyperlink ref="D142" r:id="rId16" xr:uid="{8898BD8E-2CA4-4CDE-890B-D65B515E0457}"/>
     <hyperlink ref="G172" r:id="rId17" xr:uid="{E0CF340A-567A-4979-87DE-4F467618A03F}"/>
-    <hyperlink ref="AC192" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
+    <hyperlink ref="AC194" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
     <hyperlink ref="S184" r:id="rId19" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
-    <hyperlink ref="S196" r:id="rId20" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
+    <hyperlink ref="S198" r:id="rId20" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
     <hyperlink ref="S176" r:id="rId21" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
     <hyperlink ref="S177" r:id="rId22" display="https://opt.adm.testingserver8.com/admin/home-page-banner" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
     <hyperlink ref="S178" r:id="rId23" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
@@ -32161,30 +32714,28 @@
     <hyperlink ref="S181" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
-    <hyperlink ref="S205" r:id="rId30" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S204" r:id="rId31" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
-    <hyperlink ref="S216" r:id="rId32" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
-    <hyperlink ref="S221" r:id="rId33" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
-    <hyperlink ref="S219" r:id="rId34" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
-    <hyperlink ref="S218" r:id="rId35" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
-    <hyperlink ref="S222" r:id="rId36" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
-    <hyperlink ref="T222" r:id="rId37" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
-    <hyperlink ref="S223" r:id="rId38" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T223" r:id="rId39" display="https://console.zlaata.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
-    <hyperlink ref="S224" r:id="rId40" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
-    <hyperlink ref="S225" r:id="rId41" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
-    <hyperlink ref="S226" r:id="rId42" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
-    <hyperlink ref="S227" r:id="rId43" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
-    <hyperlink ref="T225" r:id="rId44" display="https://console.zlaata.com/admin/exchange-order" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
-    <hyperlink ref="AD222" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
+    <hyperlink ref="S207" r:id="rId30" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S206" r:id="rId31" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="S218" r:id="rId32" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S223" r:id="rId33" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S221" r:id="rId34" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S220" r:id="rId35" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S224" r:id="rId36" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T224" r:id="rId37" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S225" r:id="rId38" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T225" r:id="rId39" display="https://console.zlaata.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S226" r:id="rId40" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S227" r:id="rId41" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S228" r:id="rId42" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S229" r:id="rId43" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="T227" r:id="rId44" display="https://console.zlaata.com/admin/exchange-order" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
+    <hyperlink ref="AD224" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
     <hyperlink ref="AC175" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
     <hyperlink ref="AC176" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
     <hyperlink ref="AC179" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
-    <hyperlink ref="AC216" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79D12B4C-D5F7-4E9B-808E-889A9BE9BDDC}"/>
-    <hyperlink ref="AC217:AC227" r:id="rId50" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{7089166A-F715-401F-8D9E-12B285594831}"/>
-    <hyperlink ref="AC231" r:id="rId51" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
+    <hyperlink ref="AC233" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\git\ZlaataQAseverNew\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B531FB-2864-44BB-9F6A-FFFC29A02664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B5ED01-420C-4C80-8914-7DD38238A4F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
     <sheet name="ZlaataTestData" sheetId="2" r:id="rId2"/>
+    <sheet name="ZlaataTestNewData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8389" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8497" uniqueCount="903">
   <si>
     <t>S.No</t>
   </si>
@@ -2732,6 +2733,9 @@
   </si>
   <si>
     <t>TD_UI_Zlaata_CP_21</t>
+  </si>
+  <si>
+    <t>ZlaataTestNewData</t>
   </si>
 </sst>
 </file>
@@ -3371,8 +3375,29 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3400,27 +3425,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4226,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
   <dimension ref="A1:Z253"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScale="109" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180:XFD180"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4980,18 +4984,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="95"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="87"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
@@ -5378,18 +5382,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="98"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="90"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -5936,18 +5940,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="96" t="s">
+      <c r="A55" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="98"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="90"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
@@ -6270,18 +6274,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="96" t="s">
+      <c r="A66" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="98"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="90"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
@@ -6636,18 +6640,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="96" t="s">
+      <c r="A78" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="98"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="90"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
@@ -7514,18 +7518,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="91" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="84"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
-      <c r="F106" s="84"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="84"/>
-      <c r="I106" s="84"/>
-      <c r="J106" s="84"/>
+      <c r="B106" s="91"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="91"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
+      <c r="I106" s="91"/>
+      <c r="J106" s="91"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
@@ -8018,18 +8022,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="85" t="s">
+      <c r="A121" s="92" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="85"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
-      <c r="I121" s="85"/>
-      <c r="J121" s="85"/>
+      <c r="B121" s="92"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="92"/>
+      <c r="F121" s="92"/>
+      <c r="G121" s="92"/>
+      <c r="H121" s="92"/>
+      <c r="I121" s="92"/>
+      <c r="J121" s="92"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -8092,18 +8096,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="85" t="s">
+      <c r="A123" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="85"/>
-      <c r="I123" s="85"/>
-      <c r="J123" s="85"/>
+      <c r="B123" s="92"/>
+      <c r="C123" s="92"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="92"/>
+      <c r="F123" s="92"/>
+      <c r="G123" s="92"/>
+      <c r="H123" s="92"/>
+      <c r="I123" s="92"/>
+      <c r="J123" s="92"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8166,18 +8170,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="85" t="s">
+      <c r="A125" s="92" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="85"/>
-      <c r="I125" s="85"/>
-      <c r="J125" s="85"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="92"/>
+      <c r="G125" s="92"/>
+      <c r="H125" s="92"/>
+      <c r="I125" s="92"/>
+      <c r="J125" s="92"/>
     </row>
     <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25">
@@ -8502,18 +8506,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="85" t="s">
+      <c r="A133" s="92" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="85"/>
-      <c r="C133" s="85"/>
-      <c r="D133" s="86"/>
-      <c r="E133" s="86"/>
-      <c r="F133" s="86"/>
-      <c r="G133" s="86"/>
-      <c r="H133" s="86"/>
-      <c r="I133" s="86"/>
-      <c r="J133" s="86"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="92"/>
+      <c r="D133" s="93"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="93"/>
+      <c r="G133" s="93"/>
+      <c r="H133" s="93"/>
+      <c r="I133" s="93"/>
+      <c r="J133" s="93"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -9008,18 +9012,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="90" t="s">
+      <c r="A145" s="97" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="91"/>
-      <c r="C145" s="91"/>
-      <c r="D145" s="91"/>
-      <c r="E145" s="91"/>
-      <c r="F145" s="91"/>
-      <c r="G145" s="91"/>
-      <c r="H145" s="91"/>
-      <c r="I145" s="91"/>
-      <c r="J145" s="92"/>
+      <c r="B145" s="98"/>
+      <c r="C145" s="98"/>
+      <c r="D145" s="98"/>
+      <c r="E145" s="98"/>
+      <c r="F145" s="98"/>
+      <c r="G145" s="98"/>
+      <c r="H145" s="98"/>
+      <c r="I145" s="98"/>
+      <c r="J145" s="99"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9466,18 +9470,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="85" t="s">
+      <c r="A156" s="92" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="85"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="85"/>
-      <c r="I156" s="85"/>
-      <c r="J156" s="85"/>
+      <c r="B156" s="92"/>
+      <c r="C156" s="92"/>
+      <c r="D156" s="92"/>
+      <c r="E156" s="92"/>
+      <c r="F156" s="92"/>
+      <c r="G156" s="92"/>
+      <c r="H156" s="92"/>
+      <c r="I156" s="92"/>
+      <c r="J156" s="92"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9544,18 +9548,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="85" t="s">
+      <c r="A158" s="92" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="85"/>
-      <c r="C158" s="85"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="85"/>
-      <c r="I158" s="85"/>
-      <c r="J158" s="85"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="92"/>
+      <c r="F158" s="92"/>
+      <c r="G158" s="92"/>
+      <c r="H158" s="92"/>
+      <c r="I158" s="92"/>
+      <c r="J158" s="92"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10294,7 +10298,7 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="99">
+      <c r="A177" s="83">
         <v>19</v>
       </c>
       <c r="B177" s="69" t="s">
@@ -10307,7 +10311,7 @@
         <v>894</v>
       </c>
       <c r="E177" s="69" t="s">
-        <v>14</v>
+        <v>902</v>
       </c>
       <c r="F177" s="70" t="s">
         <v>895</v>
@@ -10326,7 +10330,7 @@
       </c>
     </row>
     <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="99">
+      <c r="A178" s="83">
         <v>20</v>
       </c>
       <c r="B178" s="69" t="s">
@@ -10339,7 +10343,7 @@
         <v>897</v>
       </c>
       <c r="E178" s="69" t="s">
-        <v>14</v>
+        <v>902</v>
       </c>
       <c r="F178" s="70" t="s">
         <v>898</v>
@@ -10358,7 +10362,7 @@
       </c>
     </row>
     <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="99">
+      <c r="A179" s="83">
         <v>21</v>
       </c>
       <c r="B179" s="69" t="s">
@@ -10371,7 +10375,7 @@
         <v>900</v>
       </c>
       <c r="E179" s="69" t="s">
-        <v>14</v>
+        <v>902</v>
       </c>
       <c r="F179" s="70" t="s">
         <v>901</v>
@@ -10390,18 +10394,18 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="85" t="s">
+      <c r="A180" s="92" t="s">
         <v>715</v>
       </c>
-      <c r="B180" s="85"/>
-      <c r="C180" s="85"/>
-      <c r="D180" s="83"/>
-      <c r="E180" s="85"/>
-      <c r="F180" s="85"/>
-      <c r="G180" s="85"/>
-      <c r="H180" s="85"/>
-      <c r="I180" s="85"/>
-      <c r="J180" s="85"/>
+      <c r="B180" s="92"/>
+      <c r="C180" s="92"/>
+      <c r="D180" s="84"/>
+      <c r="E180" s="92"/>
+      <c r="F180" s="92"/>
+      <c r="G180" s="92"/>
+      <c r="H180" s="92"/>
+      <c r="I180" s="92"/>
+      <c r="J180" s="92"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="68">
@@ -10692,18 +10696,18 @@
       </c>
     </row>
     <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="87" t="s">
+      <c r="A190" s="94" t="s">
         <v>617</v>
       </c>
-      <c r="B190" s="88"/>
-      <c r="C190" s="88"/>
-      <c r="D190" s="88"/>
-      <c r="E190" s="88"/>
-      <c r="F190" s="88"/>
-      <c r="G190" s="88"/>
-      <c r="H190" s="88"/>
-      <c r="I190" s="88"/>
-      <c r="J190" s="89"/>
+      <c r="B190" s="95"/>
+      <c r="C190" s="95"/>
+      <c r="D190" s="95"/>
+      <c r="E190" s="95"/>
+      <c r="F190" s="95"/>
+      <c r="G190" s="95"/>
+      <c r="H190" s="95"/>
+      <c r="I190" s="95"/>
+      <c r="J190" s="96"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="68">
@@ -10930,18 +10934,18 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="83" t="s">
+      <c r="A198" s="84" t="s">
         <v>638</v>
       </c>
-      <c r="B198" s="83"/>
-      <c r="C198" s="83"/>
-      <c r="D198" s="83"/>
-      <c r="E198" s="83"/>
-      <c r="F198" s="83"/>
-      <c r="G198" s="83"/>
-      <c r="H198" s="83"/>
-      <c r="I198" s="83"/>
-      <c r="J198" s="83"/>
+      <c r="B198" s="84"/>
+      <c r="C198" s="84"/>
+      <c r="D198" s="84"/>
+      <c r="E198" s="84"/>
+      <c r="F198" s="84"/>
+      <c r="G198" s="84"/>
+      <c r="H198" s="84"/>
+      <c r="I198" s="84"/>
+      <c r="J198" s="84"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="48">
@@ -11072,18 +11076,18 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="83" t="s">
+      <c r="A203" s="84" t="s">
         <v>651</v>
       </c>
-      <c r="B203" s="83"/>
-      <c r="C203" s="83"/>
-      <c r="D203" s="83"/>
-      <c r="E203" s="83"/>
-      <c r="F203" s="83"/>
-      <c r="G203" s="83"/>
-      <c r="H203" s="83"/>
-      <c r="I203" s="83"/>
-      <c r="J203" s="83"/>
+      <c r="B203" s="84"/>
+      <c r="C203" s="84"/>
+      <c r="D203" s="84"/>
+      <c r="E203" s="84"/>
+      <c r="F203" s="84"/>
+      <c r="G203" s="84"/>
+      <c r="H203" s="84"/>
+      <c r="I203" s="84"/>
+      <c r="J203" s="84"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="48">
@@ -11118,18 +11122,18 @@
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="83" t="s">
+      <c r="A205" s="84" t="s">
         <v>657</v>
       </c>
-      <c r="B205" s="83"/>
-      <c r="C205" s="83"/>
-      <c r="D205" s="83"/>
-      <c r="E205" s="83"/>
-      <c r="F205" s="83"/>
-      <c r="G205" s="83"/>
-      <c r="H205" s="83"/>
-      <c r="I205" s="83"/>
-      <c r="J205" s="83"/>
+      <c r="B205" s="84"/>
+      <c r="C205" s="84"/>
+      <c r="D205" s="84"/>
+      <c r="E205" s="84"/>
+      <c r="F205" s="84"/>
+      <c r="G205" s="84"/>
+      <c r="H205" s="84"/>
+      <c r="I205" s="84"/>
+      <c r="J205" s="84"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="48">
@@ -11356,18 +11360,18 @@
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="83" t="s">
+      <c r="A213" s="84" t="s">
         <v>733</v>
       </c>
-      <c r="B213" s="83"/>
-      <c r="C213" s="83"/>
-      <c r="D213" s="83"/>
-      <c r="E213" s="83"/>
-      <c r="F213" s="83"/>
-      <c r="G213" s="83"/>
-      <c r="H213" s="83"/>
-      <c r="I213" s="83"/>
-      <c r="J213" s="83"/>
+      <c r="B213" s="84"/>
+      <c r="C213" s="84"/>
+      <c r="D213" s="84"/>
+      <c r="E213" s="84"/>
+      <c r="F213" s="84"/>
+      <c r="G213" s="84"/>
+      <c r="H213" s="84"/>
+      <c r="I213" s="84"/>
+      <c r="J213" s="84"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="48">
@@ -11402,18 +11406,18 @@
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="83" t="s">
+      <c r="A215" s="84" t="s">
         <v>736</v>
       </c>
-      <c r="B215" s="83"/>
-      <c r="C215" s="83"/>
-      <c r="D215" s="83"/>
-      <c r="E215" s="83"/>
-      <c r="F215" s="83"/>
-      <c r="G215" s="83"/>
-      <c r="H215" s="83"/>
-      <c r="I215" s="83"/>
-      <c r="J215" s="83"/>
+      <c r="B215" s="84"/>
+      <c r="C215" s="84"/>
+      <c r="D215" s="84"/>
+      <c r="E215" s="84"/>
+      <c r="F215" s="84"/>
+      <c r="G215" s="84"/>
+      <c r="H215" s="84"/>
+      <c r="I215" s="84"/>
+      <c r="J215" s="84"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="48">
@@ -11512,18 +11516,18 @@
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" s="83" t="s">
+      <c r="A219" s="84" t="s">
         <v>746</v>
       </c>
-      <c r="B219" s="83"/>
-      <c r="C219" s="83"/>
-      <c r="D219" s="83"/>
-      <c r="E219" s="83"/>
-      <c r="F219" s="83"/>
-      <c r="G219" s="83"/>
-      <c r="H219" s="83"/>
-      <c r="I219" s="83"/>
-      <c r="J219" s="83"/>
+      <c r="B219" s="84"/>
+      <c r="C219" s="84"/>
+      <c r="D219" s="84"/>
+      <c r="E219" s="84"/>
+      <c r="F219" s="84"/>
+      <c r="G219" s="84"/>
+      <c r="H219" s="84"/>
+      <c r="I219" s="84"/>
+      <c r="J219" s="84"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="48">
@@ -11878,18 +11882,18 @@
       </c>
     </row>
     <row r="231" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="83" t="s">
+      <c r="A231" s="84" t="s">
         <v>783</v>
       </c>
-      <c r="B231" s="83"/>
-      <c r="C231" s="83"/>
-      <c r="D231" s="83"/>
-      <c r="E231" s="83"/>
-      <c r="F231" s="83"/>
-      <c r="G231" s="83"/>
-      <c r="H231" s="83"/>
-      <c r="I231" s="83"/>
-      <c r="J231" s="83"/>
+      <c r="B231" s="84"/>
+      <c r="C231" s="84"/>
+      <c r="D231" s="84"/>
+      <c r="E231" s="84"/>
+      <c r="F231" s="84"/>
+      <c r="G231" s="84"/>
+      <c r="H231" s="84"/>
+      <c r="I231" s="84"/>
+      <c r="J231" s="84"/>
     </row>
     <row r="232" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="48">
@@ -11924,18 +11928,18 @@
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="83" t="s">
+      <c r="A233" s="84" t="s">
         <v>796</v>
       </c>
-      <c r="B233" s="83"/>
-      <c r="C233" s="83"/>
-      <c r="D233" s="83"/>
-      <c r="E233" s="83"/>
-      <c r="F233" s="83"/>
-      <c r="G233" s="83"/>
-      <c r="H233" s="83"/>
-      <c r="I233" s="83"/>
-      <c r="J233" s="83"/>
+      <c r="B233" s="84"/>
+      <c r="C233" s="84"/>
+      <c r="D233" s="84"/>
+      <c r="E233" s="84"/>
+      <c r="F233" s="84"/>
+      <c r="G233" s="84"/>
+      <c r="H233" s="84"/>
+      <c r="I233" s="84"/>
+      <c r="J233" s="84"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="48">
@@ -12322,18 +12326,18 @@
       </c>
     </row>
     <row r="246" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="83" t="s">
+      <c r="A246" s="84" t="s">
         <v>863</v>
       </c>
-      <c r="B246" s="83"/>
-      <c r="C246" s="83"/>
-      <c r="D246" s="83"/>
-      <c r="E246" s="83"/>
-      <c r="F246" s="83"/>
-      <c r="G246" s="83"/>
-      <c r="H246" s="83"/>
-      <c r="I246" s="83"/>
-      <c r="J246" s="83"/>
+      <c r="B246" s="84"/>
+      <c r="C246" s="84"/>
+      <c r="D246" s="84"/>
+      <c r="E246" s="84"/>
+      <c r="F246" s="84"/>
+      <c r="G246" s="84"/>
+      <c r="H246" s="84"/>
+      <c r="I246" s="84"/>
+      <c r="J246" s="84"/>
     </row>
     <row r="247" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="48">
@@ -12368,18 +12372,18 @@
       </c>
     </row>
     <row r="248" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="83" t="s">
+      <c r="A248" s="84" t="s">
         <v>866</v>
       </c>
-      <c r="B248" s="83"/>
-      <c r="C248" s="83"/>
-      <c r="D248" s="83"/>
-      <c r="E248" s="83"/>
-      <c r="F248" s="83"/>
-      <c r="G248" s="83"/>
-      <c r="H248" s="83"/>
-      <c r="I248" s="83"/>
-      <c r="J248" s="83"/>
+      <c r="B248" s="84"/>
+      <c r="C248" s="84"/>
+      <c r="D248" s="84"/>
+      <c r="E248" s="84"/>
+      <c r="F248" s="84"/>
+      <c r="G248" s="84"/>
+      <c r="H248" s="84"/>
+      <c r="I248" s="84"/>
+      <c r="J248" s="84"/>
     </row>
     <row r="249" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="48">
@@ -12543,15 +12547,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A215:J215"/>
-    <mergeCell ref="A213:J213"/>
-    <mergeCell ref="A205:J205"/>
-    <mergeCell ref="A219:J219"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A248:J248"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
@@ -12568,6 +12563,15 @@
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A180:J180"/>
     <mergeCell ref="A231:J231"/>
+    <mergeCell ref="A215:J215"/>
+    <mergeCell ref="A213:J213"/>
+    <mergeCell ref="A205:J205"/>
+    <mergeCell ref="A219:J219"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -12667,8 +12671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AE237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173:XFD175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33069,4 +33073,366 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67D78B6-EF58-4C2E-A040-EC8FC2ED5646}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="Z1" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="AA1" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB1" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="AC1" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD1" s="31" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
+        <v>895</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+    </row>
+    <row r="3" spans="1:30" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
+        <v>898</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+    </row>
+    <row r="4" spans="1:30" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
+        <v>901</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\git\ZlaataQAseverNew\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B5ED01-420C-4C80-8914-7DD38238A4F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB4324A-F31A-4C9C-A2B9-7A46A871C754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8497" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8419" uniqueCount="903">
   <si>
     <t>S.No</t>
   </si>
@@ -3381,24 +3381,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3425,6 +3407,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4984,18 +4984,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="87"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="96"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
@@ -5382,18 +5382,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="90"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="99"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -5940,18 +5940,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="89"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="90"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="99"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
@@ -6274,18 +6274,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="88" t="s">
+      <c r="A66" s="97" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="90"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="99"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
@@ -6640,18 +6640,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="88" t="s">
+      <c r="A78" s="97" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="89"/>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="90"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="98"/>
+      <c r="F78" s="98"/>
+      <c r="G78" s="98"/>
+      <c r="H78" s="98"/>
+      <c r="I78" s="98"/>
+      <c r="J78" s="99"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
@@ -7518,18 +7518,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="91" t="s">
+      <c r="A106" s="85" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="91"/>
-      <c r="C106" s="91"/>
-      <c r="D106" s="91"/>
-      <c r="E106" s="91"/>
-      <c r="F106" s="91"/>
-      <c r="G106" s="91"/>
-      <c r="H106" s="91"/>
-      <c r="I106" s="91"/>
-      <c r="J106" s="91"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="85"/>
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
@@ -8022,18 +8022,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="92" t="s">
+      <c r="A121" s="86" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="92"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="92"/>
-      <c r="E121" s="92"/>
-      <c r="F121" s="92"/>
-      <c r="G121" s="92"/>
-      <c r="H121" s="92"/>
-      <c r="I121" s="92"/>
-      <c r="J121" s="92"/>
+      <c r="B121" s="86"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="86"/>
+      <c r="E121" s="86"/>
+      <c r="F121" s="86"/>
+      <c r="G121" s="86"/>
+      <c r="H121" s="86"/>
+      <c r="I121" s="86"/>
+      <c r="J121" s="86"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -8096,18 +8096,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="92" t="s">
+      <c r="A123" s="86" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="92"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="92"/>
-      <c r="E123" s="92"/>
-      <c r="F123" s="92"/>
-      <c r="G123" s="92"/>
-      <c r="H123" s="92"/>
-      <c r="I123" s="92"/>
-      <c r="J123" s="92"/>
+      <c r="B123" s="86"/>
+      <c r="C123" s="86"/>
+      <c r="D123" s="86"/>
+      <c r="E123" s="86"/>
+      <c r="F123" s="86"/>
+      <c r="G123" s="86"/>
+      <c r="H123" s="86"/>
+      <c r="I123" s="86"/>
+      <c r="J123" s="86"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8170,18 +8170,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="92" t="s">
+      <c r="A125" s="86" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="92"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="92"/>
-      <c r="F125" s="92"/>
-      <c r="G125" s="92"/>
-      <c r="H125" s="92"/>
-      <c r="I125" s="92"/>
-      <c r="J125" s="92"/>
+      <c r="B125" s="86"/>
+      <c r="C125" s="86"/>
+      <c r="D125" s="86"/>
+      <c r="E125" s="86"/>
+      <c r="F125" s="86"/>
+      <c r="G125" s="86"/>
+      <c r="H125" s="86"/>
+      <c r="I125" s="86"/>
+      <c r="J125" s="86"/>
     </row>
     <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25">
@@ -8506,18 +8506,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="92" t="s">
+      <c r="A133" s="86" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="92"/>
-      <c r="C133" s="92"/>
-      <c r="D133" s="93"/>
-      <c r="E133" s="93"/>
-      <c r="F133" s="93"/>
-      <c r="G133" s="93"/>
-      <c r="H133" s="93"/>
-      <c r="I133" s="93"/>
-      <c r="J133" s="93"/>
+      <c r="B133" s="86"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="87"/>
+      <c r="E133" s="87"/>
+      <c r="F133" s="87"/>
+      <c r="G133" s="87"/>
+      <c r="H133" s="87"/>
+      <c r="I133" s="87"/>
+      <c r="J133" s="87"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -9012,18 +9012,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="97" t="s">
+      <c r="A145" s="91" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="98"/>
-      <c r="C145" s="98"/>
-      <c r="D145" s="98"/>
-      <c r="E145" s="98"/>
-      <c r="F145" s="98"/>
-      <c r="G145" s="98"/>
-      <c r="H145" s="98"/>
-      <c r="I145" s="98"/>
-      <c r="J145" s="99"/>
+      <c r="B145" s="92"/>
+      <c r="C145" s="92"/>
+      <c r="D145" s="92"/>
+      <c r="E145" s="92"/>
+      <c r="F145" s="92"/>
+      <c r="G145" s="92"/>
+      <c r="H145" s="92"/>
+      <c r="I145" s="92"/>
+      <c r="J145" s="93"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9470,18 +9470,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="92" t="s">
+      <c r="A156" s="86" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="92"/>
-      <c r="C156" s="92"/>
-      <c r="D156" s="92"/>
-      <c r="E156" s="92"/>
-      <c r="F156" s="92"/>
-      <c r="G156" s="92"/>
-      <c r="H156" s="92"/>
-      <c r="I156" s="92"/>
-      <c r="J156" s="92"/>
+      <c r="B156" s="86"/>
+      <c r="C156" s="86"/>
+      <c r="D156" s="86"/>
+      <c r="E156" s="86"/>
+      <c r="F156" s="86"/>
+      <c r="G156" s="86"/>
+      <c r="H156" s="86"/>
+      <c r="I156" s="86"/>
+      <c r="J156" s="86"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9548,18 +9548,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="92" t="s">
+      <c r="A158" s="86" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="92"/>
-      <c r="C158" s="92"/>
-      <c r="D158" s="92"/>
-      <c r="E158" s="92"/>
-      <c r="F158" s="92"/>
-      <c r="G158" s="92"/>
-      <c r="H158" s="92"/>
-      <c r="I158" s="92"/>
-      <c r="J158" s="92"/>
+      <c r="B158" s="86"/>
+      <c r="C158" s="86"/>
+      <c r="D158" s="86"/>
+      <c r="E158" s="86"/>
+      <c r="F158" s="86"/>
+      <c r="G158" s="86"/>
+      <c r="H158" s="86"/>
+      <c r="I158" s="86"/>
+      <c r="J158" s="86"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10394,18 +10394,18 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="92" t="s">
+      <c r="A180" s="86" t="s">
         <v>715</v>
       </c>
-      <c r="B180" s="92"/>
-      <c r="C180" s="92"/>
+      <c r="B180" s="86"/>
+      <c r="C180" s="86"/>
       <c r="D180" s="84"/>
-      <c r="E180" s="92"/>
-      <c r="F180" s="92"/>
-      <c r="G180" s="92"/>
-      <c r="H180" s="92"/>
-      <c r="I180" s="92"/>
-      <c r="J180" s="92"/>
+      <c r="E180" s="86"/>
+      <c r="F180" s="86"/>
+      <c r="G180" s="86"/>
+      <c r="H180" s="86"/>
+      <c r="I180" s="86"/>
+      <c r="J180" s="86"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="68">
@@ -10696,18 +10696,18 @@
       </c>
     </row>
     <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="94" t="s">
+      <c r="A190" s="88" t="s">
         <v>617</v>
       </c>
-      <c r="B190" s="95"/>
-      <c r="C190" s="95"/>
-      <c r="D190" s="95"/>
-      <c r="E190" s="95"/>
-      <c r="F190" s="95"/>
-      <c r="G190" s="95"/>
-      <c r="H190" s="95"/>
-      <c r="I190" s="95"/>
-      <c r="J190" s="96"/>
+      <c r="B190" s="89"/>
+      <c r="C190" s="89"/>
+      <c r="D190" s="89"/>
+      <c r="E190" s="89"/>
+      <c r="F190" s="89"/>
+      <c r="G190" s="89"/>
+      <c r="H190" s="89"/>
+      <c r="I190" s="89"/>
+      <c r="J190" s="90"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="68">
@@ -12547,6 +12547,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A215:J215"/>
+    <mergeCell ref="A213:J213"/>
+    <mergeCell ref="A205:J205"/>
+    <mergeCell ref="A219:J219"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A248:J248"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
@@ -12563,15 +12572,6 @@
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A180:J180"/>
     <mergeCell ref="A231:J231"/>
-    <mergeCell ref="A215:J215"/>
-    <mergeCell ref="A213:J213"/>
-    <mergeCell ref="A205:J205"/>
-    <mergeCell ref="A219:J219"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -12669,10 +12669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AE237"/>
+  <dimension ref="A1:AE234"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173:XFD175"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26945,9 +26945,9 @@
       <c r="AC172" s="28"/>
       <c r="AD172" s="28"/>
     </row>
-    <row r="173" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="70" t="s">
-        <v>895</v>
+        <v>601</v>
       </c>
       <c r="B173" s="48" t="s">
         <v>22</v>
@@ -27000,8 +27000,8 @@
       <c r="R173" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S173" s="48" t="s">
-        <v>22</v>
+      <c r="S173" s="49" t="s">
+        <v>841</v>
       </c>
       <c r="T173" s="48" t="s">
         <v>22</v>
@@ -27009,7 +27009,7 @@
       <c r="U173" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="V173" s="48" t="s">
+      <c r="V173" s="28" t="s">
         <v>22</v>
       </c>
       <c r="W173" s="28" t="s">
@@ -27024,14 +27024,22 @@
       <c r="Z173" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AA173" s="28"/>
-      <c r="AB173" s="28"/>
-      <c r="AC173" s="28"/>
-      <c r="AD173" s="28"/>
-    </row>
-    <row r="174" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA173" s="48" t="s">
+        <v>743</v>
+      </c>
+      <c r="AB173" s="36" t="s">
+        <v>603</v>
+      </c>
+      <c r="AC173" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD173" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="70" t="s">
-        <v>898</v>
+        <v>604</v>
       </c>
       <c r="B174" s="48" t="s">
         <v>22</v>
@@ -27084,8 +27092,8 @@
       <c r="R174" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S174" s="48" t="s">
-        <v>22</v>
+      <c r="S174" s="49" t="s">
+        <v>842</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -27093,7 +27101,7 @@
       <c r="U174" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="V174" s="48" t="s">
+      <c r="V174" s="28" t="s">
         <v>22</v>
       </c>
       <c r="W174" s="28" t="s">
@@ -27108,14 +27116,22 @@
       <c r="Z174" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AA174" s="28"/>
-      <c r="AB174" s="28"/>
-      <c r="AC174" s="28"/>
-      <c r="AD174" s="28"/>
-    </row>
-    <row r="175" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB174" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC174" s="73" t="s">
+        <v>836</v>
+      </c>
+      <c r="AD174" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="70" t="s">
-        <v>901</v>
+        <v>606</v>
       </c>
       <c r="B175" s="48" t="s">
         <v>22</v>
@@ -27168,8 +27184,8 @@
       <c r="R175" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S175" s="48" t="s">
-        <v>22</v>
+      <c r="S175" s="49" t="s">
+        <v>842</v>
       </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
@@ -27177,7 +27193,7 @@
       <c r="U175" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="V175" s="48" t="s">
+      <c r="V175" s="28" t="s">
         <v>22</v>
       </c>
       <c r="W175" s="28" t="s">
@@ -27192,14 +27208,22 @@
       <c r="Z175" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AA175" s="28"/>
-      <c r="AB175" s="28"/>
-      <c r="AC175" s="28"/>
-      <c r="AD175" s="28"/>
-    </row>
-    <row r="176" spans="1:30" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB175" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC175" s="73" t="s">
+        <v>836</v>
+      </c>
+      <c r="AD175" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="70" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B176" s="48" t="s">
         <v>22</v>
@@ -27277,10 +27301,10 @@
         <v>22</v>
       </c>
       <c r="AA176" s="48" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AB176" s="36" t="s">
-        <v>603</v>
+        <v>22</v>
       </c>
       <c r="AC176" s="48" t="s">
         <v>22</v>
@@ -27289,9 +27313,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="70" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B177" s="48" t="s">
         <v>22</v>
@@ -27374,8 +27398,8 @@
       <c r="AB177" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC177" s="73" t="s">
-        <v>836</v>
+      <c r="AC177" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD177" s="48" t="s">
         <v>22</v>
@@ -27383,7 +27407,7 @@
     </row>
     <row r="178" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="70" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B178" s="48" t="s">
         <v>22</v>
@@ -27473,9 +27497,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="70" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B179" s="48" t="s">
         <v>22</v>
@@ -27529,7 +27553,7 @@
         <v>22</v>
       </c>
       <c r="S179" s="49" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="T179" s="48" t="s">
         <v>22</v>
@@ -27553,7 +27577,7 @@
         <v>22</v>
       </c>
       <c r="AA179" s="48" t="s">
-        <v>744</v>
+        <v>22</v>
       </c>
       <c r="AB179" s="36" t="s">
         <v>22</v>
@@ -27567,7 +27591,7 @@
     </row>
     <row r="180" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="70" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B180" s="48" t="s">
         <v>22</v>
@@ -27621,7 +27645,7 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="T180" s="48" t="s">
         <v>22</v>
@@ -27657,9 +27681,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="70" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B181" s="48" t="s">
         <v>22</v>
@@ -27713,7 +27737,7 @@
         <v>22</v>
       </c>
       <c r="S181" s="49" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="T181" s="48" t="s">
         <v>22</v>
@@ -27742,8 +27766,8 @@
       <c r="AB181" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC181" s="73" t="s">
-        <v>836</v>
+      <c r="AC181" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD181" s="48" t="s">
         <v>22</v>
@@ -27751,7 +27775,7 @@
     </row>
     <row r="182" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="70" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B182" s="48" t="s">
         <v>22</v>
@@ -27805,7 +27829,7 @@
         <v>22</v>
       </c>
       <c r="S182" s="49" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="T182" s="48" t="s">
         <v>22</v>
@@ -27838,12 +27862,15 @@
         <v>22</v>
       </c>
       <c r="AD182" s="48" t="s">
-        <v>22</v>
+        <v>622</v>
+      </c>
+      <c r="AE182" s="80" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="183" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="70" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B183" s="48" t="s">
         <v>22</v>
@@ -27897,7 +27924,7 @@
         <v>22</v>
       </c>
       <c r="S183" s="49" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="T183" s="48" t="s">
         <v>22</v>
@@ -27930,12 +27957,15 @@
         <v>22</v>
       </c>
       <c r="AD183" s="48" t="s">
-        <v>22</v>
+        <v>624</v>
+      </c>
+      <c r="AE183" s="80" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="184" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="70" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="B184" s="48" t="s">
         <v>22</v>
@@ -27988,8 +28018,8 @@
       <c r="R184" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S184" s="49" t="s">
-        <v>845</v>
+      <c r="S184" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="T184" s="48" t="s">
         <v>22</v>
@@ -28022,12 +28052,15 @@
         <v>22</v>
       </c>
       <c r="AD184" s="48" t="s">
-        <v>22</v>
+        <v>641</v>
+      </c>
+      <c r="AE184" s="81" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="185" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="70" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="B185" s="48" t="s">
         <v>22</v>
@@ -28080,8 +28113,8 @@
       <c r="R185" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S185" s="49" t="s">
-        <v>844</v>
+      <c r="S185" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="T185" s="48" t="s">
         <v>22</v>
@@ -28113,16 +28146,16 @@
       <c r="AC185" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD185" s="48" t="s">
-        <v>622</v>
-      </c>
-      <c r="AE185" s="80" t="s">
-        <v>837</v>
+      <c r="AD185" s="77" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE185" s="77" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="186" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="70" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="B186" s="48" t="s">
         <v>22</v>
@@ -28175,8 +28208,8 @@
       <c r="R186" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S186" s="49" t="s">
-        <v>845</v>
+      <c r="S186" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="T186" s="48" t="s">
         <v>22</v>
@@ -28208,16 +28241,13 @@
       <c r="AC186" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD186" s="48" t="s">
-        <v>624</v>
-      </c>
-      <c r="AE186" s="80" t="s">
-        <v>838</v>
+      <c r="AD186" s="77" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="187" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="70" t="s">
-        <v>629</v>
+        <v>878</v>
       </c>
       <c r="B187" s="48" t="s">
         <v>22</v>
@@ -28303,16 +28333,13 @@
       <c r="AC187" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD187" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="AE187" s="81" t="s">
-        <v>839</v>
+      <c r="AD187" s="77" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="188" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="70" t="s">
-        <v>630</v>
+        <v>879</v>
       </c>
       <c r="B188" s="48" t="s">
         <v>22</v>
@@ -28399,15 +28426,12 @@
         <v>22</v>
       </c>
       <c r="AD188" s="77" t="s">
-        <v>633</v>
-      </c>
-      <c r="AE188" s="77" t="s">
-        <v>840</v>
+        <v>884</v>
       </c>
     </row>
     <row r="189" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="70" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B189" s="48" t="s">
         <v>22</v>
@@ -28493,13 +28517,13 @@
       <c r="AC189" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD189" s="77" t="s">
-        <v>637</v>
+      <c r="AD189" s="48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="70" t="s">
-        <v>878</v>
+        <v>642</v>
       </c>
       <c r="B190" s="48" t="s">
         <v>22</v>
@@ -28585,13 +28609,13 @@
       <c r="AC190" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD190" s="77" t="s">
-        <v>880</v>
+      <c r="AD190" s="48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="70" t="s">
-        <v>879</v>
+        <v>648</v>
       </c>
       <c r="B191" s="48" t="s">
         <v>22</v>
@@ -28677,13 +28701,13 @@
       <c r="AC191" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD191" s="77" t="s">
-        <v>884</v>
+      <c r="AD191" s="48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="70" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B192" s="48" t="s">
         <v>22</v>
@@ -28775,7 +28799,7 @@
     </row>
     <row r="193" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="70" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="B193" s="48" t="s">
         <v>22</v>
@@ -28828,8 +28852,8 @@
       <c r="R193" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S193" s="48" t="s">
-        <v>22</v>
+      <c r="S193" s="49" t="s">
+        <v>842</v>
       </c>
       <c r="T193" s="48" t="s">
         <v>22</v>
@@ -28858,8 +28882,8 @@
       <c r="AB193" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC193" s="48" t="s">
-        <v>22</v>
+      <c r="AC193" s="73" t="s">
+        <v>655</v>
       </c>
       <c r="AD193" s="48" t="s">
         <v>22</v>
@@ -28867,7 +28891,7 @@
     </row>
     <row r="194" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="70" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="B194" s="48" t="s">
         <v>22</v>
@@ -28920,8 +28944,8 @@
       <c r="R194" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S194" s="48" t="s">
-        <v>22</v>
+      <c r="S194" s="49" t="s">
+        <v>844</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -28959,7 +28983,7 @@
     </row>
     <row r="195" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="70" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="B195" s="48" t="s">
         <v>22</v>
@@ -29012,8 +29036,8 @@
       <c r="R195" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S195" s="48" t="s">
-        <v>22</v>
+      <c r="S195" s="49" t="s">
+        <v>845</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -29051,7 +29075,7 @@
     </row>
     <row r="196" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="70" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="B196" s="48" t="s">
         <v>22</v>
@@ -29105,7 +29129,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -29134,8 +29158,8 @@
       <c r="AB196" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC196" s="73" t="s">
-        <v>655</v>
+      <c r="AC196" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD196" s="48" t="s">
         <v>22</v>
@@ -29143,7 +29167,7 @@
     </row>
     <row r="197" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="70" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="B197" s="48" t="s">
         <v>22</v>
@@ -29197,7 +29221,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -29235,7 +29259,7 @@
     </row>
     <row r="198" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="70" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="B198" s="48" t="s">
         <v>22</v>
@@ -29289,7 +29313,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -29327,7 +29351,7 @@
     </row>
     <row r="199" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="70" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="B199" s="48" t="s">
         <v>22</v>
@@ -29381,7 +29405,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -29419,7 +29443,7 @@
     </row>
     <row r="200" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="70" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="B200" s="48" t="s">
         <v>22</v>
@@ -29473,7 +29497,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -29511,7 +29535,7 @@
     </row>
     <row r="201" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="70" t="s">
-        <v>671</v>
+        <v>732</v>
       </c>
       <c r="B201" s="48" t="s">
         <v>22</v>
@@ -29565,7 +29589,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -29603,7 +29627,7 @@
     </row>
     <row r="202" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="70" t="s">
-        <v>676</v>
+        <v>738</v>
       </c>
       <c r="B202" s="48" t="s">
         <v>22</v>
@@ -29657,7 +29681,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -29695,7 +29719,7 @@
     </row>
     <row r="203" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="70" t="s">
-        <v>677</v>
+        <v>740</v>
       </c>
       <c r="B203" s="48" t="s">
         <v>22</v>
@@ -29749,7 +29773,7 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="T203" s="48" t="s">
         <v>22</v>
@@ -29787,7 +29811,7 @@
     </row>
     <row r="204" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="70" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="B204" s="48" t="s">
         <v>22</v>
@@ -29841,7 +29865,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29879,7 +29903,7 @@
     </row>
     <row r="205" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="70" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="B205" s="48" t="s">
         <v>22</v>
@@ -29933,7 +29957,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -29971,7 +29995,7 @@
     </row>
     <row r="206" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="70" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="B206" s="48" t="s">
         <v>22</v>
@@ -30025,7 +30049,7 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="T206" s="48" t="s">
         <v>22</v>
@@ -30063,7 +30087,7 @@
     </row>
     <row r="207" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="70" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="B207" s="48" t="s">
         <v>22</v>
@@ -30117,7 +30141,7 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="T207" s="48" t="s">
         <v>22</v>
@@ -30155,7 +30179,7 @@
     </row>
     <row r="208" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="70" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="B208" s="48" t="s">
         <v>22</v>
@@ -30209,7 +30233,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -30247,7 +30271,7 @@
     </row>
     <row r="209" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="70" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="B209" s="48" t="s">
         <v>22</v>
@@ -30301,7 +30325,7 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="T209" s="48" t="s">
         <v>22</v>
@@ -30339,7 +30363,7 @@
     </row>
     <row r="210" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="70" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="B210" s="48" t="s">
         <v>22</v>
@@ -30393,7 +30417,7 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="T210" s="48" t="s">
         <v>22</v>
@@ -30431,7 +30455,7 @@
     </row>
     <row r="211" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="70" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B211" s="48" t="s">
         <v>22</v>
@@ -30485,7 +30509,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30523,7 +30547,7 @@
     </row>
     <row r="212" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="70" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="B212" s="48" t="s">
         <v>22</v>
@@ -30577,7 +30601,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30615,7 +30639,7 @@
     </row>
     <row r="213" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="70" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="B213" s="48" t="s">
         <v>22</v>
@@ -30669,7 +30693,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30707,7 +30731,7 @@
     </row>
     <row r="214" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="70" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="B214" s="48" t="s">
         <v>22</v>
@@ -30761,7 +30785,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30799,7 +30823,7 @@
     </row>
     <row r="215" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="70" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="B215" s="48" t="s">
         <v>22</v>
@@ -30853,7 +30877,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30891,7 +30915,7 @@
     </row>
     <row r="216" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="70" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="B216" s="48" t="s">
         <v>22</v>
@@ -30945,7 +30969,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -30981,9 +31005,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="70" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>22</v>
@@ -31037,7 +31061,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -31066,16 +31090,16 @@
       <c r="AB217" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD217" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC217" s="82" t="s">
+        <v>877</v>
+      </c>
+      <c r="AD217" s="73" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="70" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="B218" s="48" t="s">
         <v>22</v>
@@ -31129,7 +31153,7 @@
         <v>22</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="T218" s="48" t="s">
         <v>22</v>
@@ -31158,16 +31182,16 @@
       <c r="AB218" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC218" s="48" t="s">
-        <v>22</v>
+      <c r="AC218" s="82" t="s">
+        <v>877</v>
       </c>
       <c r="AD218" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:30" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="70" t="s">
-        <v>782</v>
+        <v>805</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>22</v>
@@ -31221,10 +31245,10 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>842</v>
-      </c>
-      <c r="T219" s="48" t="s">
-        <v>22</v>
+        <v>851</v>
+      </c>
+      <c r="T219" s="49" t="s">
+        <v>853</v>
       </c>
       <c r="U219" s="48" t="s">
         <v>22</v>
@@ -31250,16 +31274,16 @@
       <c r="AB219" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC219" s="48" t="s">
-        <v>22</v>
+      <c r="AC219" s="82" t="s">
+        <v>877</v>
       </c>
       <c r="AD219" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="70" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>22</v>
@@ -31315,8 +31339,8 @@
       <c r="S220" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T220" s="48" t="s">
-        <v>22</v>
+      <c r="T220" s="49" t="s">
+        <v>852</v>
       </c>
       <c r="U220" s="48" t="s">
         <v>22</v>
@@ -31345,13 +31369,13 @@
       <c r="AC220" s="82" t="s">
         <v>877</v>
       </c>
-      <c r="AD220" s="73" t="s">
-        <v>819</v>
+      <c r="AD220" s="48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="70" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>22</v>
@@ -31405,7 +31429,7 @@
         <v>22</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="T221" s="48" t="s">
         <v>22</v>
@@ -31441,9 +31465,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="70" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>22</v>
@@ -31499,8 +31523,8 @@
       <c r="S222" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T222" s="49" t="s">
-        <v>853</v>
+      <c r="T222" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U222" s="48" t="s">
         <v>22</v>
@@ -31533,9 +31557,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="70" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>22</v>
@@ -31621,13 +31645,13 @@
       <c r="AC223" s="82" t="s">
         <v>877</v>
       </c>
-      <c r="AD223" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="1:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD223" s="73" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="70" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>22</v>
@@ -31683,8 +31707,8 @@
       <c r="S224" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T224" s="48" t="s">
-        <v>22</v>
+      <c r="T224" s="49" t="s">
+        <v>852</v>
       </c>
       <c r="U224" s="48" t="s">
         <v>22</v>
@@ -31719,7 +31743,7 @@
     </row>
     <row r="225" spans="1:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="70" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>22</v>
@@ -31809,9 +31833,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="70" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>22</v>
@@ -31868,7 +31892,7 @@
         <v>851</v>
       </c>
       <c r="T226" s="49" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31897,13 +31921,13 @@
       <c r="AC226" s="82" t="s">
         <v>877</v>
       </c>
-      <c r="AD226" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="227" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD226" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="70" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>22</v>
@@ -31960,7 +31984,7 @@
         <v>851</v>
       </c>
       <c r="T227" s="49" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="U227" s="48" t="s">
         <v>22</v>
@@ -31993,9 +32017,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="70" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="B228" s="48" t="s">
         <v>22</v>
@@ -32051,8 +32075,8 @@
       <c r="S228" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T228" s="48" t="s">
-        <v>22</v>
+      <c r="T228" s="49" t="s">
+        <v>853</v>
       </c>
       <c r="U228" s="48" t="s">
         <v>22</v>
@@ -32085,9 +32109,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="70" t="s">
-        <v>828</v>
+        <v>862</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>22</v>
@@ -32140,11 +32164,11 @@
       <c r="R229" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S229" s="49" t="s">
-        <v>851</v>
-      </c>
-      <c r="T229" s="49" t="s">
-        <v>853</v>
+      <c r="S229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T229" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U229" s="48" t="s">
         <v>22</v>
@@ -32170,16 +32194,16 @@
       <c r="AB229" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC229" s="82" t="s">
-        <v>877</v>
+      <c r="AC229" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD229" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="70" t="s">
-        <v>829</v>
+        <v>868</v>
       </c>
       <c r="B230" s="48" t="s">
         <v>22</v>
@@ -32232,11 +32256,11 @@
       <c r="R230" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S230" s="49" t="s">
-        <v>851</v>
-      </c>
-      <c r="T230" s="49" t="s">
-        <v>853</v>
+      <c r="S230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T230" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U230" s="48" t="s">
         <v>22</v>
@@ -32262,8 +32286,8 @@
       <c r="AB230" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC230" s="82" t="s">
-        <v>877</v>
+      <c r="AC230" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD230" s="48" t="s">
         <v>22</v>
@@ -32271,7 +32295,7 @@
     </row>
     <row r="231" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="70" t="s">
-        <v>834</v>
+        <v>872</v>
       </c>
       <c r="B231" s="48" t="s">
         <v>22</v>
@@ -32324,11 +32348,11 @@
       <c r="R231" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S231" s="49" t="s">
-        <v>851</v>
-      </c>
-      <c r="T231" s="49" t="s">
-        <v>853</v>
+      <c r="S231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T231" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U231" s="48" t="s">
         <v>22</v>
@@ -32354,8 +32378,8 @@
       <c r="AB231" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC231" s="82" t="s">
-        <v>877</v>
+      <c r="AC231" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD231" s="48" t="s">
         <v>22</v>
@@ -32363,7 +32387,7 @@
     </row>
     <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="70" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="B232" s="48" t="s">
         <v>22</v>
@@ -32446,8 +32470,8 @@
       <c r="AB232" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC232" s="48" t="s">
-        <v>22</v>
+      <c r="AC232" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD232" s="48" t="s">
         <v>22</v>
@@ -32455,7 +32479,7 @@
     </row>
     <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="70" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="B233" s="48" t="s">
         <v>22</v>
@@ -32538,8 +32562,8 @@
       <c r="AB233" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC233" s="48" t="s">
-        <v>22</v>
+      <c r="AC233" s="73" t="s">
+        <v>889</v>
       </c>
       <c r="AD233" s="48" t="s">
         <v>22</v>
@@ -32547,7 +32571,7 @@
     </row>
     <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="70" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="B234" s="48" t="s">
         <v>22</v>
@@ -32630,286 +32654,10 @@
       <c r="AB234" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC234" s="48" t="s">
-        <v>22</v>
+      <c r="AC234" s="73" t="s">
+        <v>889</v>
       </c>
       <c r="AD234" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="70" t="s">
-        <v>874</v>
-      </c>
-      <c r="B235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V235" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W235" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X235" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB235" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC235" s="73" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD235" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="B236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V236" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W236" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X236" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB236" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC236" s="73" t="s">
-        <v>889</v>
-      </c>
-      <c r="AD236" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="70" t="s">
-        <v>890</v>
-      </c>
-      <c r="B237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V237" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W237" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X237" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB237" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC237" s="73" t="s">
-        <v>889</v>
-      </c>
-      <c r="AD237" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -33037,38 +32785,38 @@
     <hyperlink ref="G131" r:id="rId15" xr:uid="{27008350-2CEC-4E23-B4FE-4597862DB8D5}"/>
     <hyperlink ref="D142" r:id="rId16" xr:uid="{8898BD8E-2CA4-4CDE-890B-D65B515E0457}"/>
     <hyperlink ref="G172" r:id="rId17" xr:uid="{E0CF340A-567A-4979-87DE-4F467618A03F}"/>
-    <hyperlink ref="AC196" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
-    <hyperlink ref="S186" r:id="rId19" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
-    <hyperlink ref="S200" r:id="rId20" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
-    <hyperlink ref="S178" r:id="rId21" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
-    <hyperlink ref="S179" r:id="rId22" display="https://opt.adm.testingserver8.com/admin/home-page-banner" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
-    <hyperlink ref="S180" r:id="rId23" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
-    <hyperlink ref="S177" r:id="rId24" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{CF1B8F79-F4E1-4AB9-B852-9B1E92C5988C}"/>
-    <hyperlink ref="S181" r:id="rId25" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{B4C89834-3581-4298-A312-1087A98E46BC}"/>
-    <hyperlink ref="S182" r:id="rId26" display="https://opt.adm.testingserver8.com/admin/special-timer-event" xr:uid="{DC091BA2-1053-4AEE-9250-D6D43A208977}"/>
-    <hyperlink ref="S183" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
-    <hyperlink ref="S184" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
-    <hyperlink ref="S185" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
-    <hyperlink ref="S209" r:id="rId30" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S208" r:id="rId31" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
-    <hyperlink ref="S220" r:id="rId32" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
-    <hyperlink ref="S225" r:id="rId33" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
-    <hyperlink ref="S223" r:id="rId34" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
-    <hyperlink ref="S222" r:id="rId35" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
-    <hyperlink ref="S226" r:id="rId36" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
-    <hyperlink ref="T226" r:id="rId37" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
-    <hyperlink ref="S227" r:id="rId38" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T227" r:id="rId39" display="https://console.zlaata.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
-    <hyperlink ref="S228" r:id="rId40" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
-    <hyperlink ref="S229" r:id="rId41" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
-    <hyperlink ref="S230" r:id="rId42" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
-    <hyperlink ref="S231" r:id="rId43" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
-    <hyperlink ref="T229" r:id="rId44" display="https://console.zlaata.com/admin/exchange-order" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
-    <hyperlink ref="AD226" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
-    <hyperlink ref="AC177" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
-    <hyperlink ref="AC178" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
-    <hyperlink ref="AC181" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
-    <hyperlink ref="AC235" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
+    <hyperlink ref="AC193" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
+    <hyperlink ref="S183" r:id="rId19" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
+    <hyperlink ref="S197" r:id="rId20" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
+    <hyperlink ref="S175" r:id="rId21" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
+    <hyperlink ref="S176" r:id="rId22" display="https://opt.adm.testingserver8.com/admin/home-page-banner" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
+    <hyperlink ref="S177" r:id="rId23" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
+    <hyperlink ref="S174" r:id="rId24" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{CF1B8F79-F4E1-4AB9-B852-9B1E92C5988C}"/>
+    <hyperlink ref="S178" r:id="rId25" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{B4C89834-3581-4298-A312-1087A98E46BC}"/>
+    <hyperlink ref="S179" r:id="rId26" display="https://opt.adm.testingserver8.com/admin/special-timer-event" xr:uid="{DC091BA2-1053-4AEE-9250-D6D43A208977}"/>
+    <hyperlink ref="S180" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
+    <hyperlink ref="S181" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
+    <hyperlink ref="S182" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
+    <hyperlink ref="S206" r:id="rId30" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S205" r:id="rId31" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="S217" r:id="rId32" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S222" r:id="rId33" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S220" r:id="rId34" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S219" r:id="rId35" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S223" r:id="rId36" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T223" r:id="rId37" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S224" r:id="rId38" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T224" r:id="rId39" display="https://console.zlaata.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S225" r:id="rId40" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S226" r:id="rId41" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S227" r:id="rId42" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S228" r:id="rId43" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="T226" r:id="rId44" display="https://console.zlaata.com/admin/exchange-order" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
+    <hyperlink ref="AD223" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
+    <hyperlink ref="AC174" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
+    <hyperlink ref="AC175" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
+    <hyperlink ref="AC178" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
+    <hyperlink ref="AC232" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId50"/>
@@ -33079,7 +32827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67D78B6-EF58-4C2E-A040-EC8FC2ED5646}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7813A0C5-A244-45E4-ABCC-84D772325156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B01ABCD-0DD1-4261-9F0C-AE5182DD2ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8290" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8368" uniqueCount="899">
   <si>
     <t>S.No</t>
   </si>
@@ -2705,6 +2705,24 @@
   </si>
   <si>
     <t>Verify price calculation for Acessories product shipping charge and my order page.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADC_04</t>
+  </si>
+  <si>
+    <t>Verify with One specific product and  with Normal product.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADC_04</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADC_05</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADC_05</t>
+  </si>
+  <si>
+    <t>Verify with Two Specific Products Coupon Verification.</t>
   </si>
 </sst>
 </file>
@@ -4197,10 +4215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z250"/>
+  <dimension ref="A1:Z252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D238" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F250" sqref="F250"/>
+    <sheetView topLeftCell="D212" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11389,43 +11407,61 @@
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="84" t="s">
-        <v>746</v>
-      </c>
-      <c r="B216" s="84"/>
-      <c r="C216" s="84"/>
-      <c r="D216" s="84"/>
-      <c r="E216" s="84"/>
-      <c r="F216" s="84"/>
-      <c r="G216" s="84"/>
-      <c r="H216" s="84"/>
-      <c r="I216" s="84"/>
-      <c r="J216" s="84"/>
+      <c r="A216" s="48">
+        <v>4</v>
+      </c>
+      <c r="B216" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="79" t="s">
+        <v>893</v>
+      </c>
+      <c r="D216" s="78" t="s">
+        <v>894</v>
+      </c>
+      <c r="E216" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" s="79" t="s">
+        <v>895</v>
+      </c>
+      <c r="G216" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="I216" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J216" s="48" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="79" t="s">
-        <v>747</v>
+        <v>897</v>
       </c>
       <c r="D217" s="78" t="s">
-        <v>748</v>
+        <v>898</v>
       </c>
       <c r="E217" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F217" s="79" t="s">
-        <v>745</v>
+        <v>896</v>
       </c>
       <c r="G217" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H217" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I217" s="48" t="s">
         <v>12</v>
@@ -11435,55 +11471,37 @@
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="48">
-        <v>2</v>
-      </c>
-      <c r="B218" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C218" s="79" t="s">
-        <v>749</v>
-      </c>
-      <c r="D218" s="78" t="s">
-        <v>750</v>
-      </c>
-      <c r="E218" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F218" s="79" t="s">
-        <v>751</v>
-      </c>
-      <c r="G218" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H218" s="48" t="s">
-        <v>792</v>
-      </c>
-      <c r="I218" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J218" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A218" s="84" t="s">
+        <v>746</v>
+      </c>
+      <c r="B218" s="84"/>
+      <c r="C218" s="84"/>
+      <c r="D218" s="84"/>
+      <c r="E218" s="84"/>
+      <c r="F218" s="84"/>
+      <c r="G218" s="84"/>
+      <c r="H218" s="84"/>
+      <c r="I218" s="84"/>
+      <c r="J218" s="84"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C219" s="79" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D219" s="78" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E219" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F219" s="79" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G219" s="48" t="s">
         <v>11</v>
@@ -11500,22 +11518,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C220" s="79" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D220" s="78" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E220" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F220" s="79" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="G220" s="48" t="s">
         <v>11</v>
@@ -11532,22 +11550,22 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C221" s="79" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D221" s="78" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E221" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F221" s="79" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G221" s="48" t="s">
         <v>11</v>
@@ -11564,22 +11582,22 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C222" s="79" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D222" s="78" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E222" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="79" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G222" s="48" t="s">
         <v>11</v>
@@ -11596,22 +11614,22 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C223" s="79" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D223" s="78" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E223" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="79" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G223" s="48" t="s">
         <v>11</v>
@@ -11628,22 +11646,22 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="79" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D224" s="78" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E224" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F224" s="79" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="G224" s="48" t="s">
         <v>11</v>
@@ -11660,22 +11678,22 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="79" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D225" s="78" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E225" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F225" s="79" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G225" s="48" t="s">
         <v>11</v>
@@ -11692,22 +11710,22 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="79" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D226" s="78" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E226" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F226" s="79" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="G226" s="48" t="s">
         <v>11</v>
@@ -11724,22 +11742,22 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C227" s="79" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D227" s="78" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E227" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F227" s="79" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G227" s="48" t="s">
         <v>11</v>
@@ -11754,44 +11772,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="84" t="s">
-        <v>783</v>
-      </c>
-      <c r="B228" s="84"/>
-      <c r="C228" s="84"/>
-      <c r="D228" s="84"/>
-      <c r="E228" s="84"/>
-      <c r="F228" s="84"/>
-      <c r="G228" s="84"/>
-      <c r="H228" s="84"/>
-      <c r="I228" s="84"/>
-      <c r="J228" s="84"/>
-    </row>
-    <row r="229" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" s="48">
+        <v>10</v>
+      </c>
+      <c r="B228" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="79" t="s">
+        <v>773</v>
+      </c>
+      <c r="D228" s="78" t="s">
+        <v>774</v>
+      </c>
+      <c r="E228" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F228" s="79" t="s">
+        <v>775</v>
+      </c>
+      <c r="G228" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="I228" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J228" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C229" s="79" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="D229" s="78" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E229" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F229" s="70" t="s">
-        <v>782</v>
+      <c r="F229" s="79" t="s">
+        <v>776</v>
       </c>
       <c r="G229" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H229" s="48" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I229" s="48" t="s">
         <v>12</v>
@@ -11800,9 +11836,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="84" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="B230" s="84"/>
       <c r="C230" s="84"/>
@@ -11814,7 +11850,7 @@
       <c r="I230" s="84"/>
       <c r="J230" s="84"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="48">
         <v>1</v>
       </c>
@@ -11822,22 +11858,22 @@
         <v>10</v>
       </c>
       <c r="C231" s="79" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D231" s="78" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="E231" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F231" s="79" t="s">
-        <v>795</v>
+      <c r="F231" s="70" t="s">
+        <v>782</v>
       </c>
       <c r="G231" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H231" s="48" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="I231" s="48" t="s">
         <v>12</v>
@@ -11847,55 +11883,37 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" s="48">
-        <v>2</v>
-      </c>
-      <c r="B232" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C232" s="79" t="s">
-        <v>801</v>
-      </c>
-      <c r="D232" s="78" t="s">
-        <v>802</v>
-      </c>
-      <c r="E232" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F232" s="79" t="s">
-        <v>800</v>
-      </c>
-      <c r="G232" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H232" s="48" t="s">
-        <v>799</v>
-      </c>
-      <c r="I232" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J232" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A232" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="B232" s="84"/>
+      <c r="C232" s="84"/>
+      <c r="D232" s="84"/>
+      <c r="E232" s="84"/>
+      <c r="F232" s="84"/>
+      <c r="G232" s="84"/>
+      <c r="H232" s="84"/>
+      <c r="I232" s="84"/>
+      <c r="J232" s="84"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B233" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C233" s="79" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D233" s="78" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="E233" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F233" s="79" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="G233" s="48" t="s">
         <v>11</v>
@@ -11912,22 +11930,22 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B234" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C234" s="79" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D234" s="78" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E234" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F234" s="79" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="G234" s="48" t="s">
         <v>11</v>
@@ -11944,22 +11962,22 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B235" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C235" s="79" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D235" s="78" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="E235" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F235" s="79" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G235" s="48" t="s">
         <v>11</v>
@@ -11976,22 +11994,22 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B236" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C236" s="79" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D236" s="78" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="E236" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F236" s="79" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G236" s="48" t="s">
         <v>11</v>
@@ -12008,22 +12026,22 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B237" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D237" s="78" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E237" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F237" s="79" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G237" s="48" t="s">
         <v>11</v>
@@ -12040,22 +12058,22 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B238" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C238" s="79" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D238" s="78" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="E238" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F238" s="79" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G238" s="48" t="s">
         <v>11</v>
@@ -12072,22 +12090,22 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B239" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C239" s="79" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D239" s="78" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E239" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F239" s="79" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="G239" s="48" t="s">
         <v>11</v>
@@ -12104,22 +12122,22 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B240" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C240" s="79" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D240" s="78" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E240" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F240" s="79" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G240" s="48" t="s">
         <v>11</v>
@@ -12136,22 +12154,22 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B241" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C241" s="79" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D241" s="78" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="E241" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F241" s="79" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G241" s="48" t="s">
         <v>11</v>
@@ -12168,22 +12186,22 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B242" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C242" s="79" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D242" s="78" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E242" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F242" s="79" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G242" s="48" t="s">
         <v>11</v>
@@ -12198,44 +12216,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="84" t="s">
-        <v>863</v>
-      </c>
-      <c r="B243" s="84"/>
-      <c r="C243" s="84"/>
-      <c r="D243" s="84"/>
-      <c r="E243" s="84"/>
-      <c r="F243" s="84"/>
-      <c r="G243" s="84"/>
-      <c r="H243" s="84"/>
-      <c r="I243" s="84"/>
-      <c r="J243" s="84"/>
-    </row>
-    <row r="244" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A243" s="48">
+        <v>11</v>
+      </c>
+      <c r="B243" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" s="79" t="s">
+        <v>830</v>
+      </c>
+      <c r="D243" s="78" t="s">
+        <v>831</v>
+      </c>
+      <c r="E243" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243" s="79" t="s">
+        <v>829</v>
+      </c>
+      <c r="G243" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H243" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="I243" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J243" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B244" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C244" s="79" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="D244" s="78" t="s">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="E244" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F244" s="70" t="s">
-        <v>862</v>
+      <c r="F244" s="79" t="s">
+        <v>834</v>
       </c>
       <c r="G244" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H244" s="48" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="I244" s="48" t="s">
         <v>12</v>
@@ -12246,7 +12282,7 @@
     </row>
     <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="84" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B245" s="84"/>
       <c r="C245" s="84"/>
@@ -12266,22 +12302,22 @@
         <v>10</v>
       </c>
       <c r="C246" s="79" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D246" s="78" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E246" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F246" s="70" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G246" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H246" s="48" t="s">
-        <v>869</v>
+        <v>793</v>
       </c>
       <c r="I246" s="48" t="s">
         <v>12</v>
@@ -12291,55 +12327,37 @@
       </c>
     </row>
     <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="48">
-        <v>2</v>
-      </c>
-      <c r="B247" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C247" s="79" t="s">
-        <v>871</v>
-      </c>
-      <c r="D247" s="78" t="s">
-        <v>873</v>
-      </c>
-      <c r="E247" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F247" s="70" t="s">
-        <v>872</v>
-      </c>
-      <c r="G247" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H247" s="48" t="s">
-        <v>869</v>
-      </c>
-      <c r="I247" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J247" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A247" s="84" t="s">
+        <v>866</v>
+      </c>
+      <c r="B247" s="84"/>
+      <c r="C247" s="84"/>
+      <c r="D247" s="84"/>
+      <c r="E247" s="84"/>
+      <c r="F247" s="84"/>
+      <c r="G247" s="84"/>
+      <c r="H247" s="84"/>
+      <c r="I247" s="84"/>
+      <c r="J247" s="84"/>
     </row>
     <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B248" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C248" s="79" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="D248" s="78" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E248" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F248" s="70" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G248" s="48" t="s">
         <v>11</v>
@@ -12356,22 +12374,22 @@
     </row>
     <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B249" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C249" s="79" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="D249" s="78" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="E249" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F249" s="70" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="G249" s="48" t="s">
         <v>11</v>
@@ -12388,22 +12406,22 @@
     </row>
     <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B250" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C250" s="79" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="D250" s="78" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="E250" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F250" s="70" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="G250" s="48" t="s">
         <v>11</v>
@@ -12418,28 +12436,92 @@
         <v>13</v>
       </c>
     </row>
+    <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="48">
+        <v>4</v>
+      </c>
+      <c r="B251" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" s="79" t="s">
+        <v>886</v>
+      </c>
+      <c r="D251" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="E251" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="G251" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H251" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="I251" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J251" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="48">
+        <v>5</v>
+      </c>
+      <c r="B252" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" s="79" t="s">
+        <v>891</v>
+      </c>
+      <c r="D252" s="78" t="s">
+        <v>892</v>
+      </c>
+      <c r="E252" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F252" s="70" t="s">
+        <v>890</v>
+      </c>
+      <c r="G252" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H252" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="I252" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J252" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A245:J245"/>
+    <mergeCell ref="A247:J247"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A200:J200"/>
     <mergeCell ref="A195:J195"/>
-    <mergeCell ref="A243:J243"/>
-    <mergeCell ref="A230:J230"/>
+    <mergeCell ref="A245:J245"/>
+    <mergeCell ref="A232:J232"/>
     <mergeCell ref="A133:J133"/>
     <mergeCell ref="A187:J187"/>
     <mergeCell ref="A145:J145"/>
     <mergeCell ref="A156:J156"/>
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
-    <mergeCell ref="A228:J228"/>
+    <mergeCell ref="A230:J230"/>
     <mergeCell ref="A212:J212"/>
     <mergeCell ref="A210:J210"/>
     <mergeCell ref="A202:J202"/>
-    <mergeCell ref="A216:J216"/>
+    <mergeCell ref="A218:J218"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A55:J55"/>
@@ -12542,10 +12624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AE235"/>
+  <dimension ref="A1:AE237"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+    <sheetView tabSelected="1" topLeftCell="N193" workbookViewId="0">
+      <selection activeCell="T207" sqref="T207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29820,7 +29902,7 @@
     </row>
     <row r="206" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="70" t="s">
-        <v>745</v>
+        <v>895</v>
       </c>
       <c r="B206" s="48" t="s">
         <v>22</v>
@@ -29874,10 +29956,10 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
+        <v>850</v>
+      </c>
+      <c r="T206" s="49" t="s">
         <v>851</v>
-      </c>
-      <c r="T206" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="U206" s="48" t="s">
         <v>22</v>
@@ -29912,7 +29994,7 @@
     </row>
     <row r="207" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="70" t="s">
-        <v>751</v>
+        <v>896</v>
       </c>
       <c r="B207" s="48" t="s">
         <v>22</v>
@@ -29966,10 +30048,10 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>852</v>
-      </c>
-      <c r="T207" s="48" t="s">
-        <v>22</v>
+        <v>850</v>
+      </c>
+      <c r="T207" s="49" t="s">
+        <v>851</v>
       </c>
       <c r="U207" s="48" t="s">
         <v>22</v>
@@ -30004,7 +30086,7 @@
     </row>
     <row r="208" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="70" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B208" s="48" t="s">
         <v>22</v>
@@ -30058,7 +30140,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -30096,7 +30178,7 @@
     </row>
     <row r="209" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="70" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B209" s="48" t="s">
         <v>22</v>
@@ -30150,7 +30232,7 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="T209" s="48" t="s">
         <v>22</v>
@@ -30188,7 +30270,7 @@
     </row>
     <row r="210" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="70" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B210" s="48" t="s">
         <v>22</v>
@@ -30242,7 +30324,7 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="T210" s="48" t="s">
         <v>22</v>
@@ -30280,7 +30362,7 @@
     </row>
     <row r="211" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="70" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B211" s="48" t="s">
         <v>22</v>
@@ -30334,7 +30416,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30372,7 +30454,7 @@
     </row>
     <row r="212" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="70" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B212" s="48" t="s">
         <v>22</v>
@@ -30426,7 +30508,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30464,7 +30546,7 @@
     </row>
     <row r="213" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="70" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B213" s="48" t="s">
         <v>22</v>
@@ -30518,7 +30600,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30556,7 +30638,7 @@
     </row>
     <row r="214" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="70" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B214" s="48" t="s">
         <v>22</v>
@@ -30610,7 +30692,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30648,7 +30730,7 @@
     </row>
     <row r="215" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="70" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B215" s="48" t="s">
         <v>22</v>
@@ -30702,7 +30784,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30740,7 +30822,7 @@
     </row>
     <row r="216" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="70" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B216" s="48" t="s">
         <v>22</v>
@@ -30794,7 +30876,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -30832,283 +30914,283 @@
     </row>
     <row r="217" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="70" t="s">
+        <v>775</v>
+      </c>
+      <c r="B217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S217" s="49" t="s">
+        <v>860</v>
+      </c>
+      <c r="T217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V217" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W217" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X217" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB217" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD217" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="70" t="s">
+        <v>776</v>
+      </c>
+      <c r="B218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S218" s="49" t="s">
+        <v>861</v>
+      </c>
+      <c r="T218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V218" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W218" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X218" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB218" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD218" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="70" t="s">
         <v>782</v>
       </c>
-      <c r="B217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S217" s="49" t="s">
+      <c r="B219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S219" s="49" t="s">
         <v>842</v>
       </c>
-      <c r="T217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V217" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W217" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X217" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB217" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD217" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="70" t="s">
+      <c r="T219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V219" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W219" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X219" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB219" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD219" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="70" t="s">
         <v>795</v>
-      </c>
-      <c r="B218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S218" s="49" t="s">
-        <v>851</v>
-      </c>
-      <c r="T218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V218" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W218" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X218" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB218" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC218" s="83" t="s">
-        <v>877</v>
-      </c>
-      <c r="AD218" s="73" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="219" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="70" t="s">
-        <v>800</v>
-      </c>
-      <c r="B219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S219" s="49" t="s">
-        <v>854</v>
-      </c>
-      <c r="T219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V219" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W219" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X219" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB219" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC219" s="83" t="s">
-        <v>877</v>
-      </c>
-      <c r="AD219" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220" spans="1:30" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="70" t="s">
-        <v>805</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>22</v>
@@ -31164,8 +31246,8 @@
       <c r="S220" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T220" s="49" t="s">
-        <v>853</v>
+      <c r="T220" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U220" s="48" t="s">
         <v>22</v>
@@ -31194,13 +31276,13 @@
       <c r="AC220" s="83" t="s">
         <v>877</v>
       </c>
-      <c r="AD220" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD220" s="73" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="70" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>22</v>
@@ -31254,10 +31336,10 @@
         <v>22</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>851</v>
-      </c>
-      <c r="T221" s="49" t="s">
-        <v>852</v>
+        <v>854</v>
+      </c>
+      <c r="T221" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U221" s="48" t="s">
         <v>22</v>
@@ -31290,9 +31372,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:30" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="70" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>22</v>
@@ -31348,8 +31430,8 @@
       <c r="S222" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T222" s="48" t="s">
-        <v>22</v>
+      <c r="T222" s="49" t="s">
+        <v>853</v>
       </c>
       <c r="U222" s="48" t="s">
         <v>22</v>
@@ -31382,9 +31464,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="70" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>22</v>
@@ -31440,8 +31522,8 @@
       <c r="S223" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T223" s="48" t="s">
-        <v>22</v>
+      <c r="T223" s="49" t="s">
+        <v>852</v>
       </c>
       <c r="U223" s="48" t="s">
         <v>22</v>
@@ -31474,9 +31556,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="70" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>22</v>
@@ -31532,8 +31614,8 @@
       <c r="S224" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T224" s="49" t="s">
-        <v>852</v>
+      <c r="T224" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U224" s="48" t="s">
         <v>22</v>
@@ -31562,13 +31644,13 @@
       <c r="AC224" s="83" t="s">
         <v>877</v>
       </c>
-      <c r="AD224" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="225" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD224" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="70" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>22</v>
@@ -31624,8 +31706,8 @@
       <c r="S225" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T225" s="49" t="s">
-        <v>852</v>
+      <c r="T225" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U225" s="48" t="s">
         <v>22</v>
@@ -31658,9 +31740,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="70" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>22</v>
@@ -31716,8 +31798,8 @@
       <c r="S226" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T226" s="48" t="s">
-        <v>22</v>
+      <c r="T226" s="49" t="s">
+        <v>852</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31746,13 +31828,13 @@
       <c r="AC226" s="83" t="s">
         <v>877</v>
       </c>
-      <c r="AD226" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="227" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD226" s="73" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="70" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>22</v>
@@ -31809,7 +31891,7 @@
         <v>851</v>
       </c>
       <c r="T227" s="49" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U227" s="48" t="s">
         <v>22</v>
@@ -31842,9 +31924,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="70" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B228" s="48" t="s">
         <v>22</v>
@@ -31900,8 +31982,8 @@
       <c r="S228" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="T228" s="49" t="s">
-        <v>853</v>
+      <c r="T228" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U228" s="48" t="s">
         <v>22</v>
@@ -31934,9 +32016,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="70" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>22</v>
@@ -32026,9 +32108,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="70" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="B230" s="48" t="s">
         <v>22</v>
@@ -32081,11 +32163,11 @@
       <c r="R230" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T230" s="48" t="s">
-        <v>22</v>
+      <c r="S230" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="T230" s="49" t="s">
+        <v>853</v>
       </c>
       <c r="U230" s="48" t="s">
         <v>22</v>
@@ -32111,8 +32193,8 @@
       <c r="AB230" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC230" s="48" t="s">
-        <v>22</v>
+      <c r="AC230" s="83" t="s">
+        <v>877</v>
       </c>
       <c r="AD230" s="48" t="s">
         <v>22</v>
@@ -32120,7 +32202,7 @@
     </row>
     <row r="231" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="70" t="s">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="B231" s="48" t="s">
         <v>22</v>
@@ -32173,11 +32255,11 @@
       <c r="R231" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T231" s="48" t="s">
-        <v>22</v>
+      <c r="S231" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="T231" s="49" t="s">
+        <v>853</v>
       </c>
       <c r="U231" s="48" t="s">
         <v>22</v>
@@ -32203,8 +32285,8 @@
       <c r="AB231" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC231" s="48" t="s">
-        <v>22</v>
+      <c r="AC231" s="83" t="s">
+        <v>877</v>
       </c>
       <c r="AD231" s="48" t="s">
         <v>22</v>
@@ -32212,7 +32294,7 @@
     </row>
     <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="70" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="B232" s="48" t="s">
         <v>22</v>
@@ -32304,7 +32386,7 @@
     </row>
     <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="70" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B233" s="48" t="s">
         <v>22</v>
@@ -32387,8 +32469,8 @@
       <c r="AB233" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC233" s="73" t="s">
-        <v>835</v>
+      <c r="AC233" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD233" s="48" t="s">
         <v>22</v>
@@ -32396,7 +32478,7 @@
     </row>
     <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="70" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="B234" s="48" t="s">
         <v>22</v>
@@ -32479,8 +32561,8 @@
       <c r="AB234" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC234" s="73" t="s">
-        <v>889</v>
+      <c r="AC234" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD234" s="48" t="s">
         <v>22</v>
@@ -32488,93 +32570,277 @@
     </row>
     <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="70" t="s">
+        <v>874</v>
+      </c>
+      <c r="B235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V235" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W235" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X235" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB235" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC235" s="73" t="s">
+        <v>835</v>
+      </c>
+      <c r="AD235" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="B236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V236" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W236" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X236" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB236" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC236" s="73" t="s">
+        <v>889</v>
+      </c>
+      <c r="AD236" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="70" t="s">
         <v>890</v>
       </c>
-      <c r="B235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V235" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W235" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X235" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB235" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC235" s="73" t="s">
+      <c r="B237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V237" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W237" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X237" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB237" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC237" s="73" t="s">
         <v>889</v>
       </c>
-      <c r="AD235" s="48" t="s">
+      <c r="AD237" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -32714,28 +32980,30 @@
     <hyperlink ref="S181" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
-    <hyperlink ref="S207" r:id="rId30" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S206" r:id="rId31" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
-    <hyperlink ref="S218" r:id="rId32" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
-    <hyperlink ref="S223" r:id="rId33" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
-    <hyperlink ref="S221" r:id="rId34" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
-    <hyperlink ref="S220" r:id="rId35" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
-    <hyperlink ref="S224" r:id="rId36" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
-    <hyperlink ref="T224" r:id="rId37" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
-    <hyperlink ref="S225" r:id="rId38" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T225" r:id="rId39" display="https://console.zlaata.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
-    <hyperlink ref="S226" r:id="rId40" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
-    <hyperlink ref="S227" r:id="rId41" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
-    <hyperlink ref="S228" r:id="rId42" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
-    <hyperlink ref="S229" r:id="rId43" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
-    <hyperlink ref="T227" r:id="rId44" display="https://console.zlaata.com/admin/exchange-order" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
-    <hyperlink ref="AD224" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
+    <hyperlink ref="S209" r:id="rId30" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S208" r:id="rId31" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="S220" r:id="rId32" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S225" r:id="rId33" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S223" r:id="rId34" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S222" r:id="rId35" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S226" r:id="rId36" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T226" r:id="rId37" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S227" r:id="rId38" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T227" r:id="rId39" display="https://console.zlaata.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S228" r:id="rId40" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S229" r:id="rId41" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S230" r:id="rId42" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S231" r:id="rId43" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="T229" r:id="rId44" display="https://console.zlaata.com/admin/exchange-order" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
+    <hyperlink ref="AD226" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
     <hyperlink ref="AC175" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
     <hyperlink ref="AC176" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
     <hyperlink ref="AC179" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
-    <hyperlink ref="AC233" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
+    <hyperlink ref="AC235" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
+    <hyperlink ref="T206" r:id="rId50" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
+    <hyperlink ref="T207" r:id="rId51" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B01ABCD-0DD1-4261-9F0C-AE5182DD2ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB76751-0CB2-4B34-BDFD-B911ACE705DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8368" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8368" uniqueCount="898">
   <si>
     <t>S.No</t>
   </si>
@@ -2551,69 +2551,6 @@
     <t>Ganesh Chaturthi</t>
   </si>
   <si>
-    <t>https://qa.adm.testingserver8.com/admin/home-page-banner</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/special-timer-event</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/categories</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product-collection</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product-style</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product-search-keyword</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/collection-search-keyword</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/style-search-keyword</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/coupon</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/order</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/return-order</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/exchange-order</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/cancel-order</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/return-cancel</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/exchange-cancel</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/payment-pending</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/payment-refund</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/payment-failed</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/rto-orders</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/all-orders</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_COD_01</t>
   </si>
   <si>
@@ -2659,9 +2596,6 @@
     <t>Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.</t>
   </si>
   <si>
-    <t>Beige Peplum Top With Flared Pants</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_ASP_06</t>
   </si>
   <si>
@@ -2723,13 +2657,76 @@
   </si>
   <si>
     <t>Verify with Two Specific Products Coupon Verification.</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/home-page-banner</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/special-timer-event</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/categories</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product-collection</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product-style</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product-search-keyword</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/collection-search-keyword</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/style-search-keyword</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/coupon</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/return-order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/exchange-order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/cancel-order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/return-cancel</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/exchange-cancel</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/payment-pending</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/payment-refund</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/payment-failed</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/rto-orders</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/all-orders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2823,12 +2820,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3156,7 +3147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3362,29 +3353,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3412,6 +3382,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4971,18 +4959,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="87"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -5369,18 +5357,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="90"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="98"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5927,18 +5915,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="89"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="90"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="98"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -6261,18 +6249,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="88" t="s">
+      <c r="A66" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="90"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="98"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6627,18 +6615,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="88" t="s">
+      <c r="A78" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="89"/>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="90"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="98"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7505,18 +7493,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="91" t="s">
+      <c r="A106" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="91"/>
-      <c r="C106" s="91"/>
-      <c r="D106" s="91"/>
-      <c r="E106" s="91"/>
-      <c r="F106" s="91"/>
-      <c r="G106" s="91"/>
-      <c r="H106" s="91"/>
-      <c r="I106" s="91"/>
-      <c r="J106" s="91"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -8009,18 +7997,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="92" t="s">
+      <c r="A121" s="85" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="92"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="92"/>
-      <c r="E121" s="92"/>
-      <c r="F121" s="92"/>
-      <c r="G121" s="92"/>
-      <c r="H121" s="92"/>
-      <c r="I121" s="92"/>
-      <c r="J121" s="92"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -8083,18 +8071,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="92" t="s">
+      <c r="A123" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="92"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="92"/>
-      <c r="E123" s="92"/>
-      <c r="F123" s="92"/>
-      <c r="G123" s="92"/>
-      <c r="H123" s="92"/>
-      <c r="I123" s="92"/>
-      <c r="J123" s="92"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8157,18 +8145,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="92" t="s">
+      <c r="A125" s="85" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="92"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="92"/>
-      <c r="F125" s="92"/>
-      <c r="G125" s="92"/>
-      <c r="H125" s="92"/>
-      <c r="I125" s="92"/>
-      <c r="J125" s="92"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8493,18 +8481,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="92" t="s">
+      <c r="A133" s="85" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="92"/>
-      <c r="C133" s="92"/>
-      <c r="D133" s="93"/>
-      <c r="E133" s="93"/>
-      <c r="F133" s="93"/>
-      <c r="G133" s="93"/>
-      <c r="H133" s="93"/>
-      <c r="I133" s="93"/>
-      <c r="J133" s="93"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="86"/>
+      <c r="H133" s="86"/>
+      <c r="I133" s="86"/>
+      <c r="J133" s="86"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8999,18 +8987,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="97" t="s">
+      <c r="A145" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="98"/>
-      <c r="C145" s="98"/>
-      <c r="D145" s="98"/>
-      <c r="E145" s="98"/>
-      <c r="F145" s="98"/>
-      <c r="G145" s="98"/>
-      <c r="H145" s="98"/>
-      <c r="I145" s="98"/>
-      <c r="J145" s="99"/>
+      <c r="B145" s="91"/>
+      <c r="C145" s="91"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="91"/>
+      <c r="F145" s="91"/>
+      <c r="G145" s="91"/>
+      <c r="H145" s="91"/>
+      <c r="I145" s="91"/>
+      <c r="J145" s="92"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9457,18 +9445,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="92" t="s">
+      <c r="A156" s="85" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="92"/>
-      <c r="C156" s="92"/>
-      <c r="D156" s="92"/>
-      <c r="E156" s="92"/>
-      <c r="F156" s="92"/>
-      <c r="G156" s="92"/>
-      <c r="H156" s="92"/>
-      <c r="I156" s="92"/>
-      <c r="J156" s="92"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9535,18 +9523,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="92" t="s">
+      <c r="A158" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="92"/>
-      <c r="C158" s="92"/>
-      <c r="D158" s="92"/>
-      <c r="E158" s="92"/>
-      <c r="F158" s="92"/>
-      <c r="G158" s="92"/>
-      <c r="H158" s="92"/>
-      <c r="I158" s="92"/>
-      <c r="J158" s="92"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10285,18 +10273,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="92" t="s">
+      <c r="A177" s="85" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="92"/>
-      <c r="C177" s="92"/>
-      <c r="D177" s="84"/>
-      <c r="E177" s="92"/>
-      <c r="F177" s="92"/>
-      <c r="G177" s="92"/>
-      <c r="H177" s="92"/>
-      <c r="I177" s="92"/>
-      <c r="J177" s="92"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="85"/>
+      <c r="D177" s="83"/>
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="85"/>
+      <c r="I177" s="85"/>
+      <c r="J177" s="85"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -10587,18 +10575,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="94" t="s">
+      <c r="A187" s="87" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="95"/>
-      <c r="C187" s="95"/>
-      <c r="D187" s="95"/>
-      <c r="E187" s="95"/>
-      <c r="F187" s="95"/>
-      <c r="G187" s="95"/>
-      <c r="H187" s="95"/>
-      <c r="I187" s="95"/>
-      <c r="J187" s="96"/>
+      <c r="B187" s="88"/>
+      <c r="C187" s="88"/>
+      <c r="D187" s="88"/>
+      <c r="E187" s="88"/>
+      <c r="F187" s="88"/>
+      <c r="G187" s="88"/>
+      <c r="H187" s="88"/>
+      <c r="I187" s="88"/>
+      <c r="J187" s="89"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10768,16 +10756,16 @@
         <v>10</v>
       </c>
       <c r="C193" s="74" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
       <c r="D193" s="78" t="s">
-        <v>883</v>
+        <v>861</v>
       </c>
       <c r="E193" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F193" s="70" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="G193" s="69" t="s">
         <v>11</v>
@@ -10800,16 +10788,16 @@
         <v>10</v>
       </c>
       <c r="C194" s="74" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="D194" s="78" t="s">
-        <v>885</v>
+        <v>863</v>
       </c>
       <c r="E194" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F194" s="70" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
       <c r="G194" s="69" t="s">
         <v>11</v>
@@ -10825,18 +10813,18 @@
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A195" s="84" t="s">
+      <c r="A195" s="83" t="s">
         <v>638</v>
       </c>
-      <c r="B195" s="84"/>
-      <c r="C195" s="84"/>
-      <c r="D195" s="84"/>
-      <c r="E195" s="84"/>
-      <c r="F195" s="84"/>
-      <c r="G195" s="84"/>
-      <c r="H195" s="84"/>
-      <c r="I195" s="84"/>
-      <c r="J195" s="84"/>
+      <c r="B195" s="83"/>
+      <c r="C195" s="83"/>
+      <c r="D195" s="83"/>
+      <c r="E195" s="83"/>
+      <c r="F195" s="83"/>
+      <c r="G195" s="83"/>
+      <c r="H195" s="83"/>
+      <c r="I195" s="83"/>
+      <c r="J195" s="83"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="48">
@@ -10967,18 +10955,18 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="84" t="s">
+      <c r="A200" s="83" t="s">
         <v>651</v>
       </c>
-      <c r="B200" s="84"/>
-      <c r="C200" s="84"/>
-      <c r="D200" s="84"/>
-      <c r="E200" s="84"/>
-      <c r="F200" s="84"/>
-      <c r="G200" s="84"/>
-      <c r="H200" s="84"/>
-      <c r="I200" s="84"/>
-      <c r="J200" s="84"/>
+      <c r="B200" s="83"/>
+      <c r="C200" s="83"/>
+      <c r="D200" s="83"/>
+      <c r="E200" s="83"/>
+      <c r="F200" s="83"/>
+      <c r="G200" s="83"/>
+      <c r="H200" s="83"/>
+      <c r="I200" s="83"/>
+      <c r="J200" s="83"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
@@ -11013,18 +11001,18 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" s="84" t="s">
+      <c r="A202" s="83" t="s">
         <v>657</v>
       </c>
-      <c r="B202" s="84"/>
-      <c r="C202" s="84"/>
-      <c r="D202" s="84"/>
-      <c r="E202" s="84"/>
-      <c r="F202" s="84"/>
-      <c r="G202" s="84"/>
-      <c r="H202" s="84"/>
-      <c r="I202" s="84"/>
-      <c r="J202" s="84"/>
+      <c r="B202" s="83"/>
+      <c r="C202" s="83"/>
+      <c r="D202" s="83"/>
+      <c r="E202" s="83"/>
+      <c r="F202" s="83"/>
+      <c r="G202" s="83"/>
+      <c r="H202" s="83"/>
+      <c r="I202" s="83"/>
+      <c r="J202" s="83"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="48">
@@ -11251,18 +11239,18 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="84" t="s">
+      <c r="A210" s="83" t="s">
         <v>733</v>
       </c>
-      <c r="B210" s="84"/>
-      <c r="C210" s="84"/>
-      <c r="D210" s="84"/>
-      <c r="E210" s="84"/>
-      <c r="F210" s="84"/>
-      <c r="G210" s="84"/>
-      <c r="H210" s="84"/>
-      <c r="I210" s="84"/>
-      <c r="J210" s="84"/>
+      <c r="B210" s="83"/>
+      <c r="C210" s="83"/>
+      <c r="D210" s="83"/>
+      <c r="E210" s="83"/>
+      <c r="F210" s="83"/>
+      <c r="G210" s="83"/>
+      <c r="H210" s="83"/>
+      <c r="I210" s="83"/>
+      <c r="J210" s="83"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
@@ -11297,18 +11285,18 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A212" s="84" t="s">
+      <c r="A212" s="83" t="s">
         <v>736</v>
       </c>
-      <c r="B212" s="84"/>
-      <c r="C212" s="84"/>
-      <c r="D212" s="84"/>
-      <c r="E212" s="84"/>
-      <c r="F212" s="84"/>
-      <c r="G212" s="84"/>
-      <c r="H212" s="84"/>
-      <c r="I212" s="84"/>
-      <c r="J212" s="84"/>
+      <c r="B212" s="83"/>
+      <c r="C212" s="83"/>
+      <c r="D212" s="83"/>
+      <c r="E212" s="83"/>
+      <c r="F212" s="83"/>
+      <c r="G212" s="83"/>
+      <c r="H212" s="83"/>
+      <c r="I212" s="83"/>
+      <c r="J212" s="83"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="48">
@@ -11414,16 +11402,16 @@
         <v>10</v>
       </c>
       <c r="C216" s="79" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="D216" s="78" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="E216" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F216" s="79" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="G216" s="48" t="s">
         <v>11</v>
@@ -11446,16 +11434,16 @@
         <v>10</v>
       </c>
       <c r="C217" s="79" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D217" s="78" t="s">
-        <v>898</v>
+        <v>876</v>
       </c>
       <c r="E217" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F217" s="79" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="G217" s="48" t="s">
         <v>11</v>
@@ -11471,18 +11459,18 @@
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="84" t="s">
+      <c r="A218" s="83" t="s">
         <v>746</v>
       </c>
-      <c r="B218" s="84"/>
-      <c r="C218" s="84"/>
-      <c r="D218" s="84"/>
-      <c r="E218" s="84"/>
-      <c r="F218" s="84"/>
-      <c r="G218" s="84"/>
-      <c r="H218" s="84"/>
-      <c r="I218" s="84"/>
-      <c r="J218" s="84"/>
+      <c r="B218" s="83"/>
+      <c r="C218" s="83"/>
+      <c r="D218" s="83"/>
+      <c r="E218" s="83"/>
+      <c r="F218" s="83"/>
+      <c r="G218" s="83"/>
+      <c r="H218" s="83"/>
+      <c r="I218" s="83"/>
+      <c r="J218" s="83"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="48">
@@ -11837,18 +11825,18 @@
       </c>
     </row>
     <row r="230" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="84" t="s">
+      <c r="A230" s="83" t="s">
         <v>783</v>
       </c>
-      <c r="B230" s="84"/>
-      <c r="C230" s="84"/>
-      <c r="D230" s="84"/>
-      <c r="E230" s="84"/>
-      <c r="F230" s="84"/>
-      <c r="G230" s="84"/>
-      <c r="H230" s="84"/>
-      <c r="I230" s="84"/>
-      <c r="J230" s="84"/>
+      <c r="B230" s="83"/>
+      <c r="C230" s="83"/>
+      <c r="D230" s="83"/>
+      <c r="E230" s="83"/>
+      <c r="F230" s="83"/>
+      <c r="G230" s="83"/>
+      <c r="H230" s="83"/>
+      <c r="I230" s="83"/>
+      <c r="J230" s="83"/>
     </row>
     <row r="231" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="48">
@@ -11883,18 +11871,18 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" s="84" t="s">
+      <c r="A232" s="83" t="s">
         <v>796</v>
       </c>
-      <c r="B232" s="84"/>
-      <c r="C232" s="84"/>
-      <c r="D232" s="84"/>
-      <c r="E232" s="84"/>
-      <c r="F232" s="84"/>
-      <c r="G232" s="84"/>
-      <c r="H232" s="84"/>
-      <c r="I232" s="84"/>
-      <c r="J232" s="84"/>
+      <c r="B232" s="83"/>
+      <c r="C232" s="83"/>
+      <c r="D232" s="83"/>
+      <c r="E232" s="83"/>
+      <c r="F232" s="83"/>
+      <c r="G232" s="83"/>
+      <c r="H232" s="83"/>
+      <c r="I232" s="83"/>
+      <c r="J232" s="83"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="48">
@@ -12281,18 +12269,18 @@
       </c>
     </row>
     <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="84" t="s">
-        <v>863</v>
-      </c>
-      <c r="B245" s="84"/>
-      <c r="C245" s="84"/>
-      <c r="D245" s="84"/>
-      <c r="E245" s="84"/>
-      <c r="F245" s="84"/>
-      <c r="G245" s="84"/>
-      <c r="H245" s="84"/>
-      <c r="I245" s="84"/>
-      <c r="J245" s="84"/>
+      <c r="A245" s="83" t="s">
+        <v>842</v>
+      </c>
+      <c r="B245" s="83"/>
+      <c r="C245" s="83"/>
+      <c r="D245" s="83"/>
+      <c r="E245" s="83"/>
+      <c r="F245" s="83"/>
+      <c r="G245" s="83"/>
+      <c r="H245" s="83"/>
+      <c r="I245" s="83"/>
+      <c r="J245" s="83"/>
     </row>
     <row r="246" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="48">
@@ -12302,16 +12290,16 @@
         <v>10</v>
       </c>
       <c r="C246" s="79" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="D246" s="78" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="E246" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F246" s="70" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="G246" s="48" t="s">
         <v>11</v>
@@ -12327,18 +12315,18 @@
       </c>
     </row>
     <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="84" t="s">
-        <v>866</v>
-      </c>
-      <c r="B247" s="84"/>
-      <c r="C247" s="84"/>
-      <c r="D247" s="84"/>
-      <c r="E247" s="84"/>
-      <c r="F247" s="84"/>
-      <c r="G247" s="84"/>
-      <c r="H247" s="84"/>
-      <c r="I247" s="84"/>
-      <c r="J247" s="84"/>
+      <c r="A247" s="83" t="s">
+        <v>845</v>
+      </c>
+      <c r="B247" s="83"/>
+      <c r="C247" s="83"/>
+      <c r="D247" s="83"/>
+      <c r="E247" s="83"/>
+      <c r="F247" s="83"/>
+      <c r="G247" s="83"/>
+      <c r="H247" s="83"/>
+      <c r="I247" s="83"/>
+      <c r="J247" s="83"/>
     </row>
     <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="48">
@@ -12348,22 +12336,22 @@
         <v>10</v>
       </c>
       <c r="C248" s="79" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="D248" s="78" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="E248" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F248" s="70" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="G248" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H248" s="48" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="I248" s="48" t="s">
         <v>12</v>
@@ -12380,22 +12368,22 @@
         <v>10</v>
       </c>
       <c r="C249" s="79" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="D249" s="78" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="E249" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F249" s="70" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="G249" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H249" s="48" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="I249" s="48" t="s">
         <v>12</v>
@@ -12412,22 +12400,22 @@
         <v>10</v>
       </c>
       <c r="C250" s="79" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="D250" s="78" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="E250" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F250" s="70" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="G250" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H250" s="48" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="I250" s="48" t="s">
         <v>12</v>
@@ -12444,22 +12432,22 @@
         <v>10</v>
       </c>
       <c r="C251" s="79" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
       <c r="D251" s="78" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="E251" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F251" s="70" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
       <c r="G251" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H251" s="48" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="I251" s="48" t="s">
         <v>12</v>
@@ -12476,22 +12464,22 @@
         <v>10</v>
       </c>
       <c r="C252" s="79" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="D252" s="78" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="E252" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F252" s="70" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="G252" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H252" s="48" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="I252" s="48" t="s">
         <v>12</v>
@@ -12502,6 +12490,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A212:J212"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="A202:J202"/>
+    <mergeCell ref="A218:J218"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A247:J247"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
@@ -12518,15 +12515,6 @@
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
     <mergeCell ref="A230:J230"/>
-    <mergeCell ref="A212:J212"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="A202:J202"/>
-    <mergeCell ref="A218:J218"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -12624,10 +12612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AE237"/>
+  <dimension ref="A1:AF237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N193" workbookViewId="0">
-      <selection activeCell="T207" sqref="T207"/>
+    <sheetView tabSelected="1" topLeftCell="X223" workbookViewId="0">
+      <selection activeCell="AC236" sqref="AC236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27000,7 +26988,7 @@
         <v>22</v>
       </c>
       <c r="S174" s="49" t="s">
-        <v>841</v>
+        <v>877</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -27092,7 +27080,7 @@
         <v>22</v>
       </c>
       <c r="S175" s="49" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
@@ -27184,7 +27172,7 @@
         <v>22</v>
       </c>
       <c r="S176" s="49" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
@@ -27220,7 +27208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="70" t="s">
         <v>607</v>
       </c>
@@ -27276,7 +27264,7 @@
         <v>22</v>
       </c>
       <c r="S177" s="49" t="s">
-        <v>841</v>
+        <v>877</v>
       </c>
       <c r="T177" s="48" t="s">
         <v>22</v>
@@ -27312,7 +27300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="70" t="s">
         <v>609</v>
       </c>
@@ -27368,7 +27356,7 @@
         <v>22</v>
       </c>
       <c r="S178" s="49" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="T178" s="48" t="s">
         <v>22</v>
@@ -27404,7 +27392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="70" t="s">
         <v>610</v>
       </c>
@@ -27460,7 +27448,7 @@
         <v>22</v>
       </c>
       <c r="S179" s="49" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="T179" s="48" t="s">
         <v>22</v>
@@ -27496,7 +27484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="70" t="s">
         <v>611</v>
       </c>
@@ -27552,7 +27540,7 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
-        <v>843</v>
+        <v>879</v>
       </c>
       <c r="T180" s="48" t="s">
         <v>22</v>
@@ -27588,7 +27576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="70" t="s">
         <v>615</v>
       </c>
@@ -27644,7 +27632,7 @@
         <v>22</v>
       </c>
       <c r="S181" s="49" t="s">
-        <v>844</v>
+        <v>880</v>
       </c>
       <c r="T181" s="48" t="s">
         <v>22</v>
@@ -27680,7 +27668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="70" t="s">
         <v>614</v>
       </c>
@@ -27736,7 +27724,7 @@
         <v>22</v>
       </c>
       <c r="S182" s="49" t="s">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="T182" s="48" t="s">
         <v>22</v>
@@ -27772,7 +27760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="70" t="s">
         <v>619</v>
       </c>
@@ -27828,7 +27816,7 @@
         <v>22</v>
       </c>
       <c r="S183" s="49" t="s">
-        <v>844</v>
+        <v>880</v>
       </c>
       <c r="T183" s="48" t="s">
         <v>22</v>
@@ -27860,14 +27848,14 @@
       <c r="AC183" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD183" s="48" t="s">
+      <c r="AD183" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="AF183" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="AE183" s="81" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="184" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="70" t="s">
         <v>623</v>
       </c>
@@ -27923,7 +27911,7 @@
         <v>22</v>
       </c>
       <c r="S184" s="49" t="s">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="T184" s="48" t="s">
         <v>22</v>
@@ -27955,14 +27943,14 @@
       <c r="AC184" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD184" s="48" t="s">
+      <c r="AD184" s="81" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF184" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="AE184" s="81" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="185" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="70" t="s">
         <v>629</v>
       </c>
@@ -28050,14 +28038,14 @@
       <c r="AC185" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD185" s="48" t="s">
+      <c r="AD185" s="82" t="s">
+        <v>839</v>
+      </c>
+      <c r="AF185" s="48" t="s">
         <v>641</v>
       </c>
-      <c r="AE185" s="82" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="186" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="70" t="s">
         <v>630</v>
       </c>
@@ -28152,7 +28140,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="70" t="s">
         <v>636</v>
       </c>
@@ -28244,9 +28232,9 @@
         <v>637</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="70" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="B188" s="48" t="s">
         <v>22</v>
@@ -28333,12 +28321,12 @@
         <v>22</v>
       </c>
       <c r="AD188" s="78" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="189" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="70" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
       <c r="B189" s="48" t="s">
         <v>22</v>
@@ -28425,10 +28413,10 @@
         <v>22</v>
       </c>
       <c r="AD189" s="78" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="190" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="190" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="70" t="s">
         <v>640</v>
       </c>
@@ -28520,7 +28508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="70" t="s">
         <v>642</v>
       </c>
@@ -28612,7 +28600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="70" t="s">
         <v>648</v>
       </c>
@@ -28852,7 +28840,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -28944,7 +28932,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>844</v>
+        <v>880</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -29036,7 +29024,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -29128,7 +29116,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>846</v>
+        <v>882</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -29220,7 +29208,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -29312,7 +29300,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>847</v>
+        <v>883</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -29404,7 +29392,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>848</v>
+        <v>884</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -29496,7 +29484,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>849</v>
+        <v>885</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -29588,7 +29576,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -29680,7 +29668,7 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="T203" s="48" t="s">
         <v>22</v>
@@ -29772,7 +29760,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29864,7 +29852,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -29902,7 +29890,7 @@
     </row>
     <row r="206" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="70" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="B206" s="48" t="s">
         <v>22</v>
@@ -29956,10 +29944,10 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="T206" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="U206" s="48" t="s">
         <v>22</v>
@@ -29994,7 +29982,7 @@
     </row>
     <row r="207" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="70" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="B207" s="48" t="s">
         <v>22</v>
@@ -30048,10 +30036,10 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="T207" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="U207" s="48" t="s">
         <v>22</v>
@@ -30140,7 +30128,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -30232,7 +30220,7 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="T209" s="48" t="s">
         <v>22</v>
@@ -30324,7 +30312,7 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="T210" s="48" t="s">
         <v>22</v>
@@ -30416,7 +30404,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>854</v>
+        <v>890</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30508,7 +30496,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>855</v>
+        <v>891</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30600,7 +30588,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>856</v>
+        <v>892</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30692,7 +30680,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>857</v>
+        <v>893</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30784,7 +30772,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>858</v>
+        <v>894</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30876,7 +30864,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>859</v>
+        <v>895</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -30968,7 +30956,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>860</v>
+        <v>896</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -31060,7 +31048,7 @@
         <v>22</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>861</v>
+        <v>897</v>
       </c>
       <c r="T218" s="48" t="s">
         <v>22</v>
@@ -31152,7 +31140,7 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="T219" s="48" t="s">
         <v>22</v>
@@ -31188,7 +31176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="70" t="s">
         <v>795</v>
       </c>
@@ -31244,7 +31232,7 @@
         <v>22</v>
       </c>
       <c r="S220" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T220" s="48" t="s">
         <v>22</v>
@@ -31273,14 +31261,14 @@
       <c r="AB220" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC220" s="83" t="s">
-        <v>877</v>
+      <c r="AC220" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD220" s="73" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="70" t="s">
         <v>800</v>
       </c>
@@ -31336,7 +31324,7 @@
         <v>22</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>854</v>
+        <v>890</v>
       </c>
       <c r="T221" s="48" t="s">
         <v>22</v>
@@ -31365,8 +31353,8 @@
       <c r="AB221" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC221" s="83" t="s">
-        <v>877</v>
+      <c r="AC221" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD221" s="48" t="s">
         <v>22</v>
@@ -31428,10 +31416,10 @@
         <v>22</v>
       </c>
       <c r="S222" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T222" s="49" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="U222" s="48" t="s">
         <v>22</v>
@@ -31457,8 +31445,8 @@
       <c r="AB222" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC222" s="83" t="s">
-        <v>877</v>
+      <c r="AC222" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD222" s="48" t="s">
         <v>22</v>
@@ -31520,10 +31508,10 @@
         <v>22</v>
       </c>
       <c r="S223" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T223" s="49" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="U223" s="48" t="s">
         <v>22</v>
@@ -31549,14 +31537,14 @@
       <c r="AB223" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC223" s="83" t="s">
-        <v>877</v>
+      <c r="AC223" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD223" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="70" t="s">
         <v>809</v>
       </c>
@@ -31612,7 +31600,7 @@
         <v>22</v>
       </c>
       <c r="S224" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T224" s="48" t="s">
         <v>22</v>
@@ -31641,14 +31629,14 @@
       <c r="AB224" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC224" s="83" t="s">
-        <v>877</v>
+      <c r="AC224" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD224" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="70" t="s">
         <v>814</v>
       </c>
@@ -31704,7 +31692,7 @@
         <v>22</v>
       </c>
       <c r="S225" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T225" s="48" t="s">
         <v>22</v>
@@ -31733,8 +31721,8 @@
       <c r="AB225" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC225" s="83" t="s">
-        <v>877</v>
+      <c r="AC225" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD225" s="48" t="s">
         <v>22</v>
@@ -31796,10 +31784,10 @@
         <v>22</v>
       </c>
       <c r="S226" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T226" s="49" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31825,8 +31813,8 @@
       <c r="AB226" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC226" s="83" t="s">
-        <v>877</v>
+      <c r="AC226" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD226" s="73" t="s">
         <v>835</v>
@@ -31888,10 +31876,10 @@
         <v>22</v>
       </c>
       <c r="S227" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T227" s="49" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="U227" s="48" t="s">
         <v>22</v>
@@ -31917,14 +31905,14 @@
       <c r="AB227" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC227" s="83" t="s">
-        <v>877</v>
+      <c r="AC227" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD227" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="70" t="s">
         <v>825</v>
       </c>
@@ -31980,7 +31968,7 @@
         <v>22</v>
       </c>
       <c r="S228" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T228" s="48" t="s">
         <v>22</v>
@@ -32009,8 +31997,8 @@
       <c r="AB228" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC228" s="83" t="s">
-        <v>877</v>
+      <c r="AC228" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD228" s="48" t="s">
         <v>22</v>
@@ -32072,10 +32060,10 @@
         <v>22</v>
       </c>
       <c r="S229" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T229" s="49" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="U229" s="48" t="s">
         <v>22</v>
@@ -32101,8 +32089,8 @@
       <c r="AB229" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC229" s="83" t="s">
-        <v>877</v>
+      <c r="AC229" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD229" s="48" t="s">
         <v>22</v>
@@ -32164,10 +32152,10 @@
         <v>22</v>
       </c>
       <c r="S230" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T230" s="49" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="U230" s="48" t="s">
         <v>22</v>
@@ -32193,8 +32181,8 @@
       <c r="AB230" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC230" s="83" t="s">
-        <v>877</v>
+      <c r="AC230" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD230" s="48" t="s">
         <v>22</v>
@@ -32256,10 +32244,10 @@
         <v>22</v>
       </c>
       <c r="S231" s="49" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="T231" s="49" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="U231" s="48" t="s">
         <v>22</v>
@@ -32285,8 +32273,8 @@
       <c r="AB231" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC231" s="83" t="s">
-        <v>877</v>
+      <c r="AC231" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD231" s="48" t="s">
         <v>22</v>
@@ -32294,7 +32282,7 @@
     </row>
     <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="70" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="B232" s="48" t="s">
         <v>22</v>
@@ -32386,7 +32374,7 @@
     </row>
     <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="70" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="B233" s="48" t="s">
         <v>22</v>
@@ -32478,7 +32466,7 @@
     </row>
     <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="70" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="B234" s="48" t="s">
         <v>22</v>
@@ -32570,7 +32558,7 @@
     </row>
     <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="70" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="B235" s="48" t="s">
         <v>22</v>
@@ -32662,7 +32650,7 @@
     </row>
     <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="70" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
       <c r="B236" s="48" t="s">
         <v>22</v>
@@ -32746,7 +32734,7 @@
         <v>22</v>
       </c>
       <c r="AC236" s="73" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="AD236" s="48" t="s">
         <v>22</v>
@@ -32754,7 +32742,7 @@
     </row>
     <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="70" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="B237" s="48" t="s">
         <v>22</v>
@@ -32838,7 +32826,7 @@
         <v>22</v>
       </c>
       <c r="AC237" s="73" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="AD237" s="48" t="s">
         <v>22</v>
@@ -32970,7 +32958,7 @@
     <hyperlink ref="G172" r:id="rId17" xr:uid="{E0CF340A-567A-4979-87DE-4F467618A03F}"/>
     <hyperlink ref="AC194" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
     <hyperlink ref="S184" r:id="rId19" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
-    <hyperlink ref="S198" r:id="rId20" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
+    <hyperlink ref="S198" r:id="rId20" display="https://qa.adm.testingserver8.com/admin/product" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
     <hyperlink ref="S176" r:id="rId21" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
     <hyperlink ref="S177" r:id="rId22" display="https://opt.adm.testingserver8.com/admin/home-page-banner" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
     <hyperlink ref="S178" r:id="rId23" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
@@ -32980,30 +32968,33 @@
     <hyperlink ref="S181" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
-    <hyperlink ref="S209" r:id="rId30" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S208" r:id="rId31" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
-    <hyperlink ref="S220" r:id="rId32" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
-    <hyperlink ref="S225" r:id="rId33" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
-    <hyperlink ref="S223" r:id="rId34" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
-    <hyperlink ref="S222" r:id="rId35" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
-    <hyperlink ref="S226" r:id="rId36" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
-    <hyperlink ref="T226" r:id="rId37" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
-    <hyperlink ref="S227" r:id="rId38" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T227" r:id="rId39" display="https://console.zlaata.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
-    <hyperlink ref="S228" r:id="rId40" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
-    <hyperlink ref="S229" r:id="rId41" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
-    <hyperlink ref="S230" r:id="rId42" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
-    <hyperlink ref="S231" r:id="rId43" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
-    <hyperlink ref="T229" r:id="rId44" display="https://console.zlaata.com/admin/exchange-order" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
+    <hyperlink ref="S209" r:id="rId30" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S208" r:id="rId31" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="S220" r:id="rId32" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S225" r:id="rId33" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S223" r:id="rId34" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S222" r:id="rId35" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S226" r:id="rId36" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T226" r:id="rId37" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S227" r:id="rId38" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T227" r:id="rId39" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S228" r:id="rId40" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S229" r:id="rId41" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S230" r:id="rId42" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S231" r:id="rId43" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="T229" r:id="rId44" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
     <hyperlink ref="AD226" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
     <hyperlink ref="AC175" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
     <hyperlink ref="AC176" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
     <hyperlink ref="AC179" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
     <hyperlink ref="AC235" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
-    <hyperlink ref="T206" r:id="rId50" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
-    <hyperlink ref="T207" r:id="rId51" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
+    <hyperlink ref="T206" r:id="rId50" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
+    <hyperlink ref="T207" r:id="rId51" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
+    <hyperlink ref="S197" r:id="rId52" display="https://qa.adm.testingserver8.com/admin/product-style" xr:uid="{279698D4-2A41-4BBD-838A-CBE141EE3D50}"/>
+    <hyperlink ref="AC220" r:id="rId53" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{CD96CCCF-BE60-40A1-BA2F-93729430B99A}"/>
+    <hyperlink ref="AC221:AC231" r:id="rId54" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{C68B94AD-4CFE-4AB2-9431-B829C1D5A48C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB76751-0CB2-4B34-BDFD-B911ACE705DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0461D2-5522-4F5E-98CF-3E64BDF617F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -3356,6 +3356,24 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3382,24 +3400,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4205,8 +4205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
   <dimension ref="A1:Z252"/>
   <sheetViews>
-    <sheetView topLeftCell="D212" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView topLeftCell="A199" zoomScale="109" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216:XFD217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4959,18 +4959,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="95"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -5357,18 +5357,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="98"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5915,18 +5915,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="96" t="s">
+      <c r="A55" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="98"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="89"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -6249,18 +6249,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="96" t="s">
+      <c r="A66" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="98"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="89"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6615,18 +6615,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="96" t="s">
+      <c r="A78" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="98"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="89"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7493,18 +7493,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="90" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="84"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
-      <c r="F106" s="84"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="84"/>
-      <c r="I106" s="84"/>
-      <c r="J106" s="84"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="90"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="90"/>
+      <c r="J106" s="90"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -7997,18 +7997,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="85" t="s">
+      <c r="A121" s="91" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="85"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
-      <c r="I121" s="85"/>
-      <c r="J121" s="85"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="91"/>
+      <c r="D121" s="91"/>
+      <c r="E121" s="91"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="91"/>
+      <c r="H121" s="91"/>
+      <c r="I121" s="91"/>
+      <c r="J121" s="91"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -8071,18 +8071,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="85" t="s">
+      <c r="A123" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="85"/>
-      <c r="I123" s="85"/>
-      <c r="J123" s="85"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="91"/>
+      <c r="D123" s="91"/>
+      <c r="E123" s="91"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="91"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="91"/>
+      <c r="J123" s="91"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8145,18 +8145,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="85" t="s">
+      <c r="A125" s="91" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="85"/>
-      <c r="I125" s="85"/>
-      <c r="J125" s="85"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="91"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="91"/>
+      <c r="F125" s="91"/>
+      <c r="G125" s="91"/>
+      <c r="H125" s="91"/>
+      <c r="I125" s="91"/>
+      <c r="J125" s="91"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8481,18 +8481,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="85" t="s">
+      <c r="A133" s="91" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="85"/>
-      <c r="C133" s="85"/>
-      <c r="D133" s="86"/>
-      <c r="E133" s="86"/>
-      <c r="F133" s="86"/>
-      <c r="G133" s="86"/>
-      <c r="H133" s="86"/>
-      <c r="I133" s="86"/>
-      <c r="J133" s="86"/>
+      <c r="B133" s="91"/>
+      <c r="C133" s="91"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="92"/>
+      <c r="F133" s="92"/>
+      <c r="G133" s="92"/>
+      <c r="H133" s="92"/>
+      <c r="I133" s="92"/>
+      <c r="J133" s="92"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8987,18 +8987,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="90" t="s">
+      <c r="A145" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="91"/>
-      <c r="C145" s="91"/>
-      <c r="D145" s="91"/>
-      <c r="E145" s="91"/>
-      <c r="F145" s="91"/>
-      <c r="G145" s="91"/>
-      <c r="H145" s="91"/>
-      <c r="I145" s="91"/>
-      <c r="J145" s="92"/>
+      <c r="B145" s="97"/>
+      <c r="C145" s="97"/>
+      <c r="D145" s="97"/>
+      <c r="E145" s="97"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="97"/>
+      <c r="H145" s="97"/>
+      <c r="I145" s="97"/>
+      <c r="J145" s="98"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9445,18 +9445,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="85" t="s">
+      <c r="A156" s="91" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="85"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="85"/>
-      <c r="I156" s="85"/>
-      <c r="J156" s="85"/>
+      <c r="B156" s="91"/>
+      <c r="C156" s="91"/>
+      <c r="D156" s="91"/>
+      <c r="E156" s="91"/>
+      <c r="F156" s="91"/>
+      <c r="G156" s="91"/>
+      <c r="H156" s="91"/>
+      <c r="I156" s="91"/>
+      <c r="J156" s="91"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9523,18 +9523,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="85" t="s">
+      <c r="A158" s="91" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="85"/>
-      <c r="C158" s="85"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="85"/>
-      <c r="I158" s="85"/>
-      <c r="J158" s="85"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="91"/>
+      <c r="D158" s="91"/>
+      <c r="E158" s="91"/>
+      <c r="F158" s="91"/>
+      <c r="G158" s="91"/>
+      <c r="H158" s="91"/>
+      <c r="I158" s="91"/>
+      <c r="J158" s="91"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10273,18 +10273,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="85" t="s">
+      <c r="A177" s="91" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="85"/>
-      <c r="C177" s="85"/>
+      <c r="B177" s="91"/>
+      <c r="C177" s="91"/>
       <c r="D177" s="83"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="85"/>
-      <c r="G177" s="85"/>
-      <c r="H177" s="85"/>
-      <c r="I177" s="85"/>
-      <c r="J177" s="85"/>
+      <c r="E177" s="91"/>
+      <c r="F177" s="91"/>
+      <c r="G177" s="91"/>
+      <c r="H177" s="91"/>
+      <c r="I177" s="91"/>
+      <c r="J177" s="91"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -10575,18 +10575,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="87" t="s">
+      <c r="A187" s="93" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="88"/>
-      <c r="C187" s="88"/>
-      <c r="D187" s="88"/>
-      <c r="E187" s="88"/>
-      <c r="F187" s="88"/>
-      <c r="G187" s="88"/>
-      <c r="H187" s="88"/>
-      <c r="I187" s="88"/>
-      <c r="J187" s="89"/>
+      <c r="B187" s="94"/>
+      <c r="C187" s="94"/>
+      <c r="D187" s="94"/>
+      <c r="E187" s="94"/>
+      <c r="F187" s="94"/>
+      <c r="G187" s="94"/>
+      <c r="H187" s="94"/>
+      <c r="I187" s="94"/>
+      <c r="J187" s="95"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -11395,61 +11395,43 @@
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="48">
-        <v>4</v>
-      </c>
-      <c r="B216" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C216" s="79" t="s">
-        <v>871</v>
-      </c>
-      <c r="D216" s="78" t="s">
-        <v>872</v>
-      </c>
-      <c r="E216" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F216" s="79" t="s">
-        <v>873</v>
-      </c>
-      <c r="G216" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H216" s="48" t="s">
-        <v>791</v>
-      </c>
-      <c r="I216" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J216" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A216" s="83" t="s">
+        <v>746</v>
+      </c>
+      <c r="B216" s="83"/>
+      <c r="C216" s="83"/>
+      <c r="D216" s="83"/>
+      <c r="E216" s="83"/>
+      <c r="F216" s="83"/>
+      <c r="G216" s="83"/>
+      <c r="H216" s="83"/>
+      <c r="I216" s="83"/>
+      <c r="J216" s="83"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="79" t="s">
-        <v>875</v>
+        <v>747</v>
       </c>
       <c r="D217" s="78" t="s">
-        <v>876</v>
+        <v>748</v>
       </c>
       <c r="E217" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F217" s="79" t="s">
-        <v>874</v>
+        <v>745</v>
       </c>
       <c r="G217" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H217" s="48" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="I217" s="48" t="s">
         <v>12</v>
@@ -11459,37 +11441,55 @@
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="83" t="s">
-        <v>746</v>
-      </c>
-      <c r="B218" s="83"/>
-      <c r="C218" s="83"/>
-      <c r="D218" s="83"/>
-      <c r="E218" s="83"/>
-      <c r="F218" s="83"/>
-      <c r="G218" s="83"/>
-      <c r="H218" s="83"/>
-      <c r="I218" s="83"/>
-      <c r="J218" s="83"/>
+      <c r="A218" s="48">
+        <v>2</v>
+      </c>
+      <c r="B218" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="79" t="s">
+        <v>749</v>
+      </c>
+      <c r="D218" s="78" t="s">
+        <v>750</v>
+      </c>
+      <c r="E218" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="79" t="s">
+        <v>751</v>
+      </c>
+      <c r="G218" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="I218" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J218" s="48" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C219" s="79" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="D219" s="78" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="E219" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F219" s="79" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="G219" s="48" t="s">
         <v>11</v>
@@ -11506,22 +11506,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C220" s="79" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="D220" s="78" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E220" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F220" s="79" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="G220" s="48" t="s">
         <v>11</v>
@@ -11538,22 +11538,22 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C221" s="79" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D221" s="78" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="E221" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F221" s="79" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="G221" s="48" t="s">
         <v>11</v>
@@ -11570,22 +11570,22 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C222" s="79" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D222" s="78" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="E222" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="79" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="G222" s="48" t="s">
         <v>11</v>
@@ -11602,22 +11602,22 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C223" s="79" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="D223" s="78" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E223" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="79" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="G223" s="48" t="s">
         <v>11</v>
@@ -11634,22 +11634,22 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="79" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="D224" s="78" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E224" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F224" s="79" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="G224" s="48" t="s">
         <v>11</v>
@@ -11666,22 +11666,22 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="79" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="D225" s="78" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="E225" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F225" s="79" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="G225" s="48" t="s">
         <v>11</v>
@@ -11698,22 +11698,22 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="79" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D226" s="78" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="E226" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F226" s="79" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="G226" s="48" t="s">
         <v>11</v>
@@ -11730,22 +11730,22 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="48">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C227" s="79" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="D227" s="78" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="E227" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F227" s="79" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="G227" s="48" t="s">
         <v>11</v>
@@ -11760,62 +11760,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" s="48">
-        <v>10</v>
-      </c>
-      <c r="B228" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C228" s="79" t="s">
-        <v>773</v>
-      </c>
-      <c r="D228" s="78" t="s">
-        <v>774</v>
-      </c>
-      <c r="E228" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F228" s="79" t="s">
-        <v>775</v>
-      </c>
-      <c r="G228" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H228" s="48" t="s">
-        <v>792</v>
-      </c>
-      <c r="I228" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J228" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="83" t="s">
+        <v>783</v>
+      </c>
+      <c r="B228" s="83"/>
+      <c r="C228" s="83"/>
+      <c r="D228" s="83"/>
+      <c r="E228" s="83"/>
+      <c r="F228" s="83"/>
+      <c r="G228" s="83"/>
+      <c r="H228" s="83"/>
+      <c r="I228" s="83"/>
+      <c r="J228" s="83"/>
+    </row>
+    <row r="229" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C229" s="79" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="D229" s="78" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="E229" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F229" s="79" t="s">
-        <v>776</v>
+      <c r="F229" s="70" t="s">
+        <v>782</v>
       </c>
       <c r="G229" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H229" s="48" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I229" s="48" t="s">
         <v>12</v>
@@ -11824,9 +11806,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="83" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="B230" s="83"/>
       <c r="C230" s="83"/>
@@ -11838,7 +11820,7 @@
       <c r="I230" s="83"/>
       <c r="J230" s="83"/>
     </row>
-    <row r="231" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="48">
         <v>1</v>
       </c>
@@ -11846,22 +11828,22 @@
         <v>10</v>
       </c>
       <c r="C231" s="79" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D231" s="78" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="E231" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F231" s="70" t="s">
-        <v>782</v>
+      <c r="F231" s="79" t="s">
+        <v>795</v>
       </c>
       <c r="G231" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H231" s="48" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="I231" s="48" t="s">
         <v>12</v>
@@ -11871,37 +11853,55 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" s="83" t="s">
-        <v>796</v>
-      </c>
-      <c r="B232" s="83"/>
-      <c r="C232" s="83"/>
-      <c r="D232" s="83"/>
-      <c r="E232" s="83"/>
-      <c r="F232" s="83"/>
-      <c r="G232" s="83"/>
-      <c r="H232" s="83"/>
-      <c r="I232" s="83"/>
-      <c r="J232" s="83"/>
+      <c r="A232" s="48">
+        <v>2</v>
+      </c>
+      <c r="B232" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="79" t="s">
+        <v>801</v>
+      </c>
+      <c r="D232" s="78" t="s">
+        <v>802</v>
+      </c>
+      <c r="E232" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" s="79" t="s">
+        <v>800</v>
+      </c>
+      <c r="G232" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="I232" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J232" s="48" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B233" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C233" s="79" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D233" s="78" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="E233" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F233" s="79" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="G233" s="48" t="s">
         <v>11</v>
@@ -11918,22 +11918,22 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B234" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C234" s="79" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="D234" s="78" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E234" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F234" s="79" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="G234" s="48" t="s">
         <v>11</v>
@@ -11950,22 +11950,22 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B235" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C235" s="79" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D235" s="78" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="E235" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F235" s="79" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="G235" s="48" t="s">
         <v>11</v>
@@ -11982,22 +11982,22 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B236" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C236" s="79" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D236" s="78" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="E236" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F236" s="79" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="G236" s="48" t="s">
         <v>11</v>
@@ -12014,22 +12014,22 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B237" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="D237" s="78" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="E237" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F237" s="79" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="G237" s="48" t="s">
         <v>11</v>
@@ -12046,22 +12046,22 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B238" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C238" s="79" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D238" s="78" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="E238" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F238" s="79" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="G238" s="48" t="s">
         <v>11</v>
@@ -12078,22 +12078,22 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B239" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C239" s="79" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="D239" s="78" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="E239" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F239" s="79" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="G239" s="48" t="s">
         <v>11</v>
@@ -12110,22 +12110,22 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B240" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C240" s="79" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="D240" s="78" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="E240" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F240" s="79" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="G240" s="48" t="s">
         <v>11</v>
@@ -12142,22 +12142,22 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="48">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B241" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C241" s="79" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="D241" s="78" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="E241" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F241" s="79" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="G241" s="48" t="s">
         <v>11</v>
@@ -12174,22 +12174,22 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="48">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B242" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C242" s="79" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D242" s="78" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="E242" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F242" s="79" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="G242" s="48" t="s">
         <v>11</v>
@@ -12204,62 +12204,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A243" s="48">
-        <v>11</v>
-      </c>
-      <c r="B243" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C243" s="79" t="s">
-        <v>830</v>
-      </c>
-      <c r="D243" s="78" t="s">
-        <v>831</v>
-      </c>
-      <c r="E243" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F243" s="79" t="s">
-        <v>829</v>
-      </c>
-      <c r="G243" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H243" s="48" t="s">
-        <v>799</v>
-      </c>
-      <c r="I243" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J243" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="83" t="s">
+        <v>842</v>
+      </c>
+      <c r="B243" s="83"/>
+      <c r="C243" s="83"/>
+      <c r="D243" s="83"/>
+      <c r="E243" s="83"/>
+      <c r="F243" s="83"/>
+      <c r="G243" s="83"/>
+      <c r="H243" s="83"/>
+      <c r="I243" s="83"/>
+      <c r="J243" s="83"/>
+    </row>
+    <row r="244" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="48">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B244" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C244" s="79" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="D244" s="78" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="E244" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F244" s="79" t="s">
-        <v>834</v>
+      <c r="F244" s="70" t="s">
+        <v>841</v>
       </c>
       <c r="G244" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H244" s="48" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="I244" s="48" t="s">
         <v>12</v>
@@ -12270,7 +12252,7 @@
     </row>
     <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="83" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B245" s="83"/>
       <c r="C245" s="83"/>
@@ -12290,22 +12272,22 @@
         <v>10</v>
       </c>
       <c r="C246" s="79" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D246" s="78" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E246" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F246" s="70" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="G246" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H246" s="48" t="s">
-        <v>793</v>
+        <v>848</v>
       </c>
       <c r="I246" s="48" t="s">
         <v>12</v>
@@ -12315,37 +12297,55 @@
       </c>
     </row>
     <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="83" t="s">
-        <v>845</v>
-      </c>
-      <c r="B247" s="83"/>
-      <c r="C247" s="83"/>
-      <c r="D247" s="83"/>
-      <c r="E247" s="83"/>
-      <c r="F247" s="83"/>
-      <c r="G247" s="83"/>
-      <c r="H247" s="83"/>
-      <c r="I247" s="83"/>
-      <c r="J247" s="83"/>
+      <c r="A247" s="48">
+        <v>2</v>
+      </c>
+      <c r="B247" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="D247" s="78" t="s">
+        <v>852</v>
+      </c>
+      <c r="E247" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" s="70" t="s">
+        <v>851</v>
+      </c>
+      <c r="G247" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H247" s="48" t="s">
+        <v>848</v>
+      </c>
+      <c r="I247" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J247" s="48" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B248" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C248" s="79" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="D248" s="78" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="E248" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F248" s="70" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="G248" s="48" t="s">
         <v>11</v>
@@ -12362,22 +12362,22 @@
     </row>
     <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B249" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C249" s="79" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="D249" s="78" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="E249" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F249" s="70" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="G249" s="48" t="s">
         <v>11</v>
@@ -12394,22 +12394,22 @@
     </row>
     <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B250" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C250" s="79" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="D250" s="78" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="E250" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F250" s="70" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="G250" s="48" t="s">
         <v>11</v>
@@ -12424,7 +12424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="48">
         <v>4</v>
       </c>
@@ -12432,22 +12432,22 @@
         <v>10</v>
       </c>
       <c r="C251" s="79" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="D251" s="78" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E251" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F251" s="70" t="s">
-        <v>866</v>
+      <c r="F251" s="79" t="s">
+        <v>873</v>
       </c>
       <c r="G251" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H251" s="48" t="s">
-        <v>848</v>
+        <v>791</v>
       </c>
       <c r="I251" s="48" t="s">
         <v>12</v>
@@ -12456,7 +12456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="48">
         <v>5</v>
       </c>
@@ -12464,22 +12464,22 @@
         <v>10</v>
       </c>
       <c r="C252" s="79" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="D252" s="78" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="E252" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F252" s="70" t="s">
-        <v>868</v>
+      <c r="F252" s="79" t="s">
+        <v>874</v>
       </c>
       <c r="G252" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H252" s="48" t="s">
-        <v>848</v>
+        <v>791</v>
       </c>
       <c r="I252" s="48" t="s">
         <v>12</v>
@@ -12490,31 +12490,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A212:J212"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="A202:J202"/>
-    <mergeCell ref="A218:J218"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A247:J247"/>
+    <mergeCell ref="A245:J245"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A200:J200"/>
     <mergeCell ref="A195:J195"/>
-    <mergeCell ref="A245:J245"/>
-    <mergeCell ref="A232:J232"/>
+    <mergeCell ref="A243:J243"/>
+    <mergeCell ref="A230:J230"/>
     <mergeCell ref="A133:J133"/>
     <mergeCell ref="A187:J187"/>
     <mergeCell ref="A145:J145"/>
     <mergeCell ref="A156:J156"/>
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
-    <mergeCell ref="A230:J230"/>
+    <mergeCell ref="A228:J228"/>
+    <mergeCell ref="A212:J212"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="A202:J202"/>
+    <mergeCell ref="A216:J216"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -12614,8 +12614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AF237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X223" workbookViewId="0">
-      <selection activeCell="AC236" sqref="AC236"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206:XFD207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29890,7 +29890,7 @@
     </row>
     <row r="206" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="70" t="s">
-        <v>873</v>
+        <v>745</v>
       </c>
       <c r="B206" s="48" t="s">
         <v>22</v>
@@ -29944,10 +29944,10 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>886</v>
-      </c>
-      <c r="T206" s="49" t="s">
         <v>887</v>
+      </c>
+      <c r="T206" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U206" s="48" t="s">
         <v>22</v>
@@ -29982,7 +29982,7 @@
     </row>
     <row r="207" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="70" t="s">
-        <v>874</v>
+        <v>751</v>
       </c>
       <c r="B207" s="48" t="s">
         <v>22</v>
@@ -30036,10 +30036,10 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>886</v>
-      </c>
-      <c r="T207" s="49" t="s">
-        <v>887</v>
+        <v>888</v>
+      </c>
+      <c r="T207" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U207" s="48" t="s">
         <v>22</v>
@@ -30074,7 +30074,7 @@
     </row>
     <row r="208" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="70" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="B208" s="48" t="s">
         <v>22</v>
@@ -30128,7 +30128,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -30166,7 +30166,7 @@
     </row>
     <row r="209" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="70" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="B209" s="48" t="s">
         <v>22</v>
@@ -30220,7 +30220,7 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="T209" s="48" t="s">
         <v>22</v>
@@ -30258,7 +30258,7 @@
     </row>
     <row r="210" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="70" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="B210" s="48" t="s">
         <v>22</v>
@@ -30312,7 +30312,7 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="T210" s="48" t="s">
         <v>22</v>
@@ -30350,7 +30350,7 @@
     </row>
     <row r="211" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="70" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B211" s="48" t="s">
         <v>22</v>
@@ -30404,7 +30404,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="212" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="70" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="B212" s="48" t="s">
         <v>22</v>
@@ -30496,7 +30496,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30534,7 +30534,7 @@
     </row>
     <row r="213" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="70" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="B213" s="48" t="s">
         <v>22</v>
@@ -30588,7 +30588,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30626,7 +30626,7 @@
     </row>
     <row r="214" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="70" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="B214" s="48" t="s">
         <v>22</v>
@@ -30680,7 +30680,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30718,7 +30718,7 @@
     </row>
     <row r="215" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="70" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B215" s="48" t="s">
         <v>22</v>
@@ -30772,7 +30772,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30810,7 +30810,7 @@
     </row>
     <row r="216" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="70" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B216" s="48" t="s">
         <v>22</v>
@@ -30864,7 +30864,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -30902,7 +30902,7 @@
     </row>
     <row r="217" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="70" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>22</v>
@@ -30956,7 +30956,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>896</v>
+        <v>878</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -30994,7 +30994,7 @@
     </row>
     <row r="218" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="70" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="B218" s="48" t="s">
         <v>22</v>
@@ -31048,7 +31048,7 @@
         <v>22</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="T218" s="48" t="s">
         <v>22</v>
@@ -31077,16 +31077,16 @@
       <c r="AB218" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD218" s="48" t="s">
-        <v>22</v>
+      <c r="AC218" s="73" t="s">
+        <v>835</v>
+      </c>
+      <c r="AD218" s="73" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="219" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="70" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>22</v>
@@ -31140,7 +31140,7 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="T219" s="48" t="s">
         <v>22</v>
@@ -31169,16 +31169,16 @@
       <c r="AB219" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC219" s="48" t="s">
-        <v>22</v>
+      <c r="AC219" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD219" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:30" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="70" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>22</v>
@@ -31234,8 +31234,8 @@
       <c r="S220" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T220" s="48" t="s">
-        <v>22</v>
+      <c r="T220" s="49" t="s">
+        <v>889</v>
       </c>
       <c r="U220" s="48" t="s">
         <v>22</v>
@@ -31264,13 +31264,13 @@
       <c r="AC220" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD220" s="73" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="221" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD220" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="70" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>22</v>
@@ -31324,10 +31324,10 @@
         <v>22</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>890</v>
-      </c>
-      <c r="T221" s="48" t="s">
-        <v>22</v>
+        <v>887</v>
+      </c>
+      <c r="T221" s="49" t="s">
+        <v>888</v>
       </c>
       <c r="U221" s="48" t="s">
         <v>22</v>
@@ -31360,9 +31360,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="70" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>22</v>
@@ -31418,8 +31418,8 @@
       <c r="S222" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T222" s="49" t="s">
-        <v>889</v>
+      <c r="T222" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U222" s="48" t="s">
         <v>22</v>
@@ -31452,9 +31452,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="70" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>22</v>
@@ -31510,8 +31510,8 @@
       <c r="S223" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T223" s="49" t="s">
-        <v>888</v>
+      <c r="T223" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U223" s="48" t="s">
         <v>22</v>
@@ -31544,9 +31544,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="70" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>22</v>
@@ -31602,8 +31602,8 @@
       <c r="S224" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T224" s="48" t="s">
-        <v>22</v>
+      <c r="T224" s="49" t="s">
+        <v>888</v>
       </c>
       <c r="U224" s="48" t="s">
         <v>22</v>
@@ -31632,13 +31632,13 @@
       <c r="AC224" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD224" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="225" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD224" s="73" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="70" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>22</v>
@@ -31694,8 +31694,8 @@
       <c r="S225" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T225" s="48" t="s">
-        <v>22</v>
+      <c r="T225" s="49" t="s">
+        <v>888</v>
       </c>
       <c r="U225" s="48" t="s">
         <v>22</v>
@@ -31728,9 +31728,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="70" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>22</v>
@@ -31786,8 +31786,8 @@
       <c r="S226" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T226" s="49" t="s">
-        <v>888</v>
+      <c r="T226" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31816,13 +31816,13 @@
       <c r="AC226" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD226" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="227" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD226" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="70" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>22</v>
@@ -31879,7 +31879,7 @@
         <v>887</v>
       </c>
       <c r="T227" s="49" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="U227" s="48" t="s">
         <v>22</v>
@@ -31912,9 +31912,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="70" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B228" s="48" t="s">
         <v>22</v>
@@ -31970,8 +31970,8 @@
       <c r="S228" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T228" s="48" t="s">
-        <v>22</v>
+      <c r="T228" s="49" t="s">
+        <v>889</v>
       </c>
       <c r="U228" s="48" t="s">
         <v>22</v>
@@ -32004,9 +32004,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="70" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>22</v>
@@ -32096,9 +32096,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="70" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="B230" s="48" t="s">
         <v>22</v>
@@ -32151,11 +32151,11 @@
       <c r="R230" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S230" s="49" t="s">
-        <v>887</v>
-      </c>
-      <c r="T230" s="49" t="s">
-        <v>889</v>
+      <c r="S230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T230" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U230" s="48" t="s">
         <v>22</v>
@@ -32181,8 +32181,8 @@
       <c r="AB230" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC230" s="73" t="s">
-        <v>835</v>
+      <c r="AC230" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD230" s="48" t="s">
         <v>22</v>
@@ -32190,7 +32190,7 @@
     </row>
     <row r="231" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="70" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="B231" s="48" t="s">
         <v>22</v>
@@ -32243,11 +32243,11 @@
       <c r="R231" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S231" s="49" t="s">
-        <v>887</v>
-      </c>
-      <c r="T231" s="49" t="s">
-        <v>889</v>
+      <c r="S231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T231" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U231" s="48" t="s">
         <v>22</v>
@@ -32273,8 +32273,8 @@
       <c r="AB231" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC231" s="73" t="s">
-        <v>835</v>
+      <c r="AC231" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD231" s="48" t="s">
         <v>22</v>
@@ -32282,7 +32282,7 @@
     </row>
     <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="70" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="B232" s="48" t="s">
         <v>22</v>
@@ -32374,7 +32374,7 @@
     </row>
     <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="70" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B233" s="48" t="s">
         <v>22</v>
@@ -32457,8 +32457,8 @@
       <c r="AB233" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC233" s="48" t="s">
-        <v>22</v>
+      <c r="AC233" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD233" s="48" t="s">
         <v>22</v>
@@ -32466,7 +32466,7 @@
     </row>
     <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="70" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="B234" s="48" t="s">
         <v>22</v>
@@ -32549,8 +32549,8 @@
       <c r="AB234" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC234" s="48" t="s">
-        <v>22</v>
+      <c r="AC234" s="73" t="s">
+        <v>867</v>
       </c>
       <c r="AD234" s="48" t="s">
         <v>22</v>
@@ -32558,7 +32558,7 @@
     </row>
     <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="70" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="B235" s="48" t="s">
         <v>22</v>
@@ -32642,15 +32642,15 @@
         <v>22</v>
       </c>
       <c r="AC235" s="73" t="s">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="AD235" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="70" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="B236" s="48" t="s">
         <v>22</v>
@@ -32703,11 +32703,11 @@
       <c r="R236" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T236" s="48" t="s">
-        <v>22</v>
+      <c r="S236" s="49" t="s">
+        <v>886</v>
+      </c>
+      <c r="T236" s="49" t="s">
+        <v>887</v>
       </c>
       <c r="U236" s="48" t="s">
         <v>22</v>
@@ -32733,16 +32733,16 @@
       <c r="AB236" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC236" s="73" t="s">
-        <v>867</v>
+      <c r="AC236" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD236" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="70" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="B237" s="48" t="s">
         <v>22</v>
@@ -32795,11 +32795,11 @@
       <c r="R237" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T237" s="48" t="s">
-        <v>22</v>
+      <c r="S237" s="49" t="s">
+        <v>886</v>
+      </c>
+      <c r="T237" s="49" t="s">
+        <v>887</v>
       </c>
       <c r="U237" s="48" t="s">
         <v>22</v>
@@ -32825,8 +32825,8 @@
       <c r="AB237" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC237" s="73" t="s">
-        <v>867</v>
+      <c r="AC237" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD237" s="48" t="s">
         <v>22</v>
@@ -32968,31 +32968,31 @@
     <hyperlink ref="S181" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
-    <hyperlink ref="S209" r:id="rId30" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S208" r:id="rId31" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
-    <hyperlink ref="S220" r:id="rId32" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
-    <hyperlink ref="S225" r:id="rId33" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
-    <hyperlink ref="S223" r:id="rId34" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
-    <hyperlink ref="S222" r:id="rId35" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
-    <hyperlink ref="S226" r:id="rId36" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
-    <hyperlink ref="T226" r:id="rId37" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
-    <hyperlink ref="S227" r:id="rId38" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T227" r:id="rId39" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
-    <hyperlink ref="S228" r:id="rId40" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
-    <hyperlink ref="S229" r:id="rId41" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
-    <hyperlink ref="S230" r:id="rId42" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
-    <hyperlink ref="S231" r:id="rId43" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
-    <hyperlink ref="T229" r:id="rId44" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
-    <hyperlink ref="AD226" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
+    <hyperlink ref="S207" r:id="rId30" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S206" r:id="rId31" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="S218" r:id="rId32" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S223" r:id="rId33" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S221" r:id="rId34" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S220" r:id="rId35" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S224" r:id="rId36" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T224" r:id="rId37" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S225" r:id="rId38" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T225" r:id="rId39" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S226" r:id="rId40" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S227" r:id="rId41" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S228" r:id="rId42" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S229" r:id="rId43" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="T227" r:id="rId44" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
+    <hyperlink ref="AD224" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
     <hyperlink ref="AC175" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
     <hyperlink ref="AC176" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
     <hyperlink ref="AC179" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
-    <hyperlink ref="AC235" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
-    <hyperlink ref="T206" r:id="rId50" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
-    <hyperlink ref="T207" r:id="rId51" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
+    <hyperlink ref="AC233" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
+    <hyperlink ref="T236" r:id="rId50" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
+    <hyperlink ref="T237" r:id="rId51" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
     <hyperlink ref="S197" r:id="rId52" display="https://qa.adm.testingserver8.com/admin/product-style" xr:uid="{279698D4-2A41-4BBD-838A-CBE141EE3D50}"/>
-    <hyperlink ref="AC220" r:id="rId53" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{CD96CCCF-BE60-40A1-BA2F-93729430B99A}"/>
-    <hyperlink ref="AC221:AC231" r:id="rId54" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{C68B94AD-4CFE-4AB2-9431-B829C1D5A48C}"/>
+    <hyperlink ref="AC218" r:id="rId53" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{CD96CCCF-BE60-40A1-BA2F-93729430B99A}"/>
+    <hyperlink ref="AC219:AC229" r:id="rId54" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{C68B94AD-4CFE-4AB2-9431-B829C1D5A48C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId55"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith\git\ZlaataQAseverNEW0001\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0461D2-5522-4F5E-98CF-3E64BDF617F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7628A64-68DB-4FEE-B325-54C1195576D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -3356,24 +3356,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3400,6 +3382,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4205,24 +4205,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
   <dimension ref="A1:Z252"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" zoomScale="109" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216:XFD217"/>
+    <sheetView topLeftCell="A236" zoomScale="109" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216:J217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="118.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="118.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>22</v>
       </c>
@@ -4958,21 +4958,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>1</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>2</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>5</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>6</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>7</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>8</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>9</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>11</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -5356,21 +5356,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="87" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="98"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>1</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>2</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>3</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>4</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>6</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>7</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>8</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>9</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>10</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>11</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>12</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>13</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>14</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>15</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>16</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>16</v>
       </c>
@@ -5914,21 +5914,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="87" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="89"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="98"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>1</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>2</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>3</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>4</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>5</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>6</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>7</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>8</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>9</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>10</v>
       </c>
@@ -6248,21 +6248,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="87" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="89"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="98"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>1</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>2</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>3</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>4</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>5</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>6</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>7</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>8</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>9</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>10</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>11</v>
       </c>
@@ -6614,21 +6614,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="87" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="89"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="97"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="98"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>1</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>2</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>3</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
         <v>4</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
         <v>5</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
         <v>6</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
         <v>7</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
         <v>8</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
         <v>9</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
         <v>10</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
         <v>11</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <v>12</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
         <v>13</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
         <v>14</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
         <v>15</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
         <v>16</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="25">
         <v>17</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="25">
         <v>18</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="25">
         <v>19</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="25">
         <v>20</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="25">
         <v>21</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="25">
         <v>22</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="25">
         <v>23</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="25">
         <v>24</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="25">
         <v>25</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="25">
         <v>27</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="25">
         <v>28</v>
       </c>
@@ -7492,21 +7492,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="90" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="90"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
         <v>2</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="25">
         <v>3</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="25">
         <v>5</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="25">
         <v>6</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="25">
         <v>7</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="25">
         <v>8</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25">
         <v>9</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="25">
         <v>10</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="25">
         <v>11</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25">
         <v>12</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="W118" s="58"/>
       <c r="X118" s="58"/>
     </row>
-    <row r="119" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="25">
         <v>13</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="W119" s="58"/>
       <c r="X119" s="58"/>
     </row>
-    <row r="120" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25">
         <v>14</v>
       </c>
@@ -7996,19 +7996,19 @@
       <c r="W120" s="58"/>
       <c r="X120" s="58"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="91" t="s">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="85" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="91"/>
-      <c r="C121" s="91"/>
-      <c r="D121" s="91"/>
-      <c r="E121" s="91"/>
-      <c r="F121" s="91"/>
-      <c r="G121" s="91"/>
-      <c r="H121" s="91"/>
-      <c r="I121" s="91"/>
-      <c r="J121" s="91"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -8024,7 +8024,7 @@
       <c r="W121" s="58"/>
       <c r="X121" s="58"/>
     </row>
-    <row r="122" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25">
         <v>1</v>
       </c>
@@ -8070,19 +8070,19 @@
       <c r="W122" s="58"/>
       <c r="X122" s="58"/>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="91" t="s">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="91"/>
-      <c r="C123" s="91"/>
-      <c r="D123" s="91"/>
-      <c r="E123" s="91"/>
-      <c r="F123" s="91"/>
-      <c r="G123" s="91"/>
-      <c r="H123" s="91"/>
-      <c r="I123" s="91"/>
-      <c r="J123" s="91"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8098,7 +8098,7 @@
       <c r="W123" s="58"/>
       <c r="X123" s="58"/>
     </row>
-    <row r="124" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="25">
         <v>1</v>
       </c>
@@ -8144,21 +8144,21 @@
       <c r="W124" s="58"/>
       <c r="X124" s="58"/>
     </row>
-    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="91" t="s">
+    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="85" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="91"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="91"/>
-      <c r="E125" s="91"/>
-      <c r="F125" s="91"/>
-      <c r="G125" s="91"/>
-      <c r="H125" s="91"/>
-      <c r="I125" s="91"/>
-      <c r="J125" s="91"/>
-    </row>
-    <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
+    </row>
+    <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25">
         <v>1</v>
       </c>
@@ -8204,7 +8204,7 @@
       <c r="W126" s="61"/>
       <c r="X126" s="61"/>
     </row>
-    <row r="127" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25">
         <v>2</v>
       </c>
@@ -8250,7 +8250,7 @@
       <c r="W127" s="58"/>
       <c r="X127" s="58"/>
     </row>
-    <row r="128" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="25">
         <v>3</v>
       </c>
@@ -8296,7 +8296,7 @@
       <c r="W128" s="58"/>
       <c r="X128" s="58"/>
     </row>
-    <row r="129" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25">
         <v>4</v>
       </c>
@@ -8342,7 +8342,7 @@
       <c r="W129" s="58"/>
       <c r="X129" s="58"/>
     </row>
-    <row r="130" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="25">
         <v>5</v>
       </c>
@@ -8388,7 +8388,7 @@
       <c r="W130" s="58"/>
       <c r="X130" s="58"/>
     </row>
-    <row r="131" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="25">
         <v>6</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="W131" s="58"/>
       <c r="X131" s="58"/>
     </row>
-    <row r="132" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="25">
         <v>7</v>
       </c>
@@ -8480,19 +8480,19 @@
       <c r="W132" s="58"/>
       <c r="X132" s="58"/>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="91" t="s">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="85" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="91"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="92"/>
-      <c r="F133" s="92"/>
-      <c r="G133" s="92"/>
-      <c r="H133" s="92"/>
-      <c r="I133" s="92"/>
-      <c r="J133" s="92"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="86"/>
+      <c r="H133" s="86"/>
+      <c r="I133" s="86"/>
+      <c r="J133" s="86"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8508,7 +8508,7 @@
       <c r="W133" s="58"/>
       <c r="X133" s="58"/>
     </row>
-    <row r="134" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="59">
         <v>11</v>
       </c>
@@ -8554,7 +8554,7 @@
       <c r="W134" s="58"/>
       <c r="X134" s="58"/>
     </row>
-    <row r="135" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="26">
         <v>2</v>
       </c>
@@ -8600,7 +8600,7 @@
       <c r="W135" s="58"/>
       <c r="X135" s="58"/>
     </row>
-    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="26">
         <v>3</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="26">
         <v>4</v>
       </c>
@@ -8678,7 +8678,7 @@
       <c r="W137" s="58"/>
       <c r="X137" s="58"/>
     </row>
-    <row r="138" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -8724,7 +8724,7 @@
       <c r="W138" s="58"/>
       <c r="X138" s="58"/>
     </row>
-    <row r="139" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26">
         <v>6</v>
       </c>
@@ -8770,7 +8770,7 @@
       <c r="W139" s="58"/>
       <c r="X139" s="58"/>
     </row>
-    <row r="140" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>7</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>8</v>
       </c>
@@ -8848,7 +8848,7 @@
       <c r="W141" s="58"/>
       <c r="X141" s="58"/>
     </row>
-    <row r="142" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>9</v>
       </c>
@@ -8894,7 +8894,7 @@
       <c r="W142" s="58"/>
       <c r="X142" s="58"/>
     </row>
-    <row r="143" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>10</v>
       </c>
@@ -8940,7 +8940,7 @@
       <c r="W143" s="58"/>
       <c r="X143" s="58"/>
     </row>
-    <row r="144" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="26">
         <v>11</v>
       </c>
@@ -8986,19 +8986,19 @@
       <c r="W144" s="58"/>
       <c r="X144" s="58"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="96" t="s">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="97"/>
-      <c r="C145" s="97"/>
-      <c r="D145" s="97"/>
-      <c r="E145" s="97"/>
-      <c r="F145" s="97"/>
-      <c r="G145" s="97"/>
-      <c r="H145" s="97"/>
-      <c r="I145" s="97"/>
-      <c r="J145" s="98"/>
+      <c r="B145" s="91"/>
+      <c r="C145" s="91"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="91"/>
+      <c r="F145" s="91"/>
+      <c r="G145" s="91"/>
+      <c r="H145" s="91"/>
+      <c r="I145" s="91"/>
+      <c r="J145" s="92"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9014,7 +9014,7 @@
       <c r="W145" s="58"/>
       <c r="X145" s="58"/>
     </row>
-    <row r="146" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="25">
         <v>1</v>
       </c>
@@ -9060,7 +9060,7 @@
       <c r="W146" s="58"/>
       <c r="X146" s="58"/>
     </row>
-    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25">
         <v>2</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="25">
         <v>3</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="25">
         <v>4</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
         <v>5</v>
       </c>
@@ -9204,7 +9204,7 @@
       <c r="Y150" s="58"/>
       <c r="Z150" s="58"/>
     </row>
-    <row r="151" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -9252,7 +9252,7 @@
       <c r="Y151" s="58"/>
       <c r="Z151" s="58"/>
     </row>
-    <row r="152" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
         <v>7</v>
       </c>
@@ -9300,7 +9300,7 @@
       <c r="Y152" s="58"/>
       <c r="Z152" s="58"/>
     </row>
-    <row r="153" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="25">
         <v>8</v>
       </c>
@@ -9348,7 +9348,7 @@
       <c r="Y153" s="58"/>
       <c r="Z153" s="58"/>
     </row>
-    <row r="154" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="25">
         <v>9</v>
       </c>
@@ -9396,7 +9396,7 @@
       <c r="Y154" s="58"/>
       <c r="Z154" s="58"/>
     </row>
-    <row r="155" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="25">
         <v>10</v>
       </c>
@@ -9444,19 +9444,19 @@
       <c r="Y155" s="58"/>
       <c r="Z155" s="58"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="91" t="s">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="85" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="91"/>
-      <c r="C156" s="91"/>
-      <c r="D156" s="91"/>
-      <c r="E156" s="91"/>
-      <c r="F156" s="91"/>
-      <c r="G156" s="91"/>
-      <c r="H156" s="91"/>
-      <c r="I156" s="91"/>
-      <c r="J156" s="91"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9474,7 +9474,7 @@
       <c r="Y156" s="58"/>
       <c r="Z156" s="58"/>
     </row>
-    <row r="157" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="25">
         <v>1</v>
       </c>
@@ -9522,19 +9522,19 @@
       <c r="Y157" s="58"/>
       <c r="Z157" s="58"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="91" t="s">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="91"/>
-      <c r="C158" s="91"/>
-      <c r="D158" s="91"/>
-      <c r="E158" s="91"/>
-      <c r="F158" s="91"/>
-      <c r="G158" s="91"/>
-      <c r="H158" s="91"/>
-      <c r="I158" s="91"/>
-      <c r="J158" s="91"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -9552,7 +9552,7 @@
       <c r="Y158" s="58"/>
       <c r="Z158" s="58"/>
     </row>
-    <row r="159" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="67">
         <v>1</v>
       </c>
@@ -9600,7 +9600,7 @@
       <c r="Y159" s="58"/>
       <c r="Z159" s="58"/>
     </row>
-    <row r="160" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="68">
         <v>2</v>
       </c>
@@ -9648,7 +9648,7 @@
       <c r="Y160" s="58"/>
       <c r="Z160" s="58"/>
     </row>
-    <row r="161" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="68">
         <v>3</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="Y161" s="58"/>
       <c r="Z161" s="58"/>
     </row>
-    <row r="162" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="68">
         <v>4</v>
       </c>
@@ -9744,7 +9744,7 @@
       <c r="Y162" s="58"/>
       <c r="Z162" s="58"/>
     </row>
-    <row r="163" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="68">
         <v>5</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="Y163" s="58"/>
       <c r="Z163" s="58"/>
     </row>
-    <row r="164" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="68">
         <v>6</v>
       </c>
@@ -9840,7 +9840,7 @@
       <c r="Y164" s="58"/>
       <c r="Z164" s="58"/>
     </row>
-    <row r="165" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="68">
         <v>7</v>
       </c>
@@ -9888,7 +9888,7 @@
       <c r="Y165" s="58"/>
       <c r="Z165" s="58"/>
     </row>
-    <row r="166" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="68">
         <v>8</v>
       </c>
@@ -9936,7 +9936,7 @@
       <c r="Y166" s="58"/>
       <c r="Z166" s="58"/>
     </row>
-    <row r="167" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="67">
         <v>9</v>
       </c>
@@ -9984,7 +9984,7 @@
       <c r="Y167" s="58"/>
       <c r="Z167" s="58"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="68">
         <v>10</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="67">
         <v>11</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="68">
         <v>12</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="67">
         <v>13</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="68">
         <v>14</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="67">
         <v>15</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="68">
         <v>16</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="67">
         <v>17</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="68">
         <v>18</v>
       </c>
@@ -10272,21 +10272,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="91" t="s">
+    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="85" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="91"/>
-      <c r="C177" s="91"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="85"/>
       <c r="D177" s="83"/>
-      <c r="E177" s="91"/>
-      <c r="F177" s="91"/>
-      <c r="G177" s="91"/>
-      <c r="H177" s="91"/>
-      <c r="I177" s="91"/>
-      <c r="J177" s="91"/>
-    </row>
-    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="85"/>
+      <c r="I177" s="85"/>
+      <c r="J177" s="85"/>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="68">
         <v>1</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="68">
         <v>2</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="68">
         <v>3</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="68">
         <v>4</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="68">
         <v>5</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="68">
         <v>6</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="68">
         <v>7</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="68">
         <v>8</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="68">
         <v>9</v>
       </c>
@@ -10574,21 +10574,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="93" t="s">
+    <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="87" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="94"/>
-      <c r="C187" s="94"/>
-      <c r="D187" s="94"/>
-      <c r="E187" s="94"/>
-      <c r="F187" s="94"/>
-      <c r="G187" s="94"/>
-      <c r="H187" s="94"/>
-      <c r="I187" s="94"/>
-      <c r="J187" s="95"/>
-    </row>
-    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="88"/>
+      <c r="C187" s="88"/>
+      <c r="D187" s="88"/>
+      <c r="E187" s="88"/>
+      <c r="F187" s="88"/>
+      <c r="G187" s="88"/>
+      <c r="H187" s="88"/>
+      <c r="I187" s="88"/>
+      <c r="J187" s="89"/>
+    </row>
+    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="68">
         <v>1</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="68">
         <v>2</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="68">
         <v>3</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="68">
         <v>4</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="68">
         <v>5</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="68">
         <v>6</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="68">
         <v>7</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="83" t="s">
         <v>638</v>
       </c>
@@ -10826,7 +10826,7 @@
       <c r="I195" s="83"/>
       <c r="J195" s="83"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="48">
         <v>1</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="48">
         <v>2</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="48">
         <v>3</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="48">
         <v>4</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="83" t="s">
         <v>651</v>
       </c>
@@ -10968,7 +10968,7 @@
       <c r="I200" s="83"/>
       <c r="J200" s="83"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="48">
         <v>1</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="83" t="s">
         <v>657</v>
       </c>
@@ -11014,7 +11014,7 @@
       <c r="I202" s="83"/>
       <c r="J202" s="83"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="48">
         <v>1</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="48">
         <v>2</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="48">
         <v>3</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="48">
         <v>4</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="48">
         <v>5</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="48">
         <v>6</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="48">
         <v>7</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="83" t="s">
         <v>733</v>
       </c>
@@ -11252,7 +11252,7 @@
       <c r="I210" s="83"/>
       <c r="J210" s="83"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="48">
         <v>1</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="83" t="s">
         <v>736</v>
       </c>
@@ -11298,7 +11298,7 @@
       <c r="I212" s="83"/>
       <c r="J212" s="83"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="48">
         <v>1</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="48">
         <v>2</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="48">
         <v>3</v>
       </c>
@@ -11394,44 +11394,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="83" t="s">
-        <v>746</v>
-      </c>
-      <c r="B216" s="83"/>
-      <c r="C216" s="83"/>
-      <c r="D216" s="83"/>
-      <c r="E216" s="83"/>
-      <c r="F216" s="83"/>
-      <c r="G216" s="83"/>
-      <c r="H216" s="83"/>
-      <c r="I216" s="83"/>
-      <c r="J216" s="83"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="48">
+        <v>4</v>
+      </c>
+      <c r="B216" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="79" t="s">
+        <v>871</v>
+      </c>
+      <c r="D216" s="78" t="s">
+        <v>872</v>
+      </c>
+      <c r="E216" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" s="79" t="s">
+        <v>873</v>
+      </c>
+      <c r="G216" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="I216" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J216" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="79" t="s">
-        <v>747</v>
+        <v>875</v>
       </c>
       <c r="D217" s="78" t="s">
-        <v>748</v>
+        <v>876</v>
       </c>
       <c r="E217" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F217" s="79" t="s">
-        <v>745</v>
+        <v>874</v>
       </c>
       <c r="G217" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H217" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I217" s="48" t="s">
         <v>12</v>
@@ -11440,56 +11458,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="48">
-        <v>2</v>
-      </c>
-      <c r="B218" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C218" s="79" t="s">
-        <v>749</v>
-      </c>
-      <c r="D218" s="78" t="s">
-        <v>750</v>
-      </c>
-      <c r="E218" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F218" s="79" t="s">
-        <v>751</v>
-      </c>
-      <c r="G218" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H218" s="48" t="s">
-        <v>792</v>
-      </c>
-      <c r="I218" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J218" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="83" t="s">
+        <v>746</v>
+      </c>
+      <c r="B218" s="83"/>
+      <c r="C218" s="83"/>
+      <c r="D218" s="83"/>
+      <c r="E218" s="83"/>
+      <c r="F218" s="83"/>
+      <c r="G218" s="83"/>
+      <c r="H218" s="83"/>
+      <c r="I218" s="83"/>
+      <c r="J218" s="83"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C219" s="79" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D219" s="78" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E219" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F219" s="79" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G219" s="48" t="s">
         <v>11</v>
@@ -11504,24 +11504,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C220" s="79" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D220" s="78" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E220" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F220" s="79" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="G220" s="48" t="s">
         <v>11</v>
@@ -11536,24 +11536,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C221" s="79" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D221" s="78" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E221" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F221" s="79" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G221" s="48" t="s">
         <v>11</v>
@@ -11568,24 +11568,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C222" s="79" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D222" s="78" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E222" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="79" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G222" s="48" t="s">
         <v>11</v>
@@ -11600,24 +11600,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C223" s="79" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D223" s="78" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E223" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="79" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G223" s="48" t="s">
         <v>11</v>
@@ -11632,24 +11632,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="79" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D224" s="78" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E224" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F224" s="79" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="G224" s="48" t="s">
         <v>11</v>
@@ -11664,24 +11664,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="79" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D225" s="78" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E225" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F225" s="79" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G225" s="48" t="s">
         <v>11</v>
@@ -11696,24 +11696,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="79" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D226" s="78" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E226" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F226" s="79" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="G226" s="48" t="s">
         <v>11</v>
@@ -11728,24 +11728,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C227" s="79" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D227" s="78" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E227" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F227" s="79" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G227" s="48" t="s">
         <v>11</v>
@@ -11760,44 +11760,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="83" t="s">
-        <v>783</v>
-      </c>
-      <c r="B228" s="83"/>
-      <c r="C228" s="83"/>
-      <c r="D228" s="83"/>
-      <c r="E228" s="83"/>
-      <c r="F228" s="83"/>
-      <c r="G228" s="83"/>
-      <c r="H228" s="83"/>
-      <c r="I228" s="83"/>
-      <c r="J228" s="83"/>
-    </row>
-    <row r="229" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="48">
+        <v>10</v>
+      </c>
+      <c r="B228" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="79" t="s">
+        <v>773</v>
+      </c>
+      <c r="D228" s="78" t="s">
+        <v>774</v>
+      </c>
+      <c r="E228" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F228" s="79" t="s">
+        <v>775</v>
+      </c>
+      <c r="G228" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="I228" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J228" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C229" s="79" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="D229" s="78" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E229" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F229" s="70" t="s">
-        <v>782</v>
+      <c r="F229" s="79" t="s">
+        <v>776</v>
       </c>
       <c r="G229" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H229" s="48" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I229" s="48" t="s">
         <v>12</v>
@@ -11806,9 +11824,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="83" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="B230" s="83"/>
       <c r="C230" s="83"/>
@@ -11820,7 +11838,7 @@
       <c r="I230" s="83"/>
       <c r="J230" s="83"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="48">
         <v>1</v>
       </c>
@@ -11828,22 +11846,22 @@
         <v>10</v>
       </c>
       <c r="C231" s="79" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D231" s="78" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="E231" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F231" s="79" t="s">
-        <v>795</v>
+      <c r="F231" s="70" t="s">
+        <v>782</v>
       </c>
       <c r="G231" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H231" s="48" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="I231" s="48" t="s">
         <v>12</v>
@@ -11852,56 +11870,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" s="48">
-        <v>2</v>
-      </c>
-      <c r="B232" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C232" s="79" t="s">
-        <v>801</v>
-      </c>
-      <c r="D232" s="78" t="s">
-        <v>802</v>
-      </c>
-      <c r="E232" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F232" s="79" t="s">
-        <v>800</v>
-      </c>
-      <c r="G232" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H232" s="48" t="s">
-        <v>799</v>
-      </c>
-      <c r="I232" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J232" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="83" t="s">
+        <v>796</v>
+      </c>
+      <c r="B232" s="83"/>
+      <c r="C232" s="83"/>
+      <c r="D232" s="83"/>
+      <c r="E232" s="83"/>
+      <c r="F232" s="83"/>
+      <c r="G232" s="83"/>
+      <c r="H232" s="83"/>
+      <c r="I232" s="83"/>
+      <c r="J232" s="83"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B233" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C233" s="79" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D233" s="78" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="E233" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F233" s="79" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="G233" s="48" t="s">
         <v>11</v>
@@ -11916,24 +11916,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B234" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C234" s="79" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D234" s="78" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E234" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F234" s="79" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="G234" s="48" t="s">
         <v>11</v>
@@ -11948,24 +11948,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B235" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C235" s="79" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D235" s="78" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="E235" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F235" s="79" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G235" s="48" t="s">
         <v>11</v>
@@ -11980,24 +11980,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B236" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C236" s="79" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D236" s="78" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="E236" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F236" s="79" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G236" s="48" t="s">
         <v>11</v>
@@ -12012,24 +12012,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B237" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D237" s="78" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E237" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F237" s="79" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G237" s="48" t="s">
         <v>11</v>
@@ -12044,24 +12044,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B238" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C238" s="79" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D238" s="78" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="E238" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F238" s="79" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G238" s="48" t="s">
         <v>11</v>
@@ -12076,24 +12076,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B239" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C239" s="79" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D239" s="78" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E239" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F239" s="79" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="G239" s="48" t="s">
         <v>11</v>
@@ -12108,24 +12108,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B240" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C240" s="79" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D240" s="78" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E240" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F240" s="79" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G240" s="48" t="s">
         <v>11</v>
@@ -12140,24 +12140,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B241" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C241" s="79" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D241" s="78" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="E241" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F241" s="79" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G241" s="48" t="s">
         <v>11</v>
@@ -12172,24 +12172,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B242" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C242" s="79" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D242" s="78" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E242" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F242" s="79" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G242" s="48" t="s">
         <v>11</v>
@@ -12204,44 +12204,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="83" t="s">
-        <v>842</v>
-      </c>
-      <c r="B243" s="83"/>
-      <c r="C243" s="83"/>
-      <c r="D243" s="83"/>
-      <c r="E243" s="83"/>
-      <c r="F243" s="83"/>
-      <c r="G243" s="83"/>
-      <c r="H243" s="83"/>
-      <c r="I243" s="83"/>
-      <c r="J243" s="83"/>
-    </row>
-    <row r="244" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="48">
+        <v>11</v>
+      </c>
+      <c r="B243" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" s="79" t="s">
+        <v>830</v>
+      </c>
+      <c r="D243" s="78" t="s">
+        <v>831</v>
+      </c>
+      <c r="E243" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243" s="79" t="s">
+        <v>829</v>
+      </c>
+      <c r="G243" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H243" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="I243" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J243" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B244" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C244" s="79" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="D244" s="78" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="E244" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F244" s="70" t="s">
-        <v>841</v>
+      <c r="F244" s="79" t="s">
+        <v>834</v>
       </c>
       <c r="G244" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H244" s="48" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="I244" s="48" t="s">
         <v>12</v>
@@ -12250,9 +12268,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="83" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B245" s="83"/>
       <c r="C245" s="83"/>
@@ -12264,7 +12282,7 @@
       <c r="I245" s="83"/>
       <c r="J245" s="83"/>
     </row>
-    <row r="246" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="48">
         <v>1</v>
       </c>
@@ -12272,22 +12290,22 @@
         <v>10</v>
       </c>
       <c r="C246" s="79" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D246" s="78" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E246" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F246" s="70" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="G246" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H246" s="48" t="s">
-        <v>848</v>
+        <v>793</v>
       </c>
       <c r="I246" s="48" t="s">
         <v>12</v>
@@ -12296,56 +12314,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="48">
-        <v>2</v>
-      </c>
-      <c r="B247" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C247" s="79" t="s">
-        <v>850</v>
-      </c>
-      <c r="D247" s="78" t="s">
-        <v>852</v>
-      </c>
-      <c r="E247" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F247" s="70" t="s">
-        <v>851</v>
-      </c>
-      <c r="G247" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H247" s="48" t="s">
-        <v>848</v>
-      </c>
-      <c r="I247" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J247" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="83" t="s">
+        <v>845</v>
+      </c>
+      <c r="B247" s="83"/>
+      <c r="C247" s="83"/>
+      <c r="D247" s="83"/>
+      <c r="E247" s="83"/>
+      <c r="F247" s="83"/>
+      <c r="G247" s="83"/>
+      <c r="H247" s="83"/>
+      <c r="I247" s="83"/>
+      <c r="J247" s="83"/>
+    </row>
+    <row r="248" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B248" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C248" s="79" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="D248" s="78" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E248" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F248" s="70" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="G248" s="48" t="s">
         <v>11</v>
@@ -12360,24 +12360,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B249" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C249" s="79" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="D249" s="78" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="E249" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F249" s="70" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="G249" s="48" t="s">
         <v>11</v>
@@ -12392,24 +12392,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B250" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C250" s="79" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="D250" s="78" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="E250" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F250" s="70" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="G250" s="48" t="s">
         <v>11</v>
@@ -12424,7 +12424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="48">
         <v>4</v>
       </c>
@@ -12432,22 +12432,22 @@
         <v>10</v>
       </c>
       <c r="C251" s="79" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D251" s="78" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E251" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F251" s="79" t="s">
-        <v>873</v>
+      <c r="F251" s="70" t="s">
+        <v>866</v>
       </c>
       <c r="G251" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H251" s="48" t="s">
-        <v>791</v>
+        <v>848</v>
       </c>
       <c r="I251" s="48" t="s">
         <v>12</v>
@@ -12456,7 +12456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="48">
         <v>5</v>
       </c>
@@ -12464,22 +12464,22 @@
         <v>10</v>
       </c>
       <c r="C252" s="79" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D252" s="78" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E252" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F252" s="79" t="s">
-        <v>874</v>
+      <c r="F252" s="70" t="s">
+        <v>868</v>
       </c>
       <c r="G252" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H252" s="48" t="s">
-        <v>791</v>
+        <v>848</v>
       </c>
       <c r="I252" s="48" t="s">
         <v>12</v>
@@ -12490,31 +12490,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A245:J245"/>
+    <mergeCell ref="A212:J212"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="A202:J202"/>
+    <mergeCell ref="A218:J218"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A247:J247"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A200:J200"/>
     <mergeCell ref="A195:J195"/>
-    <mergeCell ref="A243:J243"/>
-    <mergeCell ref="A230:J230"/>
+    <mergeCell ref="A245:J245"/>
+    <mergeCell ref="A232:J232"/>
     <mergeCell ref="A133:J133"/>
     <mergeCell ref="A187:J187"/>
     <mergeCell ref="A145:J145"/>
     <mergeCell ref="A156:J156"/>
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
-    <mergeCell ref="A228:J228"/>
-    <mergeCell ref="A212:J212"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="A202:J202"/>
-    <mergeCell ref="A216:J216"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A230:J230"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -12614,39 +12614,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AF237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206:XFD207"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="12" max="12" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="12" max="12" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52.33203125" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" customWidth="1"/>
+    <col min="17" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="52.28515625" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
     <col min="24" max="25" width="29" customWidth="1"/>
-    <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.44140625" customWidth="1"/>
-    <col min="29" max="29" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" customWidth="1"/>
-    <col min="31" max="31" width="12.21875" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
@@ -12818,7 +12818,7 @@
       <c r="AC2" s="28"/>
       <c r="AD2" s="28"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>25</v>
       </c>
@@ -12898,7 +12898,7 @@
       <c r="AC3" s="28"/>
       <c r="AD3" s="28"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
@@ -12978,7 +12978,7 @@
       <c r="AC4" s="28"/>
       <c r="AD4" s="28"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>58</v>
       </c>
@@ -13058,7 +13058,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>69</v>
       </c>
@@ -13138,7 +13138,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>73</v>
       </c>
@@ -13218,7 +13218,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
     </row>
-    <row r="8" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>77</v>
       </c>
@@ -13298,7 +13298,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>79</v>
       </c>
@@ -13378,7 +13378,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>80</v>
       </c>
@@ -13458,7 +13458,7 @@
       <c r="AC10" s="28"/>
       <c r="AD10" s="28"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>81</v>
       </c>
@@ -13538,7 +13538,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>83</v>
       </c>
@@ -13618,7 +13618,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>84</v>
       </c>
@@ -13698,7 +13698,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>85</v>
       </c>
@@ -13778,7 +13778,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>86</v>
       </c>
@@ -13858,7 +13858,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
@@ -13938,7 +13938,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>88</v>
       </c>
@@ -14018,7 +14018,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>89</v>
       </c>
@@ -14098,7 +14098,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>91</v>
       </c>
@@ -14178,7 +14178,7 @@
       <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>93</v>
       </c>
@@ -14258,7 +14258,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>94</v>
       </c>
@@ -14338,7 +14338,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>135</v>
       </c>
@@ -14418,7 +14418,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>140</v>
       </c>
@@ -14498,7 +14498,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>63</v>
       </c>
@@ -14578,7 +14578,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>144</v>
       </c>
@@ -14658,7 +14658,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>145</v>
       </c>
@@ -14738,7 +14738,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>146</v>
       </c>
@@ -14818,7 +14818,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>147</v>
       </c>
@@ -14898,7 +14898,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>148</v>
       </c>
@@ -14978,7 +14978,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>150</v>
       </c>
@@ -15058,7 +15058,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
         <v>151</v>
       </c>
@@ -15138,7 +15138,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>152</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>153</v>
       </c>
@@ -15298,7 +15298,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>154</v>
       </c>
@@ -15378,7 +15378,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>155</v>
       </c>
@@ -15458,7 +15458,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>64</v>
       </c>
@@ -15538,7 +15538,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
         <v>175</v>
       </c>
@@ -15620,7 +15620,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>179</v>
       </c>
@@ -15702,7 +15702,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>182</v>
       </c>
@@ -15784,7 +15784,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>185</v>
       </c>
@@ -15866,7 +15866,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>188</v>
       </c>
@@ -15948,7 +15948,7 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>190</v>
       </c>
@@ -16030,7 +16030,7 @@
       <c r="AC42" s="28"/>
       <c r="AD42" s="28"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
         <v>193</v>
       </c>
@@ -16112,7 +16112,7 @@
       <c r="AC43" s="28"/>
       <c r="AD43" s="28"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>196</v>
       </c>
@@ -16194,7 +16194,7 @@
       <c r="AC44" s="28"/>
       <c r="AD44" s="28"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
         <v>198</v>
       </c>
@@ -16276,7 +16276,7 @@
       <c r="AC45" s="28"/>
       <c r="AD45" s="28"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
         <v>200</v>
       </c>
@@ -16358,7 +16358,7 @@
       <c r="AC46" s="28"/>
       <c r="AD46" s="28"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>202</v>
       </c>
@@ -16440,7 +16440,7 @@
       <c r="AC47" s="28"/>
       <c r="AD47" s="28"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>204</v>
       </c>
@@ -16522,7 +16522,7 @@
       <c r="AC48" s="28"/>
       <c r="AD48" s="28"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>206</v>
       </c>
@@ -16604,7 +16604,7 @@
       <c r="AC49" s="28"/>
       <c r="AD49" s="28"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>208</v>
       </c>
@@ -16686,7 +16686,7 @@
       <c r="AC50" s="28"/>
       <c r="AD50" s="28"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>210</v>
       </c>
@@ -16768,7 +16768,7 @@
       <c r="AC51" s="28"/>
       <c r="AD51" s="28"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>212</v>
       </c>
@@ -16850,7 +16850,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>687</v>
       </c>
@@ -16932,7 +16932,7 @@
       <c r="AC53" s="28"/>
       <c r="AD53" s="28"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="55" t="s">
         <v>213</v>
       </c>
@@ -17014,7 +17014,7 @@
       <c r="AC54" s="28"/>
       <c r="AD54" s="28"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>214</v>
       </c>
@@ -17096,7 +17096,7 @@
       <c r="AC55" s="28"/>
       <c r="AD55" s="28"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>215</v>
       </c>
@@ -17178,7 +17178,7 @@
       <c r="AC56" s="28"/>
       <c r="AD56" s="28"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>216</v>
       </c>
@@ -17260,7 +17260,7 @@
       <c r="AC57" s="28"/>
       <c r="AD57" s="28"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>217</v>
       </c>
@@ -17342,7 +17342,7 @@
       <c r="AC58" s="28"/>
       <c r="AD58" s="28"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>218</v>
       </c>
@@ -17424,7 +17424,7 @@
       <c r="AC59" s="28"/>
       <c r="AD59" s="28"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>219</v>
       </c>
@@ -17506,7 +17506,7 @@
       <c r="AC60" s="28"/>
       <c r="AD60" s="28"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>220</v>
       </c>
@@ -17588,7 +17588,7 @@
       <c r="AC61" s="28"/>
       <c r="AD61" s="28"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>221</v>
       </c>
@@ -17670,7 +17670,7 @@
       <c r="AC62" s="28"/>
       <c r="AD62" s="28"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
         <v>222</v>
       </c>
@@ -17752,7 +17752,7 @@
       <c r="AC63" s="28"/>
       <c r="AD63" s="28"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
         <v>249</v>
       </c>
@@ -17834,7 +17834,7 @@
       <c r="AC64" s="28"/>
       <c r="AD64" s="28"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>253</v>
       </c>
@@ -17916,7 +17916,7 @@
       <c r="AC65" s="28"/>
       <c r="AD65" s="28"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>256</v>
       </c>
@@ -17998,7 +17998,7 @@
       <c r="AC66" s="28"/>
       <c r="AD66" s="28"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>259</v>
       </c>
@@ -18080,7 +18080,7 @@
       <c r="AC67" s="28"/>
       <c r="AD67" s="28"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>262</v>
       </c>
@@ -18162,7 +18162,7 @@
       <c r="AC68" s="28"/>
       <c r="AD68" s="28"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>265</v>
       </c>
@@ -18244,7 +18244,7 @@
       <c r="AC69" s="28"/>
       <c r="AD69" s="28"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>268</v>
       </c>
@@ -18326,7 +18326,7 @@
       <c r="AC70" s="28"/>
       <c r="AD70" s="28"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>271</v>
       </c>
@@ -18408,7 +18408,7 @@
       <c r="AC71" s="28"/>
       <c r="AD71" s="28"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>274</v>
       </c>
@@ -18490,7 +18490,7 @@
       <c r="AC72" s="28"/>
       <c r="AD72" s="28"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>277</v>
       </c>
@@ -18572,7 +18572,7 @@
       <c r="AC73" s="28"/>
       <c r="AD73" s="28"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="51" t="s">
         <v>280</v>
       </c>
@@ -18656,7 +18656,7 @@
       <c r="AC74" s="28"/>
       <c r="AD74" s="28"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="62" t="s">
         <v>282</v>
       </c>
@@ -18740,7 +18740,7 @@
       <c r="AC75" s="28"/>
       <c r="AD75" s="28"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>285</v>
       </c>
@@ -18824,7 +18824,7 @@
       <c r="AC76" s="28"/>
       <c r="AD76" s="28"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>287</v>
       </c>
@@ -18908,7 +18908,7 @@
       <c r="AC77" s="28"/>
       <c r="AD77" s="28"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>289</v>
       </c>
@@ -18992,7 +18992,7 @@
       <c r="AC78" s="28"/>
       <c r="AD78" s="28"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>292</v>
       </c>
@@ -19076,7 +19076,7 @@
       <c r="AC79" s="28"/>
       <c r="AD79" s="28"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>295</v>
       </c>
@@ -19160,7 +19160,7 @@
       <c r="AC80" s="28"/>
       <c r="AD80" s="28"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>298</v>
       </c>
@@ -19244,7 +19244,7 @@
       <c r="AC81" s="28"/>
       <c r="AD81" s="28"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>301</v>
       </c>
@@ -19328,7 +19328,7 @@
       <c r="AC82" s="28"/>
       <c r="AD82" s="28"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>304</v>
       </c>
@@ -19412,7 +19412,7 @@
       <c r="AC83" s="28"/>
       <c r="AD83" s="28"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>306</v>
       </c>
@@ -19496,7 +19496,7 @@
       <c r="AC84" s="28"/>
       <c r="AD84" s="28"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>308</v>
       </c>
@@ -19580,7 +19580,7 @@
       <c r="AC85" s="28"/>
       <c r="AD85" s="28"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>310</v>
       </c>
@@ -19664,7 +19664,7 @@
       <c r="AC86" s="28"/>
       <c r="AD86" s="28"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>313</v>
       </c>
@@ -19748,7 +19748,7 @@
       <c r="AC87" s="28"/>
       <c r="AD87" s="28"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>316</v>
       </c>
@@ -19832,7 +19832,7 @@
       <c r="AC88" s="28"/>
       <c r="AD88" s="28"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>319</v>
       </c>
@@ -19916,7 +19916,7 @@
       <c r="AC89" s="28"/>
       <c r="AD89" s="28"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>322</v>
       </c>
@@ -20000,7 +20000,7 @@
       <c r="AC90" s="28"/>
       <c r="AD90" s="28"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>324</v>
       </c>
@@ -20084,7 +20084,7 @@
       <c r="AC91" s="28"/>
       <c r="AD91" s="28"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>327</v>
       </c>
@@ -20168,7 +20168,7 @@
       <c r="AC92" s="28"/>
       <c r="AD92" s="28"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>330</v>
       </c>
@@ -20252,7 +20252,7 @@
       <c r="AC93" s="28"/>
       <c r="AD93" s="28"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>332</v>
       </c>
@@ -20336,7 +20336,7 @@
       <c r="AC94" s="28"/>
       <c r="AD94" s="28"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>334</v>
       </c>
@@ -20420,7 +20420,7 @@
       <c r="AC95" s="28"/>
       <c r="AD95" s="28"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>336</v>
       </c>
@@ -20504,7 +20504,7 @@
       <c r="AC96" s="28"/>
       <c r="AD96" s="28"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>338</v>
       </c>
@@ -20588,7 +20588,7 @@
       <c r="AC97" s="28"/>
       <c r="AD97" s="28"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>340</v>
       </c>
@@ -20672,7 +20672,7 @@
       <c r="AC98" s="28"/>
       <c r="AD98" s="28"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>342</v>
       </c>
@@ -20756,7 +20756,7 @@
       <c r="AC99" s="28"/>
       <c r="AD99" s="28"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>344</v>
       </c>
@@ -20840,7 +20840,7 @@
       <c r="AC100" s="28"/>
       <c r="AD100" s="28"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>597</v>
       </c>
@@ -20924,7 +20924,7 @@
       <c r="AC101" s="28"/>
       <c r="AD101" s="28"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>348</v>
       </c>
@@ -21008,7 +21008,7 @@
       <c r="AC102" s="28"/>
       <c r="AD102" s="28"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>352</v>
       </c>
@@ -21092,7 +21092,7 @@
       <c r="AC103" s="28"/>
       <c r="AD103" s="28"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>355</v>
       </c>
@@ -21176,7 +21176,7 @@
       <c r="AC104" s="28"/>
       <c r="AD104" s="28"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>358</v>
       </c>
@@ -21260,7 +21260,7 @@
       <c r="AC105" s="28"/>
       <c r="AD105" s="28"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>361</v>
       </c>
@@ -21344,7 +21344,7 @@
       <c r="AC106" s="28"/>
       <c r="AD106" s="28"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>364</v>
       </c>
@@ -21428,7 +21428,7 @@
       <c r="AC107" s="28"/>
       <c r="AD107" s="28"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>367</v>
       </c>
@@ -21512,7 +21512,7 @@
       <c r="AC108" s="28"/>
       <c r="AD108" s="28"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
         <v>369</v>
       </c>
@@ -21596,7 +21596,7 @@
       <c r="AC109" s="28"/>
       <c r="AD109" s="28"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>371</v>
       </c>
@@ -21680,7 +21680,7 @@
       <c r="AC110" s="28"/>
       <c r="AD110" s="28"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
         <v>598</v>
       </c>
@@ -21764,7 +21764,7 @@
       <c r="AC111" s="28"/>
       <c r="AD111" s="28"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
         <v>690</v>
       </c>
@@ -21848,7 +21848,7 @@
       <c r="AC112" s="28"/>
       <c r="AD112" s="28"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
         <v>693</v>
       </c>
@@ -21932,7 +21932,7 @@
       <c r="AC113" s="28"/>
       <c r="AD113" s="28"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>696</v>
       </c>
@@ -22016,7 +22016,7 @@
       <c r="AC114" s="28"/>
       <c r="AD114" s="28"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>699</v>
       </c>
@@ -22100,7 +22100,7 @@
       <c r="AC115" s="28"/>
       <c r="AD115" s="28"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>378</v>
       </c>
@@ -22184,7 +22184,7 @@
       <c r="AC116" s="28"/>
       <c r="AD116" s="28"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>383</v>
       </c>
@@ -22268,7 +22268,7 @@
       <c r="AC117" s="28"/>
       <c r="AD117" s="28"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>397</v>
       </c>
@@ -22352,7 +22352,7 @@
       <c r="AC118" s="28"/>
       <c r="AD118" s="28"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>399</v>
       </c>
@@ -22436,7 +22436,7 @@
       <c r="AC119" s="28"/>
       <c r="AD119" s="28"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
         <v>400</v>
       </c>
@@ -22520,7 +22520,7 @@
       <c r="AC120" s="28"/>
       <c r="AD120" s="28"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
         <v>401</v>
       </c>
@@ -22604,7 +22604,7 @@
       <c r="AC121" s="28"/>
       <c r="AD121" s="28"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>402</v>
       </c>
@@ -22688,7 +22688,7 @@
       <c r="AC122" s="28"/>
       <c r="AD122" s="28"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
         <v>403</v>
       </c>
@@ -22772,7 +22772,7 @@
       <c r="AC123" s="28"/>
       <c r="AD123" s="28"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>405</v>
       </c>
@@ -22856,7 +22856,7 @@
       <c r="AC124" s="28"/>
       <c r="AD124" s="28"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>407</v>
       </c>
@@ -22940,7 +22940,7 @@
       <c r="AC125" s="28"/>
       <c r="AD125" s="28"/>
     </row>
-    <row r="126" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A126" s="62" t="s">
         <v>413</v>
       </c>
@@ -23024,7 +23024,7 @@
       <c r="AC126" s="28"/>
       <c r="AD126" s="28"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>417</v>
       </c>
@@ -23108,7 +23108,7 @@
       <c r="AC127" s="28"/>
       <c r="AD127" s="28"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
         <v>420</v>
       </c>
@@ -23192,7 +23192,7 @@
       <c r="AC128" s="28"/>
       <c r="AD128" s="28"/>
     </row>
-    <row r="129" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
         <v>422</v>
       </c>
@@ -23276,7 +23276,7 @@
       <c r="AC129" s="28"/>
       <c r="AD129" s="28"/>
     </row>
-    <row r="130" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>424</v>
       </c>
@@ -23360,7 +23360,7 @@
       <c r="AC130" s="28"/>
       <c r="AD130" s="28"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>427</v>
       </c>
@@ -23444,7 +23444,7 @@
       <c r="AC131" s="28"/>
       <c r="AD131" s="28"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>430</v>
       </c>
@@ -23528,7 +23528,7 @@
       <c r="AC132" s="28"/>
       <c r="AD132" s="28"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>433</v>
       </c>
@@ -23612,7 +23612,7 @@
       <c r="AC133" s="28"/>
       <c r="AD133" s="28"/>
     </row>
-    <row r="134" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
         <v>436</v>
       </c>
@@ -23696,7 +23696,7 @@
       <c r="AC134" s="28"/>
       <c r="AD134" s="28"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>438</v>
       </c>
@@ -23780,7 +23780,7 @@
       <c r="AC135" s="28"/>
       <c r="AD135" s="28"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
         <v>703</v>
       </c>
@@ -23864,7 +23864,7 @@
       <c r="AC136" s="28"/>
       <c r="AD136" s="28"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
         <v>397</v>
       </c>
@@ -23948,7 +23948,7 @@
       <c r="AC137" s="28"/>
       <c r="AD137" s="28"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
         <v>399</v>
       </c>
@@ -24032,7 +24032,7 @@
       <c r="AC138" s="28"/>
       <c r="AD138" s="28"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
         <v>400</v>
       </c>
@@ -24116,7 +24116,7 @@
       <c r="AC139" s="28"/>
       <c r="AD139" s="28"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>401</v>
       </c>
@@ -24200,7 +24200,7 @@
       <c r="AC140" s="28"/>
       <c r="AD140" s="28"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
         <v>402</v>
       </c>
@@ -24284,7 +24284,7 @@
       <c r="AC141" s="28"/>
       <c r="AD141" s="28"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>403</v>
       </c>
@@ -24368,7 +24368,7 @@
       <c r="AC142" s="28"/>
       <c r="AD142" s="28"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
         <v>405</v>
       </c>
@@ -24452,7 +24452,7 @@
       <c r="AC143" s="28"/>
       <c r="AD143" s="28"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
         <v>442</v>
       </c>
@@ -24536,7 +24536,7 @@
       <c r="AC144" s="28"/>
       <c r="AD144" s="28"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>446</v>
       </c>
@@ -24620,7 +24620,7 @@
       <c r="AC145" s="28"/>
       <c r="AD145" s="28"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>449</v>
       </c>
@@ -24704,7 +24704,7 @@
       <c r="AC146" s="28"/>
       <c r="AD146" s="28"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>451</v>
       </c>
@@ -24788,7 +24788,7 @@
       <c r="AC147" s="28"/>
       <c r="AD147" s="28"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
         <v>454</v>
       </c>
@@ -24872,7 +24872,7 @@
       <c r="AC148" s="28"/>
       <c r="AD148" s="28"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
         <v>457</v>
       </c>
@@ -24956,7 +24956,7 @@
       <c r="AC149" s="28"/>
       <c r="AD149" s="28"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" s="48" t="s">
         <v>460</v>
       </c>
@@ -25040,7 +25040,7 @@
       <c r="AC150" s="28"/>
       <c r="AD150" s="28"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>463</v>
       </c>
@@ -25124,7 +25124,7 @@
       <c r="AC151" s="28"/>
       <c r="AD151" s="28"/>
     </row>
-    <row r="152" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="48" t="s">
         <v>466</v>
       </c>
@@ -25208,7 +25208,7 @@
       <c r="AC152" s="28"/>
       <c r="AD152" s="28"/>
     </row>
-    <row r="153" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>469</v>
       </c>
@@ -25292,7 +25292,7 @@
       <c r="AC153" s="28"/>
       <c r="AD153" s="28"/>
     </row>
-    <row r="154" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="48" t="s">
         <v>509</v>
       </c>
@@ -25376,7 +25376,7 @@
       <c r="AC154" s="28"/>
       <c r="AD154" s="28"/>
     </row>
-    <row r="155" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="66" t="s">
         <v>539</v>
       </c>
@@ -25460,7 +25460,7 @@
       <c r="AC155" s="28"/>
       <c r="AD155" s="28"/>
     </row>
-    <row r="156" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
         <v>543</v>
       </c>
@@ -25544,7 +25544,7 @@
       <c r="AC156" s="28"/>
       <c r="AD156" s="28"/>
     </row>
-    <row r="157" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="66" t="s">
         <v>546</v>
       </c>
@@ -25628,7 +25628,7 @@
       <c r="AC157" s="28"/>
       <c r="AD157" s="28"/>
     </row>
-    <row r="158" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="70" t="s">
         <v>549</v>
       </c>
@@ -25712,7 +25712,7 @@
       <c r="AC158" s="28"/>
       <c r="AD158" s="28"/>
     </row>
-    <row r="159" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="66" t="s">
         <v>551</v>
       </c>
@@ -25796,7 +25796,7 @@
       <c r="AC159" s="28"/>
       <c r="AD159" s="28"/>
     </row>
-    <row r="160" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="70" t="s">
         <v>553</v>
       </c>
@@ -25880,7 +25880,7 @@
       <c r="AC160" s="28"/>
       <c r="AD160" s="28"/>
     </row>
-    <row r="161" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="66" t="s">
         <v>555</v>
       </c>
@@ -25964,7 +25964,7 @@
       <c r="AC161" s="28"/>
       <c r="AD161" s="28"/>
     </row>
-    <row r="162" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="70" t="s">
         <v>557</v>
       </c>
@@ -26048,7 +26048,7 @@
       <c r="AC162" s="28"/>
       <c r="AD162" s="28"/>
     </row>
-    <row r="163" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="66" t="s">
         <v>559</v>
       </c>
@@ -26132,7 +26132,7 @@
       <c r="AC163" s="28"/>
       <c r="AD163" s="28"/>
     </row>
-    <row r="164" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="70" t="s">
         <v>562</v>
       </c>
@@ -26216,7 +26216,7 @@
       <c r="AC164" s="28"/>
       <c r="AD164" s="28"/>
     </row>
-    <row r="165" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="66" t="s">
         <v>565</v>
       </c>
@@ -26300,7 +26300,7 @@
       <c r="AC165" s="28"/>
       <c r="AD165" s="28"/>
     </row>
-    <row r="166" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="70" t="s">
         <v>568</v>
       </c>
@@ -26384,7 +26384,7 @@
       <c r="AC166" s="28"/>
       <c r="AD166" s="28"/>
     </row>
-    <row r="167" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="66" t="s">
         <v>571</v>
       </c>
@@ -26468,7 +26468,7 @@
       <c r="AC167" s="28"/>
       <c r="AD167" s="28"/>
     </row>
-    <row r="168" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="70" t="s">
         <v>574</v>
       </c>
@@ -26552,7 +26552,7 @@
       <c r="AC168" s="28"/>
       <c r="AD168" s="28"/>
     </row>
-    <row r="169" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="66" t="s">
         <v>577</v>
       </c>
@@ -26636,7 +26636,7 @@
       <c r="AC169" s="28"/>
       <c r="AD169" s="28"/>
     </row>
-    <row r="170" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="66" t="s">
         <v>579</v>
       </c>
@@ -26720,7 +26720,7 @@
       <c r="AC170" s="28"/>
       <c r="AD170" s="28"/>
     </row>
-    <row r="171" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="66" t="s">
         <v>581</v>
       </c>
@@ -26804,7 +26804,7 @@
       <c r="AC171" s="28"/>
       <c r="AD171" s="28"/>
     </row>
-    <row r="172" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="66" t="s">
         <v>584</v>
       </c>
@@ -26888,7 +26888,7 @@
       <c r="AC172" s="28"/>
       <c r="AD172" s="28"/>
     </row>
-    <row r="173" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="76"/>
       <c r="B173" s="48"/>
       <c r="C173" s="36"/>
@@ -26932,7 +26932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="70" t="s">
         <v>601</v>
       </c>
@@ -27024,7 +27024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="70" t="s">
         <v>604</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="70" t="s">
         <v>606</v>
       </c>
@@ -27208,7 +27208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="70" t="s">
         <v>607</v>
       </c>
@@ -27300,7 +27300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="70" t="s">
         <v>609</v>
       </c>
@@ -27392,7 +27392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="70" t="s">
         <v>610</v>
       </c>
@@ -27484,7 +27484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="70" t="s">
         <v>611</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="70" t="s">
         <v>615</v>
       </c>
@@ -27668,7 +27668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="70" t="s">
         <v>614</v>
       </c>
@@ -27760,7 +27760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="70" t="s">
         <v>619</v>
       </c>
@@ -27855,7 +27855,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="184" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="70" t="s">
         <v>623</v>
       </c>
@@ -27950,7 +27950,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="70" t="s">
         <v>629</v>
       </c>
@@ -28045,7 +28045,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="186" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="70" t="s">
         <v>630</v>
       </c>
@@ -28140,7 +28140,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="187" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="70" t="s">
         <v>636</v>
       </c>
@@ -28232,7 +28232,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="188" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="70" t="s">
         <v>856</v>
       </c>
@@ -28324,7 +28324,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="70" t="s">
         <v>857</v>
       </c>
@@ -28416,7 +28416,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="190" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="70" t="s">
         <v>640</v>
       </c>
@@ -28508,7 +28508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="70" t="s">
         <v>642</v>
       </c>
@@ -28600,7 +28600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="70" t="s">
         <v>648</v>
       </c>
@@ -28692,7 +28692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="70" t="s">
         <v>649</v>
       </c>
@@ -28784,7 +28784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="70" t="s">
         <v>654</v>
       </c>
@@ -28876,7 +28876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="70" t="s">
         <v>656</v>
       </c>
@@ -28968,7 +28968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="70" t="s">
         <v>662</v>
       </c>
@@ -29060,7 +29060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="70" t="s">
         <v>665</v>
       </c>
@@ -29152,7 +29152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="70" t="s">
         <v>666</v>
       </c>
@@ -29244,7 +29244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="70" t="s">
         <v>671</v>
       </c>
@@ -29336,7 +29336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="70" t="s">
         <v>676</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="70" t="s">
         <v>677</v>
       </c>
@@ -29520,7 +29520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="70" t="s">
         <v>732</v>
       </c>
@@ -29612,7 +29612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="70" t="s">
         <v>738</v>
       </c>
@@ -29704,7 +29704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="70" t="s">
         <v>740</v>
       </c>
@@ -29796,7 +29796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="70" t="s">
         <v>780</v>
       </c>
@@ -29888,1297 +29888,1297 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="70" t="s">
+        <v>873</v>
+      </c>
+      <c r="B206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S206" s="49" t="s">
+        <v>886</v>
+      </c>
+      <c r="T206" s="49" t="s">
+        <v>887</v>
+      </c>
+      <c r="U206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V206" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W206" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X206" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB206" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC206" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD206" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="70" t="s">
+        <v>874</v>
+      </c>
+      <c r="B207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S207" s="49" t="s">
+        <v>886</v>
+      </c>
+      <c r="T207" s="49" t="s">
+        <v>887</v>
+      </c>
+      <c r="U207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V207" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W207" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X207" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB207" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC207" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD207" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="70" t="s">
         <v>745</v>
       </c>
-      <c r="B206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S206" s="49" t="s">
+      <c r="B208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S208" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V206" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W206" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X206" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB206" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC206" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD206" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="207" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="70" t="s">
+      <c r="T208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V208" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W208" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X208" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB208" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC208" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD208" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="70" t="s">
         <v>751</v>
       </c>
-      <c r="B207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S207" s="49" t="s">
+      <c r="B209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S209" s="49" t="s">
         <v>888</v>
       </c>
-      <c r="T207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V207" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W207" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X207" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB207" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC207" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD207" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="208" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="70" t="s">
+      <c r="T209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V209" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W209" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X209" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB209" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD209" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="70" t="s">
         <v>752</v>
       </c>
-      <c r="B208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S208" s="49" t="s">
+      <c r="B210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S210" s="49" t="s">
         <v>889</v>
       </c>
-      <c r="T208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V208" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W208" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X208" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB208" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC208" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD208" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="209" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="70" t="s">
+      <c r="T210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V210" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W210" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X210" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB210" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC210" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD210" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="70" t="s">
         <v>757</v>
       </c>
-      <c r="B209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S209" s="49" t="s">
+      <c r="B211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S211" s="49" t="s">
         <v>890</v>
       </c>
-      <c r="T209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V209" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W209" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X209" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB209" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC209" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD209" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="210" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="70" t="s">
+      <c r="T211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V211" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W211" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X211" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB211" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC211" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD211" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="70" t="s">
         <v>758</v>
       </c>
-      <c r="B210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S210" s="49" t="s">
+      <c r="B212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S212" s="49" t="s">
         <v>891</v>
       </c>
-      <c r="T210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V210" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W210" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X210" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB210" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC210" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD210" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="211" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="70" t="s">
+      <c r="T212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V212" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W212" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X212" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB212" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC212" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD212" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="70" t="s">
         <v>759</v>
       </c>
-      <c r="B211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S211" s="49" t="s">
+      <c r="B213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S213" s="49" t="s">
         <v>892</v>
       </c>
-      <c r="T211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V211" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W211" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X211" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB211" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC211" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD211" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="70" t="s">
+      <c r="T213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V213" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W213" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X213" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB213" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD213" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="70" t="s">
         <v>764</v>
       </c>
-      <c r="B212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S212" s="49" t="s">
+      <c r="B214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S214" s="49" t="s">
         <v>893</v>
       </c>
-      <c r="T212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V212" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W212" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X212" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB212" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC212" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD212" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="213" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="70" t="s">
+      <c r="T214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V214" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W214" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X214" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB214" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD214" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="70" t="s">
         <v>767</v>
       </c>
-      <c r="B213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S213" s="49" t="s">
+      <c r="B215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S215" s="49" t="s">
         <v>894</v>
       </c>
-      <c r="T213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V213" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W213" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X213" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB213" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC213" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD213" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="214" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="70" t="s">
+      <c r="T215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V215" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W215" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X215" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB215" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD215" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="70" t="s">
         <v>772</v>
       </c>
-      <c r="B214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S214" s="49" t="s">
+      <c r="B216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S216" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="T214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V214" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W214" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X214" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB214" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC214" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD214" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="215" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="70" t="s">
+      <c r="T216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V216" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W216" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X216" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB216" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD216" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="70" t="s">
         <v>775</v>
       </c>
-      <c r="B215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S215" s="49" t="s">
+      <c r="B217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S217" s="49" t="s">
         <v>896</v>
       </c>
-      <c r="T215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V215" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W215" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X215" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB215" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC215" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD215" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="216" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="70" t="s">
+      <c r="T217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V217" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W217" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X217" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB217" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD217" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="70" t="s">
         <v>776</v>
       </c>
-      <c r="B216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S216" s="49" t="s">
+      <c r="B218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S218" s="49" t="s">
         <v>897</v>
       </c>
-      <c r="T216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V216" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W216" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X216" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB216" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC216" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD216" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="217" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="70" t="s">
+      <c r="T218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V218" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W218" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X218" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB218" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD218" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="70" t="s">
         <v>782</v>
       </c>
-      <c r="B217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S217" s="49" t="s">
+      <c r="B219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S219" s="49" t="s">
         <v>878</v>
       </c>
-      <c r="T217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V217" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W217" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X217" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB217" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC217" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD217" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="70" t="s">
+      <c r="T219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V219" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W219" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X219" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB219" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD219" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="70" t="s">
         <v>795</v>
-      </c>
-      <c r="B218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S218" s="49" t="s">
-        <v>887</v>
-      </c>
-      <c r="T218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V218" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W218" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X218" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA218" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB218" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC218" s="73" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD218" s="73" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="219" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="70" t="s">
-        <v>800</v>
-      </c>
-      <c r="B219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S219" s="49" t="s">
-        <v>890</v>
-      </c>
-      <c r="T219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V219" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W219" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X219" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA219" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB219" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC219" s="73" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD219" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220" spans="1:30" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="70" t="s">
-        <v>805</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>22</v>
@@ -31234,8 +31234,8 @@
       <c r="S220" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T220" s="49" t="s">
-        <v>889</v>
+      <c r="T220" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U220" s="48" t="s">
         <v>22</v>
@@ -31264,13 +31264,13 @@
       <c r="AC220" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD220" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD220" s="73" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="70" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>22</v>
@@ -31324,10 +31324,10 @@
         <v>22</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>887</v>
-      </c>
-      <c r="T221" s="49" t="s">
-        <v>888</v>
+        <v>890</v>
+      </c>
+      <c r="T221" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U221" s="48" t="s">
         <v>22</v>
@@ -31360,9 +31360,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:30" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="70" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>22</v>
@@ -31418,8 +31418,8 @@
       <c r="S222" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T222" s="48" t="s">
-        <v>22</v>
+      <c r="T222" s="49" t="s">
+        <v>889</v>
       </c>
       <c r="U222" s="48" t="s">
         <v>22</v>
@@ -31452,9 +31452,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="70" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>22</v>
@@ -31510,8 +31510,8 @@
       <c r="S223" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T223" s="48" t="s">
-        <v>22</v>
+      <c r="T223" s="49" t="s">
+        <v>888</v>
       </c>
       <c r="U223" s="48" t="s">
         <v>22</v>
@@ -31544,9 +31544,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="70" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>22</v>
@@ -31602,8 +31602,8 @@
       <c r="S224" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T224" s="49" t="s">
-        <v>888</v>
+      <c r="T224" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U224" s="48" t="s">
         <v>22</v>
@@ -31632,13 +31632,13 @@
       <c r="AC224" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD224" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="225" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD224" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="70" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>22</v>
@@ -31694,8 +31694,8 @@
       <c r="S225" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T225" s="49" t="s">
-        <v>888</v>
+      <c r="T225" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U225" s="48" t="s">
         <v>22</v>
@@ -31728,9 +31728,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="70" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>22</v>
@@ -31786,8 +31786,8 @@
       <c r="S226" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T226" s="48" t="s">
-        <v>22</v>
+      <c r="T226" s="49" t="s">
+        <v>888</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31816,13 +31816,13 @@
       <c r="AC226" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD226" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="227" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD226" s="73" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="70" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>22</v>
@@ -31879,7 +31879,7 @@
         <v>887</v>
       </c>
       <c r="T227" s="49" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="U227" s="48" t="s">
         <v>22</v>
@@ -31912,9 +31912,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="70" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B228" s="48" t="s">
         <v>22</v>
@@ -31970,8 +31970,8 @@
       <c r="S228" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="T228" s="49" t="s">
-        <v>889</v>
+      <c r="T228" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U228" s="48" t="s">
         <v>22</v>
@@ -32004,9 +32004,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="70" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>22</v>
@@ -32096,737 +32096,737 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="70" t="s">
+        <v>829</v>
+      </c>
+      <c r="B230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S230" s="49" t="s">
+        <v>887</v>
+      </c>
+      <c r="T230" s="49" t="s">
+        <v>889</v>
+      </c>
+      <c r="U230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V230" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W230" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X230" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA230" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB230" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC230" s="73" t="s">
+        <v>835</v>
+      </c>
+      <c r="AD230" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="70" t="s">
+        <v>834</v>
+      </c>
+      <c r="B231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S231" s="49" t="s">
+        <v>887</v>
+      </c>
+      <c r="T231" s="49" t="s">
+        <v>889</v>
+      </c>
+      <c r="U231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V231" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W231" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X231" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB231" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC231" s="73" t="s">
+        <v>835</v>
+      </c>
+      <c r="AD231" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="70" t="s">
         <v>841</v>
       </c>
-      <c r="B230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V230" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W230" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X230" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB230" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC230" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD230" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="70" t="s">
+      <c r="B232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V232" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W232" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X232" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB232" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD232" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="70" t="s">
         <v>847</v>
       </c>
-      <c r="B231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V231" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W231" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X231" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB231" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC231" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD231" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="70" t="s">
+      <c r="B233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V233" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W233" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X233" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB233" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD233" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="70" t="s">
         <v>851</v>
       </c>
-      <c r="B232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V232" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W232" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X232" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB232" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC232" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD232" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="70" t="s">
+      <c r="B234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V234" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W234" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X234" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB234" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD234" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="70" t="s">
         <v>853</v>
       </c>
-      <c r="B233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V233" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W233" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X233" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB233" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC233" s="73" t="s">
+      <c r="B235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V235" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W235" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X235" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB235" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC235" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD233" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="70" t="s">
+      <c r="AD235" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="70" t="s">
         <v>866</v>
       </c>
-      <c r="B234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V234" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W234" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X234" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB234" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC234" s="73" t="s">
+      <c r="B236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V236" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W236" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X236" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB236" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC236" s="73" t="s">
         <v>867</v>
       </c>
-      <c r="AD234" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="70" t="s">
+      <c r="AD236" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="70" t="s">
         <v>868</v>
       </c>
-      <c r="B235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V235" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W235" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X235" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA235" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB235" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC235" s="73" t="s">
+      <c r="B237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V237" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W237" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X237" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB237" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC237" s="73" t="s">
         <v>867</v>
-      </c>
-      <c r="AD235" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="70" t="s">
-        <v>873</v>
-      </c>
-      <c r="B236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S236" s="49" t="s">
-        <v>886</v>
-      </c>
-      <c r="T236" s="49" t="s">
-        <v>887</v>
-      </c>
-      <c r="U236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V236" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W236" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X236" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB236" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC236" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD236" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="237" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="70" t="s">
-        <v>874</v>
-      </c>
-      <c r="B237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S237" s="49" t="s">
-        <v>886</v>
-      </c>
-      <c r="T237" s="49" t="s">
-        <v>887</v>
-      </c>
-      <c r="U237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V237" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W237" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X237" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA237" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB237" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC237" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="AD237" s="48" t="s">
         <v>22</v>
@@ -32968,31 +32968,31 @@
     <hyperlink ref="S181" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
-    <hyperlink ref="S207" r:id="rId30" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S206" r:id="rId31" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
-    <hyperlink ref="S218" r:id="rId32" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
-    <hyperlink ref="S223" r:id="rId33" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
-    <hyperlink ref="S221" r:id="rId34" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
-    <hyperlink ref="S220" r:id="rId35" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
-    <hyperlink ref="S224" r:id="rId36" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
-    <hyperlink ref="T224" r:id="rId37" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
-    <hyperlink ref="S225" r:id="rId38" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T225" r:id="rId39" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
-    <hyperlink ref="S226" r:id="rId40" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
-    <hyperlink ref="S227" r:id="rId41" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
-    <hyperlink ref="S228" r:id="rId42" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
-    <hyperlink ref="S229" r:id="rId43" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
-    <hyperlink ref="T227" r:id="rId44" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
-    <hyperlink ref="AD224" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
+    <hyperlink ref="S209" r:id="rId30" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S208" r:id="rId31" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="S220" r:id="rId32" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S225" r:id="rId33" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S223" r:id="rId34" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S222" r:id="rId35" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S226" r:id="rId36" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T226" r:id="rId37" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S227" r:id="rId38" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T227" r:id="rId39" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S228" r:id="rId40" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S229" r:id="rId41" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S230" r:id="rId42" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S231" r:id="rId43" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="T229" r:id="rId44" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
+    <hyperlink ref="AD226" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
     <hyperlink ref="AC175" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
     <hyperlink ref="AC176" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
     <hyperlink ref="AC179" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
-    <hyperlink ref="AC233" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
-    <hyperlink ref="T236" r:id="rId50" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
-    <hyperlink ref="T237" r:id="rId51" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
+    <hyperlink ref="AC235" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
+    <hyperlink ref="T206" r:id="rId50" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
+    <hyperlink ref="T207" r:id="rId51" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
     <hyperlink ref="S197" r:id="rId52" display="https://qa.adm.testingserver8.com/admin/product-style" xr:uid="{279698D4-2A41-4BBD-838A-CBE141EE3D50}"/>
-    <hyperlink ref="AC218" r:id="rId53" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{CD96CCCF-BE60-40A1-BA2F-93729430B99A}"/>
-    <hyperlink ref="AC219:AC229" r:id="rId54" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{C68B94AD-4CFE-4AB2-9431-B829C1D5A48C}"/>
+    <hyperlink ref="AC220" r:id="rId53" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{CD96CCCF-BE60-40A1-BA2F-93729430B99A}"/>
+    <hyperlink ref="AC221:AC231" r:id="rId54" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{C68B94AD-4CFE-4AB2-9431-B829C1D5A48C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId55"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith\git\ZlaataQAseverNEW0001\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAseverSaroj\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7628A64-68DB-4FEE-B325-54C1195576D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3F987-AE8F-4C81-B63C-301C2FFF4B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -2659,67 +2659,67 @@
     <t>Verify with Two Specific Products Coupon Verification.</t>
   </si>
   <si>
-    <t>https://console.zlaata.com/admin/home-page-banner</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/product</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/special-timer-event</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/categories</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/product-collection</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/product-style</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/product-search-keyword</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/collection-search-keyword</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/style-search-keyword</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/coupon</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/order</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/return-order</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/exchange-order</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/cancel-order</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/return-cancel</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/exchange-cancel</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/payment-pending</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/payment-refund</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/payment-failed</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/rto-orders</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/all-orders</t>
+    <t>https://qa.adm.testingserver8.com/admin/home-page-banner</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/product</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/special-timer-event</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/categories</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/product-collection</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/product-style</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/product-search-keyword</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/collection-search-keyword</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/style-search-keyword</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/coupon</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/order</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/return-order</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/exchange-order</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/cancel-order</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/return-cancel</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/exchange-cancel</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/payment-pending</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/payment-refund</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/payment-failed</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/rto-orders</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/all-orders</t>
   </si>
 </sst>
 </file>
@@ -4209,20 +4209,20 @@
       <selection activeCell="A216" sqref="A216:J217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="118.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="118.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="45">
         <v>22</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="93" t="s">
         <v>156</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="I24" s="94"/>
       <c r="J24" s="95"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>1</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>2</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>5</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>6</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>7</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>8</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>9</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>11</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="96" t="s">
         <v>172</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="I37" s="97"/>
       <c r="J37" s="98"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>1</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>2</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>3</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>4</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>6</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>7</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>8</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>9</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>10</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>11</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>12</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>13</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>14</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>15</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>16</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>16</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="96" t="s">
         <v>244</v>
       </c>
@@ -5928,7 +5928,7 @@
       <c r="I55" s="97"/>
       <c r="J55" s="98"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>1</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>2</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>3</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>4</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>5</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>6</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>7</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>8</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="25">
         <v>9</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
         <v>10</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="96" t="s">
         <v>246</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="I66" s="97"/>
       <c r="J66" s="98"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>1</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>2</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>3</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>4</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>5</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>6</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>7</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>8</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>9</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>10</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>11</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="96" t="s">
         <v>345</v>
       </c>
@@ -6628,7 +6628,7 @@
       <c r="I78" s="97"/>
       <c r="J78" s="98"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>1</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>2</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="25">
         <v>3</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="25">
         <v>4</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="25">
         <v>5</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="25">
         <v>6</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>7</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="25">
         <v>8</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="25">
         <v>9</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="25">
         <v>10</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="25">
         <v>11</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="25">
         <v>12</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="25">
         <v>13</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="25">
         <v>14</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="25">
         <v>15</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="25">
         <v>16</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="25">
         <v>17</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="25">
         <v>18</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="25">
         <v>19</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="25">
         <v>20</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="25">
         <v>21</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="25">
         <v>22</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="25">
         <v>23</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="25">
         <v>24</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
         <v>25</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="25">
         <v>27</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="25">
         <v>28</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="84" t="s">
         <v>374</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="I106" s="84"/>
       <c r="J106" s="84"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="25">
         <v>2</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="25">
         <v>3</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="25">
         <v>5</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="25">
         <v>6</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="25">
         <v>7</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
         <v>8</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
         <v>9</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
         <v>10</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="25">
         <v>11</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="25">
         <v>12</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="W118" s="58"/>
       <c r="X118" s="58"/>
     </row>
-    <row r="119" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="25">
         <v>13</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="W119" s="58"/>
       <c r="X119" s="58"/>
     </row>
-    <row r="120" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="25">
         <v>14</v>
       </c>
@@ -7996,7 +7996,7 @@
       <c r="W120" s="58"/>
       <c r="X120" s="58"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="85" t="s">
         <v>376</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="W121" s="58"/>
       <c r="X121" s="58"/>
     </row>
-    <row r="122" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="25">
         <v>1</v>
       </c>
@@ -8070,7 +8070,7 @@
       <c r="W122" s="58"/>
       <c r="X122" s="58"/>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="85" t="s">
         <v>381</v>
       </c>
@@ -8098,7 +8098,7 @@
       <c r="W123" s="58"/>
       <c r="X123" s="58"/>
     </row>
-    <row r="124" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="25">
         <v>1</v>
       </c>
@@ -8144,7 +8144,7 @@
       <c r="W124" s="58"/>
       <c r="X124" s="58"/>
     </row>
-    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="85" t="s">
         <v>394</v>
       </c>
@@ -8158,7 +8158,7 @@
       <c r="I125" s="85"/>
       <c r="J125" s="85"/>
     </row>
-    <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
         <v>1</v>
       </c>
@@ -8204,7 +8204,7 @@
       <c r="W126" s="61"/>
       <c r="X126" s="61"/>
     </row>
-    <row r="127" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="25">
         <v>2</v>
       </c>
@@ -8250,7 +8250,7 @@
       <c r="W127" s="58"/>
       <c r="X127" s="58"/>
     </row>
-    <row r="128" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="25">
         <v>3</v>
       </c>
@@ -8296,7 +8296,7 @@
       <c r="W128" s="58"/>
       <c r="X128" s="58"/>
     </row>
-    <row r="129" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="25">
         <v>4</v>
       </c>
@@ -8342,7 +8342,7 @@
       <c r="W129" s="58"/>
       <c r="X129" s="58"/>
     </row>
-    <row r="130" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="25">
         <v>5</v>
       </c>
@@ -8388,7 +8388,7 @@
       <c r="W130" s="58"/>
       <c r="X130" s="58"/>
     </row>
-    <row r="131" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="25">
         <v>6</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="W131" s="58"/>
       <c r="X131" s="58"/>
     </row>
-    <row r="132" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="25">
         <v>7</v>
       </c>
@@ -8480,7 +8480,7 @@
       <c r="W132" s="58"/>
       <c r="X132" s="58"/>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="85" t="s">
         <v>411</v>
       </c>
@@ -8508,7 +8508,7 @@
       <c r="W133" s="58"/>
       <c r="X133" s="58"/>
     </row>
-    <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="59">
         <v>11</v>
       </c>
@@ -8554,7 +8554,7 @@
       <c r="W134" s="58"/>
       <c r="X134" s="58"/>
     </row>
-    <row r="135" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="26">
         <v>2</v>
       </c>
@@ -8600,7 +8600,7 @@
       <c r="W135" s="58"/>
       <c r="X135" s="58"/>
     </row>
-    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="26">
         <v>3</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="26">
         <v>4</v>
       </c>
@@ -8678,7 +8678,7 @@
       <c r="W137" s="58"/>
       <c r="X137" s="58"/>
     </row>
-    <row r="138" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -8724,7 +8724,7 @@
       <c r="W138" s="58"/>
       <c r="X138" s="58"/>
     </row>
-    <row r="139" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="26">
         <v>6</v>
       </c>
@@ -8770,7 +8770,7 @@
       <c r="W139" s="58"/>
       <c r="X139" s="58"/>
     </row>
-    <row r="140" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="26">
         <v>7</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="26">
         <v>8</v>
       </c>
@@ -8848,7 +8848,7 @@
       <c r="W141" s="58"/>
       <c r="X141" s="58"/>
     </row>
-    <row r="142" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="26">
         <v>9</v>
       </c>
@@ -8894,7 +8894,7 @@
       <c r="W142" s="58"/>
       <c r="X142" s="58"/>
     </row>
-    <row r="143" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="26">
         <v>10</v>
       </c>
@@ -8940,7 +8940,7 @@
       <c r="W143" s="58"/>
       <c r="X143" s="58"/>
     </row>
-    <row r="144" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="26">
         <v>11</v>
       </c>
@@ -8986,7 +8986,7 @@
       <c r="W144" s="58"/>
       <c r="X144" s="58"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="90" t="s">
         <v>439</v>
       </c>
@@ -9014,7 +9014,7 @@
       <c r="W145" s="58"/>
       <c r="X145" s="58"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="25">
         <v>1</v>
       </c>
@@ -9060,7 +9060,7 @@
       <c r="W146" s="58"/>
       <c r="X146" s="58"/>
     </row>
-    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="25">
         <v>2</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
         <v>3</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="25">
         <v>4</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="25">
         <v>5</v>
       </c>
@@ -9204,7 +9204,7 @@
       <c r="Y150" s="58"/>
       <c r="Z150" s="58"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -9252,7 +9252,7 @@
       <c r="Y151" s="58"/>
       <c r="Z151" s="58"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="25">
         <v>7</v>
       </c>
@@ -9300,7 +9300,7 @@
       <c r="Y152" s="58"/>
       <c r="Z152" s="58"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="25">
         <v>8</v>
       </c>
@@ -9348,7 +9348,7 @@
       <c r="Y153" s="58"/>
       <c r="Z153" s="58"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="25">
         <v>9</v>
       </c>
@@ -9396,7 +9396,7 @@
       <c r="Y154" s="58"/>
       <c r="Z154" s="58"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="25">
         <v>10</v>
       </c>
@@ -9444,7 +9444,7 @@
       <c r="Y155" s="58"/>
       <c r="Z155" s="58"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="85" t="s">
         <v>510</v>
       </c>
@@ -9474,7 +9474,7 @@
       <c r="Y156" s="58"/>
       <c r="Z156" s="58"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="25">
         <v>1</v>
       </c>
@@ -9522,7 +9522,7 @@
       <c r="Y157" s="58"/>
       <c r="Z157" s="58"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="85" t="s">
         <v>536</v>
       </c>
@@ -9552,7 +9552,7 @@
       <c r="Y158" s="58"/>
       <c r="Z158" s="58"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="67">
         <v>1</v>
       </c>
@@ -9600,7 +9600,7 @@
       <c r="Y159" s="58"/>
       <c r="Z159" s="58"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="68">
         <v>2</v>
       </c>
@@ -9648,7 +9648,7 @@
       <c r="Y160" s="58"/>
       <c r="Z160" s="58"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="68">
         <v>3</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="Y161" s="58"/>
       <c r="Z161" s="58"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="68">
         <v>4</v>
       </c>
@@ -9744,7 +9744,7 @@
       <c r="Y162" s="58"/>
       <c r="Z162" s="58"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="68">
         <v>5</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="Y163" s="58"/>
       <c r="Z163" s="58"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="68">
         <v>6</v>
       </c>
@@ -9840,7 +9840,7 @@
       <c r="Y164" s="58"/>
       <c r="Z164" s="58"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="68">
         <v>7</v>
       </c>
@@ -9888,7 +9888,7 @@
       <c r="Y165" s="58"/>
       <c r="Z165" s="58"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="68">
         <v>8</v>
       </c>
@@ -9936,7 +9936,7 @@
       <c r="Y166" s="58"/>
       <c r="Z166" s="58"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="67">
         <v>9</v>
       </c>
@@ -9984,7 +9984,7 @@
       <c r="Y167" s="58"/>
       <c r="Z167" s="58"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="68">
         <v>10</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="67">
         <v>11</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="68">
         <v>12</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="67">
         <v>13</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="68">
         <v>14</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="67">
         <v>15</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="68">
         <v>16</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="67">
         <v>17</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="68">
         <v>18</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="85" t="s">
         <v>715</v>
       </c>
@@ -10286,7 +10286,7 @@
       <c r="I177" s="85"/>
       <c r="J177" s="85"/>
     </row>
-    <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
         <v>1</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="68">
         <v>2</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="68">
         <v>3</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="68">
         <v>4</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="68">
         <v>5</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="68">
         <v>6</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="68">
         <v>7</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="68">
         <v>8</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="68">
         <v>9</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="87" t="s">
         <v>617</v>
       </c>
@@ -10588,7 +10588,7 @@
       <c r="I187" s="88"/>
       <c r="J187" s="89"/>
     </row>
-    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
         <v>1</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="68">
         <v>2</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="68">
         <v>3</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="68">
         <v>4</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="68">
         <v>5</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="68">
         <v>6</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="68">
         <v>7</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="83" t="s">
         <v>638</v>
       </c>
@@ -10826,7 +10826,7 @@
       <c r="I195" s="83"/>
       <c r="J195" s="83"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="48">
         <v>1</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="48">
         <v>2</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="48">
         <v>3</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
         <v>4</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="83" t="s">
         <v>651</v>
       </c>
@@ -10968,7 +10968,7 @@
       <c r="I200" s="83"/>
       <c r="J200" s="83"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
         <v>1</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="83" t="s">
         <v>657</v>
       </c>
@@ -11014,7 +11014,7 @@
       <c r="I202" s="83"/>
       <c r="J202" s="83"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="48">
         <v>1</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="48">
         <v>2</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="48">
         <v>3</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="48">
         <v>4</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="48">
         <v>5</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="48">
         <v>6</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
         <v>7</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="83" t="s">
         <v>733</v>
       </c>
@@ -11252,7 +11252,7 @@
       <c r="I210" s="83"/>
       <c r="J210" s="83"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
         <v>1</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="83" t="s">
         <v>736</v>
       </c>
@@ -11298,7 +11298,7 @@
       <c r="I212" s="83"/>
       <c r="J212" s="83"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="48">
         <v>1</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="48">
         <v>2</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="48">
         <v>3</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="48">
         <v>4</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="48">
         <v>5</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="83" t="s">
         <v>746</v>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="I218" s="83"/>
       <c r="J218" s="83"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="48">
         <v>1</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="48">
         <v>2</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="48">
         <v>3</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="48">
         <v>4</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="48">
         <v>5</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="48">
         <v>6</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="48">
         <v>7</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="48">
         <v>8</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="48">
         <v>9</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="48">
         <v>10</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="48">
         <v>11</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="83" t="s">
         <v>783</v>
       </c>
@@ -11838,7 +11838,7 @@
       <c r="I230" s="83"/>
       <c r="J230" s="83"/>
     </row>
-    <row r="231" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="48">
         <v>1</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="83" t="s">
         <v>796</v>
       </c>
@@ -11884,7 +11884,7 @@
       <c r="I232" s="83"/>
       <c r="J232" s="83"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="48">
         <v>1</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="48">
         <v>2</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="48">
         <v>3</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="48">
         <v>4</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="48">
         <v>5</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="48">
         <v>6</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="48">
         <v>7</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="48">
         <v>8</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="48">
         <v>9</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="48">
         <v>10</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="48">
         <v>11</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="48">
         <v>12</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="83" t="s">
         <v>842</v>
       </c>
@@ -12282,7 +12282,7 @@
       <c r="I245" s="83"/>
       <c r="J245" s="83"/>
     </row>
-    <row r="246" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="48">
         <v>1</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="83" t="s">
         <v>845</v>
       </c>
@@ -12328,7 +12328,7 @@
       <c r="I247" s="83"/>
       <c r="J247" s="83"/>
     </row>
-    <row r="248" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="48">
         <v>1</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="48">
         <v>2</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="48">
         <v>3</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="48">
         <v>4</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="48">
         <v>5</v>
       </c>
@@ -12614,39 +12614,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AF237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
+    <sheetView tabSelected="1" topLeftCell="M202" workbookViewId="0">
+      <selection activeCell="S214" sqref="S214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="12" max="12" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="12" max="12" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52.28515625" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" customWidth="1"/>
+    <col min="17" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="71.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="52.33203125" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
     <col min="24" max="25" width="29" customWidth="1"/>
-    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" customWidth="1"/>
-    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" customWidth="1"/>
+    <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" customWidth="1"/>
+    <col min="29" max="29" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
@@ -12818,7 +12818,7 @@
       <c r="AC2" s="28"/>
       <c r="AD2" s="28"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>25</v>
       </c>
@@ -12898,7 +12898,7 @@
       <c r="AC3" s="28"/>
       <c r="AD3" s="28"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
@@ -12978,7 +12978,7 @@
       <c r="AC4" s="28"/>
       <c r="AD4" s="28"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>58</v>
       </c>
@@ -13058,7 +13058,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>69</v>
       </c>
@@ -13138,7 +13138,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>73</v>
       </c>
@@ -13218,7 +13218,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
     </row>
-    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>77</v>
       </c>
@@ -13298,7 +13298,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>79</v>
       </c>
@@ -13378,7 +13378,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>80</v>
       </c>
@@ -13458,7 +13458,7 @@
       <c r="AC10" s="28"/>
       <c r="AD10" s="28"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>81</v>
       </c>
@@ -13538,7 +13538,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>83</v>
       </c>
@@ -13618,7 +13618,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>84</v>
       </c>
@@ -13698,7 +13698,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>85</v>
       </c>
@@ -13778,7 +13778,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>86</v>
       </c>
@@ -13858,7 +13858,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
@@ -13938,7 +13938,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>88</v>
       </c>
@@ -14018,7 +14018,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>89</v>
       </c>
@@ -14098,7 +14098,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>91</v>
       </c>
@@ -14178,7 +14178,7 @@
       <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>93</v>
       </c>
@@ -14258,7 +14258,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>94</v>
       </c>
@@ -14338,7 +14338,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>135</v>
       </c>
@@ -14418,7 +14418,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>140</v>
       </c>
@@ -14498,7 +14498,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="53" t="s">
         <v>63</v>
       </c>
@@ -14578,7 +14578,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>144</v>
       </c>
@@ -14658,7 +14658,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>145</v>
       </c>
@@ -14738,7 +14738,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>146</v>
       </c>
@@ -14818,7 +14818,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>147</v>
       </c>
@@ -14898,7 +14898,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>148</v>
       </c>
@@ -14978,7 +14978,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>150</v>
       </c>
@@ -15058,7 +15058,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>151</v>
       </c>
@@ -15138,7 +15138,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>152</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>153</v>
       </c>
@@ -15298,7 +15298,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>154</v>
       </c>
@@ -15378,7 +15378,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>155</v>
       </c>
@@ -15458,7 +15458,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>64</v>
       </c>
@@ -15538,7 +15538,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
         <v>175</v>
       </c>
@@ -15620,7 +15620,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>179</v>
       </c>
@@ -15702,7 +15702,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>182</v>
       </c>
@@ -15784,7 +15784,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>185</v>
       </c>
@@ -15866,7 +15866,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>188</v>
       </c>
@@ -15948,7 +15948,7 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>190</v>
       </c>
@@ -16030,7 +16030,7 @@
       <c r="AC42" s="28"/>
       <c r="AD42" s="28"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>193</v>
       </c>
@@ -16112,7 +16112,7 @@
       <c r="AC43" s="28"/>
       <c r="AD43" s="28"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>196</v>
       </c>
@@ -16194,7 +16194,7 @@
       <c r="AC44" s="28"/>
       <c r="AD44" s="28"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>198</v>
       </c>
@@ -16276,7 +16276,7 @@
       <c r="AC45" s="28"/>
       <c r="AD45" s="28"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>200</v>
       </c>
@@ -16358,7 +16358,7 @@
       <c r="AC46" s="28"/>
       <c r="AD46" s="28"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>202</v>
       </c>
@@ -16440,7 +16440,7 @@
       <c r="AC47" s="28"/>
       <c r="AD47" s="28"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>204</v>
       </c>
@@ -16522,7 +16522,7 @@
       <c r="AC48" s="28"/>
       <c r="AD48" s="28"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>206</v>
       </c>
@@ -16604,7 +16604,7 @@
       <c r="AC49" s="28"/>
       <c r="AD49" s="28"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>208</v>
       </c>
@@ -16686,7 +16686,7 @@
       <c r="AC50" s="28"/>
       <c r="AD50" s="28"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>210</v>
       </c>
@@ -16768,7 +16768,7 @@
       <c r="AC51" s="28"/>
       <c r="AD51" s="28"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>212</v>
       </c>
@@ -16850,7 +16850,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>687</v>
       </c>
@@ -16932,7 +16932,7 @@
       <c r="AC53" s="28"/>
       <c r="AD53" s="28"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
         <v>213</v>
       </c>
@@ -17014,7 +17014,7 @@
       <c r="AC54" s="28"/>
       <c r="AD54" s="28"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>214</v>
       </c>
@@ -17096,7 +17096,7 @@
       <c r="AC55" s="28"/>
       <c r="AD55" s="28"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>215</v>
       </c>
@@ -17178,7 +17178,7 @@
       <c r="AC56" s="28"/>
       <c r="AD56" s="28"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>216</v>
       </c>
@@ -17260,7 +17260,7 @@
       <c r="AC57" s="28"/>
       <c r="AD57" s="28"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>217</v>
       </c>
@@ -17342,7 +17342,7 @@
       <c r="AC58" s="28"/>
       <c r="AD58" s="28"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="48" t="s">
         <v>218</v>
       </c>
@@ -17424,7 +17424,7 @@
       <c r="AC59" s="28"/>
       <c r="AD59" s="28"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>219</v>
       </c>
@@ -17506,7 +17506,7 @@
       <c r="AC60" s="28"/>
       <c r="AD60" s="28"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>220</v>
       </c>
@@ -17588,7 +17588,7 @@
       <c r="AC61" s="28"/>
       <c r="AD61" s="28"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>221</v>
       </c>
@@ -17670,7 +17670,7 @@
       <c r="AC62" s="28"/>
       <c r="AD62" s="28"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="51" t="s">
         <v>222</v>
       </c>
@@ -17752,7 +17752,7 @@
       <c r="AC63" s="28"/>
       <c r="AD63" s="28"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="56" t="s">
         <v>249</v>
       </c>
@@ -17834,7 +17834,7 @@
       <c r="AC64" s="28"/>
       <c r="AD64" s="28"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>253</v>
       </c>
@@ -17916,7 +17916,7 @@
       <c r="AC65" s="28"/>
       <c r="AD65" s="28"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>256</v>
       </c>
@@ -17998,7 +17998,7 @@
       <c r="AC66" s="28"/>
       <c r="AD66" s="28"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>259</v>
       </c>
@@ -18080,7 +18080,7 @@
       <c r="AC67" s="28"/>
       <c r="AD67" s="28"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>262</v>
       </c>
@@ -18162,7 +18162,7 @@
       <c r="AC68" s="28"/>
       <c r="AD68" s="28"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>265</v>
       </c>
@@ -18244,7 +18244,7 @@
       <c r="AC69" s="28"/>
       <c r="AD69" s="28"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>268</v>
       </c>
@@ -18326,7 +18326,7 @@
       <c r="AC70" s="28"/>
       <c r="AD70" s="28"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="48" t="s">
         <v>271</v>
       </c>
@@ -18408,7 +18408,7 @@
       <c r="AC71" s="28"/>
       <c r="AD71" s="28"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>274</v>
       </c>
@@ -18490,7 +18490,7 @@
       <c r="AC72" s="28"/>
       <c r="AD72" s="28"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>277</v>
       </c>
@@ -18572,7 +18572,7 @@
       <c r="AC73" s="28"/>
       <c r="AD73" s="28"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
         <v>280</v>
       </c>
@@ -18656,7 +18656,7 @@
       <c r="AC74" s="28"/>
       <c r="AD74" s="28"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="62" t="s">
         <v>282</v>
       </c>
@@ -18740,7 +18740,7 @@
       <c r="AC75" s="28"/>
       <c r="AD75" s="28"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>285</v>
       </c>
@@ -18824,7 +18824,7 @@
       <c r="AC76" s="28"/>
       <c r="AD76" s="28"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="48" t="s">
         <v>287</v>
       </c>
@@ -18908,7 +18908,7 @@
       <c r="AC77" s="28"/>
       <c r="AD77" s="28"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>289</v>
       </c>
@@ -18992,7 +18992,7 @@
       <c r="AC78" s="28"/>
       <c r="AD78" s="28"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>292</v>
       </c>
@@ -19076,7 +19076,7 @@
       <c r="AC79" s="28"/>
       <c r="AD79" s="28"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="48" t="s">
         <v>295</v>
       </c>
@@ -19160,7 +19160,7 @@
       <c r="AC80" s="28"/>
       <c r="AD80" s="28"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="48" t="s">
         <v>298</v>
       </c>
@@ -19244,7 +19244,7 @@
       <c r="AC81" s="28"/>
       <c r="AD81" s="28"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="48" t="s">
         <v>301</v>
       </c>
@@ -19328,7 +19328,7 @@
       <c r="AC82" s="28"/>
       <c r="AD82" s="28"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>304</v>
       </c>
@@ -19412,7 +19412,7 @@
       <c r="AC83" s="28"/>
       <c r="AD83" s="28"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="48" t="s">
         <v>306</v>
       </c>
@@ -19496,7 +19496,7 @@
       <c r="AC84" s="28"/>
       <c r="AD84" s="28"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>308</v>
       </c>
@@ -19580,7 +19580,7 @@
       <c r="AC85" s="28"/>
       <c r="AD85" s="28"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>310</v>
       </c>
@@ -19664,7 +19664,7 @@
       <c r="AC86" s="28"/>
       <c r="AD86" s="28"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
         <v>313</v>
       </c>
@@ -19748,7 +19748,7 @@
       <c r="AC87" s="28"/>
       <c r="AD87" s="28"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>316</v>
       </c>
@@ -19832,7 +19832,7 @@
       <c r="AC88" s="28"/>
       <c r="AD88" s="28"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>319</v>
       </c>
@@ -19916,7 +19916,7 @@
       <c r="AC89" s="28"/>
       <c r="AD89" s="28"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>322</v>
       </c>
@@ -20000,7 +20000,7 @@
       <c r="AC90" s="28"/>
       <c r="AD90" s="28"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>324</v>
       </c>
@@ -20084,7 +20084,7 @@
       <c r="AC91" s="28"/>
       <c r="AD91" s="28"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>327</v>
       </c>
@@ -20168,7 +20168,7 @@
       <c r="AC92" s="28"/>
       <c r="AD92" s="28"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>330</v>
       </c>
@@ -20252,7 +20252,7 @@
       <c r="AC93" s="28"/>
       <c r="AD93" s="28"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
         <v>332</v>
       </c>
@@ -20336,7 +20336,7 @@
       <c r="AC94" s="28"/>
       <c r="AD94" s="28"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="48" t="s">
         <v>334</v>
       </c>
@@ -20420,7 +20420,7 @@
       <c r="AC95" s="28"/>
       <c r="AD95" s="28"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" s="48" t="s">
         <v>336</v>
       </c>
@@ -20504,7 +20504,7 @@
       <c r="AC96" s="28"/>
       <c r="AD96" s="28"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" s="48" t="s">
         <v>338</v>
       </c>
@@ -20588,7 +20588,7 @@
       <c r="AC97" s="28"/>
       <c r="AD97" s="28"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" s="48" t="s">
         <v>340</v>
       </c>
@@ -20672,7 +20672,7 @@
       <c r="AC98" s="28"/>
       <c r="AD98" s="28"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>342</v>
       </c>
@@ -20756,7 +20756,7 @@
       <c r="AC99" s="28"/>
       <c r="AD99" s="28"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" s="48" t="s">
         <v>344</v>
       </c>
@@ -20840,7 +20840,7 @@
       <c r="AC100" s="28"/>
       <c r="AD100" s="28"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>597</v>
       </c>
@@ -20924,7 +20924,7 @@
       <c r="AC101" s="28"/>
       <c r="AD101" s="28"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
         <v>348</v>
       </c>
@@ -21008,7 +21008,7 @@
       <c r="AC102" s="28"/>
       <c r="AD102" s="28"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" s="48" t="s">
         <v>352</v>
       </c>
@@ -21092,7 +21092,7 @@
       <c r="AC103" s="28"/>
       <c r="AD103" s="28"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
         <v>355</v>
       </c>
@@ -21176,7 +21176,7 @@
       <c r="AC104" s="28"/>
       <c r="AD104" s="28"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>358</v>
       </c>
@@ -21260,7 +21260,7 @@
       <c r="AC105" s="28"/>
       <c r="AD105" s="28"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>361</v>
       </c>
@@ -21344,7 +21344,7 @@
       <c r="AC106" s="28"/>
       <c r="AD106" s="28"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>364</v>
       </c>
@@ -21428,7 +21428,7 @@
       <c r="AC107" s="28"/>
       <c r="AD107" s="28"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" s="48" t="s">
         <v>367</v>
       </c>
@@ -21512,7 +21512,7 @@
       <c r="AC108" s="28"/>
       <c r="AD108" s="28"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" s="48" t="s">
         <v>369</v>
       </c>
@@ -21596,7 +21596,7 @@
       <c r="AC109" s="28"/>
       <c r="AD109" s="28"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" s="48" t="s">
         <v>371</v>
       </c>
@@ -21680,7 +21680,7 @@
       <c r="AC110" s="28"/>
       <c r="AD110" s="28"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" s="48" t="s">
         <v>598</v>
       </c>
@@ -21764,7 +21764,7 @@
       <c r="AC111" s="28"/>
       <c r="AD111" s="28"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" s="48" t="s">
         <v>690</v>
       </c>
@@ -21848,7 +21848,7 @@
       <c r="AC112" s="28"/>
       <c r="AD112" s="28"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
         <v>693</v>
       </c>
@@ -21932,7 +21932,7 @@
       <c r="AC113" s="28"/>
       <c r="AD113" s="28"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
         <v>696</v>
       </c>
@@ -22016,7 +22016,7 @@
       <c r="AC114" s="28"/>
       <c r="AD114" s="28"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
         <v>699</v>
       </c>
@@ -22100,7 +22100,7 @@
       <c r="AC115" s="28"/>
       <c r="AD115" s="28"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>378</v>
       </c>
@@ -22184,7 +22184,7 @@
       <c r="AC116" s="28"/>
       <c r="AD116" s="28"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>383</v>
       </c>
@@ -22268,7 +22268,7 @@
       <c r="AC117" s="28"/>
       <c r="AD117" s="28"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>397</v>
       </c>
@@ -22352,7 +22352,7 @@
       <c r="AC118" s="28"/>
       <c r="AD118" s="28"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>399</v>
       </c>
@@ -22436,7 +22436,7 @@
       <c r="AC119" s="28"/>
       <c r="AD119" s="28"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" s="48" t="s">
         <v>400</v>
       </c>
@@ -22520,7 +22520,7 @@
       <c r="AC120" s="28"/>
       <c r="AD120" s="28"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" s="48" t="s">
         <v>401</v>
       </c>
@@ -22604,7 +22604,7 @@
       <c r="AC121" s="28"/>
       <c r="AD121" s="28"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>402</v>
       </c>
@@ -22688,7 +22688,7 @@
       <c r="AC122" s="28"/>
       <c r="AD122" s="28"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>403</v>
       </c>
@@ -22772,7 +22772,7 @@
       <c r="AC123" s="28"/>
       <c r="AD123" s="28"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124" s="48" t="s">
         <v>405</v>
       </c>
@@ -22856,7 +22856,7 @@
       <c r="AC124" s="28"/>
       <c r="AD124" s="28"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A125" s="48" t="s">
         <v>407</v>
       </c>
@@ -22940,7 +22940,7 @@
       <c r="AC125" s="28"/>
       <c r="AD125" s="28"/>
     </row>
-    <row r="126" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A126" s="62" t="s">
         <v>413</v>
       </c>
@@ -23024,7 +23024,7 @@
       <c r="AC126" s="28"/>
       <c r="AD126" s="28"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" s="48" t="s">
         <v>417</v>
       </c>
@@ -23108,7 +23108,7 @@
       <c r="AC127" s="28"/>
       <c r="AD127" s="28"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128" s="48" t="s">
         <v>420</v>
       </c>
@@ -23192,7 +23192,7 @@
       <c r="AC128" s="28"/>
       <c r="AD128" s="28"/>
     </row>
-    <row r="129" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A129" s="48" t="s">
         <v>422</v>
       </c>
@@ -23276,7 +23276,7 @@
       <c r="AC129" s="28"/>
       <c r="AD129" s="28"/>
     </row>
-    <row r="130" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A130" s="48" t="s">
         <v>424</v>
       </c>
@@ -23360,7 +23360,7 @@
       <c r="AC130" s="28"/>
       <c r="AD130" s="28"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
         <v>427</v>
       </c>
@@ -23444,7 +23444,7 @@
       <c r="AC131" s="28"/>
       <c r="AD131" s="28"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" s="48" t="s">
         <v>430</v>
       </c>
@@ -23528,7 +23528,7 @@
       <c r="AC132" s="28"/>
       <c r="AD132" s="28"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" s="48" t="s">
         <v>433</v>
       </c>
@@ -23612,7 +23612,7 @@
       <c r="AC133" s="28"/>
       <c r="AD133" s="28"/>
     </row>
-    <row r="134" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A134" s="48" t="s">
         <v>436</v>
       </c>
@@ -23696,7 +23696,7 @@
       <c r="AC134" s="28"/>
       <c r="AD134" s="28"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>438</v>
       </c>
@@ -23780,7 +23780,7 @@
       <c r="AC135" s="28"/>
       <c r="AD135" s="28"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" s="48" t="s">
         <v>703</v>
       </c>
@@ -23864,7 +23864,7 @@
       <c r="AC136" s="28"/>
       <c r="AD136" s="28"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" s="48" t="s">
         <v>397</v>
       </c>
@@ -23948,7 +23948,7 @@
       <c r="AC137" s="28"/>
       <c r="AD137" s="28"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138" s="48" t="s">
         <v>399</v>
       </c>
@@ -24032,7 +24032,7 @@
       <c r="AC138" s="28"/>
       <c r="AD138" s="28"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139" s="48" t="s">
         <v>400</v>
       </c>
@@ -24116,7 +24116,7 @@
       <c r="AC139" s="28"/>
       <c r="AD139" s="28"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" s="48" t="s">
         <v>401</v>
       </c>
@@ -24200,7 +24200,7 @@
       <c r="AC140" s="28"/>
       <c r="AD140" s="28"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141" s="48" t="s">
         <v>402</v>
       </c>
@@ -24284,7 +24284,7 @@
       <c r="AC141" s="28"/>
       <c r="AD141" s="28"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142" s="48" t="s">
         <v>403</v>
       </c>
@@ -24368,7 +24368,7 @@
       <c r="AC142" s="28"/>
       <c r="AD142" s="28"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143" s="48" t="s">
         <v>405</v>
       </c>
@@ -24452,7 +24452,7 @@
       <c r="AC143" s="28"/>
       <c r="AD143" s="28"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144" s="48" t="s">
         <v>442</v>
       </c>
@@ -24536,7 +24536,7 @@
       <c r="AC144" s="28"/>
       <c r="AD144" s="28"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" s="48" t="s">
         <v>446</v>
       </c>
@@ -24620,7 +24620,7 @@
       <c r="AC145" s="28"/>
       <c r="AD145" s="28"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" s="48" t="s">
         <v>449</v>
       </c>
@@ -24704,7 +24704,7 @@
       <c r="AC146" s="28"/>
       <c r="AD146" s="28"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>451</v>
       </c>
@@ -24788,7 +24788,7 @@
       <c r="AC147" s="28"/>
       <c r="AD147" s="28"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" s="48" t="s">
         <v>454</v>
       </c>
@@ -24872,7 +24872,7 @@
       <c r="AC148" s="28"/>
       <c r="AD148" s="28"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" s="48" t="s">
         <v>457</v>
       </c>
@@ -24956,7 +24956,7 @@
       <c r="AC149" s="28"/>
       <c r="AD149" s="28"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A150" s="48" t="s">
         <v>460</v>
       </c>
@@ -25040,7 +25040,7 @@
       <c r="AC150" s="28"/>
       <c r="AD150" s="28"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" s="48" t="s">
         <v>463</v>
       </c>
@@ -25124,7 +25124,7 @@
       <c r="AC151" s="28"/>
       <c r="AD151" s="28"/>
     </row>
-    <row r="152" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="48" t="s">
         <v>466</v>
       </c>
@@ -25208,7 +25208,7 @@
       <c r="AC152" s="28"/>
       <c r="AD152" s="28"/>
     </row>
-    <row r="153" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="48" t="s">
         <v>469</v>
       </c>
@@ -25292,7 +25292,7 @@
       <c r="AC153" s="28"/>
       <c r="AD153" s="28"/>
     </row>
-    <row r="154" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="48" t="s">
         <v>509</v>
       </c>
@@ -25376,7 +25376,7 @@
       <c r="AC154" s="28"/>
       <c r="AD154" s="28"/>
     </row>
-    <row r="155" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="66" t="s">
         <v>539</v>
       </c>
@@ -25460,7 +25460,7 @@
       <c r="AC155" s="28"/>
       <c r="AD155" s="28"/>
     </row>
-    <row r="156" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="70" t="s">
         <v>543</v>
       </c>
@@ -25544,7 +25544,7 @@
       <c r="AC156" s="28"/>
       <c r="AD156" s="28"/>
     </row>
-    <row r="157" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="66" t="s">
         <v>546</v>
       </c>
@@ -25628,7 +25628,7 @@
       <c r="AC157" s="28"/>
       <c r="AD157" s="28"/>
     </row>
-    <row r="158" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="70" t="s">
         <v>549</v>
       </c>
@@ -25712,7 +25712,7 @@
       <c r="AC158" s="28"/>
       <c r="AD158" s="28"/>
     </row>
-    <row r="159" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="66" t="s">
         <v>551</v>
       </c>
@@ -25796,7 +25796,7 @@
       <c r="AC159" s="28"/>
       <c r="AD159" s="28"/>
     </row>
-    <row r="160" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="70" t="s">
         <v>553</v>
       </c>
@@ -25880,7 +25880,7 @@
       <c r="AC160" s="28"/>
       <c r="AD160" s="28"/>
     </row>
-    <row r="161" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="66" t="s">
         <v>555</v>
       </c>
@@ -25964,7 +25964,7 @@
       <c r="AC161" s="28"/>
       <c r="AD161" s="28"/>
     </row>
-    <row r="162" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="70" t="s">
         <v>557</v>
       </c>
@@ -26048,7 +26048,7 @@
       <c r="AC162" s="28"/>
       <c r="AD162" s="28"/>
     </row>
-    <row r="163" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="66" t="s">
         <v>559</v>
       </c>
@@ -26132,7 +26132,7 @@
       <c r="AC163" s="28"/>
       <c r="AD163" s="28"/>
     </row>
-    <row r="164" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="70" t="s">
         <v>562</v>
       </c>
@@ -26216,7 +26216,7 @@
       <c r="AC164" s="28"/>
       <c r="AD164" s="28"/>
     </row>
-    <row r="165" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="66" t="s">
         <v>565</v>
       </c>
@@ -26300,7 +26300,7 @@
       <c r="AC165" s="28"/>
       <c r="AD165" s="28"/>
     </row>
-    <row r="166" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="70" t="s">
         <v>568</v>
       </c>
@@ -26384,7 +26384,7 @@
       <c r="AC166" s="28"/>
       <c r="AD166" s="28"/>
     </row>
-    <row r="167" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="66" t="s">
         <v>571</v>
       </c>
@@ -26468,7 +26468,7 @@
       <c r="AC167" s="28"/>
       <c r="AD167" s="28"/>
     </row>
-    <row r="168" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="70" t="s">
         <v>574</v>
       </c>
@@ -26552,7 +26552,7 @@
       <c r="AC168" s="28"/>
       <c r="AD168" s="28"/>
     </row>
-    <row r="169" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="66" t="s">
         <v>577</v>
       </c>
@@ -26636,7 +26636,7 @@
       <c r="AC169" s="28"/>
       <c r="AD169" s="28"/>
     </row>
-    <row r="170" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="66" t="s">
         <v>579</v>
       </c>
@@ -26720,7 +26720,7 @@
       <c r="AC170" s="28"/>
       <c r="AD170" s="28"/>
     </row>
-    <row r="171" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="66" t="s">
         <v>581</v>
       </c>
@@ -26804,7 +26804,7 @@
       <c r="AC171" s="28"/>
       <c r="AD171" s="28"/>
     </row>
-    <row r="172" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="66" t="s">
         <v>584</v>
       </c>
@@ -26888,7 +26888,7 @@
       <c r="AC172" s="28"/>
       <c r="AD172" s="28"/>
     </row>
-    <row r="173" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="76"/>
       <c r="B173" s="48"/>
       <c r="C173" s="36"/>
@@ -26932,7 +26932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="70" t="s">
         <v>601</v>
       </c>
@@ -27024,7 +27024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="70" t="s">
         <v>604</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="70" t="s">
         <v>606</v>
       </c>
@@ -27208,7 +27208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="70" t="s">
         <v>607</v>
       </c>
@@ -27300,7 +27300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="70" t="s">
         <v>609</v>
       </c>
@@ -27392,7 +27392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="70" t="s">
         <v>610</v>
       </c>
@@ -27484,7 +27484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="70" t="s">
         <v>611</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="70" t="s">
         <v>615</v>
       </c>
@@ -27668,7 +27668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="70" t="s">
         <v>614</v>
       </c>
@@ -27760,7 +27760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="70" t="s">
         <v>619</v>
       </c>
@@ -27855,7 +27855,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="184" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="70" t="s">
         <v>623</v>
       </c>
@@ -27950,7 +27950,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="70" t="s">
         <v>629</v>
       </c>
@@ -28045,7 +28045,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="186" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="70" t="s">
         <v>630</v>
       </c>
@@ -28140,7 +28140,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="187" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="70" t="s">
         <v>636</v>
       </c>
@@ -28232,7 +28232,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="188" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="70" t="s">
         <v>856</v>
       </c>
@@ -28324,7 +28324,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="70" t="s">
         <v>857</v>
       </c>
@@ -28416,7 +28416,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="190" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="70" t="s">
         <v>640</v>
       </c>
@@ -28508,7 +28508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="70" t="s">
         <v>642</v>
       </c>
@@ -28600,7 +28600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="70" t="s">
         <v>648</v>
       </c>
@@ -28692,7 +28692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="70" t="s">
         <v>649</v>
       </c>
@@ -28784,7 +28784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="70" t="s">
         <v>654</v>
       </c>
@@ -28876,7 +28876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="70" t="s">
         <v>656</v>
       </c>
@@ -28968,7 +28968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="70" t="s">
         <v>662</v>
       </c>
@@ -29060,7 +29060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="70" t="s">
         <v>665</v>
       </c>
@@ -29152,7 +29152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="70" t="s">
         <v>666</v>
       </c>
@@ -29244,7 +29244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="70" t="s">
         <v>671</v>
       </c>
@@ -29336,7 +29336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="70" t="s">
         <v>676</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="70" t="s">
         <v>677</v>
       </c>
@@ -29520,7 +29520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="70" t="s">
         <v>732</v>
       </c>
@@ -29612,7 +29612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="70" t="s">
         <v>738</v>
       </c>
@@ -29704,7 +29704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="70" t="s">
         <v>740</v>
       </c>
@@ -29796,7 +29796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="70" t="s">
         <v>780</v>
       </c>
@@ -29888,7 +29888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="70" t="s">
         <v>873</v>
       </c>
@@ -29980,7 +29980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="70" t="s">
         <v>874</v>
       </c>
@@ -30072,7 +30072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="70" t="s">
         <v>745</v>
       </c>
@@ -30164,7 +30164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="70" t="s">
         <v>751</v>
       </c>
@@ -30256,7 +30256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="70" t="s">
         <v>752</v>
       </c>
@@ -30348,7 +30348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="70" t="s">
         <v>757</v>
       </c>
@@ -30440,7 +30440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="70" t="s">
         <v>758</v>
       </c>
@@ -30532,7 +30532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="70" t="s">
         <v>759</v>
       </c>
@@ -30624,7 +30624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="70" t="s">
         <v>764</v>
       </c>
@@ -30716,7 +30716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="70" t="s">
         <v>767</v>
       </c>
@@ -30808,7 +30808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="70" t="s">
         <v>772</v>
       </c>
@@ -30900,7 +30900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="70" t="s">
         <v>775</v>
       </c>
@@ -30992,7 +30992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="70" t="s">
         <v>776</v>
       </c>
@@ -31084,7 +31084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="70" t="s">
         <v>782</v>
       </c>
@@ -31176,7 +31176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="70" t="s">
         <v>795</v>
       </c>
@@ -31268,7 +31268,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="70" t="s">
         <v>800</v>
       </c>
@@ -31360,7 +31360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="70" t="s">
         <v>805</v>
       </c>
@@ -31452,7 +31452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:30" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="70" t="s">
         <v>807</v>
       </c>
@@ -31544,7 +31544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="70" t="s">
         <v>809</v>
       </c>
@@ -31636,7 +31636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="70" t="s">
         <v>814</v>
       </c>
@@ -31728,7 +31728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="70" t="s">
         <v>816</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="70" t="s">
         <v>820</v>
       </c>
@@ -31912,7 +31912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="70" t="s">
         <v>825</v>
       </c>
@@ -32004,7 +32004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="70" t="s">
         <v>828</v>
       </c>
@@ -32096,7 +32096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="70" t="s">
         <v>829</v>
       </c>
@@ -32188,7 +32188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="70" t="s">
         <v>834</v>
       </c>
@@ -32280,7 +32280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="70" t="s">
         <v>841</v>
       </c>
@@ -32372,7 +32372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="70" t="s">
         <v>847</v>
       </c>
@@ -32464,7 +32464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="70" t="s">
         <v>851</v>
       </c>
@@ -32556,7 +32556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="70" t="s">
         <v>853</v>
       </c>
@@ -32648,7 +32648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="70" t="s">
         <v>866</v>
       </c>
@@ -32740,7 +32740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="70" t="s">
         <v>868</v>
       </c>
@@ -32958,7 +32958,7 @@
     <hyperlink ref="G172" r:id="rId17" xr:uid="{E0CF340A-567A-4979-87DE-4F467618A03F}"/>
     <hyperlink ref="AC194" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
     <hyperlink ref="S184" r:id="rId19" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
-    <hyperlink ref="S198" r:id="rId20" display="https://qa.adm.testingserver8.com/admin/product" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
+    <hyperlink ref="S198" r:id="rId20" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
     <hyperlink ref="S176" r:id="rId21" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
     <hyperlink ref="S177" r:id="rId22" display="https://opt.adm.testingserver8.com/admin/home-page-banner" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
     <hyperlink ref="S178" r:id="rId23" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
@@ -32968,33 +32968,34 @@
     <hyperlink ref="S181" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
-    <hyperlink ref="S209" r:id="rId30" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S208" r:id="rId31" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
-    <hyperlink ref="S220" r:id="rId32" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
-    <hyperlink ref="S225" r:id="rId33" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
-    <hyperlink ref="S223" r:id="rId34" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
-    <hyperlink ref="S222" r:id="rId35" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
-    <hyperlink ref="S226" r:id="rId36" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
-    <hyperlink ref="T226" r:id="rId37" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
-    <hyperlink ref="S227" r:id="rId38" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T227" r:id="rId39" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
-    <hyperlink ref="S228" r:id="rId40" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
-    <hyperlink ref="S229" r:id="rId41" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
-    <hyperlink ref="S230" r:id="rId42" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
-    <hyperlink ref="S231" r:id="rId43" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
-    <hyperlink ref="T229" r:id="rId44" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
+    <hyperlink ref="S209" r:id="rId30" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S208" r:id="rId31" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="S220" r:id="rId32" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S225" r:id="rId33" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S223" r:id="rId34" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S222" r:id="rId35" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S226" r:id="rId36" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T226" r:id="rId37" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S227" r:id="rId38" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T227" r:id="rId39" display="https://console.zlaata.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S228" r:id="rId40" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S229" r:id="rId41" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S230" r:id="rId42" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S231" r:id="rId43" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="T229" r:id="rId44" display="https://console.zlaata.com/admin/exchange-order" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
     <hyperlink ref="AD226" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
     <hyperlink ref="AC175" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
     <hyperlink ref="AC176" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
     <hyperlink ref="AC179" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
     <hyperlink ref="AC235" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
-    <hyperlink ref="T206" r:id="rId50" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
-    <hyperlink ref="T207" r:id="rId51" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
-    <hyperlink ref="S197" r:id="rId52" display="https://qa.adm.testingserver8.com/admin/product-style" xr:uid="{279698D4-2A41-4BBD-838A-CBE141EE3D50}"/>
+    <hyperlink ref="T206" r:id="rId50" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
+    <hyperlink ref="T207" r:id="rId51" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
+    <hyperlink ref="S197" r:id="rId52" xr:uid="{279698D4-2A41-4BBD-838A-CBE141EE3D50}"/>
     <hyperlink ref="AC220" r:id="rId53" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{CD96CCCF-BE60-40A1-BA2F-93729430B99A}"/>
     <hyperlink ref="AC221:AC231" r:id="rId54" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{C68B94AD-4CFE-4AB2-9431-B829C1D5A48C}"/>
+    <hyperlink ref="S214" r:id="rId55" display="https://qa.zlta.testingserver8.com/admin/payment-pending" xr:uid="{37E5E50E-434D-4FC0-B9A6-C0648E88FF97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAseverSaroj\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3F987-AE8F-4C81-B63C-301C2FFF4B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C9D854-AB99-45EF-9711-29012BF91FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8368" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8407" uniqueCount="902">
   <si>
     <t>S.No</t>
   </si>
@@ -2551,18 +2551,9 @@
     <t>Ganesh Chaturthi</t>
   </si>
   <si>
-    <t>TD_UI_Zlaata_COD_01</t>
-  </si>
-  <si>
     <t>COD Verfication In Check Out Page</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_COD_01</t>
-  </si>
-  <si>
-    <t>Verify COD visibility when two products with Gift Wrap are added.</t>
-  </si>
-  <si>
     <t>Calculation Verification RazorPay and My Order Page</t>
   </si>
   <si>
@@ -2720,6 +2711,27 @@
   </si>
   <si>
     <t>https://qa.adm.testingserver8.com/admin/all-orders</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADMINORDER_01</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADMINORDER_01</t>
+  </si>
+  <si>
+    <t>Verify that admin can able to place the Prepaid order.</t>
+  </si>
+  <si>
+    <t>ADMINORDER</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADMINORDER_02</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADMINORDER_02</t>
+  </si>
+  <si>
+    <t>Verify that admin can able to place the COD order.</t>
   </si>
 </sst>
 </file>
@@ -3356,6 +3368,24 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3382,24 +3412,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4203,22 +4215,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z252"/>
+  <dimension ref="A1:Z253"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" zoomScale="109" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216:J217"/>
+    <sheetView topLeftCell="A231" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
     <col min="4" max="4" width="118.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
     <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4959,18 +4971,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="95"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -5357,18 +5369,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="98"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5915,18 +5927,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="96" t="s">
+      <c r="A55" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="98"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="89"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -6249,18 +6261,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="96" t="s">
+      <c r="A66" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="98"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="89"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6615,18 +6627,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="96" t="s">
+      <c r="A78" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="98"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="89"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7493,18 +7505,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="90" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="84"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
-      <c r="F106" s="84"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="84"/>
-      <c r="I106" s="84"/>
-      <c r="J106" s="84"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="90"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="90"/>
+      <c r="J106" s="90"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -7997,18 +8009,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="85" t="s">
+      <c r="A121" s="91" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="85"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
-      <c r="I121" s="85"/>
-      <c r="J121" s="85"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="91"/>
+      <c r="D121" s="91"/>
+      <c r="E121" s="91"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="91"/>
+      <c r="H121" s="91"/>
+      <c r="I121" s="91"/>
+      <c r="J121" s="91"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -8071,18 +8083,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="85" t="s">
+      <c r="A123" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="85"/>
-      <c r="I123" s="85"/>
-      <c r="J123" s="85"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="91"/>
+      <c r="D123" s="91"/>
+      <c r="E123" s="91"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="91"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="91"/>
+      <c r="J123" s="91"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8145,18 +8157,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="85" t="s">
+      <c r="A125" s="91" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="85"/>
-      <c r="I125" s="85"/>
-      <c r="J125" s="85"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="91"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="91"/>
+      <c r="F125" s="91"/>
+      <c r="G125" s="91"/>
+      <c r="H125" s="91"/>
+      <c r="I125" s="91"/>
+      <c r="J125" s="91"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8481,18 +8493,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="85" t="s">
+      <c r="A133" s="91" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="85"/>
-      <c r="C133" s="85"/>
-      <c r="D133" s="86"/>
-      <c r="E133" s="86"/>
-      <c r="F133" s="86"/>
-      <c r="G133" s="86"/>
-      <c r="H133" s="86"/>
-      <c r="I133" s="86"/>
-      <c r="J133" s="86"/>
+      <c r="B133" s="91"/>
+      <c r="C133" s="91"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="92"/>
+      <c r="F133" s="92"/>
+      <c r="G133" s="92"/>
+      <c r="H133" s="92"/>
+      <c r="I133" s="92"/>
+      <c r="J133" s="92"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8987,18 +8999,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="90" t="s">
+      <c r="A145" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="91"/>
-      <c r="C145" s="91"/>
-      <c r="D145" s="91"/>
-      <c r="E145" s="91"/>
-      <c r="F145" s="91"/>
-      <c r="G145" s="91"/>
-      <c r="H145" s="91"/>
-      <c r="I145" s="91"/>
-      <c r="J145" s="92"/>
+      <c r="B145" s="97"/>
+      <c r="C145" s="97"/>
+      <c r="D145" s="97"/>
+      <c r="E145" s="97"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="97"/>
+      <c r="H145" s="97"/>
+      <c r="I145" s="97"/>
+      <c r="J145" s="98"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9445,18 +9457,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="85" t="s">
+      <c r="A156" s="91" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="85"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="85"/>
-      <c r="I156" s="85"/>
-      <c r="J156" s="85"/>
+      <c r="B156" s="91"/>
+      <c r="C156" s="91"/>
+      <c r="D156" s="91"/>
+      <c r="E156" s="91"/>
+      <c r="F156" s="91"/>
+      <c r="G156" s="91"/>
+      <c r="H156" s="91"/>
+      <c r="I156" s="91"/>
+      <c r="J156" s="91"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9523,18 +9535,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="85" t="s">
+      <c r="A158" s="91" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="85"/>
-      <c r="C158" s="85"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="85"/>
-      <c r="I158" s="85"/>
-      <c r="J158" s="85"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="91"/>
+      <c r="D158" s="91"/>
+      <c r="E158" s="91"/>
+      <c r="F158" s="91"/>
+      <c r="G158" s="91"/>
+      <c r="H158" s="91"/>
+      <c r="I158" s="91"/>
+      <c r="J158" s="91"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10273,18 +10285,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="85" t="s">
+      <c r="A177" s="91" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="85"/>
-      <c r="C177" s="85"/>
+      <c r="B177" s="91"/>
+      <c r="C177" s="91"/>
       <c r="D177" s="83"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="85"/>
-      <c r="G177" s="85"/>
-      <c r="H177" s="85"/>
-      <c r="I177" s="85"/>
-      <c r="J177" s="85"/>
+      <c r="E177" s="91"/>
+      <c r="F177" s="91"/>
+      <c r="G177" s="91"/>
+      <c r="H177" s="91"/>
+      <c r="I177" s="91"/>
+      <c r="J177" s="91"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -10575,18 +10587,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="87" t="s">
+      <c r="A187" s="93" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="88"/>
-      <c r="C187" s="88"/>
-      <c r="D187" s="88"/>
-      <c r="E187" s="88"/>
-      <c r="F187" s="88"/>
-      <c r="G187" s="88"/>
-      <c r="H187" s="88"/>
-      <c r="I187" s="88"/>
-      <c r="J187" s="89"/>
+      <c r="B187" s="94"/>
+      <c r="C187" s="94"/>
+      <c r="D187" s="94"/>
+      <c r="E187" s="94"/>
+      <c r="F187" s="94"/>
+      <c r="G187" s="94"/>
+      <c r="H187" s="94"/>
+      <c r="I187" s="94"/>
+      <c r="J187" s="95"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10756,16 +10768,16 @@
         <v>10</v>
       </c>
       <c r="C193" s="74" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D193" s="78" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E193" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F193" s="70" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G193" s="69" t="s">
         <v>11</v>
@@ -10788,16 +10800,16 @@
         <v>10</v>
       </c>
       <c r="C194" s="74" t="s">
+        <v>857</v>
+      </c>
+      <c r="D194" s="78" t="s">
         <v>860</v>
-      </c>
-      <c r="D194" s="78" t="s">
-        <v>863</v>
       </c>
       <c r="E194" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F194" s="70" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="G194" s="69" t="s">
         <v>11</v>
@@ -11402,16 +11414,16 @@
         <v>10</v>
       </c>
       <c r="C216" s="79" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D216" s="78" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E216" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F216" s="79" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="G216" s="48" t="s">
         <v>11</v>
@@ -11434,16 +11446,16 @@
         <v>10</v>
       </c>
       <c r="C217" s="79" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D217" s="78" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E217" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F217" s="79" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G217" s="48" t="s">
         <v>11</v>
@@ -12270,7 +12282,7 @@
     </row>
     <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="83" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B245" s="83"/>
       <c r="C245" s="83"/>
@@ -12290,22 +12302,22 @@
         <v>10</v>
       </c>
       <c r="C246" s="79" t="s">
-        <v>843</v>
+        <v>896</v>
       </c>
       <c r="D246" s="78" t="s">
-        <v>844</v>
+        <v>897</v>
       </c>
       <c r="E246" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F246" s="70" t="s">
-        <v>841</v>
+        <v>895</v>
       </c>
       <c r="G246" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H246" s="48" t="s">
-        <v>793</v>
+        <v>898</v>
       </c>
       <c r="I246" s="48" t="s">
         <v>12</v>
@@ -12315,75 +12327,75 @@
       </c>
     </row>
     <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="83" t="s">
-        <v>845</v>
-      </c>
-      <c r="B247" s="83"/>
-      <c r="C247" s="83"/>
-      <c r="D247" s="83"/>
-      <c r="E247" s="83"/>
-      <c r="F247" s="83"/>
-      <c r="G247" s="83"/>
-      <c r="H247" s="83"/>
-      <c r="I247" s="83"/>
-      <c r="J247" s="83"/>
+      <c r="A247" s="48">
+        <v>2</v>
+      </c>
+      <c r="B247" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" s="79" t="s">
+        <v>900</v>
+      </c>
+      <c r="D247" s="78" t="s">
+        <v>901</v>
+      </c>
+      <c r="E247" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" s="70" t="s">
+        <v>899</v>
+      </c>
+      <c r="G247" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H247" s="48" t="s">
+        <v>898</v>
+      </c>
+      <c r="I247" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J247" s="48" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="48">
-        <v>1</v>
-      </c>
-      <c r="B248" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C248" s="79" t="s">
-        <v>846</v>
-      </c>
-      <c r="D248" s="78" t="s">
-        <v>849</v>
-      </c>
-      <c r="E248" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F248" s="70" t="s">
-        <v>847</v>
-      </c>
-      <c r="G248" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H248" s="48" t="s">
-        <v>848</v>
-      </c>
-      <c r="I248" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J248" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A248" s="83" t="s">
+        <v>842</v>
+      </c>
+      <c r="B248" s="83"/>
+      <c r="C248" s="83"/>
+      <c r="D248" s="83"/>
+      <c r="E248" s="83"/>
+      <c r="F248" s="83"/>
+      <c r="G248" s="83"/>
+      <c r="H248" s="83"/>
+      <c r="I248" s="83"/>
+      <c r="J248" s="83"/>
     </row>
     <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B249" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C249" s="79" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D249" s="78" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E249" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F249" s="70" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="G249" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H249" s="48" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I249" s="48" t="s">
         <v>12</v>
@@ -12394,28 +12406,28 @@
     </row>
     <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B250" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C250" s="79" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D250" s="78" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E250" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F250" s="70" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G250" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H250" s="48" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I250" s="48" t="s">
         <v>12</v>
@@ -12426,28 +12438,28 @@
     </row>
     <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B251" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C251" s="79" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="D251" s="78" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="E251" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F251" s="70" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="G251" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H251" s="48" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I251" s="48" t="s">
         <v>12</v>
@@ -12458,28 +12470,28 @@
     </row>
     <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B252" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C252" s="79" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="D252" s="78" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E252" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F252" s="70" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G252" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H252" s="48" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I252" s="48" t="s">
         <v>12</v>
@@ -12488,18 +12500,41 @@
         <v>13</v>
       </c>
     </row>
+    <row r="253" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="48">
+        <v>5</v>
+      </c>
+      <c r="B253" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" s="79" t="s">
+        <v>866</v>
+      </c>
+      <c r="D253" s="78" t="s">
+        <v>867</v>
+      </c>
+      <c r="E253" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" s="70" t="s">
+        <v>865</v>
+      </c>
+      <c r="G253" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H253" s="48" t="s">
+        <v>845</v>
+      </c>
+      <c r="I253" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J253" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A212:J212"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="A202:J202"/>
-    <mergeCell ref="A218:J218"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A247:J247"/>
+    <mergeCell ref="A248:J248"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
@@ -12515,6 +12550,15 @@
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
     <mergeCell ref="A230:J230"/>
+    <mergeCell ref="A212:J212"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="A202:J202"/>
+    <mergeCell ref="A218:J218"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -12612,10 +12656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AF237"/>
+  <dimension ref="A1:AF238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M202" workbookViewId="0">
-      <selection activeCell="S214" sqref="S214"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26988,7 +27032,7 @@
         <v>22</v>
       </c>
       <c r="S174" s="49" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -27080,7 +27124,7 @@
         <v>22</v>
       </c>
       <c r="S175" s="49" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
@@ -27172,7 +27216,7 @@
         <v>22</v>
       </c>
       <c r="S176" s="49" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
@@ -27264,7 +27308,7 @@
         <v>22</v>
       </c>
       <c r="S177" s="49" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="T177" s="48" t="s">
         <v>22</v>
@@ -27356,7 +27400,7 @@
         <v>22</v>
       </c>
       <c r="S178" s="49" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="T178" s="48" t="s">
         <v>22</v>
@@ -27448,7 +27492,7 @@
         <v>22</v>
       </c>
       <c r="S179" s="49" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="T179" s="48" t="s">
         <v>22</v>
@@ -27540,7 +27584,7 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="T180" s="48" t="s">
         <v>22</v>
@@ -27632,7 +27676,7 @@
         <v>22</v>
       </c>
       <c r="S181" s="49" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="T181" s="48" t="s">
         <v>22</v>
@@ -27724,7 +27768,7 @@
         <v>22</v>
       </c>
       <c r="S182" s="49" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="T182" s="48" t="s">
         <v>22</v>
@@ -27816,7 +27860,7 @@
         <v>22</v>
       </c>
       <c r="S183" s="49" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="T183" s="48" t="s">
         <v>22</v>
@@ -27911,7 +27955,7 @@
         <v>22</v>
       </c>
       <c r="S184" s="49" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="T184" s="48" t="s">
         <v>22</v>
@@ -28234,7 +28278,7 @@
     </row>
     <row r="188" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="70" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B188" s="48" t="s">
         <v>22</v>
@@ -28321,12 +28365,12 @@
         <v>22</v>
       </c>
       <c r="AD188" s="78" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="189" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="70" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B189" s="48" t="s">
         <v>22</v>
@@ -28413,7 +28457,7 @@
         <v>22</v>
       </c>
       <c r="AD189" s="78" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="190" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -28840,7 +28884,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -28932,7 +28976,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -29024,7 +29068,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -29116,7 +29160,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -29208,7 +29252,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -29300,7 +29344,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -29392,7 +29436,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -29484,7 +29528,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -29576,7 +29620,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -29668,7 +29712,7 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T203" s="48" t="s">
         <v>22</v>
@@ -29760,7 +29804,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29852,7 +29896,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -29890,7 +29934,7 @@
     </row>
     <row r="206" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="70" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B206" s="48" t="s">
         <v>22</v>
@@ -29944,10 +29988,10 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T206" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U206" s="48" t="s">
         <v>22</v>
@@ -29982,7 +30026,7 @@
     </row>
     <row r="207" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="70" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B207" s="48" t="s">
         <v>22</v>
@@ -30036,10 +30080,10 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T207" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U207" s="48" t="s">
         <v>22</v>
@@ -30128,7 +30172,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -30220,7 +30264,7 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="T209" s="48" t="s">
         <v>22</v>
@@ -30312,7 +30356,7 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="T210" s="48" t="s">
         <v>22</v>
@@ -30404,7 +30448,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30496,7 +30540,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30588,7 +30632,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30680,7 +30724,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30772,7 +30816,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30864,7 +30908,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -30956,7 +31000,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -31048,7 +31092,7 @@
         <v>22</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="T218" s="48" t="s">
         <v>22</v>
@@ -31140,7 +31184,7 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="T219" s="48" t="s">
         <v>22</v>
@@ -31232,7 +31276,7 @@
         <v>22</v>
       </c>
       <c r="S220" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T220" s="48" t="s">
         <v>22</v>
@@ -31324,7 +31368,7 @@
         <v>22</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="T221" s="48" t="s">
         <v>22</v>
@@ -31416,10 +31460,10 @@
         <v>22</v>
       </c>
       <c r="S222" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T222" s="49" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="U222" s="48" t="s">
         <v>22</v>
@@ -31508,10 +31552,10 @@
         <v>22</v>
       </c>
       <c r="S223" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T223" s="49" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="U223" s="48" t="s">
         <v>22</v>
@@ -31600,7 +31644,7 @@
         <v>22</v>
       </c>
       <c r="S224" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T224" s="48" t="s">
         <v>22</v>
@@ -31692,7 +31736,7 @@
         <v>22</v>
       </c>
       <c r="S225" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T225" s="48" t="s">
         <v>22</v>
@@ -31784,10 +31828,10 @@
         <v>22</v>
       </c>
       <c r="S226" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T226" s="49" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31876,10 +31920,10 @@
         <v>22</v>
       </c>
       <c r="S227" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T227" s="49" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="U227" s="48" t="s">
         <v>22</v>
@@ -31968,7 +32012,7 @@
         <v>22</v>
       </c>
       <c r="S228" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T228" s="48" t="s">
         <v>22</v>
@@ -32060,10 +32104,10 @@
         <v>22</v>
       </c>
       <c r="S229" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T229" s="49" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="U229" s="48" t="s">
         <v>22</v>
@@ -32152,10 +32196,10 @@
         <v>22</v>
       </c>
       <c r="S230" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T230" s="49" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="U230" s="48" t="s">
         <v>22</v>
@@ -32244,10 +32288,10 @@
         <v>22</v>
       </c>
       <c r="S231" s="49" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T231" s="49" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="U231" s="48" t="s">
         <v>22</v>
@@ -32282,7 +32326,7 @@
     </row>
     <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="70" t="s">
-        <v>841</v>
+        <v>895</v>
       </c>
       <c r="B232" s="48" t="s">
         <v>22</v>
@@ -32374,7 +32418,7 @@
     </row>
     <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="70" t="s">
-        <v>847</v>
+        <v>899</v>
       </c>
       <c r="B233" s="48" t="s">
         <v>22</v>
@@ -32466,7 +32510,7 @@
     </row>
     <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="70" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B234" s="48" t="s">
         <v>22</v>
@@ -32558,7 +32602,7 @@
     </row>
     <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="70" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B235" s="48" t="s">
         <v>22</v>
@@ -32641,8 +32685,8 @@
       <c r="AB235" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC235" s="73" t="s">
-        <v>835</v>
+      <c r="AC235" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD235" s="48" t="s">
         <v>22</v>
@@ -32650,7 +32694,7 @@
     </row>
     <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="70" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="B236" s="48" t="s">
         <v>22</v>
@@ -32734,7 +32778,7 @@
         <v>22</v>
       </c>
       <c r="AC236" s="73" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="AD236" s="48" t="s">
         <v>22</v>
@@ -32742,7 +32786,7 @@
     </row>
     <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="70" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B237" s="48" t="s">
         <v>22</v>
@@ -32826,9 +32870,101 @@
         <v>22</v>
       </c>
       <c r="AC237" s="73" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="AD237" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="70" t="s">
+        <v>865</v>
+      </c>
+      <c r="B238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V238" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W238" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X238" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB238" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC238" s="73" t="s">
+        <v>864</v>
+      </c>
+      <c r="AD238" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -32987,7 +33123,7 @@
     <hyperlink ref="AC175" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
     <hyperlink ref="AC176" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
     <hyperlink ref="AC179" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
-    <hyperlink ref="AC235" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
+    <hyperlink ref="AC236" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
     <hyperlink ref="T206" r:id="rId50" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
     <hyperlink ref="T207" r:id="rId51" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
     <hyperlink ref="S197" r:id="rId52" xr:uid="{279698D4-2A41-4BBD-838A-CBE141EE3D50}"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAseverSaroj\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C9D854-AB99-45EF-9711-29012BF91FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E6111D-26A1-4C15-A56E-2653710C3E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -2650,69 +2650,6 @@
     <t>Verify with Two Specific Products Coupon Verification.</t>
   </si>
   <si>
-    <t>https://qa.adm.testingserver8.com/admin/home-page-banner</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/special-timer-event</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/categories</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product-collection</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product-style</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/product-search-keyword</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/collection-search-keyword</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/style-search-keyword</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/coupon</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/order</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/return-order</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/exchange-order</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/cancel-order</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/return-cancel</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/exchange-cancel</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/payment-pending</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/payment-refund</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/payment-failed</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/rto-orders</t>
-  </si>
-  <si>
-    <t>https://qa.adm.testingserver8.com/admin/all-orders</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_ADMINORDER_01</t>
   </si>
   <si>
@@ -2732,6 +2669,69 @@
   </si>
   <si>
     <t>Verify that admin can able to place the COD order.</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/home-page-banner</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/special-timer-event</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/categories</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product-collection</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product-style</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/product-search-keyword</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/collection-search-keyword</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/style-search-keyword</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/coupon</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/return-order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/exchange-order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/cancel-order</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/return-cancel</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/exchange-cancel</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/payment-pending</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/payment-refund</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/payment-failed</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/rto-orders</t>
+  </si>
+  <si>
+    <t>https://console.zlaata.com/admin/all-orders</t>
   </si>
 </sst>
 </file>
@@ -3368,24 +3368,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3412,6 +3394,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4971,18 +4971,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -5369,18 +5369,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="98"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5927,18 +5927,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="89"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="98"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -6261,18 +6261,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="87" t="s">
+      <c r="A66" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="89"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="98"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6627,18 +6627,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="87" t="s">
+      <c r="A78" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="89"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="98"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7505,18 +7505,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="90" t="s">
+      <c r="A106" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="90"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -8009,18 +8009,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="91" t="s">
+      <c r="A121" s="85" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="91"/>
-      <c r="C121" s="91"/>
-      <c r="D121" s="91"/>
-      <c r="E121" s="91"/>
-      <c r="F121" s="91"/>
-      <c r="G121" s="91"/>
-      <c r="H121" s="91"/>
-      <c r="I121" s="91"/>
-      <c r="J121" s="91"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -8083,18 +8083,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="91" t="s">
+      <c r="A123" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="91"/>
-      <c r="C123" s="91"/>
-      <c r="D123" s="91"/>
-      <c r="E123" s="91"/>
-      <c r="F123" s="91"/>
-      <c r="G123" s="91"/>
-      <c r="H123" s="91"/>
-      <c r="I123" s="91"/>
-      <c r="J123" s="91"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8157,18 +8157,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="91" t="s">
+      <c r="A125" s="85" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="91"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="91"/>
-      <c r="E125" s="91"/>
-      <c r="F125" s="91"/>
-      <c r="G125" s="91"/>
-      <c r="H125" s="91"/>
-      <c r="I125" s="91"/>
-      <c r="J125" s="91"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8493,18 +8493,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="91" t="s">
+      <c r="A133" s="85" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="91"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="92"/>
-      <c r="F133" s="92"/>
-      <c r="G133" s="92"/>
-      <c r="H133" s="92"/>
-      <c r="I133" s="92"/>
-      <c r="J133" s="92"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="86"/>
+      <c r="H133" s="86"/>
+      <c r="I133" s="86"/>
+      <c r="J133" s="86"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8999,18 +8999,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="96" t="s">
+      <c r="A145" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="97"/>
-      <c r="C145" s="97"/>
-      <c r="D145" s="97"/>
-      <c r="E145" s="97"/>
-      <c r="F145" s="97"/>
-      <c r="G145" s="97"/>
-      <c r="H145" s="97"/>
-      <c r="I145" s="97"/>
-      <c r="J145" s="98"/>
+      <c r="B145" s="91"/>
+      <c r="C145" s="91"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="91"/>
+      <c r="F145" s="91"/>
+      <c r="G145" s="91"/>
+      <c r="H145" s="91"/>
+      <c r="I145" s="91"/>
+      <c r="J145" s="92"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9457,18 +9457,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="91" t="s">
+      <c r="A156" s="85" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="91"/>
-      <c r="C156" s="91"/>
-      <c r="D156" s="91"/>
-      <c r="E156" s="91"/>
-      <c r="F156" s="91"/>
-      <c r="G156" s="91"/>
-      <c r="H156" s="91"/>
-      <c r="I156" s="91"/>
-      <c r="J156" s="91"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9535,18 +9535,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="91" t="s">
+      <c r="A158" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="91"/>
-      <c r="C158" s="91"/>
-      <c r="D158" s="91"/>
-      <c r="E158" s="91"/>
-      <c r="F158" s="91"/>
-      <c r="G158" s="91"/>
-      <c r="H158" s="91"/>
-      <c r="I158" s="91"/>
-      <c r="J158" s="91"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10285,18 +10285,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="91" t="s">
+      <c r="A177" s="85" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="91"/>
-      <c r="C177" s="91"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="85"/>
       <c r="D177" s="83"/>
-      <c r="E177" s="91"/>
-      <c r="F177" s="91"/>
-      <c r="G177" s="91"/>
-      <c r="H177" s="91"/>
-      <c r="I177" s="91"/>
-      <c r="J177" s="91"/>
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="85"/>
+      <c r="I177" s="85"/>
+      <c r="J177" s="85"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -10587,18 +10587,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="93" t="s">
+      <c r="A187" s="87" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="94"/>
-      <c r="C187" s="94"/>
-      <c r="D187" s="94"/>
-      <c r="E187" s="94"/>
-      <c r="F187" s="94"/>
-      <c r="G187" s="94"/>
-      <c r="H187" s="94"/>
-      <c r="I187" s="94"/>
-      <c r="J187" s="95"/>
+      <c r="B187" s="88"/>
+      <c r="C187" s="88"/>
+      <c r="D187" s="88"/>
+      <c r="E187" s="88"/>
+      <c r="F187" s="88"/>
+      <c r="G187" s="88"/>
+      <c r="H187" s="88"/>
+      <c r="I187" s="88"/>
+      <c r="J187" s="89"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -12302,22 +12302,22 @@
         <v>10</v>
       </c>
       <c r="C246" s="79" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="D246" s="78" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="E246" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F246" s="70" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="G246" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H246" s="48" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="I246" s="48" t="s">
         <v>12</v>
@@ -12334,22 +12334,22 @@
         <v>10</v>
       </c>
       <c r="C247" s="79" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="D247" s="78" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="E247" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F247" s="70" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="G247" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H247" s="48" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="I247" s="48" t="s">
         <v>12</v>
@@ -12534,6 +12534,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A212:J212"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="A202:J202"/>
+    <mergeCell ref="A218:J218"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A248:J248"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
@@ -12550,15 +12559,6 @@
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
     <mergeCell ref="A230:J230"/>
-    <mergeCell ref="A212:J212"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="A202:J202"/>
-    <mergeCell ref="A218:J218"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -12658,8 +12658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AF238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
+    <sheetView tabSelected="1" topLeftCell="Y170" workbookViewId="0">
+      <selection activeCell="S184" sqref="S184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27032,7 +27032,7 @@
         <v>22</v>
       </c>
       <c r="S174" s="49" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -27124,7 +27124,7 @@
         <v>22</v>
       </c>
       <c r="S175" s="49" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
@@ -27216,7 +27216,7 @@
         <v>22</v>
       </c>
       <c r="S176" s="49" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
@@ -27308,7 +27308,7 @@
         <v>22</v>
       </c>
       <c r="S177" s="49" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="T177" s="48" t="s">
         <v>22</v>
@@ -27400,7 +27400,7 @@
         <v>22</v>
       </c>
       <c r="S178" s="49" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="T178" s="48" t="s">
         <v>22</v>
@@ -27492,7 +27492,7 @@
         <v>22</v>
       </c>
       <c r="S179" s="49" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="T179" s="48" t="s">
         <v>22</v>
@@ -27584,7 +27584,7 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="T180" s="48" t="s">
         <v>22</v>
@@ -27676,7 +27676,7 @@
         <v>22</v>
       </c>
       <c r="S181" s="49" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="T181" s="48" t="s">
         <v>22</v>
@@ -27768,7 +27768,7 @@
         <v>22</v>
       </c>
       <c r="S182" s="49" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="T182" s="48" t="s">
         <v>22</v>
@@ -27860,7 +27860,7 @@
         <v>22</v>
       </c>
       <c r="S183" s="49" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="T183" s="48" t="s">
         <v>22</v>
@@ -27955,7 +27955,7 @@
         <v>22</v>
       </c>
       <c r="S184" s="49" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="T184" s="48" t="s">
         <v>22</v>
@@ -28884,7 +28884,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -28976,7 +28976,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -29068,7 +29068,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -29160,7 +29160,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -29252,7 +29252,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -29344,7 +29344,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -29436,7 +29436,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -29528,7 +29528,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -29620,7 +29620,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -29712,7 +29712,7 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="T203" s="48" t="s">
         <v>22</v>
@@ -29804,7 +29804,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29896,7 +29896,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -29988,10 +29988,10 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="T206" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="U206" s="48" t="s">
         <v>22</v>
@@ -30080,10 +30080,10 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="T207" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="U207" s="48" t="s">
         <v>22</v>
@@ -30172,7 +30172,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -30264,7 +30264,7 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="T209" s="48" t="s">
         <v>22</v>
@@ -30356,7 +30356,7 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="T210" s="48" t="s">
         <v>22</v>
@@ -30448,7 +30448,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30540,7 +30540,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30632,7 +30632,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30724,7 +30724,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30816,7 +30816,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30908,7 +30908,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -31000,7 +31000,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -31092,7 +31092,7 @@
         <v>22</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="T218" s="48" t="s">
         <v>22</v>
@@ -31184,7 +31184,7 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="T219" s="48" t="s">
         <v>22</v>
@@ -31276,7 +31276,7 @@
         <v>22</v>
       </c>
       <c r="S220" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T220" s="48" t="s">
         <v>22</v>
@@ -31368,7 +31368,7 @@
         <v>22</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="T221" s="48" t="s">
         <v>22</v>
@@ -31460,10 +31460,10 @@
         <v>22</v>
       </c>
       <c r="S222" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T222" s="49" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="U222" s="48" t="s">
         <v>22</v>
@@ -31552,10 +31552,10 @@
         <v>22</v>
       </c>
       <c r="S223" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T223" s="49" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="U223" s="48" t="s">
         <v>22</v>
@@ -31644,7 +31644,7 @@
         <v>22</v>
       </c>
       <c r="S224" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T224" s="48" t="s">
         <v>22</v>
@@ -31736,7 +31736,7 @@
         <v>22</v>
       </c>
       <c r="S225" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T225" s="48" t="s">
         <v>22</v>
@@ -31828,10 +31828,10 @@
         <v>22</v>
       </c>
       <c r="S226" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T226" s="49" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31920,10 +31920,10 @@
         <v>22</v>
       </c>
       <c r="S227" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T227" s="49" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="U227" s="48" t="s">
         <v>22</v>
@@ -32012,7 +32012,7 @@
         <v>22</v>
       </c>
       <c r="S228" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T228" s="48" t="s">
         <v>22</v>
@@ -32104,10 +32104,10 @@
         <v>22</v>
       </c>
       <c r="S229" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T229" s="49" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="U229" s="48" t="s">
         <v>22</v>
@@ -32196,10 +32196,10 @@
         <v>22</v>
       </c>
       <c r="S230" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T230" s="49" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="U230" s="48" t="s">
         <v>22</v>
@@ -32288,10 +32288,10 @@
         <v>22</v>
       </c>
       <c r="S231" s="49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T231" s="49" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="U231" s="48" t="s">
         <v>22</v>
@@ -32326,7 +32326,7 @@
     </row>
     <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="70" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="B232" s="48" t="s">
         <v>22</v>
@@ -32418,7 +32418,7 @@
     </row>
     <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="70" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="B233" s="48" t="s">
         <v>22</v>
@@ -33093,8 +33093,8 @@
     <hyperlink ref="D142" r:id="rId16" xr:uid="{8898BD8E-2CA4-4CDE-890B-D65B515E0457}"/>
     <hyperlink ref="G172" r:id="rId17" xr:uid="{E0CF340A-567A-4979-87DE-4F467618A03F}"/>
     <hyperlink ref="AC194" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
-    <hyperlink ref="S184" r:id="rId19" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
-    <hyperlink ref="S198" r:id="rId20" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
+    <hyperlink ref="S184" r:id="rId19" display="https://qa.adm.testingserver8.com/admin/product-collection" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
+    <hyperlink ref="S198" r:id="rId20" display="https://qa.adm.testingserver8.com/admin/product" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
     <hyperlink ref="S176" r:id="rId21" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
     <hyperlink ref="S177" r:id="rId22" display="https://opt.adm.testingserver8.com/admin/home-page-banner" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
     <hyperlink ref="S178" r:id="rId23" display="https://opt.adm.testingserver8.com/admin/product" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
@@ -33104,29 +33104,29 @@
     <hyperlink ref="S181" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
-    <hyperlink ref="S209" r:id="rId30" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S208" r:id="rId31" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
-    <hyperlink ref="S220" r:id="rId32" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
-    <hyperlink ref="S225" r:id="rId33" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
-    <hyperlink ref="S223" r:id="rId34" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
-    <hyperlink ref="S222" r:id="rId35" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
-    <hyperlink ref="S226" r:id="rId36" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
-    <hyperlink ref="T226" r:id="rId37" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
-    <hyperlink ref="S227" r:id="rId38" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T227" r:id="rId39" display="https://console.zlaata.com/admin/return-order" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
-    <hyperlink ref="S228" r:id="rId40" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
-    <hyperlink ref="S229" r:id="rId41" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
-    <hyperlink ref="S230" r:id="rId42" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
-    <hyperlink ref="S231" r:id="rId43" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
-    <hyperlink ref="T229" r:id="rId44" display="https://console.zlaata.com/admin/exchange-order" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
+    <hyperlink ref="S209" r:id="rId30" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S208" r:id="rId31" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="S220" r:id="rId32" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S225" r:id="rId33" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S223" r:id="rId34" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S222" r:id="rId35" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S226" r:id="rId36" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T226" r:id="rId37" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S227" r:id="rId38" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T227" r:id="rId39" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S228" r:id="rId40" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S229" r:id="rId41" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S230" r:id="rId42" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S231" r:id="rId43" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="T229" r:id="rId44" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
     <hyperlink ref="AD226" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
     <hyperlink ref="AC175" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
     <hyperlink ref="AC176" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
     <hyperlink ref="AC179" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
     <hyperlink ref="AC236" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
-    <hyperlink ref="T206" r:id="rId50" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
-    <hyperlink ref="T207" r:id="rId51" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
-    <hyperlink ref="S197" r:id="rId52" xr:uid="{279698D4-2A41-4BBD-838A-CBE141EE3D50}"/>
+    <hyperlink ref="T206" r:id="rId50" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
+    <hyperlink ref="T207" r:id="rId51" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
+    <hyperlink ref="S197" r:id="rId52" display="https://qa.adm.testingserver8.com/admin/product-style" xr:uid="{279698D4-2A41-4BBD-838A-CBE141EE3D50}"/>
     <hyperlink ref="AC220" r:id="rId53" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{CD96CCCF-BE60-40A1-BA2F-93729430B99A}"/>
     <hyperlink ref="AC221:AC231" r:id="rId54" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{C68B94AD-4CFE-4AB2-9431-B829C1D5A48C}"/>
     <hyperlink ref="S214" r:id="rId55" display="https://qa.zlta.testingserver8.com/admin/payment-pending" xr:uid="{37E5E50E-434D-4FC0-B9A6-C0648E88FF97}"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\git\ZlaataQAseverforme\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66D8D0-37A9-4888-92FC-3249E80B8B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B099BEB5-A033-4FAD-BB3A-5ECBF8792E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8446" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8524" uniqueCount="912">
   <si>
     <t>S.No</t>
   </si>
@@ -2744,6 +2744,24 @@
   </si>
   <si>
     <t>https://console.zlaata.com/admin/track-inventory</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_09</t>
+  </si>
+  <si>
+    <t>Verify that uploaded track inventory product count for two Product</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_09</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_10</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_10</t>
+  </si>
+  <si>
+    <t>Verify that the newly uploaded size in Track Inventory for a product is reflected in the application</t>
   </si>
 </sst>
 </file>
@@ -3380,24 +3398,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3424,6 +3424,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4227,10 +4245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z254"/>
+  <dimension ref="A1:Z256"/>
   <sheetViews>
-    <sheetView topLeftCell="D196" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4983,18 +5001,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
@@ -5381,18 +5399,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="98"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -5939,18 +5957,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="89"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="98"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
@@ -6273,18 +6291,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="87" t="s">
+      <c r="A66" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="89"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="98"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
@@ -6639,18 +6657,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="87" t="s">
+      <c r="A78" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="89"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="98"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
@@ -7517,18 +7535,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="90" t="s">
+      <c r="A106" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="90"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
@@ -8021,18 +8039,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="91" t="s">
+      <c r="A121" s="85" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="91"/>
-      <c r="C121" s="91"/>
-      <c r="D121" s="91"/>
-      <c r="E121" s="91"/>
-      <c r="F121" s="91"/>
-      <c r="G121" s="91"/>
-      <c r="H121" s="91"/>
-      <c r="I121" s="91"/>
-      <c r="J121" s="91"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -8095,18 +8113,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="91" t="s">
+      <c r="A123" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="91"/>
-      <c r="C123" s="91"/>
-      <c r="D123" s="91"/>
-      <c r="E123" s="91"/>
-      <c r="F123" s="91"/>
-      <c r="G123" s="91"/>
-      <c r="H123" s="91"/>
-      <c r="I123" s="91"/>
-      <c r="J123" s="91"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8169,18 +8187,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="91" t="s">
+      <c r="A125" s="85" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="91"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="91"/>
-      <c r="E125" s="91"/>
-      <c r="F125" s="91"/>
-      <c r="G125" s="91"/>
-      <c r="H125" s="91"/>
-      <c r="I125" s="91"/>
-      <c r="J125" s="91"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
     </row>
     <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25">
@@ -8505,18 +8523,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="91" t="s">
+      <c r="A133" s="85" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="91"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="92"/>
-      <c r="F133" s="92"/>
-      <c r="G133" s="92"/>
-      <c r="H133" s="92"/>
-      <c r="I133" s="92"/>
-      <c r="J133" s="92"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="86"/>
+      <c r="H133" s="86"/>
+      <c r="I133" s="86"/>
+      <c r="J133" s="86"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -9011,18 +9029,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="96" t="s">
+      <c r="A145" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="97"/>
-      <c r="C145" s="97"/>
-      <c r="D145" s="97"/>
-      <c r="E145" s="97"/>
-      <c r="F145" s="97"/>
-      <c r="G145" s="97"/>
-      <c r="H145" s="97"/>
-      <c r="I145" s="97"/>
-      <c r="J145" s="98"/>
+      <c r="B145" s="91"/>
+      <c r="C145" s="91"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="91"/>
+      <c r="F145" s="91"/>
+      <c r="G145" s="91"/>
+      <c r="H145" s="91"/>
+      <c r="I145" s="91"/>
+      <c r="J145" s="92"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9469,18 +9487,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="91" t="s">
+      <c r="A156" s="85" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="91"/>
-      <c r="C156" s="91"/>
-      <c r="D156" s="91"/>
-      <c r="E156" s="91"/>
-      <c r="F156" s="91"/>
-      <c r="G156" s="91"/>
-      <c r="H156" s="91"/>
-      <c r="I156" s="91"/>
-      <c r="J156" s="91"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9547,18 +9565,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="91" t="s">
+      <c r="A158" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="91"/>
-      <c r="C158" s="91"/>
-      <c r="D158" s="91"/>
-      <c r="E158" s="91"/>
-      <c r="F158" s="91"/>
-      <c r="G158" s="91"/>
-      <c r="H158" s="91"/>
-      <c r="I158" s="91"/>
-      <c r="J158" s="91"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -10297,18 +10315,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="91" t="s">
+      <c r="A177" s="85" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="91"/>
-      <c r="C177" s="91"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="85"/>
       <c r="D177" s="83"/>
-      <c r="E177" s="91"/>
-      <c r="F177" s="91"/>
-      <c r="G177" s="91"/>
-      <c r="H177" s="91"/>
-      <c r="I177" s="91"/>
-      <c r="J177" s="91"/>
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="85"/>
+      <c r="I177" s="85"/>
+      <c r="J177" s="85"/>
     </row>
     <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="68">
@@ -10599,18 +10617,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="93" t="s">
+      <c r="A187" s="87" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="94"/>
-      <c r="C187" s="94"/>
-      <c r="D187" s="94"/>
-      <c r="E187" s="94"/>
-      <c r="F187" s="94"/>
-      <c r="G187" s="94"/>
-      <c r="H187" s="94"/>
-      <c r="I187" s="94"/>
-      <c r="J187" s="95"/>
+      <c r="B187" s="88"/>
+      <c r="C187" s="88"/>
+      <c r="D187" s="88"/>
+      <c r="E187" s="88"/>
+      <c r="F187" s="88"/>
+      <c r="G187" s="88"/>
+      <c r="H187" s="88"/>
+      <c r="I187" s="88"/>
+      <c r="J187" s="89"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="68">
@@ -11295,43 +11313,61 @@
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="83" t="s">
-        <v>733</v>
-      </c>
-      <c r="B211" s="83"/>
-      <c r="C211" s="83"/>
-      <c r="D211" s="83"/>
-      <c r="E211" s="83"/>
-      <c r="F211" s="83"/>
-      <c r="G211" s="83"/>
-      <c r="H211" s="83"/>
-      <c r="I211" s="83"/>
-      <c r="J211" s="83"/>
+      <c r="A211" s="48">
+        <v>9</v>
+      </c>
+      <c r="B211" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="79" t="s">
+        <v>906</v>
+      </c>
+      <c r="D211" s="78" t="s">
+        <v>907</v>
+      </c>
+      <c r="E211" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" s="79" t="s">
+        <v>908</v>
+      </c>
+      <c r="G211" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" s="48" t="s">
+        <v>789</v>
+      </c>
+      <c r="I211" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J211" s="48" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="48">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B212" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C212" s="79" t="s">
-        <v>734</v>
+        <v>910</v>
       </c>
       <c r="D212" s="78" t="s">
-        <v>735</v>
+        <v>911</v>
       </c>
       <c r="E212" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F212" s="79" t="s">
-        <v>732</v>
+        <v>909</v>
       </c>
       <c r="G212" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H212" s="48" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I212" s="48" t="s">
         <v>12</v>
@@ -11342,7 +11378,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="83" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B213" s="83"/>
       <c r="C213" s="83"/>
@@ -11362,22 +11398,22 @@
         <v>10</v>
       </c>
       <c r="C214" s="79" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D214" s="78" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E214" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F214" s="79" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G214" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H214" s="48" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I214" s="48" t="s">
         <v>12</v>
@@ -11387,55 +11423,37 @@
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="48">
-        <v>2</v>
-      </c>
-      <c r="B215" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C215" s="79" t="s">
-        <v>741</v>
-      </c>
-      <c r="D215" s="78" t="s">
-        <v>742</v>
-      </c>
-      <c r="E215" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F215" s="79" t="s">
-        <v>740</v>
-      </c>
-      <c r="G215" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H215" s="48" t="s">
-        <v>791</v>
-      </c>
-      <c r="I215" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J215" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A215" s="83" t="s">
+        <v>736</v>
+      </c>
+      <c r="B215" s="83"/>
+      <c r="C215" s="83"/>
+      <c r="D215" s="83"/>
+      <c r="E215" s="83"/>
+      <c r="F215" s="83"/>
+      <c r="G215" s="83"/>
+      <c r="H215" s="83"/>
+      <c r="I215" s="83"/>
+      <c r="J215" s="83"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B216" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C216" s="79" t="s">
-        <v>781</v>
+        <v>737</v>
       </c>
       <c r="D216" s="78" t="s">
-        <v>779</v>
+        <v>739</v>
       </c>
       <c r="E216" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F216" s="79" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="G216" s="48" t="s">
         <v>11</v>
@@ -11452,22 +11470,22 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="79" t="s">
-        <v>868</v>
+        <v>741</v>
       </c>
       <c r="D217" s="78" t="s">
-        <v>869</v>
+        <v>742</v>
       </c>
       <c r="E217" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F217" s="79" t="s">
-        <v>870</v>
+        <v>740</v>
       </c>
       <c r="G217" s="48" t="s">
         <v>11</v>
@@ -11484,22 +11502,22 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B218" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="79" t="s">
-        <v>872</v>
+        <v>781</v>
       </c>
       <c r="D218" s="78" t="s">
-        <v>873</v>
+        <v>779</v>
       </c>
       <c r="E218" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F218" s="79" t="s">
-        <v>871</v>
+        <v>780</v>
       </c>
       <c r="G218" s="48" t="s">
         <v>11</v>
@@ -11515,43 +11533,61 @@
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" s="83" t="s">
-        <v>746</v>
-      </c>
-      <c r="B219" s="83"/>
-      <c r="C219" s="83"/>
-      <c r="D219" s="83"/>
-      <c r="E219" s="83"/>
-      <c r="F219" s="83"/>
-      <c r="G219" s="83"/>
-      <c r="H219" s="83"/>
-      <c r="I219" s="83"/>
-      <c r="J219" s="83"/>
+      <c r="A219" s="48">
+        <v>4</v>
+      </c>
+      <c r="B219" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="79" t="s">
+        <v>868</v>
+      </c>
+      <c r="D219" s="78" t="s">
+        <v>869</v>
+      </c>
+      <c r="E219" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219" s="79" t="s">
+        <v>870</v>
+      </c>
+      <c r="G219" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="I219" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J219" s="48" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C220" s="79" t="s">
-        <v>747</v>
+        <v>872</v>
       </c>
       <c r="D220" s="78" t="s">
-        <v>748</v>
+        <v>873</v>
       </c>
       <c r="E220" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F220" s="79" t="s">
-        <v>745</v>
+        <v>871</v>
       </c>
       <c r="G220" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H220" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I220" s="48" t="s">
         <v>12</v>
@@ -11561,55 +11597,37 @@
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="48">
-        <v>2</v>
-      </c>
-      <c r="B221" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C221" s="79" t="s">
-        <v>749</v>
-      </c>
-      <c r="D221" s="78" t="s">
-        <v>750</v>
-      </c>
-      <c r="E221" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F221" s="79" t="s">
-        <v>751</v>
-      </c>
-      <c r="G221" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H221" s="48" t="s">
-        <v>792</v>
-      </c>
-      <c r="I221" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J221" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A221" s="83" t="s">
+        <v>746</v>
+      </c>
+      <c r="B221" s="83"/>
+      <c r="C221" s="83"/>
+      <c r="D221" s="83"/>
+      <c r="E221" s="83"/>
+      <c r="F221" s="83"/>
+      <c r="G221" s="83"/>
+      <c r="H221" s="83"/>
+      <c r="I221" s="83"/>
+      <c r="J221" s="83"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C222" s="79" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D222" s="78" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E222" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="79" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G222" s="48" t="s">
         <v>11</v>
@@ -11626,22 +11644,22 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C223" s="79" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D223" s="78" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E223" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="79" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="G223" s="48" t="s">
         <v>11</v>
@@ -11658,22 +11676,22 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="79" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D224" s="78" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E224" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F224" s="79" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G224" s="48" t="s">
         <v>11</v>
@@ -11690,22 +11708,22 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="79" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D225" s="78" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E225" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F225" s="79" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G225" s="48" t="s">
         <v>11</v>
@@ -11722,22 +11740,22 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="79" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D226" s="78" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E226" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F226" s="79" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G226" s="48" t="s">
         <v>11</v>
@@ -11754,22 +11772,22 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C227" s="79" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D227" s="78" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E227" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F227" s="79" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="G227" s="48" t="s">
         <v>11</v>
@@ -11786,22 +11804,22 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B228" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C228" s="79" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D228" s="78" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E228" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F228" s="79" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G228" s="48" t="s">
         <v>11</v>
@@ -11818,22 +11836,22 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C229" s="79" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D229" s="78" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E229" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F229" s="79" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="G229" s="48" t="s">
         <v>11</v>
@@ -11850,22 +11868,22 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B230" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C230" s="79" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D230" s="78" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E230" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F230" s="79" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G230" s="48" t="s">
         <v>11</v>
@@ -11880,44 +11898,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="83" t="s">
-        <v>783</v>
-      </c>
-      <c r="B231" s="83"/>
-      <c r="C231" s="83"/>
-      <c r="D231" s="83"/>
-      <c r="E231" s="83"/>
-      <c r="F231" s="83"/>
-      <c r="G231" s="83"/>
-      <c r="H231" s="83"/>
-      <c r="I231" s="83"/>
-      <c r="J231" s="83"/>
-    </row>
-    <row r="232" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="48">
+        <v>10</v>
+      </c>
+      <c r="B231" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" s="79" t="s">
+        <v>773</v>
+      </c>
+      <c r="D231" s="78" t="s">
+        <v>774</v>
+      </c>
+      <c r="E231" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231" s="79" t="s">
+        <v>775</v>
+      </c>
+      <c r="G231" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="I231" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J231" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B232" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C232" s="79" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="D232" s="78" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E232" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F232" s="70" t="s">
-        <v>782</v>
+      <c r="F232" s="79" t="s">
+        <v>776</v>
       </c>
       <c r="G232" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H232" s="48" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I232" s="48" t="s">
         <v>12</v>
@@ -11926,9 +11962,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="83" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="B233" s="83"/>
       <c r="C233" s="83"/>
@@ -11940,7 +11976,7 @@
       <c r="I233" s="83"/>
       <c r="J233" s="83"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="48">
         <v>1</v>
       </c>
@@ -11948,22 +11984,22 @@
         <v>10</v>
       </c>
       <c r="C234" s="79" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D234" s="78" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="E234" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F234" s="79" t="s">
-        <v>795</v>
+      <c r="F234" s="70" t="s">
+        <v>782</v>
       </c>
       <c r="G234" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H234" s="48" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="I234" s="48" t="s">
         <v>12</v>
@@ -11973,55 +12009,37 @@
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="48">
-        <v>2</v>
-      </c>
-      <c r="B235" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C235" s="79" t="s">
-        <v>801</v>
-      </c>
-      <c r="D235" s="78" t="s">
-        <v>802</v>
-      </c>
-      <c r="E235" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F235" s="79" t="s">
-        <v>800</v>
-      </c>
-      <c r="G235" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H235" s="48" t="s">
-        <v>799</v>
-      </c>
-      <c r="I235" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J235" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A235" s="83" t="s">
+        <v>796</v>
+      </c>
+      <c r="B235" s="83"/>
+      <c r="C235" s="83"/>
+      <c r="D235" s="83"/>
+      <c r="E235" s="83"/>
+      <c r="F235" s="83"/>
+      <c r="G235" s="83"/>
+      <c r="H235" s="83"/>
+      <c r="I235" s="83"/>
+      <c r="J235" s="83"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B236" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C236" s="79" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D236" s="78" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="E236" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F236" s="79" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="G236" s="48" t="s">
         <v>11</v>
@@ -12038,22 +12056,22 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B237" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D237" s="78" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E237" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F237" s="79" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="G237" s="48" t="s">
         <v>11</v>
@@ -12070,22 +12088,22 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B238" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C238" s="79" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D238" s="78" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="E238" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F238" s="79" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G238" s="48" t="s">
         <v>11</v>
@@ -12102,22 +12120,22 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B239" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C239" s="79" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D239" s="78" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="E239" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F239" s="79" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G239" s="48" t="s">
         <v>11</v>
@@ -12134,22 +12152,22 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B240" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C240" s="79" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D240" s="78" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E240" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F240" s="79" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G240" s="48" t="s">
         <v>11</v>
@@ -12166,22 +12184,22 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B241" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C241" s="79" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D241" s="78" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="E241" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F241" s="79" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G241" s="48" t="s">
         <v>11</v>
@@ -12198,22 +12216,22 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B242" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C242" s="79" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D242" s="78" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E242" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F242" s="79" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="G242" s="48" t="s">
         <v>11</v>
@@ -12230,22 +12248,22 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B243" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C243" s="79" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D243" s="78" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E243" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F243" s="79" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G243" s="48" t="s">
         <v>11</v>
@@ -12262,22 +12280,22 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B244" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C244" s="79" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D244" s="78" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="E244" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F244" s="79" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G244" s="48" t="s">
         <v>11</v>
@@ -12294,22 +12312,22 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B245" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C245" s="79" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D245" s="78" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E245" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F245" s="79" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G245" s="48" t="s">
         <v>11</v>
@@ -12324,44 +12342,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="83" t="s">
-        <v>841</v>
-      </c>
-      <c r="B246" s="83"/>
-      <c r="C246" s="83"/>
-      <c r="D246" s="83"/>
-      <c r="E246" s="83"/>
-      <c r="F246" s="83"/>
-      <c r="G246" s="83"/>
-      <c r="H246" s="83"/>
-      <c r="I246" s="83"/>
-      <c r="J246" s="83"/>
-    </row>
-    <row r="247" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="48">
+        <v>11</v>
+      </c>
+      <c r="B246" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="79" t="s">
+        <v>830</v>
+      </c>
+      <c r="D246" s="78" t="s">
+        <v>831</v>
+      </c>
+      <c r="E246" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" s="79" t="s">
+        <v>829</v>
+      </c>
+      <c r="G246" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H246" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="I246" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J246" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B247" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C247" s="79" t="s">
-        <v>875</v>
+        <v>832</v>
       </c>
       <c r="D247" s="78" t="s">
-        <v>876</v>
+        <v>833</v>
       </c>
       <c r="E247" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F247" s="70" t="s">
-        <v>874</v>
+      <c r="F247" s="79" t="s">
+        <v>834</v>
       </c>
       <c r="G247" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H247" s="48" t="s">
-        <v>877</v>
+        <v>799</v>
       </c>
       <c r="I247" s="48" t="s">
         <v>12</v>
@@ -12371,75 +12407,75 @@
       </c>
     </row>
     <row r="248" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="48">
-        <v>2</v>
-      </c>
-      <c r="B248" s="48" t="s">
+      <c r="A248" s="83" t="s">
+        <v>841</v>
+      </c>
+      <c r="B248" s="83"/>
+      <c r="C248" s="83"/>
+      <c r="D248" s="83"/>
+      <c r="E248" s="83"/>
+      <c r="F248" s="83"/>
+      <c r="G248" s="83"/>
+      <c r="H248" s="83"/>
+      <c r="I248" s="83"/>
+      <c r="J248" s="83"/>
+    </row>
+    <row r="249" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="48">
+        <v>1</v>
+      </c>
+      <c r="B249" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C248" s="79" t="s">
-        <v>879</v>
-      </c>
-      <c r="D248" s="78" t="s">
-        <v>880</v>
-      </c>
-      <c r="E248" s="48" t="s">
+      <c r="C249" s="79" t="s">
+        <v>875</v>
+      </c>
+      <c r="D249" s="78" t="s">
+        <v>876</v>
+      </c>
+      <c r="E249" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F248" s="70" t="s">
-        <v>878</v>
-      </c>
-      <c r="G248" s="48" t="s">
+      <c r="F249" s="70" t="s">
+        <v>874</v>
+      </c>
+      <c r="G249" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H248" s="48" t="s">
+      <c r="H249" s="48" t="s">
         <v>877</v>
       </c>
-      <c r="I248" s="48" t="s">
+      <c r="I249" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J248" s="48" t="s">
+      <c r="J249" s="48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="83" t="s">
-        <v>842</v>
-      </c>
-      <c r="B249" s="83"/>
-      <c r="C249" s="83"/>
-      <c r="D249" s="83"/>
-      <c r="E249" s="83"/>
-      <c r="F249" s="83"/>
-      <c r="G249" s="83"/>
-      <c r="H249" s="83"/>
-      <c r="I249" s="83"/>
-      <c r="J249" s="83"/>
     </row>
     <row r="250" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B250" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C250" s="79" t="s">
-        <v>843</v>
+        <v>879</v>
       </c>
       <c r="D250" s="78" t="s">
-        <v>846</v>
+        <v>880</v>
       </c>
       <c r="E250" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F250" s="70" t="s">
-        <v>844</v>
+        <v>878</v>
       </c>
       <c r="G250" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H250" s="48" t="s">
-        <v>845</v>
+        <v>877</v>
       </c>
       <c r="I250" s="48" t="s">
         <v>12</v>
@@ -12449,55 +12485,37 @@
       </c>
     </row>
     <row r="251" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="48">
-        <v>2</v>
-      </c>
-      <c r="B251" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C251" s="79" t="s">
-        <v>847</v>
-      </c>
-      <c r="D251" s="78" t="s">
-        <v>849</v>
-      </c>
-      <c r="E251" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F251" s="70" t="s">
-        <v>848</v>
-      </c>
-      <c r="G251" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H251" s="48" t="s">
-        <v>845</v>
-      </c>
-      <c r="I251" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J251" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="A251" s="83" t="s">
+        <v>842</v>
+      </c>
+      <c r="B251" s="83"/>
+      <c r="C251" s="83"/>
+      <c r="D251" s="83"/>
+      <c r="E251" s="83"/>
+      <c r="F251" s="83"/>
+      <c r="G251" s="83"/>
+      <c r="H251" s="83"/>
+      <c r="I251" s="83"/>
+      <c r="J251" s="83"/>
     </row>
     <row r="252" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B252" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C252" s="79" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D252" s="78" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E252" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F252" s="70" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="G252" s="48" t="s">
         <v>11</v>
@@ -12514,22 +12532,22 @@
     </row>
     <row r="253" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B253" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C253" s="79" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="D253" s="78" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="E253" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F253" s="70" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="G253" s="48" t="s">
         <v>11</v>
@@ -12546,22 +12564,22 @@
     </row>
     <row r="254" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B254" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C254" s="79" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="D254" s="78" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="E254" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F254" s="70" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="G254" s="48" t="s">
         <v>11</v>
@@ -12576,33 +12594,97 @@
         <v>13</v>
       </c>
     </row>
+    <row r="255" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="48">
+        <v>4</v>
+      </c>
+      <c r="B255" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" s="79" t="s">
+        <v>861</v>
+      </c>
+      <c r="D255" s="78" t="s">
+        <v>862</v>
+      </c>
+      <c r="E255" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" s="70" t="s">
+        <v>863</v>
+      </c>
+      <c r="G255" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H255" s="48" t="s">
+        <v>845</v>
+      </c>
+      <c r="I255" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J255" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="48">
+        <v>5</v>
+      </c>
+      <c r="B256" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" s="79" t="s">
+        <v>866</v>
+      </c>
+      <c r="D256" s="78" t="s">
+        <v>867</v>
+      </c>
+      <c r="E256" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" s="70" t="s">
+        <v>865</v>
+      </c>
+      <c r="G256" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H256" s="48" t="s">
+        <v>845</v>
+      </c>
+      <c r="I256" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J256" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A249:J249"/>
+    <mergeCell ref="A215:J215"/>
+    <mergeCell ref="A213:J213"/>
+    <mergeCell ref="A202:J202"/>
+    <mergeCell ref="A221:J221"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A251:J251"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A200:J200"/>
     <mergeCell ref="A195:J195"/>
-    <mergeCell ref="A246:J246"/>
-    <mergeCell ref="A233:J233"/>
+    <mergeCell ref="A248:J248"/>
+    <mergeCell ref="A235:J235"/>
     <mergeCell ref="A133:J133"/>
     <mergeCell ref="A187:J187"/>
     <mergeCell ref="A145:J145"/>
     <mergeCell ref="A156:J156"/>
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
-    <mergeCell ref="A231:J231"/>
-    <mergeCell ref="A213:J213"/>
-    <mergeCell ref="A211:J211"/>
-    <mergeCell ref="A202:J202"/>
-    <mergeCell ref="A219:J219"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A233:J233"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -12700,10 +12782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AF239"/>
+  <dimension ref="A1:AF241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H193" workbookViewId="0">
-      <selection activeCell="S205" sqref="S205"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29702,7 +29784,7 @@
     </row>
     <row r="203" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="70" t="s">
-        <v>732</v>
+        <v>908</v>
       </c>
       <c r="B203" s="48" t="s">
         <v>22</v>
@@ -29756,7 +29838,7 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
-        <v>882</v>
+        <v>905</v>
       </c>
       <c r="T203" s="48" t="s">
         <v>22</v>
@@ -29794,7 +29876,7 @@
     </row>
     <row r="204" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="70" t="s">
-        <v>738</v>
+        <v>909</v>
       </c>
       <c r="B204" s="48" t="s">
         <v>22</v>
@@ -29848,7 +29930,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29886,7 +29968,7 @@
     </row>
     <row r="205" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="70" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B205" s="48" t="s">
         <v>22</v>
@@ -29940,7 +30022,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -29978,7 +30060,7 @@
     </row>
     <row r="206" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="70" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="B206" s="48" t="s">
         <v>22</v>
@@ -30070,7 +30152,7 @@
     </row>
     <row r="207" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="70" t="s">
-        <v>870</v>
+        <v>740</v>
       </c>
       <c r="B207" s="48" t="s">
         <v>22</v>
@@ -30126,8 +30208,8 @@
       <c r="S207" s="49" t="s">
         <v>890</v>
       </c>
-      <c r="T207" s="49" t="s">
-        <v>891</v>
+      <c r="T207" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U207" s="48" t="s">
         <v>22</v>
@@ -30162,7 +30244,7 @@
     </row>
     <row r="208" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="70" t="s">
-        <v>871</v>
+        <v>780</v>
       </c>
       <c r="B208" s="48" t="s">
         <v>22</v>
@@ -30218,8 +30300,8 @@
       <c r="S208" s="49" t="s">
         <v>890</v>
       </c>
-      <c r="T208" s="49" t="s">
-        <v>891</v>
+      <c r="T208" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U208" s="48" t="s">
         <v>22</v>
@@ -30254,7 +30336,7 @@
     </row>
     <row r="209" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="70" t="s">
-        <v>745</v>
+        <v>870</v>
       </c>
       <c r="B209" s="48" t="s">
         <v>22</v>
@@ -30308,10 +30390,10 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
+        <v>890</v>
+      </c>
+      <c r="T209" s="49" t="s">
         <v>891</v>
-      </c>
-      <c r="T209" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="U209" s="48" t="s">
         <v>22</v>
@@ -30346,7 +30428,7 @@
     </row>
     <row r="210" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="70" t="s">
-        <v>751</v>
+        <v>871</v>
       </c>
       <c r="B210" s="48" t="s">
         <v>22</v>
@@ -30400,10 +30482,10 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>892</v>
-      </c>
-      <c r="T210" s="48" t="s">
-        <v>22</v>
+        <v>890</v>
+      </c>
+      <c r="T210" s="49" t="s">
+        <v>891</v>
       </c>
       <c r="U210" s="48" t="s">
         <v>22</v>
@@ -30438,7 +30520,7 @@
     </row>
     <row r="211" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="70" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B211" s="48" t="s">
         <v>22</v>
@@ -30492,7 +30574,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30530,7 +30612,7 @@
     </row>
     <row r="212" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="70" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B212" s="48" t="s">
         <v>22</v>
@@ -30584,7 +30666,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30622,7 +30704,7 @@
     </row>
     <row r="213" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="70" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B213" s="48" t="s">
         <v>22</v>
@@ -30676,7 +30758,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30714,7 +30796,7 @@
     </row>
     <row r="214" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="70" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B214" s="48" t="s">
         <v>22</v>
@@ -30768,7 +30850,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30806,7 +30888,7 @@
     </row>
     <row r="215" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="70" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B215" s="48" t="s">
         <v>22</v>
@@ -30860,7 +30942,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30898,7 +30980,7 @@
     </row>
     <row r="216" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="70" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B216" s="48" t="s">
         <v>22</v>
@@ -30952,7 +31034,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -30990,7 +31072,7 @@
     </row>
     <row r="217" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="70" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>22</v>
@@ -31044,7 +31126,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -31082,7 +31164,7 @@
     </row>
     <row r="218" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="70" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B218" s="48" t="s">
         <v>22</v>
@@ -31136,7 +31218,7 @@
         <v>22</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="T218" s="48" t="s">
         <v>22</v>
@@ -31174,7 +31256,7 @@
     </row>
     <row r="219" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="70" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>22</v>
@@ -31228,7 +31310,7 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="T219" s="48" t="s">
         <v>22</v>
@@ -31266,283 +31348,283 @@
     </row>
     <row r="220" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="70" t="s">
+        <v>775</v>
+      </c>
+      <c r="B220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S220" s="49" t="s">
+        <v>900</v>
+      </c>
+      <c r="T220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V220" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W220" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X220" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB220" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD220" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="70" t="s">
+        <v>776</v>
+      </c>
+      <c r="B221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S221" s="49" t="s">
+        <v>901</v>
+      </c>
+      <c r="T221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V221" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W221" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X221" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB221" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD221" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="70" t="s">
         <v>782</v>
       </c>
-      <c r="B220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S220" s="49" t="s">
+      <c r="B222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S222" s="49" t="s">
         <v>882</v>
       </c>
-      <c r="T220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V220" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W220" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X220" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB220" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC220" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD220" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="70" t="s">
+      <c r="T222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V222" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W222" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X222" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB222" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD222" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="70" t="s">
         <v>795</v>
-      </c>
-      <c r="B221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S221" s="49" t="s">
-        <v>891</v>
-      </c>
-      <c r="T221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V221" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W221" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X221" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA221" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB221" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC221" s="73" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD221" s="73" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="222" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="70" t="s">
-        <v>800</v>
-      </c>
-      <c r="B222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S222" s="49" t="s">
-        <v>894</v>
-      </c>
-      <c r="T222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V222" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W222" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X222" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA222" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB222" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC222" s="73" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD222" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="223" spans="1:30" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="70" t="s">
-        <v>805</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>22</v>
@@ -31598,8 +31680,8 @@
       <c r="S223" s="49" t="s">
         <v>891</v>
       </c>
-      <c r="T223" s="49" t="s">
-        <v>893</v>
+      <c r="T223" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U223" s="48" t="s">
         <v>22</v>
@@ -31628,13 +31710,13 @@
       <c r="AC223" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD223" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD223" s="73" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="70" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>22</v>
@@ -31688,10 +31770,10 @@
         <v>22</v>
       </c>
       <c r="S224" s="49" t="s">
-        <v>891</v>
-      </c>
-      <c r="T224" s="49" t="s">
-        <v>892</v>
+        <v>894</v>
+      </c>
+      <c r="T224" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U224" s="48" t="s">
         <v>22</v>
@@ -31724,9 +31806,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:30" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="70" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>22</v>
@@ -31782,8 +31864,8 @@
       <c r="S225" s="49" t="s">
         <v>891</v>
       </c>
-      <c r="T225" s="48" t="s">
-        <v>22</v>
+      <c r="T225" s="49" t="s">
+        <v>893</v>
       </c>
       <c r="U225" s="48" t="s">
         <v>22</v>
@@ -31816,9 +31898,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="70" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>22</v>
@@ -31874,8 +31956,8 @@
       <c r="S226" s="49" t="s">
         <v>891</v>
       </c>
-      <c r="T226" s="48" t="s">
-        <v>22</v>
+      <c r="T226" s="49" t="s">
+        <v>892</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31908,9 +31990,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="70" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>22</v>
@@ -31966,8 +32048,8 @@
       <c r="S227" s="49" t="s">
         <v>891</v>
       </c>
-      <c r="T227" s="49" t="s">
-        <v>892</v>
+      <c r="T227" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U227" s="48" t="s">
         <v>22</v>
@@ -31996,13 +32078,13 @@
       <c r="AC227" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD227" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="228" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD227" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="70" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B228" s="48" t="s">
         <v>22</v>
@@ -32058,8 +32140,8 @@
       <c r="S228" s="49" t="s">
         <v>891</v>
       </c>
-      <c r="T228" s="49" t="s">
-        <v>892</v>
+      <c r="T228" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U228" s="48" t="s">
         <v>22</v>
@@ -32092,9 +32174,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="70" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>22</v>
@@ -32150,8 +32232,8 @@
       <c r="S229" s="49" t="s">
         <v>891</v>
       </c>
-      <c r="T229" s="48" t="s">
-        <v>22</v>
+      <c r="T229" s="49" t="s">
+        <v>892</v>
       </c>
       <c r="U229" s="48" t="s">
         <v>22</v>
@@ -32180,13 +32262,13 @@
       <c r="AC229" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="AD229" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="230" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD229" s="73" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="70" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B230" s="48" t="s">
         <v>22</v>
@@ -32243,7 +32325,7 @@
         <v>891</v>
       </c>
       <c r="T230" s="49" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="U230" s="48" t="s">
         <v>22</v>
@@ -32276,9 +32358,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="70" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B231" s="48" t="s">
         <v>22</v>
@@ -32334,8 +32416,8 @@
       <c r="S231" s="49" t="s">
         <v>891</v>
       </c>
-      <c r="T231" s="49" t="s">
-        <v>893</v>
+      <c r="T231" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="U231" s="48" t="s">
         <v>22</v>
@@ -32368,9 +32450,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="70" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B232" s="48" t="s">
         <v>22</v>
@@ -32460,9 +32542,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="70" t="s">
-        <v>874</v>
+        <v>829</v>
       </c>
       <c r="B233" s="48" t="s">
         <v>22</v>
@@ -32515,11 +32597,11 @@
       <c r="R233" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S233" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T233" s="48" t="s">
-        <v>22</v>
+      <c r="S233" s="49" t="s">
+        <v>891</v>
+      </c>
+      <c r="T233" s="49" t="s">
+        <v>893</v>
       </c>
       <c r="U233" s="48" t="s">
         <v>22</v>
@@ -32545,8 +32627,8 @@
       <c r="AB233" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC233" s="48" t="s">
-        <v>22</v>
+      <c r="AC233" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD233" s="48" t="s">
         <v>22</v>
@@ -32554,7 +32636,7 @@
     </row>
     <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="70" t="s">
-        <v>878</v>
+        <v>834</v>
       </c>
       <c r="B234" s="48" t="s">
         <v>22</v>
@@ -32607,11 +32689,11 @@
       <c r="R234" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S234" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T234" s="48" t="s">
-        <v>22</v>
+      <c r="S234" s="49" t="s">
+        <v>891</v>
+      </c>
+      <c r="T234" s="49" t="s">
+        <v>893</v>
       </c>
       <c r="U234" s="48" t="s">
         <v>22</v>
@@ -32637,8 +32719,8 @@
       <c r="AB234" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC234" s="48" t="s">
-        <v>22</v>
+      <c r="AC234" s="73" t="s">
+        <v>835</v>
       </c>
       <c r="AD234" s="48" t="s">
         <v>22</v>
@@ -32646,7 +32728,7 @@
     </row>
     <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="70" t="s">
-        <v>844</v>
+        <v>874</v>
       </c>
       <c r="B235" s="48" t="s">
         <v>22</v>
@@ -32738,7 +32820,7 @@
     </row>
     <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="70" t="s">
-        <v>848</v>
+        <v>878</v>
       </c>
       <c r="B236" s="48" t="s">
         <v>22</v>
@@ -32830,7 +32912,7 @@
     </row>
     <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="70" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B237" s="48" t="s">
         <v>22</v>
@@ -32913,8 +32995,8 @@
       <c r="AB237" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC237" s="73" t="s">
-        <v>835</v>
+      <c r="AC237" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD237" s="48" t="s">
         <v>22</v>
@@ -32922,7 +33004,7 @@
     </row>
     <row r="238" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="70" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="B238" s="48" t="s">
         <v>22</v>
@@ -33005,8 +33087,8 @@
       <c r="AB238" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC238" s="73" t="s">
-        <v>864</v>
+      <c r="AC238" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="AD238" s="48" t="s">
         <v>22</v>
@@ -33014,93 +33096,277 @@
     </row>
     <row r="239" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="70" t="s">
+        <v>850</v>
+      </c>
+      <c r="B239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V239" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W239" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X239" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB239" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC239" s="73" t="s">
+        <v>835</v>
+      </c>
+      <c r="AD239" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="70" t="s">
+        <v>863</v>
+      </c>
+      <c r="B240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V240" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W240" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X240" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB240" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC240" s="73" t="s">
+        <v>864</v>
+      </c>
+      <c r="AD240" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="70" t="s">
         <v>865</v>
       </c>
-      <c r="B239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V239" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W239" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X239" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA239" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB239" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC239" s="73" t="s">
+      <c r="B241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V241" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W241" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X241" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA241" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB241" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC241" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="AD239" s="48" t="s">
+      <c r="AD241" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -33240,35 +33506,37 @@
     <hyperlink ref="S181" r:id="rId27" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{6E9132F4-992B-46D1-9A28-5D473938DFF8}"/>
     <hyperlink ref="S182" r:id="rId28" display="https://opt.adm.testingserver8.com/admin/product-collection" xr:uid="{B7714AD9-0B49-4F19-B276-CBDABCB03633}"/>
     <hyperlink ref="S183" r:id="rId29" display="https://opt.adm.testingserver8.com/admin/categories" xr:uid="{965BF565-0242-4239-B278-6E574AF5D044}"/>
-    <hyperlink ref="S210" r:id="rId30" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
-    <hyperlink ref="S209" r:id="rId31" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
-    <hyperlink ref="S221" r:id="rId32" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
-    <hyperlink ref="S226" r:id="rId33" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
-    <hyperlink ref="S224" r:id="rId34" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
-    <hyperlink ref="S223" r:id="rId35" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
-    <hyperlink ref="S227" r:id="rId36" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
-    <hyperlink ref="T227" r:id="rId37" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
-    <hyperlink ref="S228" r:id="rId38" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
-    <hyperlink ref="T228" r:id="rId39" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
-    <hyperlink ref="S229" r:id="rId40" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
-    <hyperlink ref="S230" r:id="rId41" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
-    <hyperlink ref="S231" r:id="rId42" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
-    <hyperlink ref="S232" r:id="rId43" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
-    <hyperlink ref="T230" r:id="rId44" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
-    <hyperlink ref="AD227" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
+    <hyperlink ref="S212" r:id="rId30" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{C1127956-48DF-433C-AD28-9DA999FBCC26}"/>
+    <hyperlink ref="S211" r:id="rId31" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C9182A01-C96D-4110-9CA5-C017A54856E8}"/>
+    <hyperlink ref="S223" r:id="rId32" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{6C20156C-B7E3-4D33-B99C-3A1821930139}"/>
+    <hyperlink ref="S228" r:id="rId33" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{BAC34349-31E9-4520-A81D-6EEDD88BD29C}"/>
+    <hyperlink ref="S226" r:id="rId34" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95A32C29-884B-4748-92B0-EDDF6C5CE209}"/>
+    <hyperlink ref="S225" r:id="rId35" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{118D0710-0BF2-49C8-888F-870ACC682CB5}"/>
+    <hyperlink ref="S229" r:id="rId36" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{95BCE644-FF9B-472B-8145-F31A886E4FC4}"/>
+    <hyperlink ref="T229" r:id="rId37" display="https://qa.adm.testingserver8.com/admin/return-order" xr:uid="{89BBFA7B-AD6E-4F93-BFD3-447AE8F7C502}"/>
+    <hyperlink ref="S230" r:id="rId38" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{C8BD3F97-CFD5-4E09-8346-C525E3D0F983}"/>
+    <hyperlink ref="T230" r:id="rId39" xr:uid="{7EB489AF-7DBE-4776-BCF8-60461A79DB05}"/>
+    <hyperlink ref="S231" r:id="rId40" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{570ACAD2-9993-464C-95C3-A0F384F535D4}"/>
+    <hyperlink ref="S232" r:id="rId41" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{A5E4F190-F60E-4C69-A7BF-9E5AD6674C56}"/>
+    <hyperlink ref="S233" r:id="rId42" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{0DD56580-2553-4B3D-AC00-0568BF6AD0B9}"/>
+    <hyperlink ref="S234" r:id="rId43" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{16CBC571-4EE4-4D66-B8C3-CE0279FDD836}"/>
+    <hyperlink ref="T232" r:id="rId44" xr:uid="{5FB45239-0134-4C16-87DB-11C106356D92}"/>
+    <hyperlink ref="AD229" r:id="rId45" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{79B826CA-7F44-45A6-9BD2-CC8919CFA12A}"/>
     <hyperlink ref="AC175" r:id="rId46" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{7BE8FE18-5C75-431B-8488-FBDEF16485E5}"/>
     <hyperlink ref="AC176" r:id="rId47" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{FF640DAE-0F42-4B2A-A086-F1C73287AD75}"/>
     <hyperlink ref="AC179" r:id="rId48" tooltip="Blue dskjjksdjkdjds" display="https://qa.zlta.testingserver8.com/product-detail/blue-dskjjksdjkdjds" xr:uid="{B625AA61-E1E0-4964-9CDD-901824C6555F}"/>
-    <hyperlink ref="AC237" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
-    <hyperlink ref="T207" r:id="rId50" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
-    <hyperlink ref="T208" r:id="rId51" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
+    <hyperlink ref="AC239" r:id="rId49" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{622FD3BA-2464-4E1D-99AB-AE1AAC131875}"/>
+    <hyperlink ref="T209" r:id="rId50" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7F5A23D3-57AD-40E6-ACE3-9B9EA550F6A6}"/>
+    <hyperlink ref="T210" r:id="rId51" display="https://qa.adm.testingserver8.com/admin/order" xr:uid="{7C8D8F70-AFD1-452B-AFB6-66EC6F975597}"/>
     <hyperlink ref="S197" r:id="rId52" display="https://qa.adm.testingserver8.com/admin/product-style" xr:uid="{279698D4-2A41-4BBD-838A-CBE141EE3D50}"/>
-    <hyperlink ref="AC221" r:id="rId53" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{CD96CCCF-BE60-40A1-BA2F-93729430B99A}"/>
-    <hyperlink ref="AC222:AC232" r:id="rId54" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{C68B94AD-4CFE-4AB2-9431-B829C1D5A48C}"/>
-    <hyperlink ref="S215" r:id="rId55" display="https://qa.zlta.testingserver8.com/admin/payment-pending" xr:uid="{37E5E50E-434D-4FC0-B9A6-C0648E88FF97}"/>
-    <hyperlink ref="S202" r:id="rId56" xr:uid="{C356118E-7CF8-4DBB-80E8-2AC4DA83F153}"/>
+    <hyperlink ref="AC223" r:id="rId53" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{CD96CCCF-BE60-40A1-BA2F-93729430B99A}"/>
+    <hyperlink ref="AC224:AC234" r:id="rId54" tooltip="Crop Waistcoat Set" display="https://testing.zlaata.com/product-detail/purple-ikat-waistcoat-pant-cotton-co-ord-set" xr:uid="{C68B94AD-4CFE-4AB2-9431-B829C1D5A48C}"/>
+    <hyperlink ref="S217" r:id="rId55" display="https://qa.zlta.testingserver8.com/admin/payment-pending" xr:uid="{37E5E50E-434D-4FC0-B9A6-C0648E88FF97}"/>
+    <hyperlink ref="S204" r:id="rId56" xr:uid="{C356118E-7CF8-4DBB-80E8-2AC4DA83F153}"/>
+    <hyperlink ref="S202" r:id="rId57" xr:uid="{51EDB8E8-7B87-48E3-AE6E-CF4598B89047}"/>
+    <hyperlink ref="S203" r:id="rId58" xr:uid="{F9518A74-6EB1-4B3C-A794-D43A85FC89FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\git\ZlaataQAseverforme\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever6\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B099BEB5-A033-4FAD-BB3A-5ECBF8792E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2A2E9F-C485-4DCA-8DF2-89115A417EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -2671,6 +2671,33 @@
     <t>Verify that admin can able to place the COD order.</t>
   </si>
   <si>
+    <t>TC_UI_Zlaata_ADI_08</t>
+  </si>
+  <si>
+    <t>Verify that uploaded track inventory appears in Admin and User App</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_08</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_09</t>
+  </si>
+  <si>
+    <t>Verify that uploaded track inventory product count for two Product</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_09</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_10</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_10</t>
+  </si>
+  <si>
+    <t>Verify that the newly uploaded size in Track Inventory for a product is reflected in the application</t>
+  </si>
+  <si>
     <t>https://console.zlaata.com/admin/home-page-banner</t>
   </si>
   <si>
@@ -2698,6 +2725,9 @@
     <t>https://console.zlaata.com/admin/style-search-keyword</t>
   </si>
   <si>
+    <t>https://console.zlaata.com/admin/track-inventory</t>
+  </si>
+  <si>
     <t>https://console.zlaata.com/admin/coupon</t>
   </si>
   <si>
@@ -2732,36 +2762,6 @@
   </si>
   <si>
     <t>https://console.zlaata.com/admin/all-orders</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_08</t>
-  </si>
-  <si>
-    <t>Verify that uploaded track inventory appears in Admin and User App</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADI_08</t>
-  </si>
-  <si>
-    <t>https://console.zlaata.com/admin/track-inventory</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_09</t>
-  </si>
-  <si>
-    <t>Verify that uploaded track inventory product count for two Product</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADI_09</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ADI_10</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_10</t>
-  </si>
-  <si>
-    <t>Verify that the newly uploaded size in Track Inventory for a product is reflected in the application</t>
   </si>
 </sst>
 </file>
@@ -4247,24 +4247,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
   <dimension ref="A1:Z256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A189" zoomScale="109" workbookViewId="0">
       <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="118.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="118.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="45">
         <v>22</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="93" t="s">
         <v>156</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="I24" s="94"/>
       <c r="J24" s="95"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>1</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>2</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>5</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>6</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>7</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>8</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>9</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>11</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="96" t="s">
         <v>172</v>
       </c>
@@ -5412,7 +5412,7 @@
       <c r="I37" s="97"/>
       <c r="J37" s="98"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>1</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>2</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>3</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>4</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>6</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>7</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>8</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>9</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>10</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>11</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>12</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>13</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>14</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>15</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>16</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>16</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="96" t="s">
         <v>244</v>
       </c>
@@ -5970,7 +5970,7 @@
       <c r="I55" s="97"/>
       <c r="J55" s="98"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>1</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>2</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>3</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>4</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>5</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>6</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>7</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>8</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="25">
         <v>9</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
         <v>10</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="96" t="s">
         <v>246</v>
       </c>
@@ -6304,7 +6304,7 @@
       <c r="I66" s="97"/>
       <c r="J66" s="98"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>1</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>2</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>3</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>4</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>5</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>6</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>7</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>8</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>9</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>10</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>11</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="96" t="s">
         <v>345</v>
       </c>
@@ -6670,7 +6670,7 @@
       <c r="I78" s="97"/>
       <c r="J78" s="98"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>1</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>2</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="25">
         <v>3</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="25">
         <v>4</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="25">
         <v>5</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="25">
         <v>6</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>7</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="25">
         <v>8</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="25">
         <v>9</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="25">
         <v>10</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="25">
         <v>11</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="25">
         <v>12</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="25">
         <v>13</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="25">
         <v>14</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="25">
         <v>15</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="25">
         <v>16</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="25">
         <v>17</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="25">
         <v>18</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="25">
         <v>19</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="25">
         <v>20</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="25">
         <v>21</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="25">
         <v>22</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="25">
         <v>23</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="25">
         <v>24</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
         <v>25</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="25">
         <v>27</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="25">
         <v>28</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="84" t="s">
         <v>374</v>
       </c>
@@ -7548,7 +7548,7 @@
       <c r="I106" s="84"/>
       <c r="J106" s="84"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="25">
         <v>2</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="25">
         <v>3</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="25">
         <v>5</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="25">
         <v>6</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="25">
         <v>7</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
         <v>8</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
         <v>9</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
         <v>10</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="25">
         <v>11</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="25">
         <v>12</v>
       </c>
@@ -7946,7 +7946,7 @@
       <c r="W118" s="58"/>
       <c r="X118" s="58"/>
     </row>
-    <row r="119" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="25">
         <v>13</v>
       </c>
@@ -7992,7 +7992,7 @@
       <c r="W119" s="58"/>
       <c r="X119" s="58"/>
     </row>
-    <row r="120" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="25">
         <v>14</v>
       </c>
@@ -8038,7 +8038,7 @@
       <c r="W120" s="58"/>
       <c r="X120" s="58"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="85" t="s">
         <v>376</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="W121" s="58"/>
       <c r="X121" s="58"/>
     </row>
-    <row r="122" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="25">
         <v>1</v>
       </c>
@@ -8112,7 +8112,7 @@
       <c r="W122" s="58"/>
       <c r="X122" s="58"/>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="85" t="s">
         <v>381</v>
       </c>
@@ -8140,7 +8140,7 @@
       <c r="W123" s="58"/>
       <c r="X123" s="58"/>
     </row>
-    <row r="124" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="25">
         <v>1</v>
       </c>
@@ -8186,7 +8186,7 @@
       <c r="W124" s="58"/>
       <c r="X124" s="58"/>
     </row>
-    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="85" t="s">
         <v>394</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="I125" s="85"/>
       <c r="J125" s="85"/>
     </row>
-    <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
         <v>1</v>
       </c>
@@ -8246,7 +8246,7 @@
       <c r="W126" s="61"/>
       <c r="X126" s="61"/>
     </row>
-    <row r="127" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="25">
         <v>2</v>
       </c>
@@ -8292,7 +8292,7 @@
       <c r="W127" s="58"/>
       <c r="X127" s="58"/>
     </row>
-    <row r="128" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="25">
         <v>3</v>
       </c>
@@ -8338,7 +8338,7 @@
       <c r="W128" s="58"/>
       <c r="X128" s="58"/>
     </row>
-    <row r="129" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="25">
         <v>4</v>
       </c>
@@ -8384,7 +8384,7 @@
       <c r="W129" s="58"/>
       <c r="X129" s="58"/>
     </row>
-    <row r="130" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="25">
         <v>5</v>
       </c>
@@ -8430,7 +8430,7 @@
       <c r="W130" s="58"/>
       <c r="X130" s="58"/>
     </row>
-    <row r="131" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="25">
         <v>6</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="W131" s="58"/>
       <c r="X131" s="58"/>
     </row>
-    <row r="132" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="25">
         <v>7</v>
       </c>
@@ -8522,7 +8522,7 @@
       <c r="W132" s="58"/>
       <c r="X132" s="58"/>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="85" t="s">
         <v>411</v>
       </c>
@@ -8550,7 +8550,7 @@
       <c r="W133" s="58"/>
       <c r="X133" s="58"/>
     </row>
-    <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="59">
         <v>11</v>
       </c>
@@ -8596,7 +8596,7 @@
       <c r="W134" s="58"/>
       <c r="X134" s="58"/>
     </row>
-    <row r="135" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="26">
         <v>2</v>
       </c>
@@ -8642,7 +8642,7 @@
       <c r="W135" s="58"/>
       <c r="X135" s="58"/>
     </row>
-    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="26">
         <v>3</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="26">
         <v>4</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="W137" s="58"/>
       <c r="X137" s="58"/>
     </row>
-    <row r="138" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -8766,7 +8766,7 @@
       <c r="W138" s="58"/>
       <c r="X138" s="58"/>
     </row>
-    <row r="139" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="26">
         <v>6</v>
       </c>
@@ -8812,7 +8812,7 @@
       <c r="W139" s="58"/>
       <c r="X139" s="58"/>
     </row>
-    <row r="140" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="26">
         <v>7</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="26">
         <v>8</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="W141" s="58"/>
       <c r="X141" s="58"/>
     </row>
-    <row r="142" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="26">
         <v>9</v>
       </c>
@@ -8936,7 +8936,7 @@
       <c r="W142" s="58"/>
       <c r="X142" s="58"/>
     </row>
-    <row r="143" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="26">
         <v>10</v>
       </c>
@@ -8982,7 +8982,7 @@
       <c r="W143" s="58"/>
       <c r="X143" s="58"/>
     </row>
-    <row r="144" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="26">
         <v>11</v>
       </c>
@@ -9028,7 +9028,7 @@
       <c r="W144" s="58"/>
       <c r="X144" s="58"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="90" t="s">
         <v>439</v>
       </c>
@@ -9056,7 +9056,7 @@
       <c r="W145" s="58"/>
       <c r="X145" s="58"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="25">
         <v>1</v>
       </c>
@@ -9102,7 +9102,7 @@
       <c r="W146" s="58"/>
       <c r="X146" s="58"/>
     </row>
-    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="25">
         <v>2</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
         <v>3</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="25">
         <v>4</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="25">
         <v>5</v>
       </c>
@@ -9246,7 +9246,7 @@
       <c r="Y150" s="58"/>
       <c r="Z150" s="58"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -9294,7 +9294,7 @@
       <c r="Y151" s="58"/>
       <c r="Z151" s="58"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="25">
         <v>7</v>
       </c>
@@ -9342,7 +9342,7 @@
       <c r="Y152" s="58"/>
       <c r="Z152" s="58"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="25">
         <v>8</v>
       </c>
@@ -9390,7 +9390,7 @@
       <c r="Y153" s="58"/>
       <c r="Z153" s="58"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="25">
         <v>9</v>
       </c>
@@ -9438,7 +9438,7 @@
       <c r="Y154" s="58"/>
       <c r="Z154" s="58"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="25">
         <v>10</v>
       </c>
@@ -9486,7 +9486,7 @@
       <c r="Y155" s="58"/>
       <c r="Z155" s="58"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="85" t="s">
         <v>510</v>
       </c>
@@ -9516,7 +9516,7 @@
       <c r="Y156" s="58"/>
       <c r="Z156" s="58"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="25">
         <v>1</v>
       </c>
@@ -9564,7 +9564,7 @@
       <c r="Y157" s="58"/>
       <c r="Z157" s="58"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="85" t="s">
         <v>536</v>
       </c>
@@ -9594,7 +9594,7 @@
       <c r="Y158" s="58"/>
       <c r="Z158" s="58"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="67">
         <v>1</v>
       </c>
@@ -9642,7 +9642,7 @@
       <c r="Y159" s="58"/>
       <c r="Z159" s="58"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="68">
         <v>2</v>
       </c>
@@ -9690,7 +9690,7 @@
       <c r="Y160" s="58"/>
       <c r="Z160" s="58"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="68">
         <v>3</v>
       </c>
@@ -9738,7 +9738,7 @@
       <c r="Y161" s="58"/>
       <c r="Z161" s="58"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="68">
         <v>4</v>
       </c>
@@ -9786,7 +9786,7 @@
       <c r="Y162" s="58"/>
       <c r="Z162" s="58"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="68">
         <v>5</v>
       </c>
@@ -9834,7 +9834,7 @@
       <c r="Y163" s="58"/>
       <c r="Z163" s="58"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="68">
         <v>6</v>
       </c>
@@ -9882,7 +9882,7 @@
       <c r="Y164" s="58"/>
       <c r="Z164" s="58"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="68">
         <v>7</v>
       </c>
@@ -9930,7 +9930,7 @@
       <c r="Y165" s="58"/>
       <c r="Z165" s="58"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="68">
         <v>8</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="Y166" s="58"/>
       <c r="Z166" s="58"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="67">
         <v>9</v>
       </c>
@@ -10026,7 +10026,7 @@
       <c r="Y167" s="58"/>
       <c r="Z167" s="58"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="68">
         <v>10</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="67">
         <v>11</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="68">
         <v>12</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="67">
         <v>13</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="68">
         <v>14</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="67">
         <v>15</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="68">
         <v>16</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="67">
         <v>17</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="68">
         <v>18</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="85" t="s">
         <v>715</v>
       </c>
@@ -10328,7 +10328,7 @@
       <c r="I177" s="85"/>
       <c r="J177" s="85"/>
     </row>
-    <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
         <v>1</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="68">
         <v>2</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="68">
         <v>3</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="68">
         <v>4</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="68">
         <v>5</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="68">
         <v>6</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="68">
         <v>7</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="68">
         <v>8</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="68">
         <v>9</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="87" t="s">
         <v>617</v>
       </c>
@@ -10630,7 +10630,7 @@
       <c r="I187" s="88"/>
       <c r="J187" s="89"/>
     </row>
-    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
         <v>1</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="68">
         <v>2</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="68">
         <v>3</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="68">
         <v>4</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="68">
         <v>5</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="68">
         <v>6</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="68">
         <v>7</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="83" t="s">
         <v>638</v>
       </c>
@@ -10868,7 +10868,7 @@
       <c r="I195" s="83"/>
       <c r="J195" s="83"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="48">
         <v>1</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="48">
         <v>2</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="48">
         <v>3</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
         <v>4</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="83" t="s">
         <v>651</v>
       </c>
@@ -11010,7 +11010,7 @@
       <c r="I200" s="83"/>
       <c r="J200" s="83"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
         <v>1</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="83" t="s">
         <v>657</v>
       </c>
@@ -11056,7 +11056,7 @@
       <c r="I202" s="83"/>
       <c r="J202" s="83"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="48">
         <v>1</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="48">
         <v>2</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="48">
         <v>3</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="48">
         <v>4</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="48">
         <v>5</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="48">
         <v>6</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
         <v>7</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="48">
         <v>8</v>
       </c>
@@ -11288,16 +11288,16 @@
         <v>10</v>
       </c>
       <c r="C210" s="79" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="D210" s="78" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="E210" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F210" s="79" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="G210" s="48" t="s">
         <v>11</v>
@@ -11312,7 +11312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
         <v>9</v>
       </c>
@@ -11320,16 +11320,16 @@
         <v>10</v>
       </c>
       <c r="C211" s="79" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="D211" s="78" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="E211" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F211" s="79" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="G211" s="48" t="s">
         <v>11</v>
@@ -11344,7 +11344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="48">
         <v>10</v>
       </c>
@@ -11352,16 +11352,16 @@
         <v>10</v>
       </c>
       <c r="C212" s="79" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="D212" s="78" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="E212" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F212" s="79" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="G212" s="48" t="s">
         <v>11</v>
@@ -11376,7 +11376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="83" t="s">
         <v>733</v>
       </c>
@@ -11390,7 +11390,7 @@
       <c r="I213" s="83"/>
       <c r="J213" s="83"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="48">
         <v>1</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="83" t="s">
         <v>736</v>
       </c>
@@ -11436,7 +11436,7 @@
       <c r="I215" s="83"/>
       <c r="J215" s="83"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="48">
         <v>1</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="48">
         <v>2</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="48">
         <v>3</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="48">
         <v>4</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="48">
         <v>5</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="83" t="s">
         <v>746</v>
       </c>
@@ -11610,7 +11610,7 @@
       <c r="I221" s="83"/>
       <c r="J221" s="83"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="48">
         <v>1</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="48">
         <v>2</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="48">
         <v>3</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="48">
         <v>4</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="48">
         <v>5</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="48">
         <v>6</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="48">
         <v>7</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="48">
         <v>8</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="48">
         <v>9</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="48">
         <v>10</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="48">
         <v>11</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="83" t="s">
         <v>783</v>
       </c>
@@ -11976,7 +11976,7 @@
       <c r="I233" s="83"/>
       <c r="J233" s="83"/>
     </row>
-    <row r="234" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="48">
         <v>1</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="83" t="s">
         <v>796</v>
       </c>
@@ -12022,7 +12022,7 @@
       <c r="I235" s="83"/>
       <c r="J235" s="83"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="48">
         <v>1</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="48">
         <v>2</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="48">
         <v>3</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="48">
         <v>4</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="48">
         <v>5</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="48">
         <v>6</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="48">
         <v>7</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="48">
         <v>8</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="48">
         <v>9</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="48">
         <v>10</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="48">
         <v>11</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="48">
         <v>12</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="83" t="s">
         <v>841</v>
       </c>
@@ -12420,7 +12420,7 @@
       <c r="I248" s="83"/>
       <c r="J248" s="83"/>
     </row>
-    <row r="249" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="48">
         <v>1</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="48">
         <v>2</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="83" t="s">
         <v>842</v>
       </c>
@@ -12498,7 +12498,7 @@
       <c r="I251" s="83"/>
       <c r="J251" s="83"/>
     </row>
-    <row r="252" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="48">
         <v>1</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="48">
         <v>2</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="48">
         <v>3</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="48">
         <v>4</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="48">
         <v>5</v>
       </c>
@@ -12784,39 +12784,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AF241"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" topLeftCell="M185" workbookViewId="0">
+      <selection activeCell="S194" sqref="S194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="12" max="12" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="12" max="12" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52.28515625" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" customWidth="1"/>
+    <col min="17" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="71.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="52.33203125" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
     <col min="24" max="25" width="29" customWidth="1"/>
-    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" customWidth="1"/>
-    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" customWidth="1"/>
+    <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" customWidth="1"/>
+    <col min="29" max="29" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
@@ -12988,7 +12988,7 @@
       <c r="AC2" s="28"/>
       <c r="AD2" s="28"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>25</v>
       </c>
@@ -13068,7 +13068,7 @@
       <c r="AC3" s="28"/>
       <c r="AD3" s="28"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
@@ -13148,7 +13148,7 @@
       <c r="AC4" s="28"/>
       <c r="AD4" s="28"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>58</v>
       </c>
@@ -13228,7 +13228,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>69</v>
       </c>
@@ -13308,7 +13308,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>73</v>
       </c>
@@ -13388,7 +13388,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
     </row>
-    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>77</v>
       </c>
@@ -13468,7 +13468,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>79</v>
       </c>
@@ -13548,7 +13548,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>80</v>
       </c>
@@ -13628,7 +13628,7 @@
       <c r="AC10" s="28"/>
       <c r="AD10" s="28"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>81</v>
       </c>
@@ -13708,7 +13708,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>83</v>
       </c>
@@ -13788,7 +13788,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>84</v>
       </c>
@@ -13868,7 +13868,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>85</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>86</v>
       </c>
@@ -14028,7 +14028,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
@@ -14108,7 +14108,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>88</v>
       </c>
@@ -14188,7 +14188,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>89</v>
       </c>
@@ -14268,7 +14268,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>91</v>
       </c>
@@ -14348,7 +14348,7 @@
       <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>93</v>
       </c>
@@ -14428,7 +14428,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>94</v>
       </c>
@@ -14508,7 +14508,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>135</v>
       </c>
@@ -14588,7 +14588,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>140</v>
       </c>
@@ -14668,7 +14668,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="53" t="s">
         <v>63</v>
       </c>
@@ -14748,7 +14748,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>144</v>
       </c>
@@ -14828,7 +14828,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>145</v>
       </c>
@@ -14908,7 +14908,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>146</v>
       </c>
@@ -14988,7 +14988,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>147</v>
       </c>
@@ -15068,7 +15068,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>148</v>
       </c>
@@ -15148,7 +15148,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>150</v>
       </c>
@@ -15228,7 +15228,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>151</v>
       </c>
@@ -15308,7 +15308,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>152</v>
       </c>
@@ -15388,7 +15388,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>153</v>
       </c>
@@ -15468,7 +15468,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>154</v>
       </c>
@@ -15548,7 +15548,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>155</v>
       </c>
@@ -15628,7 +15628,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>64</v>
       </c>
@@ -15708,7 +15708,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
         <v>175</v>
       </c>
@@ -15790,7 +15790,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>179</v>
       </c>
@@ -15872,7 +15872,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>182</v>
       </c>
@@ -15954,7 +15954,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>185</v>
       </c>
@@ -16036,7 +16036,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>188</v>
       </c>
@@ -16118,7 +16118,7 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>190</v>
       </c>
@@ -16200,7 +16200,7 @@
       <c r="AC42" s="28"/>
       <c r="AD42" s="28"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>193</v>
       </c>
@@ -16282,7 +16282,7 @@
       <c r="AC43" s="28"/>
       <c r="AD43" s="28"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>196</v>
       </c>
@@ -16364,7 +16364,7 @@
       <c r="AC44" s="28"/>
       <c r="AD44" s="28"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>198</v>
       </c>
@@ -16446,7 +16446,7 @@
       <c r="AC45" s="28"/>
       <c r="AD45" s="28"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>200</v>
       </c>
@@ -16528,7 +16528,7 @@
       <c r="AC46" s="28"/>
       <c r="AD46" s="28"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>202</v>
       </c>
@@ -16610,7 +16610,7 @@
       <c r="AC47" s="28"/>
       <c r="AD47" s="28"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>204</v>
       </c>
@@ -16692,7 +16692,7 @@
       <c r="AC48" s="28"/>
       <c r="AD48" s="28"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>206</v>
       </c>
@@ -16774,7 +16774,7 @@
       <c r="AC49" s="28"/>
       <c r="AD49" s="28"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>208</v>
       </c>
@@ -16856,7 +16856,7 @@
       <c r="AC50" s="28"/>
       <c r="AD50" s="28"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>210</v>
       </c>
@@ -16938,7 +16938,7 @@
       <c r="AC51" s="28"/>
       <c r="AD51" s="28"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>212</v>
       </c>
@@ -17020,7 +17020,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>687</v>
       </c>
@@ -17102,7 +17102,7 @@
       <c r="AC53" s="28"/>
       <c r="AD53" s="28"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
         <v>213</v>
       </c>
@@ -17184,7 +17184,7 @@
       <c r="AC54" s="28"/>
       <c r="AD54" s="28"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>214</v>
       </c>
@@ -17266,7 +17266,7 @@
       <c r="AC55" s="28"/>
       <c r="AD55" s="28"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>215</v>
       </c>
@@ -17348,7 +17348,7 @@
       <c r="AC56" s="28"/>
       <c r="AD56" s="28"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>216</v>
       </c>
@@ -17430,7 +17430,7 @@
       <c r="AC57" s="28"/>
       <c r="AD57" s="28"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>217</v>
       </c>
@@ -17512,7 +17512,7 @@
       <c r="AC58" s="28"/>
       <c r="AD58" s="28"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="48" t="s">
         <v>218</v>
       </c>
@@ -17594,7 +17594,7 @@
       <c r="AC59" s="28"/>
       <c r="AD59" s="28"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>219</v>
       </c>
@@ -17676,7 +17676,7 @@
       <c r="AC60" s="28"/>
       <c r="AD60" s="28"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>220</v>
       </c>
@@ -17758,7 +17758,7 @@
       <c r="AC61" s="28"/>
       <c r="AD61" s="28"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>221</v>
       </c>
@@ -17840,7 +17840,7 @@
       <c r="AC62" s="28"/>
       <c r="AD62" s="28"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="51" t="s">
         <v>222</v>
       </c>
@@ -17922,7 +17922,7 @@
       <c r="AC63" s="28"/>
       <c r="AD63" s="28"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="56" t="s">
         <v>249</v>
       </c>
@@ -18004,7 +18004,7 @@
       <c r="AC64" s="28"/>
       <c r="AD64" s="28"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>253</v>
       </c>
@@ -18086,7 +18086,7 @@
       <c r="AC65" s="28"/>
       <c r="AD65" s="28"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>256</v>
       </c>
@@ -18168,7 +18168,7 @@
       <c r="AC66" s="28"/>
       <c r="AD66" s="28"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>259</v>
       </c>
@@ -18250,7 +18250,7 @@
       <c r="AC67" s="28"/>
       <c r="AD67" s="28"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>262</v>
       </c>
@@ -18332,7 +18332,7 @@
       <c r="AC68" s="28"/>
       <c r="AD68" s="28"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>265</v>
       </c>
@@ -18414,7 +18414,7 @@
       <c r="AC69" s="28"/>
       <c r="AD69" s="28"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>268</v>
       </c>
@@ -18496,7 +18496,7 @@
       <c r="AC70" s="28"/>
       <c r="AD70" s="28"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="48" t="s">
         <v>271</v>
       </c>
@@ -18578,7 +18578,7 @@
       <c r="AC71" s="28"/>
       <c r="AD71" s="28"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>274</v>
       </c>
@@ -18660,7 +18660,7 @@
       <c r="AC72" s="28"/>
       <c r="AD72" s="28"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>277</v>
       </c>
@@ -18742,7 +18742,7 @@
       <c r="AC73" s="28"/>
       <c r="AD73" s="28"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
         <v>280</v>
       </c>
@@ -18826,7 +18826,7 @@
       <c r="AC74" s="28"/>
       <c r="AD74" s="28"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="62" t="s">
         <v>282</v>
       </c>
@@ -18910,7 +18910,7 @@
       <c r="AC75" s="28"/>
       <c r="AD75" s="28"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>285</v>
       </c>
@@ -18994,7 +18994,7 @@
       <c r="AC76" s="28"/>
       <c r="AD76" s="28"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="48" t="s">
         <v>287</v>
       </c>
@@ -19078,7 +19078,7 @@
       <c r="AC77" s="28"/>
       <c r="AD77" s="28"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>289</v>
       </c>
@@ -19162,7 +19162,7 @@
       <c r="AC78" s="28"/>
       <c r="AD78" s="28"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>292</v>
       </c>
@@ -19246,7 +19246,7 @@
       <c r="AC79" s="28"/>
       <c r="AD79" s="28"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="48" t="s">
         <v>295</v>
       </c>
@@ -19330,7 +19330,7 @@
       <c r="AC80" s="28"/>
       <c r="AD80" s="28"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="48" t="s">
         <v>298</v>
       </c>
@@ -19414,7 +19414,7 @@
       <c r="AC81" s="28"/>
       <c r="AD81" s="28"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="48" t="s">
         <v>301</v>
       </c>
@@ -19498,7 +19498,7 @@
       <c r="AC82" s="28"/>
       <c r="AD82" s="28"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>304</v>
       </c>
@@ -19582,7 +19582,7 @@
       <c r="AC83" s="28"/>
       <c r="AD83" s="28"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="48" t="s">
         <v>306</v>
       </c>
@@ -19666,7 +19666,7 @@
       <c r="AC84" s="28"/>
       <c r="AD84" s="28"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>308</v>
       </c>
@@ -19750,7 +19750,7 @@
       <c r="AC85" s="28"/>
       <c r="AD85" s="28"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>310</v>
       </c>
@@ -19834,7 +19834,7 @@
       <c r="AC86" s="28"/>
       <c r="AD86" s="28"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
         <v>313</v>
       </c>
@@ -19918,7 +19918,7 @@
       <c r="AC87" s="28"/>
       <c r="AD87" s="28"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>316</v>
       </c>
@@ -20002,7 +20002,7 @@
       <c r="AC88" s="28"/>
       <c r="AD88" s="28"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>319</v>
       </c>
@@ -20086,7 +20086,7 @@
       <c r="AC89" s="28"/>
       <c r="AD89" s="28"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>322</v>
       </c>
@@ -20170,7 +20170,7 @@
       <c r="AC90" s="28"/>
       <c r="AD90" s="28"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>324</v>
       </c>
@@ -20254,7 +20254,7 @@
       <c r="AC91" s="28"/>
       <c r="AD91" s="28"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>327</v>
       </c>
@@ -20338,7 +20338,7 @@
       <c r="AC92" s="28"/>
       <c r="AD92" s="28"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>330</v>
       </c>
@@ -20422,7 +20422,7 @@
       <c r="AC93" s="28"/>
       <c r="AD93" s="28"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
         <v>332</v>
       </c>
@@ -20506,7 +20506,7 @@
       <c r="AC94" s="28"/>
       <c r="AD94" s="28"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="48" t="s">
         <v>334</v>
       </c>
@@ -20590,7 +20590,7 @@
       <c r="AC95" s="28"/>
       <c r="AD95" s="28"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" s="48" t="s">
         <v>336</v>
       </c>
@@ -20674,7 +20674,7 @@
       <c r="AC96" s="28"/>
       <c r="AD96" s="28"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" s="48" t="s">
         <v>338</v>
       </c>
@@ -20758,7 +20758,7 @@
       <c r="AC97" s="28"/>
       <c r="AD97" s="28"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" s="48" t="s">
         <v>340</v>
       </c>
@@ -20842,7 +20842,7 @@
       <c r="AC98" s="28"/>
       <c r="AD98" s="28"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>342</v>
       </c>
@@ -20926,7 +20926,7 @@
       <c r="AC99" s="28"/>
       <c r="AD99" s="28"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" s="48" t="s">
         <v>344</v>
       </c>
@@ -21010,7 +21010,7 @@
       <c r="AC100" s="28"/>
       <c r="AD100" s="28"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>597</v>
       </c>
@@ -21094,7 +21094,7 @@
       <c r="AC101" s="28"/>
       <c r="AD101" s="28"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
         <v>348</v>
       </c>
@@ -21178,7 +21178,7 @@
       <c r="AC102" s="28"/>
       <c r="AD102" s="28"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" s="48" t="s">
         <v>352</v>
       </c>
@@ -21262,7 +21262,7 @@
       <c r="AC103" s="28"/>
       <c r="AD103" s="28"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
         <v>355</v>
       </c>
@@ -21346,7 +21346,7 @@
       <c r="AC104" s="28"/>
       <c r="AD104" s="28"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>358</v>
       </c>
@@ -21430,7 +21430,7 @@
       <c r="AC105" s="28"/>
       <c r="AD105" s="28"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>361</v>
       </c>
@@ -21514,7 +21514,7 @@
       <c r="AC106" s="28"/>
       <c r="AD106" s="28"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>364</v>
       </c>
@@ -21598,7 +21598,7 @@
       <c r="AC107" s="28"/>
       <c r="AD107" s="28"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" s="48" t="s">
         <v>367</v>
       </c>
@@ -21682,7 +21682,7 @@
       <c r="AC108" s="28"/>
       <c r="AD108" s="28"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" s="48" t="s">
         <v>369</v>
       </c>
@@ -21766,7 +21766,7 @@
       <c r="AC109" s="28"/>
       <c r="AD109" s="28"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" s="48" t="s">
         <v>371</v>
       </c>
@@ -21850,7 +21850,7 @@
       <c r="AC110" s="28"/>
       <c r="AD110" s="28"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" s="48" t="s">
         <v>598</v>
       </c>
@@ -21934,7 +21934,7 @@
       <c r="AC111" s="28"/>
       <c r="AD111" s="28"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" s="48" t="s">
         <v>690</v>
       </c>
@@ -22018,7 +22018,7 @@
       <c r="AC112" s="28"/>
       <c r="AD112" s="28"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
         <v>693</v>
       </c>
@@ -22102,7 +22102,7 @@
       <c r="AC113" s="28"/>
       <c r="AD113" s="28"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
         <v>696</v>
       </c>
@@ -22186,7 +22186,7 @@
       <c r="AC114" s="28"/>
       <c r="AD114" s="28"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
         <v>699</v>
       </c>
@@ -22270,7 +22270,7 @@
       <c r="AC115" s="28"/>
       <c r="AD115" s="28"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>378</v>
       </c>
@@ -22354,7 +22354,7 @@
       <c r="AC116" s="28"/>
       <c r="AD116" s="28"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>383</v>
       </c>
@@ -22438,7 +22438,7 @@
       <c r="AC117" s="28"/>
       <c r="AD117" s="28"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>397</v>
       </c>
@@ -22522,7 +22522,7 @@
       <c r="AC118" s="28"/>
       <c r="AD118" s="28"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>399</v>
       </c>
@@ -22606,7 +22606,7 @@
       <c r="AC119" s="28"/>
       <c r="AD119" s="28"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" s="48" t="s">
         <v>400</v>
       </c>
@@ -22690,7 +22690,7 @@
       <c r="AC120" s="28"/>
       <c r="AD120" s="28"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" s="48" t="s">
         <v>401</v>
       </c>
@@ -22774,7 +22774,7 @@
       <c r="AC121" s="28"/>
       <c r="AD121" s="28"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>402</v>
       </c>
@@ -22858,7 +22858,7 @@
       <c r="AC122" s="28"/>
       <c r="AD122" s="28"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>403</v>
       </c>
@@ -22942,7 +22942,7 @@
       <c r="AC123" s="28"/>
       <c r="AD123" s="28"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124" s="48" t="s">
         <v>405</v>
       </c>
@@ -23026,7 +23026,7 @@
       <c r="AC124" s="28"/>
       <c r="AD124" s="28"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A125" s="48" t="s">
         <v>407</v>
       </c>
@@ -23110,7 +23110,7 @@
       <c r="AC125" s="28"/>
       <c r="AD125" s="28"/>
     </row>
-    <row r="126" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A126" s="62" t="s">
         <v>413</v>
       </c>
@@ -23194,7 +23194,7 @@
       <c r="AC126" s="28"/>
       <c r="AD126" s="28"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" s="48" t="s">
         <v>417</v>
       </c>
@@ -23278,7 +23278,7 @@
       <c r="AC127" s="28"/>
       <c r="AD127" s="28"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128" s="48" t="s">
         <v>420</v>
       </c>
@@ -23362,7 +23362,7 @@
       <c r="AC128" s="28"/>
       <c r="AD128" s="28"/>
     </row>
-    <row r="129" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A129" s="48" t="s">
         <v>422</v>
       </c>
@@ -23446,7 +23446,7 @@
       <c r="AC129" s="28"/>
       <c r="AD129" s="28"/>
     </row>
-    <row r="130" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A130" s="48" t="s">
         <v>424</v>
       </c>
@@ -23530,7 +23530,7 @@
       <c r="AC130" s="28"/>
       <c r="AD130" s="28"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
         <v>427</v>
       </c>
@@ -23614,7 +23614,7 @@
       <c r="AC131" s="28"/>
       <c r="AD131" s="28"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" s="48" t="s">
         <v>430</v>
       </c>
@@ -23698,7 +23698,7 @@
       <c r="AC132" s="28"/>
       <c r="AD132" s="28"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" s="48" t="s">
         <v>433</v>
       </c>
@@ -23782,7 +23782,7 @@
       <c r="AC133" s="28"/>
       <c r="AD133" s="28"/>
     </row>
-    <row r="134" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A134" s="48" t="s">
         <v>436</v>
       </c>
@@ -23866,7 +23866,7 @@
       <c r="AC134" s="28"/>
       <c r="AD134" s="28"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>438</v>
       </c>
@@ -23950,7 +23950,7 @@
       <c r="AC135" s="28"/>
       <c r="AD135" s="28"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" s="48" t="s">
         <v>703</v>
       </c>
@@ -24034,7 +24034,7 @@
       <c r="AC136" s="28"/>
       <c r="AD136" s="28"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" s="48" t="s">
         <v>397</v>
       </c>
@@ -24118,7 +24118,7 @@
       <c r="AC137" s="28"/>
       <c r="AD137" s="28"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138" s="48" t="s">
         <v>399</v>
       </c>
@@ -24202,7 +24202,7 @@
       <c r="AC138" s="28"/>
       <c r="AD138" s="28"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139" s="48" t="s">
         <v>400</v>
       </c>
@@ -24286,7 +24286,7 @@
       <c r="AC139" s="28"/>
       <c r="AD139" s="28"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" s="48" t="s">
         <v>401</v>
       </c>
@@ -24370,7 +24370,7 @@
       <c r="AC140" s="28"/>
       <c r="AD140" s="28"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141" s="48" t="s">
         <v>402</v>
       </c>
@@ -24454,7 +24454,7 @@
       <c r="AC141" s="28"/>
       <c r="AD141" s="28"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142" s="48" t="s">
         <v>403</v>
       </c>
@@ -24538,7 +24538,7 @@
       <c r="AC142" s="28"/>
       <c r="AD142" s="28"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143" s="48" t="s">
         <v>405</v>
       </c>
@@ -24622,7 +24622,7 @@
       <c r="AC143" s="28"/>
       <c r="AD143" s="28"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144" s="48" t="s">
         <v>442</v>
       </c>
@@ -24706,7 +24706,7 @@
       <c r="AC144" s="28"/>
       <c r="AD144" s="28"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" s="48" t="s">
         <v>446</v>
       </c>
@@ -24790,7 +24790,7 @@
       <c r="AC145" s="28"/>
       <c r="AD145" s="28"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" s="48" t="s">
         <v>449</v>
       </c>
@@ -24874,7 +24874,7 @@
       <c r="AC146" s="28"/>
       <c r="AD146" s="28"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>451</v>
       </c>
@@ -24958,7 +24958,7 @@
       <c r="AC147" s="28"/>
       <c r="AD147" s="28"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" s="48" t="s">
         <v>454</v>
       </c>
@@ -25042,7 +25042,7 @@
       <c r="AC148" s="28"/>
       <c r="AD148" s="28"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" s="48" t="s">
         <v>457</v>
       </c>
@@ -25126,7 +25126,7 @@
       <c r="AC149" s="28"/>
       <c r="AD149" s="28"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A150" s="48" t="s">
         <v>460</v>
       </c>
@@ -25210,7 +25210,7 @@
       <c r="AC150" s="28"/>
       <c r="AD150" s="28"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" s="48" t="s">
         <v>463</v>
       </c>
@@ -25294,7 +25294,7 @@
       <c r="AC151" s="28"/>
       <c r="AD151" s="28"/>
     </row>
-    <row r="152" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="48" t="s">
         <v>466</v>
       </c>
@@ -25378,7 +25378,7 @@
       <c r="AC152" s="28"/>
       <c r="AD152" s="28"/>
     </row>
-    <row r="153" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="48" t="s">
         <v>469</v>
       </c>
@@ -25462,7 +25462,7 @@
       <c r="AC153" s="28"/>
       <c r="AD153" s="28"/>
     </row>
-    <row r="154" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="48" t="s">
         <v>509</v>
       </c>
@@ -25546,7 +25546,7 @@
       <c r="AC154" s="28"/>
       <c r="AD154" s="28"/>
     </row>
-    <row r="155" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="66" t="s">
         <v>539</v>
       </c>
@@ -25630,7 +25630,7 @@
       <c r="AC155" s="28"/>
       <c r="AD155" s="28"/>
     </row>
-    <row r="156" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="70" t="s">
         <v>543</v>
       </c>
@@ -25714,7 +25714,7 @@
       <c r="AC156" s="28"/>
       <c r="AD156" s="28"/>
     </row>
-    <row r="157" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="66" t="s">
         <v>546</v>
       </c>
@@ -25798,7 +25798,7 @@
       <c r="AC157" s="28"/>
       <c r="AD157" s="28"/>
     </row>
-    <row r="158" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="70" t="s">
         <v>549</v>
       </c>
@@ -25882,7 +25882,7 @@
       <c r="AC158" s="28"/>
       <c r="AD158" s="28"/>
     </row>
-    <row r="159" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="66" t="s">
         <v>551</v>
       </c>
@@ -25966,7 +25966,7 @@
       <c r="AC159" s="28"/>
       <c r="AD159" s="28"/>
     </row>
-    <row r="160" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="70" t="s">
         <v>553</v>
       </c>
@@ -26050,7 +26050,7 @@
       <c r="AC160" s="28"/>
       <c r="AD160" s="28"/>
     </row>
-    <row r="161" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="66" t="s">
         <v>555</v>
       </c>
@@ -26134,7 +26134,7 @@
       <c r="AC161" s="28"/>
       <c r="AD161" s="28"/>
     </row>
-    <row r="162" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="70" t="s">
         <v>557</v>
       </c>
@@ -26218,7 +26218,7 @@
       <c r="AC162" s="28"/>
       <c r="AD162" s="28"/>
     </row>
-    <row r="163" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="66" t="s">
         <v>559</v>
       </c>
@@ -26302,7 +26302,7 @@
       <c r="AC163" s="28"/>
       <c r="AD163" s="28"/>
     </row>
-    <row r="164" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="70" t="s">
         <v>562</v>
       </c>
@@ -26386,7 +26386,7 @@
       <c r="AC164" s="28"/>
       <c r="AD164" s="28"/>
     </row>
-    <row r="165" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="66" t="s">
         <v>565</v>
       </c>
@@ -26470,7 +26470,7 @@
       <c r="AC165" s="28"/>
       <c r="AD165" s="28"/>
     </row>
-    <row r="166" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="70" t="s">
         <v>568</v>
       </c>
@@ -26554,7 +26554,7 @@
       <c r="AC166" s="28"/>
       <c r="AD166" s="28"/>
     </row>
-    <row r="167" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="66" t="s">
         <v>571</v>
       </c>
@@ -26638,7 +26638,7 @@
       <c r="AC167" s="28"/>
       <c r="AD167" s="28"/>
     </row>
-    <row r="168" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="70" t="s">
         <v>574</v>
       </c>
@@ -26722,7 +26722,7 @@
       <c r="AC168" s="28"/>
       <c r="AD168" s="28"/>
     </row>
-    <row r="169" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="66" t="s">
         <v>577</v>
       </c>
@@ -26806,7 +26806,7 @@
       <c r="AC169" s="28"/>
       <c r="AD169" s="28"/>
     </row>
-    <row r="170" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="66" t="s">
         <v>579</v>
       </c>
@@ -26890,7 +26890,7 @@
       <c r="AC170" s="28"/>
       <c r="AD170" s="28"/>
     </row>
-    <row r="171" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="66" t="s">
         <v>581</v>
       </c>
@@ -26974,7 +26974,7 @@
       <c r="AC171" s="28"/>
       <c r="AD171" s="28"/>
     </row>
-    <row r="172" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="66" t="s">
         <v>584</v>
       </c>
@@ -27058,7 +27058,7 @@
       <c r="AC172" s="28"/>
       <c r="AD172" s="28"/>
     </row>
-    <row r="173" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="76"/>
       <c r="B173" s="48"/>
       <c r="C173" s="36"/>
@@ -27102,7 +27102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="70" t="s">
         <v>601</v>
       </c>
@@ -27158,7 +27158,7 @@
         <v>22</v>
       </c>
       <c r="S174" s="49" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -27194,7 +27194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="70" t="s">
         <v>604</v>
       </c>
@@ -27250,7 +27250,7 @@
         <v>22</v>
       </c>
       <c r="S175" s="49" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
@@ -27286,7 +27286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="70" t="s">
         <v>606</v>
       </c>
@@ -27342,7 +27342,7 @@
         <v>22</v>
       </c>
       <c r="S176" s="49" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
@@ -27378,7 +27378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="70" t="s">
         <v>607</v>
       </c>
@@ -27434,7 +27434,7 @@
         <v>22</v>
       </c>
       <c r="S177" s="49" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="T177" s="48" t="s">
         <v>22</v>
@@ -27470,7 +27470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="70" t="s">
         <v>609</v>
       </c>
@@ -27526,7 +27526,7 @@
         <v>22</v>
       </c>
       <c r="S178" s="49" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="T178" s="48" t="s">
         <v>22</v>
@@ -27562,7 +27562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="70" t="s">
         <v>610</v>
       </c>
@@ -27618,7 +27618,7 @@
         <v>22</v>
       </c>
       <c r="S179" s="49" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="T179" s="48" t="s">
         <v>22</v>
@@ -27654,7 +27654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="70" t="s">
         <v>611</v>
       </c>
@@ -27710,7 +27710,7 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="T180" s="48" t="s">
         <v>22</v>
@@ -27746,7 +27746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="70" t="s">
         <v>615</v>
       </c>
@@ -27802,7 +27802,7 @@
         <v>22</v>
       </c>
       <c r="S181" s="49" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="T181" s="48" t="s">
         <v>22</v>
@@ -27838,7 +27838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="70" t="s">
         <v>614</v>
       </c>
@@ -27894,7 +27894,7 @@
         <v>22</v>
       </c>
       <c r="S182" s="49" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="T182" s="48" t="s">
         <v>22</v>
@@ -27930,7 +27930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="70" t="s">
         <v>619</v>
       </c>
@@ -27986,7 +27986,7 @@
         <v>22</v>
       </c>
       <c r="S183" s="49" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="T183" s="48" t="s">
         <v>22</v>
@@ -28025,7 +28025,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="184" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="70" t="s">
         <v>623</v>
       </c>
@@ -28081,7 +28081,7 @@
         <v>22</v>
       </c>
       <c r="S184" s="49" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="T184" s="48" t="s">
         <v>22</v>
@@ -28120,7 +28120,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="70" t="s">
         <v>629</v>
       </c>
@@ -28215,7 +28215,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="186" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="70" t="s">
         <v>630</v>
       </c>
@@ -28310,7 +28310,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="187" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="70" t="s">
         <v>636</v>
       </c>
@@ -28402,7 +28402,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="188" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="70" t="s">
         <v>853</v>
       </c>
@@ -28494,7 +28494,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="70" t="s">
         <v>854</v>
       </c>
@@ -28586,7 +28586,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="190" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="70" t="s">
         <v>640</v>
       </c>
@@ -28678,7 +28678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="70" t="s">
         <v>642</v>
       </c>
@@ -28770,7 +28770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="70" t="s">
         <v>648</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="70" t="s">
         <v>649</v>
       </c>
@@ -28954,7 +28954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="70" t="s">
         <v>654</v>
       </c>
@@ -29010,7 +29010,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -29046,7 +29046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="70" t="s">
         <v>656</v>
       </c>
@@ -29102,7 +29102,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -29138,7 +29138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="70" t="s">
         <v>662</v>
       </c>
@@ -29194,7 +29194,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -29230,7 +29230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="70" t="s">
         <v>665</v>
       </c>
@@ -29286,7 +29286,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -29322,7 +29322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="70" t="s">
         <v>666</v>
       </c>
@@ -29378,7 +29378,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -29414,7 +29414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="70" t="s">
         <v>671</v>
       </c>
@@ -29470,7 +29470,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -29506,7 +29506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="70" t="s">
         <v>676</v>
       </c>
@@ -29562,7 +29562,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -29598,7 +29598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="70" t="s">
         <v>677</v>
       </c>
@@ -29654,7 +29654,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -29690,9 +29690,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="70" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="B202" s="48" t="s">
         <v>22</v>
@@ -29746,7 +29746,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -29782,9 +29782,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="70" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="B203" s="48" t="s">
         <v>22</v>
@@ -29838,7 +29838,7 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="T203" s="48" t="s">
         <v>22</v>
@@ -29874,9 +29874,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="70" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="B204" s="48" t="s">
         <v>22</v>
@@ -29930,7 +29930,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29966,7 +29966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="70" t="s">
         <v>732</v>
       </c>
@@ -30022,7 +30022,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -30058,7 +30058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="70" t="s">
         <v>738</v>
       </c>
@@ -30114,7 +30114,7 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="T206" s="48" t="s">
         <v>22</v>
@@ -30150,7 +30150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="70" t="s">
         <v>740</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="T207" s="48" t="s">
         <v>22</v>
@@ -30242,7 +30242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="70" t="s">
         <v>780</v>
       </c>
@@ -30298,7 +30298,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -30334,7 +30334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="70" t="s">
         <v>870</v>
       </c>
@@ -30390,10 +30390,10 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="T209" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="U209" s="48" t="s">
         <v>22</v>
@@ -30426,7 +30426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="70" t="s">
         <v>871</v>
       </c>
@@ -30482,10 +30482,10 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="T210" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="U210" s="48" t="s">
         <v>22</v>
@@ -30518,7 +30518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="70" t="s">
         <v>745</v>
       </c>
@@ -30574,7 +30574,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30610,7 +30610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="70" t="s">
         <v>751</v>
       </c>
@@ -30666,7 +30666,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30702,7 +30702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="70" t="s">
         <v>752</v>
       </c>
@@ -30758,7 +30758,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30794,7 +30794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="70" t="s">
         <v>757</v>
       </c>
@@ -30850,7 +30850,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30886,7 +30886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="70" t="s">
         <v>758</v>
       </c>
@@ -30942,7 +30942,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30978,7 +30978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="70" t="s">
         <v>759</v>
       </c>
@@ -31034,7 +31034,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -31070,7 +31070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="70" t="s">
         <v>764</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -31162,7 +31162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="70" t="s">
         <v>767</v>
       </c>
@@ -31218,7 +31218,7 @@
         <v>22</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="T218" s="48" t="s">
         <v>22</v>
@@ -31254,7 +31254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="70" t="s">
         <v>772</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="T219" s="48" t="s">
         <v>22</v>
@@ -31346,7 +31346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="70" t="s">
         <v>775</v>
       </c>
@@ -31402,7 +31402,7 @@
         <v>22</v>
       </c>
       <c r="S220" s="49" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="T220" s="48" t="s">
         <v>22</v>
@@ -31438,7 +31438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="70" t="s">
         <v>776</v>
       </c>
@@ -31494,7 +31494,7 @@
         <v>22</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="T221" s="48" t="s">
         <v>22</v>
@@ -31530,7 +31530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="70" t="s">
         <v>782</v>
       </c>
@@ -31586,7 +31586,7 @@
         <v>22</v>
       </c>
       <c r="S222" s="49" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="T222" s="48" t="s">
         <v>22</v>
@@ -31622,7 +31622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="70" t="s">
         <v>795</v>
       </c>
@@ -31678,7 +31678,7 @@
         <v>22</v>
       </c>
       <c r="S223" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T223" s="48" t="s">
         <v>22</v>
@@ -31714,7 +31714,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="70" t="s">
         <v>800</v>
       </c>
@@ -31770,7 +31770,7 @@
         <v>22</v>
       </c>
       <c r="S224" s="49" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="T224" s="48" t="s">
         <v>22</v>
@@ -31806,7 +31806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="70" t="s">
         <v>805</v>
       </c>
@@ -31862,10 +31862,10 @@
         <v>22</v>
       </c>
       <c r="S225" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T225" s="49" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="U225" s="48" t="s">
         <v>22</v>
@@ -31898,7 +31898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:30" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="70" t="s">
         <v>807</v>
       </c>
@@ -31954,10 +31954,10 @@
         <v>22</v>
       </c>
       <c r="S226" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T226" s="49" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31990,7 +31990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="70" t="s">
         <v>809</v>
       </c>
@@ -32046,7 +32046,7 @@
         <v>22</v>
       </c>
       <c r="S227" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T227" s="48" t="s">
         <v>22</v>
@@ -32082,7 +32082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="70" t="s">
         <v>814</v>
       </c>
@@ -32138,7 +32138,7 @@
         <v>22</v>
       </c>
       <c r="S228" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T228" s="48" t="s">
         <v>22</v>
@@ -32174,7 +32174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="70" t="s">
         <v>816</v>
       </c>
@@ -32230,10 +32230,10 @@
         <v>22</v>
       </c>
       <c r="S229" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T229" s="49" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="U229" s="48" t="s">
         <v>22</v>
@@ -32266,7 +32266,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="70" t="s">
         <v>820</v>
       </c>
@@ -32322,10 +32322,10 @@
         <v>22</v>
       </c>
       <c r="S230" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T230" s="49" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="U230" s="48" t="s">
         <v>22</v>
@@ -32358,7 +32358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="70" t="s">
         <v>825</v>
       </c>
@@ -32414,7 +32414,7 @@
         <v>22</v>
       </c>
       <c r="S231" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T231" s="48" t="s">
         <v>22</v>
@@ -32450,7 +32450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="70" t="s">
         <v>828</v>
       </c>
@@ -32506,10 +32506,10 @@
         <v>22</v>
       </c>
       <c r="S232" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T232" s="49" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="U232" s="48" t="s">
         <v>22</v>
@@ -32542,7 +32542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="70" t="s">
         <v>829</v>
       </c>
@@ -32598,10 +32598,10 @@
         <v>22</v>
       </c>
       <c r="S233" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T233" s="49" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="U233" s="48" t="s">
         <v>22</v>
@@ -32634,7 +32634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="70" t="s">
         <v>834</v>
       </c>
@@ -32690,10 +32690,10 @@
         <v>22</v>
       </c>
       <c r="S234" s="49" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="T234" s="49" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="U234" s="48" t="s">
         <v>22</v>
@@ -32726,7 +32726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="70" t="s">
         <v>874</v>
       </c>
@@ -32818,7 +32818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="70" t="s">
         <v>878</v>
       </c>
@@ -32910,7 +32910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="70" t="s">
         <v>844</v>
       </c>
@@ -33002,7 +33002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="70" t="s">
         <v>848</v>
       </c>
@@ -33094,7 +33094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="70" t="s">
         <v>850</v>
       </c>
@@ -33186,7 +33186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="70" t="s">
         <v>863</v>
       </c>
@@ -33278,7 +33278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="70" t="s">
         <v>865</v>
       </c>
@@ -33535,8 +33535,9 @@
     <hyperlink ref="S204" r:id="rId56" xr:uid="{C356118E-7CF8-4DBB-80E8-2AC4DA83F153}"/>
     <hyperlink ref="S202" r:id="rId57" xr:uid="{51EDB8E8-7B87-48E3-AE6E-CF4598B89047}"/>
     <hyperlink ref="S203" r:id="rId58" xr:uid="{F9518A74-6EB1-4B3C-A794-D43A85FC89FC}"/>
+    <hyperlink ref="S194" r:id="rId59" display="https://qa.adm.testingserver8.com/admin/product" xr:uid="{A066661C-4711-4794-9163-A0D6D45D12E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId59"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever6\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\git\ZlaataQAseverjan12\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2A2E9F-C485-4DCA-8DF2-89115A417EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD2910A-2083-445F-B43B-16488418313D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8524" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8515" uniqueCount="910">
   <si>
     <t>S.No</t>
   </si>
@@ -2690,12 +2690,6 @@
   </si>
   <si>
     <t>TD_UI_Zlaata_ADI_10</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_10</t>
-  </si>
-  <si>
-    <t>Verify that the newly uploaded size in Track Inventory for a product is reflected in the application</t>
   </si>
   <si>
     <t>https://console.zlaata.com/admin/home-page-banner</t>
@@ -3398,6 +3392,24 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3424,24 +3436,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4245,26 +4239,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z256"/>
+  <dimension ref="A1:Z255"/>
   <sheetViews>
-    <sheetView topLeftCell="A189" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="109" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:XFD212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="118.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="118.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4296,7 +4290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -4328,7 +4322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -4360,7 +4354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -4392,7 +4386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -4424,7 +4418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -4456,7 +4450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -4488,7 +4482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -4520,7 +4514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -4552,7 +4546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -4584,7 +4578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -4616,7 +4610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -4648,7 +4642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -4680,7 +4674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -4712,7 +4706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -4744,7 +4738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -4776,7 +4770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -4808,7 +4802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -4840,7 +4834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -4872,7 +4866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -4904,7 +4898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -4936,7 +4930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -4968,7 +4962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>22</v>
       </c>
@@ -5000,21 +4994,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="93" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="95"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="86"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>1</v>
       </c>
@@ -5046,7 +5040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>2</v>
       </c>
@@ -5078,7 +5072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -5110,7 +5104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -5142,7 +5136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>5</v>
       </c>
@@ -5174,7 +5168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>6</v>
       </c>
@@ -5206,7 +5200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>7</v>
       </c>
@@ -5238,7 +5232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>8</v>
       </c>
@@ -5270,7 +5264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>9</v>
       </c>
@@ -5302,7 +5296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -5334,7 +5328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>11</v>
       </c>
@@ -5366,7 +5360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -5398,21 +5392,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="96" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="98"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="89"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>1</v>
       </c>
@@ -5444,7 +5438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>2</v>
       </c>
@@ -5476,7 +5470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>3</v>
       </c>
@@ -5508,7 +5502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>4</v>
       </c>
@@ -5540,7 +5534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5572,7 +5566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>6</v>
       </c>
@@ -5604,7 +5598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>7</v>
       </c>
@@ -5636,7 +5630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>8</v>
       </c>
@@ -5668,7 +5662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>9</v>
       </c>
@@ -5700,7 +5694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>10</v>
       </c>
@@ -5732,7 +5726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>11</v>
       </c>
@@ -5764,7 +5758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>12</v>
       </c>
@@ -5796,7 +5790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>13</v>
       </c>
@@ -5828,7 +5822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>14</v>
       </c>
@@ -5860,7 +5854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>15</v>
       </c>
@@ -5892,7 +5886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>16</v>
       </c>
@@ -5924,7 +5918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>16</v>
       </c>
@@ -5956,21 +5950,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="96" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="98"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="89"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>1</v>
       </c>
@@ -6002,7 +5996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>2</v>
       </c>
@@ -6034,7 +6028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>3</v>
       </c>
@@ -6066,7 +6060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>4</v>
       </c>
@@ -6098,7 +6092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>5</v>
       </c>
@@ -6130,7 +6124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>6</v>
       </c>
@@ -6162,7 +6156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>7</v>
       </c>
@@ -6194,7 +6188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>8</v>
       </c>
@@ -6226,7 +6220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>9</v>
       </c>
@@ -6258,7 +6252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>10</v>
       </c>
@@ -6290,21 +6284,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="96" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="98"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="88"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="89"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>1</v>
       </c>
@@ -6336,7 +6330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>2</v>
       </c>
@@ -6368,7 +6362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>3</v>
       </c>
@@ -6400,7 +6394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>4</v>
       </c>
@@ -6432,7 +6426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>5</v>
       </c>
@@ -6464,7 +6458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>6</v>
       </c>
@@ -6496,7 +6490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>7</v>
       </c>
@@ -6528,7 +6522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>8</v>
       </c>
@@ -6560,7 +6554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>9</v>
       </c>
@@ -6592,7 +6586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>10</v>
       </c>
@@ -6624,7 +6618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>11</v>
       </c>
@@ -6656,21 +6650,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="96" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="98"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="88"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="89"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>1</v>
       </c>
@@ -6702,7 +6696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>2</v>
       </c>
@@ -6734,7 +6728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>3</v>
       </c>
@@ -6766,7 +6760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
         <v>4</v>
       </c>
@@ -6798,7 +6792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
         <v>5</v>
       </c>
@@ -6830,7 +6824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
         <v>6</v>
       </c>
@@ -6862,7 +6856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
         <v>7</v>
       </c>
@@ -6894,7 +6888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
         <v>8</v>
       </c>
@@ -6926,7 +6920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
         <v>9</v>
       </c>
@@ -6958,7 +6952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
         <v>10</v>
       </c>
@@ -6990,7 +6984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
         <v>11</v>
       </c>
@@ -7022,7 +7016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <v>12</v>
       </c>
@@ -7054,7 +7048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
         <v>13</v>
       </c>
@@ -7086,7 +7080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
         <v>14</v>
       </c>
@@ -7118,7 +7112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
         <v>15</v>
       </c>
@@ -7150,7 +7144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
         <v>16</v>
       </c>
@@ -7182,7 +7176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="25">
         <v>17</v>
       </c>
@@ -7214,7 +7208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="25">
         <v>18</v>
       </c>
@@ -7246,7 +7240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="25">
         <v>19</v>
       </c>
@@ -7278,7 +7272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="25">
         <v>20</v>
       </c>
@@ -7310,7 +7304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="25">
         <v>21</v>
       </c>
@@ -7342,7 +7336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="25">
         <v>22</v>
       </c>
@@ -7374,7 +7368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="25">
         <v>23</v>
       </c>
@@ -7406,7 +7400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="25">
         <v>24</v>
       </c>
@@ -7438,7 +7432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="25">
         <v>25</v>
       </c>
@@ -7470,7 +7464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="25">
         <v>27</v>
       </c>
@@ -7502,7 +7496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="25">
         <v>28</v>
       </c>
@@ -7534,21 +7528,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="84" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="90" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="84"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
-      <c r="F106" s="84"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="84"/>
-      <c r="I106" s="84"/>
-      <c r="J106" s="84"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="90"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="90"/>
+      <c r="J106" s="90"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -7580,7 +7574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
         <v>2</v>
       </c>
@@ -7612,7 +7606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="25">
         <v>3</v>
       </c>
@@ -7644,7 +7638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -7676,7 +7670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="25">
         <v>5</v>
       </c>
@@ -7708,7 +7702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="25">
         <v>6</v>
       </c>
@@ -7740,7 +7734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="25">
         <v>7</v>
       </c>
@@ -7772,7 +7766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="25">
         <v>8</v>
       </c>
@@ -7804,7 +7798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25">
         <v>9</v>
       </c>
@@ -7836,7 +7830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="25">
         <v>10</v>
       </c>
@@ -7868,7 +7862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="25">
         <v>11</v>
       </c>
@@ -7900,7 +7894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25">
         <v>12</v>
       </c>
@@ -7946,7 +7940,7 @@
       <c r="W118" s="58"/>
       <c r="X118" s="58"/>
     </row>
-    <row r="119" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="25">
         <v>13</v>
       </c>
@@ -7992,7 +7986,7 @@
       <c r="W119" s="58"/>
       <c r="X119" s="58"/>
     </row>
-    <row r="120" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25">
         <v>14</v>
       </c>
@@ -8038,19 +8032,19 @@
       <c r="W120" s="58"/>
       <c r="X120" s="58"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="85" t="s">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="91" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="85"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
-      <c r="I121" s="85"/>
-      <c r="J121" s="85"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="91"/>
+      <c r="D121" s="91"/>
+      <c r="E121" s="91"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="91"/>
+      <c r="H121" s="91"/>
+      <c r="I121" s="91"/>
+      <c r="J121" s="91"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -8066,7 +8060,7 @@
       <c r="W121" s="58"/>
       <c r="X121" s="58"/>
     </row>
-    <row r="122" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25">
         <v>1</v>
       </c>
@@ -8112,19 +8106,19 @@
       <c r="W122" s="58"/>
       <c r="X122" s="58"/>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="85" t="s">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="85"/>
-      <c r="I123" s="85"/>
-      <c r="J123" s="85"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="91"/>
+      <c r="D123" s="91"/>
+      <c r="E123" s="91"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="91"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="91"/>
+      <c r="J123" s="91"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8140,7 +8134,7 @@
       <c r="W123" s="58"/>
       <c r="X123" s="58"/>
     </row>
-    <row r="124" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="25">
         <v>1</v>
       </c>
@@ -8186,21 +8180,21 @@
       <c r="W124" s="58"/>
       <c r="X124" s="58"/>
     </row>
-    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="85" t="s">
+    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="91" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="85"/>
-      <c r="I125" s="85"/>
-      <c r="J125" s="85"/>
-    </row>
-    <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="91"/>
+      <c r="C125" s="91"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="91"/>
+      <c r="F125" s="91"/>
+      <c r="G125" s="91"/>
+      <c r="H125" s="91"/>
+      <c r="I125" s="91"/>
+      <c r="J125" s="91"/>
+    </row>
+    <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25">
         <v>1</v>
       </c>
@@ -8246,7 +8240,7 @@
       <c r="W126" s="61"/>
       <c r="X126" s="61"/>
     </row>
-    <row r="127" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25">
         <v>2</v>
       </c>
@@ -8292,7 +8286,7 @@
       <c r="W127" s="58"/>
       <c r="X127" s="58"/>
     </row>
-    <row r="128" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="25">
         <v>3</v>
       </c>
@@ -8338,7 +8332,7 @@
       <c r="W128" s="58"/>
       <c r="X128" s="58"/>
     </row>
-    <row r="129" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25">
         <v>4</v>
       </c>
@@ -8384,7 +8378,7 @@
       <c r="W129" s="58"/>
       <c r="X129" s="58"/>
     </row>
-    <row r="130" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="25">
         <v>5</v>
       </c>
@@ -8430,7 +8424,7 @@
       <c r="W130" s="58"/>
       <c r="X130" s="58"/>
     </row>
-    <row r="131" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="25">
         <v>6</v>
       </c>
@@ -8476,7 +8470,7 @@
       <c r="W131" s="58"/>
       <c r="X131" s="58"/>
     </row>
-    <row r="132" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="25">
         <v>7</v>
       </c>
@@ -8522,19 +8516,19 @@
       <c r="W132" s="58"/>
       <c r="X132" s="58"/>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="85" t="s">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="91" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="85"/>
-      <c r="C133" s="85"/>
-      <c r="D133" s="86"/>
-      <c r="E133" s="86"/>
-      <c r="F133" s="86"/>
-      <c r="G133" s="86"/>
-      <c r="H133" s="86"/>
-      <c r="I133" s="86"/>
-      <c r="J133" s="86"/>
+      <c r="B133" s="91"/>
+      <c r="C133" s="91"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="92"/>
+      <c r="F133" s="92"/>
+      <c r="G133" s="92"/>
+      <c r="H133" s="92"/>
+      <c r="I133" s="92"/>
+      <c r="J133" s="92"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8550,7 +8544,7 @@
       <c r="W133" s="58"/>
       <c r="X133" s="58"/>
     </row>
-    <row r="134" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="59">
         <v>11</v>
       </c>
@@ -8596,7 +8590,7 @@
       <c r="W134" s="58"/>
       <c r="X134" s="58"/>
     </row>
-    <row r="135" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="26">
         <v>2</v>
       </c>
@@ -8642,7 +8636,7 @@
       <c r="W135" s="58"/>
       <c r="X135" s="58"/>
     </row>
-    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="26">
         <v>3</v>
       </c>
@@ -8674,7 +8668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="26">
         <v>4</v>
       </c>
@@ -8720,7 +8714,7 @@
       <c r="W137" s="58"/>
       <c r="X137" s="58"/>
     </row>
-    <row r="138" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -8766,7 +8760,7 @@
       <c r="W138" s="58"/>
       <c r="X138" s="58"/>
     </row>
-    <row r="139" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26">
         <v>6</v>
       </c>
@@ -8812,7 +8806,7 @@
       <c r="W139" s="58"/>
       <c r="X139" s="58"/>
     </row>
-    <row r="140" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>7</v>
       </c>
@@ -8844,7 +8838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>8</v>
       </c>
@@ -8890,7 +8884,7 @@
       <c r="W141" s="58"/>
       <c r="X141" s="58"/>
     </row>
-    <row r="142" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>9</v>
       </c>
@@ -8936,7 +8930,7 @@
       <c r="W142" s="58"/>
       <c r="X142" s="58"/>
     </row>
-    <row r="143" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>10</v>
       </c>
@@ -8982,7 +8976,7 @@
       <c r="W143" s="58"/>
       <c r="X143" s="58"/>
     </row>
-    <row r="144" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="26">
         <v>11</v>
       </c>
@@ -9028,19 +9022,19 @@
       <c r="W144" s="58"/>
       <c r="X144" s="58"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="90" t="s">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="91"/>
-      <c r="C145" s="91"/>
-      <c r="D145" s="91"/>
-      <c r="E145" s="91"/>
-      <c r="F145" s="91"/>
-      <c r="G145" s="91"/>
-      <c r="H145" s="91"/>
-      <c r="I145" s="91"/>
-      <c r="J145" s="92"/>
+      <c r="B145" s="97"/>
+      <c r="C145" s="97"/>
+      <c r="D145" s="97"/>
+      <c r="E145" s="97"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="97"/>
+      <c r="H145" s="97"/>
+      <c r="I145" s="97"/>
+      <c r="J145" s="98"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9056,7 +9050,7 @@
       <c r="W145" s="58"/>
       <c r="X145" s="58"/>
     </row>
-    <row r="146" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="25">
         <v>1</v>
       </c>
@@ -9102,7 +9096,7 @@
       <c r="W146" s="58"/>
       <c r="X146" s="58"/>
     </row>
-    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25">
         <v>2</v>
       </c>
@@ -9134,7 +9128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="25">
         <v>3</v>
       </c>
@@ -9166,7 +9160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="25">
         <v>4</v>
       </c>
@@ -9198,7 +9192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
         <v>5</v>
       </c>
@@ -9246,7 +9240,7 @@
       <c r="Y150" s="58"/>
       <c r="Z150" s="58"/>
     </row>
-    <row r="151" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -9294,7 +9288,7 @@
       <c r="Y151" s="58"/>
       <c r="Z151" s="58"/>
     </row>
-    <row r="152" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
         <v>7</v>
       </c>
@@ -9342,7 +9336,7 @@
       <c r="Y152" s="58"/>
       <c r="Z152" s="58"/>
     </row>
-    <row r="153" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="25">
         <v>8</v>
       </c>
@@ -9390,7 +9384,7 @@
       <c r="Y153" s="58"/>
       <c r="Z153" s="58"/>
     </row>
-    <row r="154" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="25">
         <v>9</v>
       </c>
@@ -9438,7 +9432,7 @@
       <c r="Y154" s="58"/>
       <c r="Z154" s="58"/>
     </row>
-    <row r="155" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="25">
         <v>10</v>
       </c>
@@ -9486,19 +9480,19 @@
       <c r="Y155" s="58"/>
       <c r="Z155" s="58"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="85" t="s">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="91" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="85"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="85"/>
-      <c r="I156" s="85"/>
-      <c r="J156" s="85"/>
+      <c r="B156" s="91"/>
+      <c r="C156" s="91"/>
+      <c r="D156" s="91"/>
+      <c r="E156" s="91"/>
+      <c r="F156" s="91"/>
+      <c r="G156" s="91"/>
+      <c r="H156" s="91"/>
+      <c r="I156" s="91"/>
+      <c r="J156" s="91"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9516,7 +9510,7 @@
       <c r="Y156" s="58"/>
       <c r="Z156" s="58"/>
     </row>
-    <row r="157" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="25">
         <v>1</v>
       </c>
@@ -9564,19 +9558,19 @@
       <c r="Y157" s="58"/>
       <c r="Z157" s="58"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="85" t="s">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="91" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="85"/>
-      <c r="C158" s="85"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="85"/>
-      <c r="I158" s="85"/>
-      <c r="J158" s="85"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="91"/>
+      <c r="D158" s="91"/>
+      <c r="E158" s="91"/>
+      <c r="F158" s="91"/>
+      <c r="G158" s="91"/>
+      <c r="H158" s="91"/>
+      <c r="I158" s="91"/>
+      <c r="J158" s="91"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -9594,7 +9588,7 @@
       <c r="Y158" s="58"/>
       <c r="Z158" s="58"/>
     </row>
-    <row r="159" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="67">
         <v>1</v>
       </c>
@@ -9642,7 +9636,7 @@
       <c r="Y159" s="58"/>
       <c r="Z159" s="58"/>
     </row>
-    <row r="160" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="68">
         <v>2</v>
       </c>
@@ -9690,7 +9684,7 @@
       <c r="Y160" s="58"/>
       <c r="Z160" s="58"/>
     </row>
-    <row r="161" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="68">
         <v>3</v>
       </c>
@@ -9738,7 +9732,7 @@
       <c r="Y161" s="58"/>
       <c r="Z161" s="58"/>
     </row>
-    <row r="162" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="68">
         <v>4</v>
       </c>
@@ -9786,7 +9780,7 @@
       <c r="Y162" s="58"/>
       <c r="Z162" s="58"/>
     </row>
-    <row r="163" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="68">
         <v>5</v>
       </c>
@@ -9834,7 +9828,7 @@
       <c r="Y163" s="58"/>
       <c r="Z163" s="58"/>
     </row>
-    <row r="164" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="68">
         <v>6</v>
       </c>
@@ -9882,7 +9876,7 @@
       <c r="Y164" s="58"/>
       <c r="Z164" s="58"/>
     </row>
-    <row r="165" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="68">
         <v>7</v>
       </c>
@@ -9930,7 +9924,7 @@
       <c r="Y165" s="58"/>
       <c r="Z165" s="58"/>
     </row>
-    <row r="166" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="68">
         <v>8</v>
       </c>
@@ -9978,7 +9972,7 @@
       <c r="Y166" s="58"/>
       <c r="Z166" s="58"/>
     </row>
-    <row r="167" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="67">
         <v>9</v>
       </c>
@@ -10026,7 +10020,7 @@
       <c r="Y167" s="58"/>
       <c r="Z167" s="58"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="68">
         <v>10</v>
       </c>
@@ -10058,7 +10052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="67">
         <v>11</v>
       </c>
@@ -10090,7 +10084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="68">
         <v>12</v>
       </c>
@@ -10122,7 +10116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="67">
         <v>13</v>
       </c>
@@ -10154,7 +10148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="68">
         <v>14</v>
       </c>
@@ -10186,7 +10180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="67">
         <v>15</v>
       </c>
@@ -10218,7 +10212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="68">
         <v>16</v>
       </c>
@@ -10250,7 +10244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="67">
         <v>17</v>
       </c>
@@ -10282,7 +10276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="68">
         <v>18</v>
       </c>
@@ -10314,21 +10308,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="85" t="s">
+    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="91" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="85"/>
-      <c r="C177" s="85"/>
+      <c r="B177" s="91"/>
+      <c r="C177" s="91"/>
       <c r="D177" s="83"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="85"/>
-      <c r="G177" s="85"/>
-      <c r="H177" s="85"/>
-      <c r="I177" s="85"/>
-      <c r="J177" s="85"/>
-    </row>
-    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E177" s="91"/>
+      <c r="F177" s="91"/>
+      <c r="G177" s="91"/>
+      <c r="H177" s="91"/>
+      <c r="I177" s="91"/>
+      <c r="J177" s="91"/>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="68">
         <v>1</v>
       </c>
@@ -10360,7 +10354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="68">
         <v>2</v>
       </c>
@@ -10392,7 +10386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="68">
         <v>3</v>
       </c>
@@ -10424,7 +10418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="68">
         <v>4</v>
       </c>
@@ -10456,7 +10450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="68">
         <v>5</v>
       </c>
@@ -10488,7 +10482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="68">
         <v>6</v>
       </c>
@@ -10520,7 +10514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="68">
         <v>7</v>
       </c>
@@ -10552,7 +10546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="68">
         <v>8</v>
       </c>
@@ -10584,7 +10578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="68">
         <v>9</v>
       </c>
@@ -10616,21 +10610,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="87" t="s">
+    <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="93" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="88"/>
-      <c r="C187" s="88"/>
-      <c r="D187" s="88"/>
-      <c r="E187" s="88"/>
-      <c r="F187" s="88"/>
-      <c r="G187" s="88"/>
-      <c r="H187" s="88"/>
-      <c r="I187" s="88"/>
-      <c r="J187" s="89"/>
-    </row>
-    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="94"/>
+      <c r="C187" s="94"/>
+      <c r="D187" s="94"/>
+      <c r="E187" s="94"/>
+      <c r="F187" s="94"/>
+      <c r="G187" s="94"/>
+      <c r="H187" s="94"/>
+      <c r="I187" s="94"/>
+      <c r="J187" s="95"/>
+    </row>
+    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="68">
         <v>1</v>
       </c>
@@ -10662,7 +10656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="68">
         <v>2</v>
       </c>
@@ -10694,7 +10688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="68">
         <v>3</v>
       </c>
@@ -10726,7 +10720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="68">
         <v>4</v>
       </c>
@@ -10758,7 +10752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="68">
         <v>5</v>
       </c>
@@ -10790,7 +10784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="68">
         <v>6</v>
       </c>
@@ -10822,7 +10816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="68">
         <v>7</v>
       </c>
@@ -10854,7 +10848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="83" t="s">
         <v>638</v>
       </c>
@@ -10868,7 +10862,7 @@
       <c r="I195" s="83"/>
       <c r="J195" s="83"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="48">
         <v>1</v>
       </c>
@@ -10900,7 +10894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="48">
         <v>2</v>
       </c>
@@ -10932,7 +10926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="48">
         <v>3</v>
       </c>
@@ -10964,7 +10958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="48">
         <v>4</v>
       </c>
@@ -10996,7 +10990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="83" t="s">
         <v>651</v>
       </c>
@@ -11010,7 +11004,7 @@
       <c r="I200" s="83"/>
       <c r="J200" s="83"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="48">
         <v>1</v>
       </c>
@@ -11042,7 +11036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="83" t="s">
         <v>657</v>
       </c>
@@ -11056,7 +11050,7 @@
       <c r="I202" s="83"/>
       <c r="J202" s="83"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="48">
         <v>1</v>
       </c>
@@ -11088,7 +11082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="48">
         <v>2</v>
       </c>
@@ -11120,7 +11114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="48">
         <v>3</v>
       </c>
@@ -11152,7 +11146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="48">
         <v>4</v>
       </c>
@@ -11184,7 +11178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="48">
         <v>5</v>
       </c>
@@ -11216,7 +11210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="48">
         <v>6</v>
       </c>
@@ -11248,7 +11242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="48">
         <v>7</v>
       </c>
@@ -11280,7 +11274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="48">
         <v>8</v>
       </c>
@@ -11312,7 +11306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="48">
         <v>9</v>
       </c>
@@ -11344,116 +11338,116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A212" s="48">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="83" t="s">
+        <v>733</v>
+      </c>
+      <c r="B212" s="83"/>
+      <c r="C212" s="83"/>
+      <c r="D212" s="83"/>
+      <c r="E212" s="83"/>
+      <c r="F212" s="83"/>
+      <c r="G212" s="83"/>
+      <c r="H212" s="83"/>
+      <c r="I212" s="83"/>
+      <c r="J212" s="83"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="48">
+        <v>1</v>
+      </c>
+      <c r="B213" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B212" s="48" t="s">
+      <c r="C213" s="79" t="s">
+        <v>734</v>
+      </c>
+      <c r="D213" s="78" t="s">
+        <v>735</v>
+      </c>
+      <c r="E213" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" s="79" t="s">
+        <v>732</v>
+      </c>
+      <c r="G213" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" s="48" t="s">
+        <v>790</v>
+      </c>
+      <c r="I213" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J213" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="83" t="s">
+        <v>736</v>
+      </c>
+      <c r="B214" s="83"/>
+      <c r="C214" s="83"/>
+      <c r="D214" s="83"/>
+      <c r="E214" s="83"/>
+      <c r="F214" s="83"/>
+      <c r="G214" s="83"/>
+      <c r="H214" s="83"/>
+      <c r="I214" s="83"/>
+      <c r="J214" s="83"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="48">
+        <v>1</v>
+      </c>
+      <c r="B215" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C212" s="79" t="s">
-        <v>888</v>
-      </c>
-      <c r="D212" s="78" t="s">
-        <v>889</v>
-      </c>
-      <c r="E212" s="48" t="s">
+      <c r="C215" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="D215" s="78" t="s">
+        <v>739</v>
+      </c>
+      <c r="E215" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F212" s="79" t="s">
-        <v>887</v>
-      </c>
-      <c r="G212" s="48" t="s">
+      <c r="F215" s="79" t="s">
+        <v>738</v>
+      </c>
+      <c r="G215" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H212" s="48" t="s">
-        <v>789</v>
-      </c>
-      <c r="I212" s="48" t="s">
+      <c r="H215" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="I215" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J212" s="48" t="s">
+      <c r="J215" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A213" s="83" t="s">
-        <v>733</v>
-      </c>
-      <c r="B213" s="83"/>
-      <c r="C213" s="83"/>
-      <c r="D213" s="83"/>
-      <c r="E213" s="83"/>
-      <c r="F213" s="83"/>
-      <c r="G213" s="83"/>
-      <c r="H213" s="83"/>
-      <c r="I213" s="83"/>
-      <c r="J213" s="83"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="48">
-        <v>1</v>
-      </c>
-      <c r="B214" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C214" s="79" t="s">
-        <v>734</v>
-      </c>
-      <c r="D214" s="78" t="s">
-        <v>735</v>
-      </c>
-      <c r="E214" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F214" s="79" t="s">
-        <v>732</v>
-      </c>
-      <c r="G214" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H214" s="48" t="s">
-        <v>790</v>
-      </c>
-      <c r="I214" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J214" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A215" s="83" t="s">
-        <v>736</v>
-      </c>
-      <c r="B215" s="83"/>
-      <c r="C215" s="83"/>
-      <c r="D215" s="83"/>
-      <c r="E215" s="83"/>
-      <c r="F215" s="83"/>
-      <c r="G215" s="83"/>
-      <c r="H215" s="83"/>
-      <c r="I215" s="83"/>
-      <c r="J215" s="83"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B216" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C216" s="79" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D216" s="78" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E216" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F216" s="79" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G216" s="48" t="s">
         <v>11</v>
@@ -11468,24 +11462,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="79" t="s">
-        <v>741</v>
+        <v>781</v>
       </c>
       <c r="D217" s="78" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
       <c r="E217" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F217" s="79" t="s">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="G217" s="48" t="s">
         <v>11</v>
@@ -11500,24 +11494,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B218" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="79" t="s">
-        <v>781</v>
+        <v>868</v>
       </c>
       <c r="D218" s="78" t="s">
-        <v>779</v>
+        <v>869</v>
       </c>
       <c r="E218" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F218" s="79" t="s">
-        <v>780</v>
+        <v>870</v>
       </c>
       <c r="G218" s="48" t="s">
         <v>11</v>
@@ -11532,24 +11526,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C219" s="79" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D219" s="78" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E219" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F219" s="79" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G219" s="48" t="s">
         <v>11</v>
@@ -11564,70 +11558,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A220" s="48">
-        <v>5</v>
-      </c>
-      <c r="B220" s="48" t="s">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="83" t="s">
+        <v>746</v>
+      </c>
+      <c r="B220" s="83"/>
+      <c r="C220" s="83"/>
+      <c r="D220" s="83"/>
+      <c r="E220" s="83"/>
+      <c r="F220" s="83"/>
+      <c r="G220" s="83"/>
+      <c r="H220" s="83"/>
+      <c r="I220" s="83"/>
+      <c r="J220" s="83"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="48">
+        <v>1</v>
+      </c>
+      <c r="B221" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C220" s="79" t="s">
-        <v>872</v>
-      </c>
-      <c r="D220" s="78" t="s">
-        <v>873</v>
-      </c>
-      <c r="E220" s="48" t="s">
+      <c r="C221" s="79" t="s">
+        <v>747</v>
+      </c>
+      <c r="D221" s="78" t="s">
+        <v>748</v>
+      </c>
+      <c r="E221" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F220" s="79" t="s">
-        <v>871</v>
-      </c>
-      <c r="G220" s="48" t="s">
+      <c r="F221" s="79" t="s">
+        <v>745</v>
+      </c>
+      <c r="G221" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H220" s="48" t="s">
-        <v>791</v>
-      </c>
-      <c r="I220" s="48" t="s">
+      <c r="H221" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="I221" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J220" s="48" t="s">
+      <c r="J221" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A221" s="83" t="s">
-        <v>746</v>
-      </c>
-      <c r="B221" s="83"/>
-      <c r="C221" s="83"/>
-      <c r="D221" s="83"/>
-      <c r="E221" s="83"/>
-      <c r="F221" s="83"/>
-      <c r="G221" s="83"/>
-      <c r="H221" s="83"/>
-      <c r="I221" s="83"/>
-      <c r="J221" s="83"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B222" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C222" s="79" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D222" s="78" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E222" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="79" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="G222" s="48" t="s">
         <v>11</v>
@@ -11642,24 +11636,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B223" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C223" s="79" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="D223" s="78" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="E223" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="79" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G223" s="48" t="s">
         <v>11</v>
@@ -11674,24 +11668,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B224" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="79" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D224" s="78" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E224" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F224" s="79" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="G224" s="48" t="s">
         <v>11</v>
@@ -11706,24 +11700,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B225" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="79" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="D225" s="78" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E225" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F225" s="79" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G225" s="48" t="s">
         <v>11</v>
@@ -11738,24 +11732,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B226" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="79" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D226" s="78" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E226" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F226" s="79" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G226" s="48" t="s">
         <v>11</v>
@@ -11770,24 +11764,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B227" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C227" s="79" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="D227" s="78" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="E227" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F227" s="79" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="G227" s="48" t="s">
         <v>11</v>
@@ -11802,24 +11796,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B228" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C228" s="79" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D228" s="78" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="E228" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F228" s="79" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G228" s="48" t="s">
         <v>11</v>
@@ -11834,24 +11828,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C229" s="79" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D229" s="78" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E229" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F229" s="79" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="G229" s="48" t="s">
         <v>11</v>
@@ -11866,24 +11860,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B230" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C230" s="79" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D230" s="78" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="E230" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F230" s="79" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G230" s="48" t="s">
         <v>11</v>
@@ -11898,24 +11892,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B231" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C231" s="79" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D231" s="78" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E231" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F231" s="79" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G231" s="48" t="s">
         <v>11</v>
@@ -11930,116 +11924,116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" s="48">
+    <row r="232" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="83" t="s">
+        <v>783</v>
+      </c>
+      <c r="B232" s="83"/>
+      <c r="C232" s="83"/>
+      <c r="D232" s="83"/>
+      <c r="E232" s="83"/>
+      <c r="F232" s="83"/>
+      <c r="G232" s="83"/>
+      <c r="H232" s="83"/>
+      <c r="I232" s="83"/>
+      <c r="J232" s="83"/>
+    </row>
+    <row r="233" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="48">
+        <v>1</v>
+      </c>
+      <c r="B233" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="79" t="s">
+        <v>794</v>
+      </c>
+      <c r="D233" s="78" t="s">
+        <v>784</v>
+      </c>
+      <c r="E233" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" s="70" t="s">
+        <v>782</v>
+      </c>
+      <c r="G233" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B232" s="48" t="s">
+      <c r="H233" s="48" t="s">
+        <v>793</v>
+      </c>
+      <c r="I233" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J233" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="83" t="s">
+        <v>796</v>
+      </c>
+      <c r="B234" s="83"/>
+      <c r="C234" s="83"/>
+      <c r="D234" s="83"/>
+      <c r="E234" s="83"/>
+      <c r="F234" s="83"/>
+      <c r="G234" s="83"/>
+      <c r="H234" s="83"/>
+      <c r="I234" s="83"/>
+      <c r="J234" s="83"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="48">
+        <v>1</v>
+      </c>
+      <c r="B235" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C232" s="79" t="s">
-        <v>777</v>
-      </c>
-      <c r="D232" s="78" t="s">
-        <v>778</v>
-      </c>
-      <c r="E232" s="48" t="s">
+      <c r="C235" s="79" t="s">
+        <v>797</v>
+      </c>
+      <c r="D235" s="78" t="s">
+        <v>798</v>
+      </c>
+      <c r="E235" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F232" s="79" t="s">
-        <v>776</v>
-      </c>
-      <c r="G232" s="48" t="s">
+      <c r="F235" s="79" t="s">
+        <v>795</v>
+      </c>
+      <c r="G235" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H232" s="48" t="s">
-        <v>792</v>
-      </c>
-      <c r="I232" s="48" t="s">
+      <c r="H235" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="I235" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J232" s="48" t="s">
+      <c r="J235" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="83" t="s">
-        <v>783</v>
-      </c>
-      <c r="B233" s="83"/>
-      <c r="C233" s="83"/>
-      <c r="D233" s="83"/>
-      <c r="E233" s="83"/>
-      <c r="F233" s="83"/>
-      <c r="G233" s="83"/>
-      <c r="H233" s="83"/>
-      <c r="I233" s="83"/>
-      <c r="J233" s="83"/>
-    </row>
-    <row r="234" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="48">
-        <v>1</v>
-      </c>
-      <c r="B234" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C234" s="79" t="s">
-        <v>794</v>
-      </c>
-      <c r="D234" s="78" t="s">
-        <v>784</v>
-      </c>
-      <c r="E234" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F234" s="70" t="s">
-        <v>782</v>
-      </c>
-      <c r="G234" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H234" s="48" t="s">
-        <v>793</v>
-      </c>
-      <c r="I234" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J234" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A235" s="83" t="s">
-        <v>796</v>
-      </c>
-      <c r="B235" s="83"/>
-      <c r="C235" s="83"/>
-      <c r="D235" s="83"/>
-      <c r="E235" s="83"/>
-      <c r="F235" s="83"/>
-      <c r="G235" s="83"/>
-      <c r="H235" s="83"/>
-      <c r="I235" s="83"/>
-      <c r="J235" s="83"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B236" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C236" s="79" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="D236" s="78" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="E236" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F236" s="79" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="G236" s="48" t="s">
         <v>11</v>
@@ -12054,24 +12048,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B237" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D237" s="78" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E237" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F237" s="79" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="G237" s="48" t="s">
         <v>11</v>
@@ -12086,24 +12080,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B238" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C238" s="79" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D238" s="78" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E238" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F238" s="79" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G238" s="48" t="s">
         <v>11</v>
@@ -12118,24 +12112,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B239" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C239" s="79" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D239" s="78" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="E239" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F239" s="79" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G239" s="48" t="s">
         <v>11</v>
@@ -12150,24 +12144,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B240" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C240" s="79" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D240" s="78" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E240" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F240" s="79" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="G240" s="48" t="s">
         <v>11</v>
@@ -12182,24 +12176,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B241" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C241" s="79" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="D241" s="78" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="E241" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F241" s="79" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G241" s="48" t="s">
         <v>11</v>
@@ -12214,24 +12208,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B242" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C242" s="79" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D242" s="78" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="E242" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F242" s="79" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="G242" s="48" t="s">
         <v>11</v>
@@ -12246,24 +12240,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B243" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C243" s="79" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D243" s="78" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E243" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F243" s="79" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="G243" s="48" t="s">
         <v>11</v>
@@ -12278,24 +12272,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B244" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C244" s="79" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D244" s="78" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="E244" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F244" s="79" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="G244" s="48" t="s">
         <v>11</v>
@@ -12310,24 +12304,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B245" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C245" s="79" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D245" s="78" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="E245" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F245" s="79" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G245" s="48" t="s">
         <v>11</v>
@@ -12342,24 +12336,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B246" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C246" s="79" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D246" s="78" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E246" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F246" s="79" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="G246" s="48" t="s">
         <v>11</v>
@@ -12374,70 +12368,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A247" s="48">
+    <row r="247" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="83" t="s">
+        <v>841</v>
+      </c>
+      <c r="B247" s="83"/>
+      <c r="C247" s="83"/>
+      <c r="D247" s="83"/>
+      <c r="E247" s="83"/>
+      <c r="F247" s="83"/>
+      <c r="G247" s="83"/>
+      <c r="H247" s="83"/>
+      <c r="I247" s="83"/>
+      <c r="J247" s="83"/>
+    </row>
+    <row r="248" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="48">
+        <v>1</v>
+      </c>
+      <c r="B248" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" s="79" t="s">
+        <v>875</v>
+      </c>
+      <c r="D248" s="78" t="s">
+        <v>876</v>
+      </c>
+      <c r="E248" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248" s="70" t="s">
+        <v>874</v>
+      </c>
+      <c r="G248" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H248" s="48" t="s">
+        <v>877</v>
+      </c>
+      <c r="I248" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B247" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C247" s="79" t="s">
-        <v>832</v>
-      </c>
-      <c r="D247" s="78" t="s">
-        <v>833</v>
-      </c>
-      <c r="E247" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F247" s="79" t="s">
-        <v>834</v>
-      </c>
-      <c r="G247" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H247" s="48" t="s">
-        <v>799</v>
-      </c>
-      <c r="I247" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J247" s="48" t="s">
+      <c r="J248" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="83" t="s">
-        <v>841</v>
-      </c>
-      <c r="B248" s="83"/>
-      <c r="C248" s="83"/>
-      <c r="D248" s="83"/>
-      <c r="E248" s="83"/>
-      <c r="F248" s="83"/>
-      <c r="G248" s="83"/>
-      <c r="H248" s="83"/>
-      <c r="I248" s="83"/>
-      <c r="J248" s="83"/>
-    </row>
-    <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B249" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C249" s="79" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D249" s="78" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="E249" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F249" s="70" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="G249" s="48" t="s">
         <v>11</v>
@@ -12452,70 +12446,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="48">
+    <row r="250" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="83" t="s">
+        <v>842</v>
+      </c>
+      <c r="B250" s="83"/>
+      <c r="C250" s="83"/>
+      <c r="D250" s="83"/>
+      <c r="E250" s="83"/>
+      <c r="F250" s="83"/>
+      <c r="G250" s="83"/>
+      <c r="H250" s="83"/>
+      <c r="I250" s="83"/>
+      <c r="J250" s="83"/>
+    </row>
+    <row r="251" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="48">
+        <v>1</v>
+      </c>
+      <c r="B251" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" s="79" t="s">
+        <v>843</v>
+      </c>
+      <c r="D251" s="78" t="s">
+        <v>846</v>
+      </c>
+      <c r="E251" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="70" t="s">
+        <v>844</v>
+      </c>
+      <c r="G251" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H251" s="48" t="s">
+        <v>845</v>
+      </c>
+      <c r="I251" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J251" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="48">
         <v>2</v>
-      </c>
-      <c r="B250" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C250" s="79" t="s">
-        <v>879</v>
-      </c>
-      <c r="D250" s="78" t="s">
-        <v>880</v>
-      </c>
-      <c r="E250" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F250" s="70" t="s">
-        <v>878</v>
-      </c>
-      <c r="G250" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H250" s="48" t="s">
-        <v>877</v>
-      </c>
-      <c r="I250" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J250" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="83" t="s">
-        <v>842</v>
-      </c>
-      <c r="B251" s="83"/>
-      <c r="C251" s="83"/>
-      <c r="D251" s="83"/>
-      <c r="E251" s="83"/>
-      <c r="F251" s="83"/>
-      <c r="G251" s="83"/>
-      <c r="H251" s="83"/>
-      <c r="I251" s="83"/>
-      <c r="J251" s="83"/>
-    </row>
-    <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="48">
-        <v>1</v>
       </c>
       <c r="B252" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C252" s="79" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D252" s="78" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E252" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F252" s="70" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="G252" s="48" t="s">
         <v>11</v>
@@ -12530,24 +12524,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B253" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C253" s="79" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D253" s="78" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E253" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F253" s="70" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G253" s="48" t="s">
         <v>11</v>
@@ -12562,24 +12556,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B254" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C254" s="79" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="D254" s="78" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="E254" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F254" s="70" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="G254" s="48" t="s">
         <v>11</v>
@@ -12594,24 +12588,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B255" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C255" s="79" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="D255" s="78" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="E255" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F255" s="70" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G255" s="48" t="s">
         <v>11</v>
@@ -12626,65 +12620,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="48">
-        <v>5</v>
-      </c>
-      <c r="B256" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C256" s="79" t="s">
-        <v>866</v>
-      </c>
-      <c r="D256" s="78" t="s">
-        <v>867</v>
-      </c>
-      <c r="E256" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F256" s="70" t="s">
-        <v>865</v>
-      </c>
-      <c r="G256" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H256" s="48" t="s">
-        <v>845</v>
-      </c>
-      <c r="I256" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J256" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A215:J215"/>
-    <mergeCell ref="A213:J213"/>
-    <mergeCell ref="A202:J202"/>
-    <mergeCell ref="A221:J221"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A251:J251"/>
+    <mergeCell ref="A250:J250"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A200:J200"/>
     <mergeCell ref="A195:J195"/>
-    <mergeCell ref="A248:J248"/>
-    <mergeCell ref="A235:J235"/>
+    <mergeCell ref="A247:J247"/>
+    <mergeCell ref="A234:J234"/>
     <mergeCell ref="A133:J133"/>
     <mergeCell ref="A187:J187"/>
     <mergeCell ref="A145:J145"/>
     <mergeCell ref="A156:J156"/>
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
-    <mergeCell ref="A233:J233"/>
+    <mergeCell ref="A232:J232"/>
+    <mergeCell ref="A214:J214"/>
+    <mergeCell ref="A212:J212"/>
+    <mergeCell ref="A202:J202"/>
+    <mergeCell ref="A220:J220"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -12784,39 +12746,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AF241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M185" workbookViewId="0">
-      <selection activeCell="S194" sqref="S194"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="12" max="12" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="12" max="12" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52.33203125" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" customWidth="1"/>
+    <col min="17" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="52.28515625" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
     <col min="24" max="25" width="29" customWidth="1"/>
-    <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.44140625" customWidth="1"/>
-    <col min="29" max="29" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
@@ -12908,7 +12870,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
@@ -12988,7 +12950,7 @@
       <c r="AC2" s="28"/>
       <c r="AD2" s="28"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>25</v>
       </c>
@@ -13068,7 +13030,7 @@
       <c r="AC3" s="28"/>
       <c r="AD3" s="28"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
@@ -13148,7 +13110,7 @@
       <c r="AC4" s="28"/>
       <c r="AD4" s="28"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>58</v>
       </c>
@@ -13228,7 +13190,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>69</v>
       </c>
@@ -13308,7 +13270,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>73</v>
       </c>
@@ -13388,7 +13350,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
     </row>
-    <row r="8" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>77</v>
       </c>
@@ -13468,7 +13430,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>79</v>
       </c>
@@ -13548,7 +13510,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>80</v>
       </c>
@@ -13628,7 +13590,7 @@
       <c r="AC10" s="28"/>
       <c r="AD10" s="28"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>81</v>
       </c>
@@ -13708,7 +13670,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>83</v>
       </c>
@@ -13788,7 +13750,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>84</v>
       </c>
@@ -13868,7 +13830,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>85</v>
       </c>
@@ -13948,7 +13910,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>86</v>
       </c>
@@ -14028,7 +13990,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
@@ -14108,7 +14070,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>88</v>
       </c>
@@ -14188,7 +14150,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>89</v>
       </c>
@@ -14268,7 +14230,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>91</v>
       </c>
@@ -14348,7 +14310,7 @@
       <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>93</v>
       </c>
@@ -14428,7 +14390,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>94</v>
       </c>
@@ -14508,7 +14470,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>135</v>
       </c>
@@ -14588,7 +14550,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>140</v>
       </c>
@@ -14668,7 +14630,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>63</v>
       </c>
@@ -14748,7 +14710,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>144</v>
       </c>
@@ -14828,7 +14790,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>145</v>
       </c>
@@ -14908,7 +14870,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>146</v>
       </c>
@@ -14988,7 +14950,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>147</v>
       </c>
@@ -15068,7 +15030,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>148</v>
       </c>
@@ -15148,7 +15110,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>150</v>
       </c>
@@ -15228,7 +15190,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
         <v>151</v>
       </c>
@@ -15308,7 +15270,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>152</v>
       </c>
@@ -15388,7 +15350,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>153</v>
       </c>
@@ -15468,7 +15430,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>154</v>
       </c>
@@ -15548,7 +15510,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>155</v>
       </c>
@@ -15628,7 +15590,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>64</v>
       </c>
@@ -15708,7 +15670,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
         <v>175</v>
       </c>
@@ -15790,7 +15752,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>179</v>
       </c>
@@ -15872,7 +15834,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>182</v>
       </c>
@@ -15954,7 +15916,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>185</v>
       </c>
@@ -16036,7 +15998,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>188</v>
       </c>
@@ -16118,7 +16080,7 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>190</v>
       </c>
@@ -16200,7 +16162,7 @@
       <c r="AC42" s="28"/>
       <c r="AD42" s="28"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
         <v>193</v>
       </c>
@@ -16282,7 +16244,7 @@
       <c r="AC43" s="28"/>
       <c r="AD43" s="28"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>196</v>
       </c>
@@ -16364,7 +16326,7 @@
       <c r="AC44" s="28"/>
       <c r="AD44" s="28"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
         <v>198</v>
       </c>
@@ -16446,7 +16408,7 @@
       <c r="AC45" s="28"/>
       <c r="AD45" s="28"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
         <v>200</v>
       </c>
@@ -16528,7 +16490,7 @@
       <c r="AC46" s="28"/>
       <c r="AD46" s="28"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>202</v>
       </c>
@@ -16610,7 +16572,7 @@
       <c r="AC47" s="28"/>
       <c r="AD47" s="28"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>204</v>
       </c>
@@ -16692,7 +16654,7 @@
       <c r="AC48" s="28"/>
       <c r="AD48" s="28"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>206</v>
       </c>
@@ -16774,7 +16736,7 @@
       <c r="AC49" s="28"/>
       <c r="AD49" s="28"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>208</v>
       </c>
@@ -16856,7 +16818,7 @@
       <c r="AC50" s="28"/>
       <c r="AD50" s="28"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>210</v>
       </c>
@@ -16938,7 +16900,7 @@
       <c r="AC51" s="28"/>
       <c r="AD51" s="28"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>212</v>
       </c>
@@ -17020,7 +16982,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>687</v>
       </c>
@@ -17102,7 +17064,7 @@
       <c r="AC53" s="28"/>
       <c r="AD53" s="28"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="55" t="s">
         <v>213</v>
       </c>
@@ -17184,7 +17146,7 @@
       <c r="AC54" s="28"/>
       <c r="AD54" s="28"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>214</v>
       </c>
@@ -17266,7 +17228,7 @@
       <c r="AC55" s="28"/>
       <c r="AD55" s="28"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>215</v>
       </c>
@@ -17348,7 +17310,7 @@
       <c r="AC56" s="28"/>
       <c r="AD56" s="28"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>216</v>
       </c>
@@ -17430,7 +17392,7 @@
       <c r="AC57" s="28"/>
       <c r="AD57" s="28"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>217</v>
       </c>
@@ -17512,7 +17474,7 @@
       <c r="AC58" s="28"/>
       <c r="AD58" s="28"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>218</v>
       </c>
@@ -17594,7 +17556,7 @@
       <c r="AC59" s="28"/>
       <c r="AD59" s="28"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>219</v>
       </c>
@@ -17676,7 +17638,7 @@
       <c r="AC60" s="28"/>
       <c r="AD60" s="28"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>220</v>
       </c>
@@ -17758,7 +17720,7 @@
       <c r="AC61" s="28"/>
       <c r="AD61" s="28"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>221</v>
       </c>
@@ -17840,7 +17802,7 @@
       <c r="AC62" s="28"/>
       <c r="AD62" s="28"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
         <v>222</v>
       </c>
@@ -17922,7 +17884,7 @@
       <c r="AC63" s="28"/>
       <c r="AD63" s="28"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
         <v>249</v>
       </c>
@@ -18004,7 +17966,7 @@
       <c r="AC64" s="28"/>
       <c r="AD64" s="28"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>253</v>
       </c>
@@ -18086,7 +18048,7 @@
       <c r="AC65" s="28"/>
       <c r="AD65" s="28"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>256</v>
       </c>
@@ -18168,7 +18130,7 @@
       <c r="AC66" s="28"/>
       <c r="AD66" s="28"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>259</v>
       </c>
@@ -18250,7 +18212,7 @@
       <c r="AC67" s="28"/>
       <c r="AD67" s="28"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>262</v>
       </c>
@@ -18332,7 +18294,7 @@
       <c r="AC68" s="28"/>
       <c r="AD68" s="28"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>265</v>
       </c>
@@ -18414,7 +18376,7 @@
       <c r="AC69" s="28"/>
       <c r="AD69" s="28"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>268</v>
       </c>
@@ -18496,7 +18458,7 @@
       <c r="AC70" s="28"/>
       <c r="AD70" s="28"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>271</v>
       </c>
@@ -18578,7 +18540,7 @@
       <c r="AC71" s="28"/>
       <c r="AD71" s="28"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>274</v>
       </c>
@@ -18660,7 +18622,7 @@
       <c r="AC72" s="28"/>
       <c r="AD72" s="28"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>277</v>
       </c>
@@ -18742,7 +18704,7 @@
       <c r="AC73" s="28"/>
       <c r="AD73" s="28"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="51" t="s">
         <v>280</v>
       </c>
@@ -18826,7 +18788,7 @@
       <c r="AC74" s="28"/>
       <c r="AD74" s="28"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="62" t="s">
         <v>282</v>
       </c>
@@ -18910,7 +18872,7 @@
       <c r="AC75" s="28"/>
       <c r="AD75" s="28"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>285</v>
       </c>
@@ -18994,7 +18956,7 @@
       <c r="AC76" s="28"/>
       <c r="AD76" s="28"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>287</v>
       </c>
@@ -19078,7 +19040,7 @@
       <c r="AC77" s="28"/>
       <c r="AD77" s="28"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>289</v>
       </c>
@@ -19162,7 +19124,7 @@
       <c r="AC78" s="28"/>
       <c r="AD78" s="28"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>292</v>
       </c>
@@ -19246,7 +19208,7 @@
       <c r="AC79" s="28"/>
       <c r="AD79" s="28"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>295</v>
       </c>
@@ -19330,7 +19292,7 @@
       <c r="AC80" s="28"/>
       <c r="AD80" s="28"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>298</v>
       </c>
@@ -19414,7 +19376,7 @@
       <c r="AC81" s="28"/>
       <c r="AD81" s="28"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>301</v>
       </c>
@@ -19498,7 +19460,7 @@
       <c r="AC82" s="28"/>
       <c r="AD82" s="28"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>304</v>
       </c>
@@ -19582,7 +19544,7 @@
       <c r="AC83" s="28"/>
       <c r="AD83" s="28"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>306</v>
       </c>
@@ -19666,7 +19628,7 @@
       <c r="AC84" s="28"/>
       <c r="AD84" s="28"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>308</v>
       </c>
@@ -19750,7 +19712,7 @@
       <c r="AC85" s="28"/>
       <c r="AD85" s="28"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>310</v>
       </c>
@@ -19834,7 +19796,7 @@
       <c r="AC86" s="28"/>
       <c r="AD86" s="28"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>313</v>
       </c>
@@ -19918,7 +19880,7 @@
       <c r="AC87" s="28"/>
       <c r="AD87" s="28"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>316</v>
       </c>
@@ -20002,7 +19964,7 @@
       <c r="AC88" s="28"/>
       <c r="AD88" s="28"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>319</v>
       </c>
@@ -20086,7 +20048,7 @@
       <c r="AC89" s="28"/>
       <c r="AD89" s="28"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>322</v>
       </c>
@@ -20170,7 +20132,7 @@
       <c r="AC90" s="28"/>
       <c r="AD90" s="28"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>324</v>
       </c>
@@ -20254,7 +20216,7 @@
       <c r="AC91" s="28"/>
       <c r="AD91" s="28"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>327</v>
       </c>
@@ -20338,7 +20300,7 @@
       <c r="AC92" s="28"/>
       <c r="AD92" s="28"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>330</v>
       </c>
@@ -20422,7 +20384,7 @@
       <c r="AC93" s="28"/>
       <c r="AD93" s="28"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>332</v>
       </c>
@@ -20506,7 +20468,7 @@
       <c r="AC94" s="28"/>
       <c r="AD94" s="28"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>334</v>
       </c>
@@ -20590,7 +20552,7 @@
       <c r="AC95" s="28"/>
       <c r="AD95" s="28"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>336</v>
       </c>
@@ -20674,7 +20636,7 @@
       <c r="AC96" s="28"/>
       <c r="AD96" s="28"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>338</v>
       </c>
@@ -20758,7 +20720,7 @@
       <c r="AC97" s="28"/>
       <c r="AD97" s="28"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>340</v>
       </c>
@@ -20842,7 +20804,7 @@
       <c r="AC98" s="28"/>
       <c r="AD98" s="28"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>342</v>
       </c>
@@ -20926,7 +20888,7 @@
       <c r="AC99" s="28"/>
       <c r="AD99" s="28"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>344</v>
       </c>
@@ -21010,7 +20972,7 @@
       <c r="AC100" s="28"/>
       <c r="AD100" s="28"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>597</v>
       </c>
@@ -21094,7 +21056,7 @@
       <c r="AC101" s="28"/>
       <c r="AD101" s="28"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>348</v>
       </c>
@@ -21178,7 +21140,7 @@
       <c r="AC102" s="28"/>
       <c r="AD102" s="28"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>352</v>
       </c>
@@ -21262,7 +21224,7 @@
       <c r="AC103" s="28"/>
       <c r="AD103" s="28"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>355</v>
       </c>
@@ -21346,7 +21308,7 @@
       <c r="AC104" s="28"/>
       <c r="AD104" s="28"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>358</v>
       </c>
@@ -21430,7 +21392,7 @@
       <c r="AC105" s="28"/>
       <c r="AD105" s="28"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>361</v>
       </c>
@@ -21514,7 +21476,7 @@
       <c r="AC106" s="28"/>
       <c r="AD106" s="28"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>364</v>
       </c>
@@ -21598,7 +21560,7 @@
       <c r="AC107" s="28"/>
       <c r="AD107" s="28"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>367</v>
       </c>
@@ -21682,7 +21644,7 @@
       <c r="AC108" s="28"/>
       <c r="AD108" s="28"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
         <v>369</v>
       </c>
@@ -21766,7 +21728,7 @@
       <c r="AC109" s="28"/>
       <c r="AD109" s="28"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>371</v>
       </c>
@@ -21850,7 +21812,7 @@
       <c r="AC110" s="28"/>
       <c r="AD110" s="28"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
         <v>598</v>
       </c>
@@ -21934,7 +21896,7 @@
       <c r="AC111" s="28"/>
       <c r="AD111" s="28"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
         <v>690</v>
       </c>
@@ -22018,7 +21980,7 @@
       <c r="AC112" s="28"/>
       <c r="AD112" s="28"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
         <v>693</v>
       </c>
@@ -22102,7 +22064,7 @@
       <c r="AC113" s="28"/>
       <c r="AD113" s="28"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>696</v>
       </c>
@@ -22186,7 +22148,7 @@
       <c r="AC114" s="28"/>
       <c r="AD114" s="28"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>699</v>
       </c>
@@ -22270,7 +22232,7 @@
       <c r="AC115" s="28"/>
       <c r="AD115" s="28"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>378</v>
       </c>
@@ -22354,7 +22316,7 @@
       <c r="AC116" s="28"/>
       <c r="AD116" s="28"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>383</v>
       </c>
@@ -22438,7 +22400,7 @@
       <c r="AC117" s="28"/>
       <c r="AD117" s="28"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>397</v>
       </c>
@@ -22522,7 +22484,7 @@
       <c r="AC118" s="28"/>
       <c r="AD118" s="28"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>399</v>
       </c>
@@ -22606,7 +22568,7 @@
       <c r="AC119" s="28"/>
       <c r="AD119" s="28"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
         <v>400</v>
       </c>
@@ -22690,7 +22652,7 @@
       <c r="AC120" s="28"/>
       <c r="AD120" s="28"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
         <v>401</v>
       </c>
@@ -22774,7 +22736,7 @@
       <c r="AC121" s="28"/>
       <c r="AD121" s="28"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>402</v>
       </c>
@@ -22858,7 +22820,7 @@
       <c r="AC122" s="28"/>
       <c r="AD122" s="28"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
         <v>403</v>
       </c>
@@ -22942,7 +22904,7 @@
       <c r="AC123" s="28"/>
       <c r="AD123" s="28"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>405</v>
       </c>
@@ -23026,7 +22988,7 @@
       <c r="AC124" s="28"/>
       <c r="AD124" s="28"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>407</v>
       </c>
@@ -23110,7 +23072,7 @@
       <c r="AC125" s="28"/>
       <c r="AD125" s="28"/>
     </row>
-    <row r="126" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A126" s="62" t="s">
         <v>413</v>
       </c>
@@ -23194,7 +23156,7 @@
       <c r="AC126" s="28"/>
       <c r="AD126" s="28"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>417</v>
       </c>
@@ -23278,7 +23240,7 @@
       <c r="AC127" s="28"/>
       <c r="AD127" s="28"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
         <v>420</v>
       </c>
@@ -23362,7 +23324,7 @@
       <c r="AC128" s="28"/>
       <c r="AD128" s="28"/>
     </row>
-    <row r="129" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
         <v>422</v>
       </c>
@@ -23446,7 +23408,7 @@
       <c r="AC129" s="28"/>
       <c r="AD129" s="28"/>
     </row>
-    <row r="130" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>424</v>
       </c>
@@ -23530,7 +23492,7 @@
       <c r="AC130" s="28"/>
       <c r="AD130" s="28"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>427</v>
       </c>
@@ -23614,7 +23576,7 @@
       <c r="AC131" s="28"/>
       <c r="AD131" s="28"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>430</v>
       </c>
@@ -23698,7 +23660,7 @@
       <c r="AC132" s="28"/>
       <c r="AD132" s="28"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>433</v>
       </c>
@@ -23782,7 +23744,7 @@
       <c r="AC133" s="28"/>
       <c r="AD133" s="28"/>
     </row>
-    <row r="134" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
         <v>436</v>
       </c>
@@ -23866,7 +23828,7 @@
       <c r="AC134" s="28"/>
       <c r="AD134" s="28"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>438</v>
       </c>
@@ -23950,7 +23912,7 @@
       <c r="AC135" s="28"/>
       <c r="AD135" s="28"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
         <v>703</v>
       </c>
@@ -24034,7 +23996,7 @@
       <c r="AC136" s="28"/>
       <c r="AD136" s="28"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
         <v>397</v>
       </c>
@@ -24118,7 +24080,7 @@
       <c r="AC137" s="28"/>
       <c r="AD137" s="28"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
         <v>399</v>
       </c>
@@ -24202,7 +24164,7 @@
       <c r="AC138" s="28"/>
       <c r="AD138" s="28"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
         <v>400</v>
       </c>
@@ -24286,7 +24248,7 @@
       <c r="AC139" s="28"/>
       <c r="AD139" s="28"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>401</v>
       </c>
@@ -24370,7 +24332,7 @@
       <c r="AC140" s="28"/>
       <c r="AD140" s="28"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
         <v>402</v>
       </c>
@@ -24454,7 +24416,7 @@
       <c r="AC141" s="28"/>
       <c r="AD141" s="28"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>403</v>
       </c>
@@ -24538,7 +24500,7 @@
       <c r="AC142" s="28"/>
       <c r="AD142" s="28"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
         <v>405</v>
       </c>
@@ -24622,7 +24584,7 @@
       <c r="AC143" s="28"/>
       <c r="AD143" s="28"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
         <v>442</v>
       </c>
@@ -24706,7 +24668,7 @@
       <c r="AC144" s="28"/>
       <c r="AD144" s="28"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>446</v>
       </c>
@@ -24790,7 +24752,7 @@
       <c r="AC145" s="28"/>
       <c r="AD145" s="28"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>449</v>
       </c>
@@ -24874,7 +24836,7 @@
       <c r="AC146" s="28"/>
       <c r="AD146" s="28"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>451</v>
       </c>
@@ -24958,7 +24920,7 @@
       <c r="AC147" s="28"/>
       <c r="AD147" s="28"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
         <v>454</v>
       </c>
@@ -25042,7 +25004,7 @@
       <c r="AC148" s="28"/>
       <c r="AD148" s="28"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
         <v>457</v>
       </c>
@@ -25126,7 +25088,7 @@
       <c r="AC149" s="28"/>
       <c r="AD149" s="28"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" s="48" t="s">
         <v>460</v>
       </c>
@@ -25210,7 +25172,7 @@
       <c r="AC150" s="28"/>
       <c r="AD150" s="28"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>463</v>
       </c>
@@ -25294,7 +25256,7 @@
       <c r="AC151" s="28"/>
       <c r="AD151" s="28"/>
     </row>
-    <row r="152" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="48" t="s">
         <v>466</v>
       </c>
@@ -25378,7 +25340,7 @@
       <c r="AC152" s="28"/>
       <c r="AD152" s="28"/>
     </row>
-    <row r="153" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>469</v>
       </c>
@@ -25462,7 +25424,7 @@
       <c r="AC153" s="28"/>
       <c r="AD153" s="28"/>
     </row>
-    <row r="154" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="48" t="s">
         <v>509</v>
       </c>
@@ -25546,7 +25508,7 @@
       <c r="AC154" s="28"/>
       <c r="AD154" s="28"/>
     </row>
-    <row r="155" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="66" t="s">
         <v>539</v>
       </c>
@@ -25630,7 +25592,7 @@
       <c r="AC155" s="28"/>
       <c r="AD155" s="28"/>
     </row>
-    <row r="156" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
         <v>543</v>
       </c>
@@ -25714,7 +25676,7 @@
       <c r="AC156" s="28"/>
       <c r="AD156" s="28"/>
     </row>
-    <row r="157" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="66" t="s">
         <v>546</v>
       </c>
@@ -25798,7 +25760,7 @@
       <c r="AC157" s="28"/>
       <c r="AD157" s="28"/>
     </row>
-    <row r="158" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="70" t="s">
         <v>549</v>
       </c>
@@ -25882,7 +25844,7 @@
       <c r="AC158" s="28"/>
       <c r="AD158" s="28"/>
     </row>
-    <row r="159" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="66" t="s">
         <v>551</v>
       </c>
@@ -25966,7 +25928,7 @@
       <c r="AC159" s="28"/>
       <c r="AD159" s="28"/>
     </row>
-    <row r="160" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="70" t="s">
         <v>553</v>
       </c>
@@ -26050,7 +26012,7 @@
       <c r="AC160" s="28"/>
       <c r="AD160" s="28"/>
     </row>
-    <row r="161" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="66" t="s">
         <v>555</v>
       </c>
@@ -26134,7 +26096,7 @@
       <c r="AC161" s="28"/>
       <c r="AD161" s="28"/>
     </row>
-    <row r="162" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="70" t="s">
         <v>557</v>
       </c>
@@ -26218,7 +26180,7 @@
       <c r="AC162" s="28"/>
       <c r="AD162" s="28"/>
     </row>
-    <row r="163" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="66" t="s">
         <v>559</v>
       </c>
@@ -26302,7 +26264,7 @@
       <c r="AC163" s="28"/>
       <c r="AD163" s="28"/>
     </row>
-    <row r="164" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="70" t="s">
         <v>562</v>
       </c>
@@ -26386,7 +26348,7 @@
       <c r="AC164" s="28"/>
       <c r="AD164" s="28"/>
     </row>
-    <row r="165" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="66" t="s">
         <v>565</v>
       </c>
@@ -26470,7 +26432,7 @@
       <c r="AC165" s="28"/>
       <c r="AD165" s="28"/>
     </row>
-    <row r="166" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="70" t="s">
         <v>568</v>
       </c>
@@ -26554,7 +26516,7 @@
       <c r="AC166" s="28"/>
       <c r="AD166" s="28"/>
     </row>
-    <row r="167" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="66" t="s">
         <v>571</v>
       </c>
@@ -26638,7 +26600,7 @@
       <c r="AC167" s="28"/>
       <c r="AD167" s="28"/>
     </row>
-    <row r="168" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="70" t="s">
         <v>574</v>
       </c>
@@ -26722,7 +26684,7 @@
       <c r="AC168" s="28"/>
       <c r="AD168" s="28"/>
     </row>
-    <row r="169" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="66" t="s">
         <v>577</v>
       </c>
@@ -26806,7 +26768,7 @@
       <c r="AC169" s="28"/>
       <c r="AD169" s="28"/>
     </row>
-    <row r="170" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="66" t="s">
         <v>579</v>
       </c>
@@ -26890,7 +26852,7 @@
       <c r="AC170" s="28"/>
       <c r="AD170" s="28"/>
     </row>
-    <row r="171" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="66" t="s">
         <v>581</v>
       </c>
@@ -26974,7 +26936,7 @@
       <c r="AC171" s="28"/>
       <c r="AD171" s="28"/>
     </row>
-    <row r="172" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="66" t="s">
         <v>584</v>
       </c>
@@ -27058,7 +27020,7 @@
       <c r="AC172" s="28"/>
       <c r="AD172" s="28"/>
     </row>
-    <row r="173" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="76"/>
       <c r="B173" s="48"/>
       <c r="C173" s="36"/>
@@ -27102,7 +27064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="70" t="s">
         <v>601</v>
       </c>
@@ -27158,7 +27120,7 @@
         <v>22</v>
       </c>
       <c r="S174" s="49" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -27194,7 +27156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="70" t="s">
         <v>604</v>
       </c>
@@ -27250,7 +27212,7 @@
         <v>22</v>
       </c>
       <c r="S175" s="49" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
@@ -27286,7 +27248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="70" t="s">
         <v>606</v>
       </c>
@@ -27342,7 +27304,7 @@
         <v>22</v>
       </c>
       <c r="S176" s="49" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
@@ -27378,7 +27340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="70" t="s">
         <v>607</v>
       </c>
@@ -27434,7 +27396,7 @@
         <v>22</v>
       </c>
       <c r="S177" s="49" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="T177" s="48" t="s">
         <v>22</v>
@@ -27470,7 +27432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="70" t="s">
         <v>609</v>
       </c>
@@ -27526,7 +27488,7 @@
         <v>22</v>
       </c>
       <c r="S178" s="49" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="T178" s="48" t="s">
         <v>22</v>
@@ -27562,7 +27524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="70" t="s">
         <v>610</v>
       </c>
@@ -27618,7 +27580,7 @@
         <v>22</v>
       </c>
       <c r="S179" s="49" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="T179" s="48" t="s">
         <v>22</v>
@@ -27654,7 +27616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="70" t="s">
         <v>611</v>
       </c>
@@ -27710,7 +27672,7 @@
         <v>22</v>
       </c>
       <c r="S180" s="49" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="T180" s="48" t="s">
         <v>22</v>
@@ -27746,7 +27708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="70" t="s">
         <v>615</v>
       </c>
@@ -27802,7 +27764,7 @@
         <v>22</v>
       </c>
       <c r="S181" s="49" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="T181" s="48" t="s">
         <v>22</v>
@@ -27838,7 +27800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="70" t="s">
         <v>614</v>
       </c>
@@ -27894,7 +27856,7 @@
         <v>22</v>
       </c>
       <c r="S182" s="49" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="T182" s="48" t="s">
         <v>22</v>
@@ -27930,7 +27892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="70" t="s">
         <v>619</v>
       </c>
@@ -27986,7 +27948,7 @@
         <v>22</v>
       </c>
       <c r="S183" s="49" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="T183" s="48" t="s">
         <v>22</v>
@@ -28025,7 +27987,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="184" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="70" t="s">
         <v>623</v>
       </c>
@@ -28081,7 +28043,7 @@
         <v>22</v>
       </c>
       <c r="S184" s="49" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="T184" s="48" t="s">
         <v>22</v>
@@ -28120,7 +28082,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:32" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="70" t="s">
         <v>629</v>
       </c>
@@ -28215,7 +28177,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="186" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="70" t="s">
         <v>630</v>
       </c>
@@ -28310,7 +28272,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="187" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="70" t="s">
         <v>636</v>
       </c>
@@ -28402,7 +28364,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="188" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="70" t="s">
         <v>853</v>
       </c>
@@ -28494,7 +28456,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="70" t="s">
         <v>854</v>
       </c>
@@ -28586,7 +28548,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="190" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="70" t="s">
         <v>640</v>
       </c>
@@ -28678,7 +28640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="70" t="s">
         <v>642</v>
       </c>
@@ -28770,7 +28732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="70" t="s">
         <v>648</v>
       </c>
@@ -28862,7 +28824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="70" t="s">
         <v>649</v>
       </c>
@@ -28954,7 +28916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="70" t="s">
         <v>654</v>
       </c>
@@ -29010,7 +28972,7 @@
         <v>22</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="T194" s="48" t="s">
         <v>22</v>
@@ -29046,7 +29008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="70" t="s">
         <v>656</v>
       </c>
@@ -29102,7 +29064,7 @@
         <v>22</v>
       </c>
       <c r="S195" s="49" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -29138,7 +29100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="70" t="s">
         <v>662</v>
       </c>
@@ -29194,7 +29156,7 @@
         <v>22</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="T196" s="48" t="s">
         <v>22</v>
@@ -29230,7 +29192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="70" t="s">
         <v>665</v>
       </c>
@@ -29286,7 +29248,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -29322,7 +29284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="70" t="s">
         <v>666</v>
       </c>
@@ -29378,7 +29340,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -29414,7 +29376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="70" t="s">
         <v>671</v>
       </c>
@@ -29470,7 +29432,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -29506,7 +29468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="70" t="s">
         <v>676</v>
       </c>
@@ -29562,7 +29524,7 @@
         <v>22</v>
       </c>
       <c r="S200" s="49" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="T200" s="48" t="s">
         <v>22</v>
@@ -29598,7 +29560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="70" t="s">
         <v>677</v>
       </c>
@@ -29654,7 +29616,7 @@
         <v>22</v>
       </c>
       <c r="S201" s="49" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="T201" s="48" t="s">
         <v>22</v>
@@ -29690,7 +29652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="70" t="s">
         <v>883</v>
       </c>
@@ -29746,7 +29708,7 @@
         <v>22</v>
       </c>
       <c r="S202" s="49" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="T202" s="48" t="s">
         <v>22</v>
@@ -29782,7 +29744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="70" t="s">
         <v>886</v>
       </c>
@@ -29838,7 +29800,7 @@
         <v>22</v>
       </c>
       <c r="S203" s="49" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="T203" s="48" t="s">
         <v>22</v>
@@ -29874,7 +29836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="70" t="s">
         <v>887</v>
       </c>
@@ -29930,7 +29892,7 @@
         <v>22</v>
       </c>
       <c r="S204" s="49" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="T204" s="48" t="s">
         <v>22</v>
@@ -29966,7 +29928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="70" t="s">
         <v>732</v>
       </c>
@@ -30022,7 +29984,7 @@
         <v>22</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="T205" s="48" t="s">
         <v>22</v>
@@ -30058,7 +30020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="70" t="s">
         <v>738</v>
       </c>
@@ -30114,7 +30076,7 @@
         <v>22</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="T206" s="48" t="s">
         <v>22</v>
@@ -30150,7 +30112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="70" t="s">
         <v>740</v>
       </c>
@@ -30206,7 +30168,7 @@
         <v>22</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="T207" s="48" t="s">
         <v>22</v>
@@ -30242,7 +30204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="70" t="s">
         <v>780</v>
       </c>
@@ -30298,7 +30260,7 @@
         <v>22</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="T208" s="48" t="s">
         <v>22</v>
@@ -30334,7 +30296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="70" t="s">
         <v>870</v>
       </c>
@@ -30390,10 +30352,10 @@
         <v>22</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="T209" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="U209" s="48" t="s">
         <v>22</v>
@@ -30426,7 +30388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="70" t="s">
         <v>871</v>
       </c>
@@ -30482,10 +30444,10 @@
         <v>22</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="T210" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="U210" s="48" t="s">
         <v>22</v>
@@ -30518,7 +30480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="70" t="s">
         <v>745</v>
       </c>
@@ -30574,7 +30536,7 @@
         <v>22</v>
       </c>
       <c r="S211" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="T211" s="48" t="s">
         <v>22</v>
@@ -30610,7 +30572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="70" t="s">
         <v>751</v>
       </c>
@@ -30666,7 +30628,7 @@
         <v>22</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="T212" s="48" t="s">
         <v>22</v>
@@ -30702,7 +30664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="70" t="s">
         <v>752</v>
       </c>
@@ -30758,7 +30720,7 @@
         <v>22</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="T213" s="48" t="s">
         <v>22</v>
@@ -30794,7 +30756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="70" t="s">
         <v>757</v>
       </c>
@@ -30850,7 +30812,7 @@
         <v>22</v>
       </c>
       <c r="S214" s="49" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="T214" s="48" t="s">
         <v>22</v>
@@ -30886,7 +30848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="70" t="s">
         <v>758</v>
       </c>
@@ -30942,7 +30904,7 @@
         <v>22</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="T215" s="48" t="s">
         <v>22</v>
@@ -30978,7 +30940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="70" t="s">
         <v>759</v>
       </c>
@@ -31034,7 +30996,7 @@
         <v>22</v>
       </c>
       <c r="S216" s="49" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="T216" s="48" t="s">
         <v>22</v>
@@ -31070,7 +31032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="70" t="s">
         <v>764</v>
       </c>
@@ -31126,7 +31088,7 @@
         <v>22</v>
       </c>
       <c r="S217" s="49" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T217" s="48" t="s">
         <v>22</v>
@@ -31162,7 +31124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="70" t="s">
         <v>767</v>
       </c>
@@ -31218,7 +31180,7 @@
         <v>22</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="T218" s="48" t="s">
         <v>22</v>
@@ -31254,7 +31216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="70" t="s">
         <v>772</v>
       </c>
@@ -31310,7 +31272,7 @@
         <v>22</v>
       </c>
       <c r="S219" s="49" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T219" s="48" t="s">
         <v>22</v>
@@ -31346,7 +31308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="70" t="s">
         <v>775</v>
       </c>
@@ -31402,7 +31364,7 @@
         <v>22</v>
       </c>
       <c r="S220" s="49" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="T220" s="48" t="s">
         <v>22</v>
@@ -31438,7 +31400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="70" t="s">
         <v>776</v>
       </c>
@@ -31494,7 +31456,7 @@
         <v>22</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="T221" s="48" t="s">
         <v>22</v>
@@ -31530,7 +31492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="70" t="s">
         <v>782</v>
       </c>
@@ -31586,7 +31548,7 @@
         <v>22</v>
       </c>
       <c r="S222" s="49" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="T222" s="48" t="s">
         <v>22</v>
@@ -31622,7 +31584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="70" t="s">
         <v>795</v>
       </c>
@@ -31678,7 +31640,7 @@
         <v>22</v>
       </c>
       <c r="S223" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="T223" s="48" t="s">
         <v>22</v>
@@ -31714,7 +31676,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="70" t="s">
         <v>800</v>
       </c>
@@ -31770,7 +31732,7 @@
         <v>22</v>
       </c>
       <c r="S224" s="49" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="T224" s="48" t="s">
         <v>22</v>
@@ -31806,7 +31768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:30" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="70" t="s">
         <v>805</v>
       </c>
@@ -31862,10 +31824,10 @@
         <v>22</v>
       </c>
       <c r="S225" s="49" t="s">
+        <v>899</v>
+      </c>
+      <c r="T225" s="49" t="s">
         <v>901</v>
-      </c>
-      <c r="T225" s="49" t="s">
-        <v>903</v>
       </c>
       <c r="U225" s="48" t="s">
         <v>22</v>
@@ -31898,7 +31860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="70" t="s">
         <v>807</v>
       </c>
@@ -31954,10 +31916,10 @@
         <v>22</v>
       </c>
       <c r="S226" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="T226" s="49" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="U226" s="48" t="s">
         <v>22</v>
@@ -31990,7 +31952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="70" t="s">
         <v>809</v>
       </c>
@@ -32046,7 +32008,7 @@
         <v>22</v>
       </c>
       <c r="S227" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="T227" s="48" t="s">
         <v>22</v>
@@ -32082,7 +32044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="70" t="s">
         <v>814</v>
       </c>
@@ -32138,7 +32100,7 @@
         <v>22</v>
       </c>
       <c r="S228" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="T228" s="48" t="s">
         <v>22</v>
@@ -32174,7 +32136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="70" t="s">
         <v>816</v>
       </c>
@@ -32230,10 +32192,10 @@
         <v>22</v>
       </c>
       <c r="S229" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="T229" s="49" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="U229" s="48" t="s">
         <v>22</v>
@@ -32266,7 +32228,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="70" t="s">
         <v>820</v>
       </c>
@@ -32322,10 +32284,10 @@
         <v>22</v>
       </c>
       <c r="S230" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="T230" s="49" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="U230" s="48" t="s">
         <v>22</v>
@@ -32358,7 +32320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="70" t="s">
         <v>825</v>
       </c>
@@ -32414,7 +32376,7 @@
         <v>22</v>
       </c>
       <c r="S231" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="T231" s="48" t="s">
         <v>22</v>
@@ -32450,7 +32412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="70" t="s">
         <v>828</v>
       </c>
@@ -32506,10 +32468,10 @@
         <v>22</v>
       </c>
       <c r="S232" s="49" t="s">
+        <v>899</v>
+      </c>
+      <c r="T232" s="49" t="s">
         <v>901</v>
-      </c>
-      <c r="T232" s="49" t="s">
-        <v>903</v>
       </c>
       <c r="U232" s="48" t="s">
         <v>22</v>
@@ -32542,7 +32504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:30" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="70" t="s">
         <v>829</v>
       </c>
@@ -32598,10 +32560,10 @@
         <v>22</v>
       </c>
       <c r="S233" s="49" t="s">
+        <v>899</v>
+      </c>
+      <c r="T233" s="49" t="s">
         <v>901</v>
-      </c>
-      <c r="T233" s="49" t="s">
-        <v>903</v>
       </c>
       <c r="U233" s="48" t="s">
         <v>22</v>
@@ -32634,7 +32596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="70" t="s">
         <v>834</v>
       </c>
@@ -32690,10 +32652,10 @@
         <v>22</v>
       </c>
       <c r="S234" s="49" t="s">
+        <v>899</v>
+      </c>
+      <c r="T234" s="49" t="s">
         <v>901</v>
-      </c>
-      <c r="T234" s="49" t="s">
-        <v>903</v>
       </c>
       <c r="U234" s="48" t="s">
         <v>22</v>
@@ -32726,7 +32688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="70" t="s">
         <v>874</v>
       </c>
@@ -32818,7 +32780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="70" t="s">
         <v>878</v>
       </c>
@@ -32910,7 +32872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="70" t="s">
         <v>844</v>
       </c>
@@ -33002,7 +32964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="70" t="s">
         <v>848</v>
       </c>
@@ -33094,7 +33056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="70" t="s">
         <v>850</v>
       </c>
@@ -33186,7 +33148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="70" t="s">
         <v>863</v>
       </c>
@@ -33278,7 +33240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:30" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="70" t="s">
         <v>865</v>
       </c>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\git\ZlaataQAseverjan12\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever32\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD2910A-2083-445F-B43B-16488418313D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364FB4E1-CECF-49A0-9110-CAED81C09B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -3392,24 +3392,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3436,6 +3418,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4241,24 +4241,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
   <dimension ref="A1:Z255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A189" zoomScale="109" workbookViewId="0">
       <selection activeCell="A212" sqref="A212:XFD212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="118.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="118.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="45">
         <v>22</v>
       </c>
@@ -4994,21 +4994,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>1</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>2</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>5</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>6</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>7</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>8</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>9</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>11</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -5392,21 +5392,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="98"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>1</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>2</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>3</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>4</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>6</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>7</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>8</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>9</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>10</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>11</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>12</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>13</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>14</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>15</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>16</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>16</v>
       </c>
@@ -5950,21 +5950,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="87" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="89"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="98"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>1</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>2</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>3</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>4</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>5</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>6</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>7</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>8</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="25">
         <v>9</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
         <v>10</v>
       </c>
@@ -6284,21 +6284,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="87" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="89"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="98"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>1</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>2</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>3</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>4</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>5</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>6</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>7</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>8</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>9</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>10</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>11</v>
       </c>
@@ -6650,21 +6650,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="87" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="89"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="97"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="98"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>1</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>2</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="25">
         <v>3</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="25">
         <v>4</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="25">
         <v>5</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="25">
         <v>6</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>7</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="25">
         <v>8</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="25">
         <v>9</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="25">
         <v>10</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="25">
         <v>11</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="25">
         <v>12</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="25">
         <v>13</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="25">
         <v>14</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="25">
         <v>15</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="25">
         <v>16</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="25">
         <v>17</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="25">
         <v>18</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="25">
         <v>19</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="25">
         <v>20</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="25">
         <v>21</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="25">
         <v>22</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="25">
         <v>23</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="25">
         <v>24</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
         <v>25</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="25">
         <v>27</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="25">
         <v>28</v>
       </c>
@@ -7528,21 +7528,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="90" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="90"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="25">
         <v>2</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="25">
         <v>3</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="25">
         <v>5</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="25">
         <v>6</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="25">
         <v>7</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
         <v>8</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
         <v>9</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
         <v>10</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="25">
         <v>11</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="25">
         <v>12</v>
       </c>
@@ -7940,7 +7940,7 @@
       <c r="W118" s="58"/>
       <c r="X118" s="58"/>
     </row>
-    <row r="119" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="25">
         <v>13</v>
       </c>
@@ -7986,7 +7986,7 @@
       <c r="W119" s="58"/>
       <c r="X119" s="58"/>
     </row>
-    <row r="120" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="25">
         <v>14</v>
       </c>
@@ -8032,19 +8032,19 @@
       <c r="W120" s="58"/>
       <c r="X120" s="58"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="91" t="s">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="85" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="91"/>
-      <c r="C121" s="91"/>
-      <c r="D121" s="91"/>
-      <c r="E121" s="91"/>
-      <c r="F121" s="91"/>
-      <c r="G121" s="91"/>
-      <c r="H121" s="91"/>
-      <c r="I121" s="91"/>
-      <c r="J121" s="91"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -8060,7 +8060,7 @@
       <c r="W121" s="58"/>
       <c r="X121" s="58"/>
     </row>
-    <row r="122" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="25">
         <v>1</v>
       </c>
@@ -8106,19 +8106,19 @@
       <c r="W122" s="58"/>
       <c r="X122" s="58"/>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="91" t="s">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="91"/>
-      <c r="C123" s="91"/>
-      <c r="D123" s="91"/>
-      <c r="E123" s="91"/>
-      <c r="F123" s="91"/>
-      <c r="G123" s="91"/>
-      <c r="H123" s="91"/>
-      <c r="I123" s="91"/>
-      <c r="J123" s="91"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -8134,7 +8134,7 @@
       <c r="W123" s="58"/>
       <c r="X123" s="58"/>
     </row>
-    <row r="124" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="25">
         <v>1</v>
       </c>
@@ -8180,21 +8180,21 @@
       <c r="W124" s="58"/>
       <c r="X124" s="58"/>
     </row>
-    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="91" t="s">
+    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="85" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="91"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="91"/>
-      <c r="E125" s="91"/>
-      <c r="F125" s="91"/>
-      <c r="G125" s="91"/>
-      <c r="H125" s="91"/>
-      <c r="I125" s="91"/>
-      <c r="J125" s="91"/>
-    </row>
-    <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
+    </row>
+    <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
         <v>1</v>
       </c>
@@ -8240,7 +8240,7 @@
       <c r="W126" s="61"/>
       <c r="X126" s="61"/>
     </row>
-    <row r="127" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="25">
         <v>2</v>
       </c>
@@ -8286,7 +8286,7 @@
       <c r="W127" s="58"/>
       <c r="X127" s="58"/>
     </row>
-    <row r="128" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="25">
         <v>3</v>
       </c>
@@ -8332,7 +8332,7 @@
       <c r="W128" s="58"/>
       <c r="X128" s="58"/>
     </row>
-    <row r="129" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="25">
         <v>4</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="W129" s="58"/>
       <c r="X129" s="58"/>
     </row>
-    <row r="130" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="25">
         <v>5</v>
       </c>
@@ -8424,7 +8424,7 @@
       <c r="W130" s="58"/>
       <c r="X130" s="58"/>
     </row>
-    <row r="131" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="25">
         <v>6</v>
       </c>
@@ -8470,7 +8470,7 @@
       <c r="W131" s="58"/>
       <c r="X131" s="58"/>
     </row>
-    <row r="132" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="25">
         <v>7</v>
       </c>
@@ -8516,19 +8516,19 @@
       <c r="W132" s="58"/>
       <c r="X132" s="58"/>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="91" t="s">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="85" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="91"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="92"/>
-      <c r="F133" s="92"/>
-      <c r="G133" s="92"/>
-      <c r="H133" s="92"/>
-      <c r="I133" s="92"/>
-      <c r="J133" s="92"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="86"/>
+      <c r="H133" s="86"/>
+      <c r="I133" s="86"/>
+      <c r="J133" s="86"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8544,7 +8544,7 @@
       <c r="W133" s="58"/>
       <c r="X133" s="58"/>
     </row>
-    <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="59">
         <v>11</v>
       </c>
@@ -8590,7 +8590,7 @@
       <c r="W134" s="58"/>
       <c r="X134" s="58"/>
     </row>
-    <row r="135" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="26">
         <v>2</v>
       </c>
@@ -8636,7 +8636,7 @@
       <c r="W135" s="58"/>
       <c r="X135" s="58"/>
     </row>
-    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="26">
         <v>3</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="26">
         <v>4</v>
       </c>
@@ -8714,7 +8714,7 @@
       <c r="W137" s="58"/>
       <c r="X137" s="58"/>
     </row>
-    <row r="138" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -8760,7 +8760,7 @@
       <c r="W138" s="58"/>
       <c r="X138" s="58"/>
     </row>
-    <row r="139" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="26">
         <v>6</v>
       </c>
@@ -8806,7 +8806,7 @@
       <c r="W139" s="58"/>
       <c r="X139" s="58"/>
     </row>
-    <row r="140" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="26">
         <v>7</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="26">
         <v>8</v>
       </c>
@@ -8884,7 +8884,7 @@
       <c r="W141" s="58"/>
       <c r="X141" s="58"/>
     </row>
-    <row r="142" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="26">
         <v>9</v>
       </c>
@@ -8930,7 +8930,7 @@
       <c r="W142" s="58"/>
       <c r="X142" s="58"/>
     </row>
-    <row r="143" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="26">
         <v>10</v>
       </c>
@@ -8976,7 +8976,7 @@
       <c r="W143" s="58"/>
       <c r="X143" s="58"/>
     </row>
-    <row r="144" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="26">
         <v>11</v>
       </c>
@@ -9022,19 +9022,19 @@
       <c r="W144" s="58"/>
       <c r="X144" s="58"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="96" t="s">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="97"/>
-      <c r="C145" s="97"/>
-      <c r="D145" s="97"/>
-      <c r="E145" s="97"/>
-      <c r="F145" s="97"/>
-      <c r="G145" s="97"/>
-      <c r="H145" s="97"/>
-      <c r="I145" s="97"/>
-      <c r="J145" s="98"/>
+      <c r="B145" s="91"/>
+      <c r="C145" s="91"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="91"/>
+      <c r="F145" s="91"/>
+      <c r="G145" s="91"/>
+      <c r="H145" s="91"/>
+      <c r="I145" s="91"/>
+      <c r="J145" s="92"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9050,7 +9050,7 @@
       <c r="W145" s="58"/>
       <c r="X145" s="58"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="25">
         <v>1</v>
       </c>
@@ -9096,7 +9096,7 @@
       <c r="W146" s="58"/>
       <c r="X146" s="58"/>
     </row>
-    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="25">
         <v>2</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
         <v>3</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="25">
         <v>4</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="25">
         <v>5</v>
       </c>
@@ -9240,7 +9240,7 @@
       <c r="Y150" s="58"/>
       <c r="Z150" s="58"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -9288,7 +9288,7 @@
       <c r="Y151" s="58"/>
       <c r="Z151" s="58"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="25">
         <v>7</v>
       </c>
@@ -9336,7 +9336,7 @@
       <c r="Y152" s="58"/>
       <c r="Z152" s="58"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="25">
         <v>8</v>
       </c>
@@ -9384,7 +9384,7 @@
       <c r="Y153" s="58"/>
       <c r="Z153" s="58"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="25">
         <v>9</v>
       </c>
@@ -9432,7 +9432,7 @@
       <c r="Y154" s="58"/>
       <c r="Z154" s="58"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="25">
         <v>10</v>
       </c>
@@ -9480,19 +9480,19 @@
       <c r="Y155" s="58"/>
       <c r="Z155" s="58"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="91" t="s">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="85" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="91"/>
-      <c r="C156" s="91"/>
-      <c r="D156" s="91"/>
-      <c r="E156" s="91"/>
-      <c r="F156" s="91"/>
-      <c r="G156" s="91"/>
-      <c r="H156" s="91"/>
-      <c r="I156" s="91"/>
-      <c r="J156" s="91"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9510,7 +9510,7 @@
       <c r="Y156" s="58"/>
       <c r="Z156" s="58"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="25">
         <v>1</v>
       </c>
@@ -9558,19 +9558,19 @@
       <c r="Y157" s="58"/>
       <c r="Z157" s="58"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="91" t="s">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="91"/>
-      <c r="C158" s="91"/>
-      <c r="D158" s="91"/>
-      <c r="E158" s="91"/>
-      <c r="F158" s="91"/>
-      <c r="G158" s="91"/>
-      <c r="H158" s="91"/>
-      <c r="I158" s="91"/>
-      <c r="J158" s="91"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -9588,7 +9588,7 @@
       <c r="Y158" s="58"/>
       <c r="Z158" s="58"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="67">
         <v>1</v>
       </c>
@@ -9636,7 +9636,7 @@
       <c r="Y159" s="58"/>
       <c r="Z159" s="58"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="68">
         <v>2</v>
       </c>
@@ -9684,7 +9684,7 @@
       <c r="Y160" s="58"/>
       <c r="Z160" s="58"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="68">
         <v>3</v>
       </c>
@@ -9732,7 +9732,7 @@
       <c r="Y161" s="58"/>
       <c r="Z161" s="58"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="68">
         <v>4</v>
       </c>
@@ -9780,7 +9780,7 @@
       <c r="Y162" s="58"/>
       <c r="Z162" s="58"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="68">
         <v>5</v>
       </c>
@@ -9828,7 +9828,7 @@
       <c r="Y163" s="58"/>
       <c r="Z163" s="58"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="68">
         <v>6</v>
       </c>
@@ -9876,7 +9876,7 @@
       <c r="Y164" s="58"/>
       <c r="Z164" s="58"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="68">
         <v>7</v>
       </c>
@@ -9924,7 +9924,7 @@
       <c r="Y165" s="58"/>
       <c r="Z165" s="58"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="68">
         <v>8</v>
       </c>
@@ -9972,7 +9972,7 @@
       <c r="Y166" s="58"/>
       <c r="Z166" s="58"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="67">
         <v>9</v>
       </c>
@@ -10020,7 +10020,7 @@
       <c r="Y167" s="58"/>
       <c r="Z167" s="58"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="68">
         <v>10</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="67">
         <v>11</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="68">
         <v>12</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="67">
         <v>13</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="68">
         <v>14</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="67">
         <v>15</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="68">
         <v>16</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="67">
         <v>17</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="68">
         <v>18</v>
       </c>
@@ -10308,21 +10308,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="91" t="s">
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="85" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="91"/>
-      <c r="C177" s="91"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="85"/>
       <c r="D177" s="83"/>
-      <c r="E177" s="91"/>
-      <c r="F177" s="91"/>
-      <c r="G177" s="91"/>
-      <c r="H177" s="91"/>
-      <c r="I177" s="91"/>
-      <c r="J177" s="91"/>
-    </row>
-    <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="85"/>
+      <c r="I177" s="85"/>
+      <c r="J177" s="85"/>
+    </row>
+    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
         <v>1</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="68">
         <v>2</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="68">
         <v>3</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="68">
         <v>4</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="68">
         <v>5</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="68">
         <v>6</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="68">
         <v>7</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="68">
         <v>8</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="68">
         <v>9</v>
       </c>
@@ -10610,21 +10610,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="93" t="s">
+    <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="87" t="s">
         <v>617</v>
       </c>
-      <c r="B187" s="94"/>
-      <c r="C187" s="94"/>
-      <c r="D187" s="94"/>
-      <c r="E187" s="94"/>
-      <c r="F187" s="94"/>
-      <c r="G187" s="94"/>
-      <c r="H187" s="94"/>
-      <c r="I187" s="94"/>
-      <c r="J187" s="95"/>
-    </row>
-    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="88"/>
+      <c r="C187" s="88"/>
+      <c r="D187" s="88"/>
+      <c r="E187" s="88"/>
+      <c r="F187" s="88"/>
+      <c r="G187" s="88"/>
+      <c r="H187" s="88"/>
+      <c r="I187" s="88"/>
+      <c r="J187" s="89"/>
+    </row>
+    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
         <v>1</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="68">
         <v>2</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="68">
         <v>3</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="68">
         <v>4</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="68">
         <v>5</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="68">
         <v>6</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="68">
         <v>7</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="83" t="s">
         <v>638</v>
       </c>
@@ -10862,7 +10862,7 @@
       <c r="I195" s="83"/>
       <c r="J195" s="83"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="48">
         <v>1</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="48">
         <v>2</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="48">
         <v>3</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
         <v>4</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="83" t="s">
         <v>651</v>
       </c>
@@ -11004,7 +11004,7 @@
       <c r="I200" s="83"/>
       <c r="J200" s="83"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
         <v>1</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="83" t="s">
         <v>657</v>
       </c>
@@ -11050,7 +11050,7 @@
       <c r="I202" s="83"/>
       <c r="J202" s="83"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="48">
         <v>1</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="48">
         <v>2</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="48">
         <v>3</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="48">
         <v>4</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="48">
         <v>5</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="48">
         <v>6</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
         <v>7</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="48">
         <v>8</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
         <v>9</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="83" t="s">
         <v>733</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="I212" s="83"/>
       <c r="J212" s="83"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="48">
         <v>1</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="83" t="s">
         <v>736</v>
       </c>
@@ -11398,7 +11398,7 @@
       <c r="I214" s="83"/>
       <c r="J214" s="83"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="48">
         <v>1</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="48">
         <v>2</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="48">
         <v>3</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="48">
         <v>4</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="48">
         <v>5</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="83" t="s">
         <v>746</v>
       </c>
@@ -11572,7 +11572,7 @@
       <c r="I220" s="83"/>
       <c r="J220" s="83"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="48">
         <v>1</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="48">
         <v>2</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="48">
         <v>3</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="48">
         <v